--- a/Excel/Ejercicios Fisica.xlsx
+++ b/Excel/Ejercicios Fisica.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Luis\Documents\GitProjects\Clases-octave\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terra\Documents\proyectosdegit\Clases-octave\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D8400C3-63ED-402F-B497-6A07C1C03621}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73924EF0-34FA-4193-8A20-22B2AECA53AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{92C8254D-940C-41B4-8D78-FDF20DAE63EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{92C8254D-940C-41B4-8D78-FDF20DAE63EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2103,8 +2102,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>117240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="Entrada de lápiz 16">
@@ -2123,7 +2122,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="Entrada de lápiz 16">
@@ -2168,8 +2167,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="36" name="Entrada de lápiz 35">
@@ -2188,7 +2187,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="36" name="Entrada de lápiz 35">
@@ -2233,8 +2232,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="39" name="Entrada de lápiz 38">
@@ -2253,7 +2252,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="39" name="Entrada de lápiz 38">
@@ -2298,8 +2297,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="41" name="Entrada de lápiz 40">
@@ -2318,7 +2317,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="41" name="Entrada de lápiz 40">
@@ -2363,8 +2362,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>168900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="45" name="Entrada de lápiz 44">
@@ -2383,7 +2382,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="45" name="Entrada de lápiz 44">
@@ -2428,8 +2427,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>153660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="46" name="Entrada de lápiz 45">
@@ -2448,7 +2447,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="46" name="Entrada de lápiz 45">
@@ -2493,8 +2492,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>108420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="48" name="Entrada de lápiz 47">
@@ -2513,7 +2512,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="48" name="Entrada de lápiz 47">
@@ -2558,8 +2557,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>148740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="53" name="Entrada de lápiz 52">
@@ -2578,7 +2577,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="53" name="Entrada de lápiz 52">
@@ -2623,8 +2622,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>57660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="72" name="Entrada de lápiz 71">
@@ -2643,7 +2642,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="72" name="Entrada de lápiz 71">
@@ -2688,8 +2687,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>98100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="91" name="Entrada de lápiz 90">
@@ -2708,7 +2707,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="91" name="Entrada de lápiz 90">
@@ -2753,8 +2752,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>5580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="104" name="Entrada de lápiz 103">
@@ -2773,7 +2772,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="104" name="Entrada de lápiz 103">
@@ -2818,8 +2817,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>51180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="108" name="Entrada de lápiz 107">
@@ -2838,7 +2837,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="108" name="Entrada de lápiz 107">
@@ -2883,8 +2882,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="111" name="Entrada de lápiz 110">
@@ -2903,7 +2902,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="111" name="Entrada de lápiz 110">
@@ -2948,8 +2947,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>154320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="132" name="Entrada de lápiz 131">
@@ -2968,7 +2967,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="132" name="Entrada de lápiz 131">
@@ -3013,8 +3012,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>145020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="180" name="Entrada de lápiz 179">
@@ -3033,7 +3032,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="180" name="Entrada de lápiz 179">
@@ -3078,8 +3077,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>128820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="196" name="Entrada de lápiz 195">
@@ -3098,7 +3097,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="196" name="Entrada de lápiz 195">
@@ -3143,8 +3142,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>44040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId101">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="197" name="Entrada de lápiz 196">
@@ -3163,7 +3162,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="197" name="Entrada de lápiz 196">
@@ -3208,8 +3207,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>29280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId103">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="198" name="Entrada de lápiz 197">
@@ -3228,7 +3227,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="198" name="Entrada de lápiz 197">
@@ -3273,8 +3272,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>146400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId105">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="209" name="Entrada de lápiz 208">
@@ -3293,7 +3292,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="209" name="Entrada de lápiz 208">
@@ -3338,8 +3337,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>36480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId106">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="215" name="Entrada de lápiz 214">
@@ -3358,7 +3357,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="215" name="Entrada de lápiz 214">
@@ -3403,8 +3402,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>36960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId108">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="216" name="Entrada de lápiz 215">
@@ -3423,7 +3422,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="216" name="Entrada de lápiz 215">
@@ -3468,8 +3467,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>87900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId110">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="217" name="Entrada de lápiz 216">
@@ -3488,7 +3487,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="217" name="Entrada de lápiz 216">
@@ -3533,8 +3532,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>183120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId112">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="218" name="Entrada de lápiz 217">
@@ -3553,7 +3552,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="218" name="Entrada de lápiz 217">
@@ -3598,8 +3597,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>146460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId114">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="222" name="Entrada de lápiz 221">
@@ -3618,7 +3617,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="222" name="Entrada de lápiz 221">
@@ -3663,8 +3662,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId116">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="226" name="Entrada de lápiz 225">
@@ -3683,7 +3682,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="226" name="Entrada de lápiz 225">
@@ -3728,8 +3727,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>117300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId118">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="227" name="Entrada de lápiz 226">
@@ -3748,7 +3747,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="227" name="Entrada de lápiz 226">
@@ -3793,8 +3792,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>102660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId120">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="228" name="Entrada de lápiz 227">
@@ -3813,7 +3812,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="228" name="Entrada de lápiz 227">
@@ -3858,8 +3857,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>60</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId121">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="229" name="Entrada de lápiz 228">
@@ -3878,7 +3877,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="229" name="Entrada de lápiz 228">
@@ -3923,8 +3922,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>44040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId122">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="230" name="Entrada de lápiz 229">
@@ -3943,7 +3942,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="230" name="Entrada de lápiz 229">
@@ -3988,8 +3987,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>110100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId123">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="236" name="Entrada de lápiz 235">
@@ -4008,7 +4007,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="236" name="Entrada de lápiz 235">
@@ -4053,8 +4052,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>14700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId124">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="237" name="Entrada de lápiz 236">
@@ -4073,7 +4072,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="237" name="Entrada de lápiz 236">
@@ -4118,8 +4117,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>87840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId125">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="238" name="Entrada de lápiz 237">
@@ -4138,7 +4137,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="238" name="Entrada de lápiz 237">
@@ -4183,8 +4182,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>146580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId126">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="240" name="Entrada de lápiz 239">
@@ -4203,7 +4202,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="240" name="Entrada de lápiz 239">
@@ -4248,8 +4247,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>60</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId127">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="241" name="Entrada de lápiz 240">
@@ -4268,7 +4267,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="241" name="Entrada de lápiz 240">
@@ -4313,8 +4312,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>169020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId128">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="254" name="Entrada de lápiz 253">
@@ -4333,7 +4332,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="254" name="Entrada de lápiz 253">
@@ -4378,8 +4377,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>160800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId130">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="255" name="Entrada de lápiz 254">
@@ -4398,7 +4397,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="255" name="Entrada de lápiz 254">
@@ -4433,71 +4432,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>182760</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>58500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>297600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2580</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId132">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="263" name="Entrada de lápiz 262">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C9BB47-53AF-4823-BF84-A93201324C37}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7802760" y="630000"/>
-            <a:ext cx="114840" cy="325080"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="263" name="Entrada de lápiz 262">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C9BB47-53AF-4823-BF84-A93201324C37}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId133"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7784760" y="612020"/>
-              <a:ext cx="150480" cy="360681"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
       <xdr:colOff>564000</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>138780</xdr:rowOff>
@@ -4508,9 +4442,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>184140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId134">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId132">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="275" name="Entrada de lápiz 274">
               <a:extLst>
@@ -4528,7 +4462,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="275" name="Entrada de lápiz 274">
@@ -4573,8 +4507,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>90120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId136">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="277" name="Entrada de lápiz 276">
@@ -4593,7 +4527,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="277" name="Entrada de lápiz 276">
@@ -4638,8 +4572,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId138">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="278" name="Entrada de lápiz 277">
@@ -4658,7 +4592,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="278" name="Entrada de lápiz 277">
@@ -4703,8 +4637,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId140">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="279" name="Entrada de lápiz 278">
@@ -4723,7 +4657,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="279" name="Entrada de lápiz 278">
@@ -4768,8 +4702,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>179040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId142">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="280" name="Entrada de lápiz 279">
@@ -4788,7 +4722,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="280" name="Entrada de lápiz 279">
@@ -4833,8 +4767,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>69180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId144">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="290" name="Entrada de lápiz 289">
@@ -4853,7 +4787,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="290" name="Entrada de lápiz 289">
@@ -4898,8 +4832,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>176880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId146">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="293" name="Entrada de lápiz 292">
@@ -4918,7 +4852,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="293" name="Entrada de lápiz 292">
@@ -4963,8 +4897,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>63240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId148">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="305" name="Entrada de lápiz 304">
@@ -4983,7 +4917,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="305" name="Entrada de lápiz 304">
@@ -5028,8 +4962,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>170940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId150">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="314" name="Entrada de lápiz 313">
@@ -5048,7 +4982,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="314" name="Entrada de lápiz 313">
@@ -5093,8 +5027,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>168660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId152">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="315" name="Entrada de lápiz 314">
@@ -5113,7 +5047,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="315" name="Entrada de lápiz 314">
@@ -5158,8 +5092,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>104880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId154">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="316" name="Entrada de lápiz 315">
@@ -5178,7 +5112,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="316" name="Entrada de lápiz 315">
@@ -5223,8 +5157,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>67980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId156">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="328" name="Entrada de lápiz 327">
@@ -5243,7 +5177,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="328" name="Entrada de lápiz 327">
@@ -5288,8 +5222,8 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId158">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="329" name="Entrada de lápiz 328">
@@ -5308,7 +5242,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="329" name="Entrada de lápiz 328">
@@ -5353,8 +5287,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>147720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId160">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="334" name="Entrada de lápiz 333">
@@ -5373,7 +5307,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="334" name="Entrada de lápiz 333">
@@ -5418,8 +5352,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>24960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId162">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="340" name="Entrada de lápiz 339">
@@ -5438,7 +5372,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="340" name="Entrada de lápiz 339">
@@ -5483,8 +5417,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>38040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId164">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="343" name="Entrada de lápiz 342">
@@ -5503,7 +5437,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="343" name="Entrada de lápiz 342">
@@ -5548,8 +5482,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>24000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId166">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="346" name="Entrada de lápiz 345">
@@ -5568,7 +5502,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="346" name="Entrada de lápiz 345">
@@ -5613,8 +5547,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>95520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId168">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="347" name="Entrada de lápiz 346">
@@ -5633,7 +5567,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="347" name="Entrada de lápiz 346">
@@ -5678,8 +5612,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>133320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId170">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="352" name="Entrada de lápiz 351">
@@ -5698,7 +5632,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="352" name="Entrada de lápiz 351">
@@ -5743,8 +5677,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>133140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId172">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="356" name="Entrada de lápiz 355">
@@ -5763,7 +5697,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="356" name="Entrada de lápiz 355">
@@ -5797,71 +5731,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>116760</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>87600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>117120</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>87960</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId174">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="357" name="Entrada de lápiz 356">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49718390-35D6-42CC-B94C-9DBC07864746}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6974760" y="849600"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="357" name="Entrada de lápiz 356">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49718390-35D6-42CC-B94C-9DBC07864746}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6957120" y="831960"/>
-              <a:ext cx="36000" cy="36000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>100737</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -5873,9 +5742,9 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>31287</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId175">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId174">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="373" name="Entrada de lápiz 372">
               <a:extLst>
@@ -5893,7 +5762,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="373" name="Entrada de lápiz 372">
@@ -5938,8 +5807,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>128400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId177">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="384" name="Entrada de lápiz 383">
@@ -5958,7 +5827,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="384" name="Entrada de lápiz 383">
@@ -6003,8 +5872,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>43740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId179">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="385" name="Entrada de lápiz 384">
@@ -6023,7 +5892,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="385" name="Entrada de lápiz 384">
@@ -6068,8 +5937,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>166800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId181">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="405" name="Entrada de lápiz 404">
@@ -6088,7 +5957,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="405" name="Entrada de lápiz 404">
@@ -6133,8 +6002,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>118560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId183">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="422" name="Entrada de lápiz 421">
@@ -6153,7 +6022,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="422" name="Entrada de lápiz 421">
@@ -6187,136 +6056,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>350160</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>388320</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>147180</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId185">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="423" name="Entrada de lápiz 422">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD90B79E-294C-4569-93EE-04595468C83D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="5684160" y="1325880"/>
-            <a:ext cx="38160" cy="154800"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="423" name="Entrada de lápiz 422">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD90B79E-294C-4569-93EE-04595468C83D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId186"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5666520" y="1307880"/>
-              <a:ext cx="73800" cy="190440"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>245760</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>138780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>211080</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>96360</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId187">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="434" name="Entrada de lápiz 433">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B36A7E3-5A3F-4838-BEE8-B28A90687D96}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="5579760" y="710280"/>
-            <a:ext cx="1489320" cy="910080"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="434" name="Entrada de lápiz 433">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B36A7E3-5A3F-4838-BEE8-B28A90687D96}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId188"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5562120" y="692640"/>
-              <a:ext cx="1524960" cy="945720"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>117177</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -6328,9 +6067,9 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>160887</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId189">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId185">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="485" name="Entrada de lápiz 484">
               <a:extLst>
@@ -6348,7 +6087,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="485" name="Entrada de lápiz 484">
@@ -6393,8 +6132,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>165267</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId191">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="488" name="Entrada de lápiz 487">
@@ -6413,7 +6152,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="488" name="Entrada de lápiz 487">
@@ -6458,8 +6197,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>113967</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId193">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="491" name="Entrada de lápiz 490">
@@ -6478,7 +6217,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="491" name="Entrada de lápiz 490">
@@ -6523,8 +6262,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>62667</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId195">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="494" name="Entrada de lápiz 493">
@@ -6543,7 +6282,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="494" name="Entrada de lápiz 493">
@@ -6588,8 +6327,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>21747</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId197">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="505" name="Entrada de lápiz 504">
@@ -6608,7 +6347,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="505" name="Entrada de lápiz 504">
@@ -6653,8 +6392,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>67647</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId199">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="508" name="Entrada de lápiz 507">
@@ -6673,7 +6412,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="508" name="Entrada de lápiz 507">
@@ -6718,8 +6457,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>168147</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId201">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="509" name="Entrada de lápiz 508">
@@ -6738,7 +6477,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="509" name="Entrada de lápiz 508">
@@ -6783,8 +6522,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>23367</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId203">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="513" name="Entrada de lápiz 512">
@@ -6803,7 +6542,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="513" name="Entrada de lápiz 512">
@@ -6848,8 +6587,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>91227</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId205">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="514" name="Entrada de lápiz 513">
@@ -6868,7 +6607,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="514" name="Entrada de lápiz 513">
@@ -6913,8 +6652,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>158907</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId207">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="515" name="Entrada de lápiz 514">
@@ -6933,7 +6672,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="515" name="Entrada de lápiz 514">
@@ -6978,8 +6717,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>150627</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId209">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="518" name="Entrada de lápiz 517">
@@ -6998,7 +6737,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="518" name="Entrada de lápiz 517">
@@ -7043,8 +6782,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>128907</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId211">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="519" name="Entrada de lápiz 518">
@@ -7063,7 +6802,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="519" name="Entrada de lápiz 518">
@@ -7108,8 +6847,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>27687</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId213">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="524" name="Entrada de lápiz 523">
@@ -7128,7 +6867,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="524" name="Entrada de lápiz 523">
@@ -7162,396 +6901,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>593280</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>43620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>413400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId215">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="535" name="Entrada de lápiz 534">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F645BE-CF10-49B9-9FCF-9132F90A958A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="5927280" y="996120"/>
-            <a:ext cx="582120" cy="212760"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="535" name="Entrada de lápiz 534">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F645BE-CF10-49B9-9FCF-9132F90A958A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId216"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5909280" y="978480"/>
-              <a:ext cx="617760" cy="248400"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>651720</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>146280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>652080</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>146640</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId217">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="544" name="Entrada de lápiz 543">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4CFF702-5D76-4337-A51F-D63F69A595EB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6747720" y="908280"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="544" name="Entrada de lápiz 543">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4CFF702-5D76-4337-A51F-D63F69A595EB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6730080" y="890280"/>
-              <a:ext cx="36000" cy="36000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>65760</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>100020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>177120</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>80400</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId218">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="554" name="Entrada de lápiz 553">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D37BA76-AEE0-4C26-926E-78FFC3CCE006}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6923760" y="290520"/>
-            <a:ext cx="873360" cy="551880"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="554" name="Entrada de lápiz 553">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D37BA76-AEE0-4C26-926E-78FFC3CCE006}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId219"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6905767" y="272880"/>
-              <a:ext cx="908985" cy="587520"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>754560</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>535080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId220">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="562" name="Entrada de lápiz 561">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A31BFE9D-2F4E-40E2-8DC8-666D62949D98}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6088560" y="1194120"/>
-            <a:ext cx="542520" cy="7920"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="562" name="Entrada de lápiz 561">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A31BFE9D-2F4E-40E2-8DC8-666D62949D98}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId221"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6070560" y="1176120"/>
-              <a:ext cx="578160" cy="43560"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>644400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>644760</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId222">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="563" name="Entrada de lápiz 562">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8F664F-4B4F-45EA-9E22-FBD30E62C33B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="5978400" y="1223280"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="563" name="Entrada de lápiz 562">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8F664F-4B4F-45EA-9E22-FBD30E62C33B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5960760" y="1205640"/>
-              <a:ext cx="36000" cy="36000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>145980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>212400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>168660</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId223">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="574" name="Entrada de lápiz 573">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67704A5F-D138-40BF-A900-DBB72C7D8C7E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7040880" y="717480"/>
-            <a:ext cx="29520" cy="22680"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="574" name="Entrada de lápiz 573">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67704A5F-D138-40BF-A900-DBB72C7D8C7E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId224"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7031988" y="708840"/>
-              <a:ext cx="46947" cy="40320"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>673800</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -7563,9 +6912,9 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>139260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId225">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId215">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="577" name="Entrada de lápiz 576">
               <a:extLst>
@@ -7583,7 +6932,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="577" name="Entrada de lápiz 576">
@@ -7618,24 +6967,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>732600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>43800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>124680</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>88380</xdr:rowOff>
+      <xdr:colOff>507600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>507960</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91871</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId227">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="597" name="Entrada de lápiz 596">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF48CFCD-E89D-4911-8822-6813E5467C7F}"/>
+            <xdr14:cNvPr id="601" name="Entrada de lápiz 600">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4B7AD4-1DEE-4450-A698-15290A82278F}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -7643,18 +6992,18 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="7590600" y="424800"/>
-            <a:ext cx="154080" cy="235080"/>
+            <a:off x="7614982" y="811947"/>
+            <a:ext cx="360" cy="360"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
       <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="597" name="Entrada de lápiz 596">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF48CFCD-E89D-4911-8822-6813E5467C7F}"/>
+            <xdr:cNvPr id="601" name="Entrada de lápiz 600">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4B7AD4-1DEE-4450-A698-15290A82278F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7668,138 +7017,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7581600" y="415800"/>
-              <a:ext cx="171720" cy="252720"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>197280</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>87660</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>344160</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>188820</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId229">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="598" name="Entrada de lápiz 597">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD1BACE-C875-496C-8552-D423B0EC68C0}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7055280" y="659160"/>
-            <a:ext cx="146880" cy="101160"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="598" name="Entrada de lápiz 597">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD1BACE-C875-496C-8552-D423B0EC68C0}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId230"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7046640" y="650520"/>
-              <a:ext cx="164520" cy="118800"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>297000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>138780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>87960</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>168600</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId231">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="601" name="Entrada de lápiz 600">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4B7AD4-1DEE-4450-A698-15290A82278F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7155000" y="710280"/>
-            <a:ext cx="552960" cy="220320"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="601" name="Entrada de lápiz 600">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4B7AD4-1DEE-4450-A698-15290A82278F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId232"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7146360" y="701640"/>
-              <a:ext cx="570600" cy="237960"/>
+              <a:off x="7606342" y="802947"/>
+              <a:ext cx="18000" cy="18000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7837,7 +7056,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId233">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId229">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7884,9 +7103,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>124260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId234">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId230">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="651" name="Entrada de lápiz 650">
               <a:extLst>
@@ -7904,7 +7123,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="651" name="Entrada de lápiz 650">
@@ -7949,8 +7168,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId236">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="659" name="Entrada de lápiz 658">
@@ -7969,7 +7188,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="659" name="Entrada de lápiz 658">
@@ -8014,8 +7233,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>137760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId238">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="664" name="Entrada de lápiz 663">
@@ -8034,7 +7253,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="664" name="Entrada de lápiz 663">
@@ -8079,8 +7298,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>190200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId240">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="675" name="Entrada de lápiz 674">
@@ -8099,7 +7318,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="675" name="Entrada de lápiz 674">
@@ -8144,8 +7363,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>40620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId242">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="678" name="Entrada de lápiz 677">
@@ -8164,7 +7383,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="678" name="Entrada de lápiz 677">
@@ -8209,8 +7428,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>168240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId244">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="681" name="Entrada de lápiz 680">
@@ -8229,7 +7448,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="681" name="Entrada de lápiz 680">
@@ -8274,8 +7493,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>163200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId246">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="682" name="Entrada de lápiz 681">
@@ -8294,7 +7513,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="682" name="Entrada de lápiz 681">
@@ -8339,8 +7558,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>54060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId248">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="683" name="Entrada de lápiz 682">
@@ -8359,7 +7578,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="683" name="Entrada de lápiz 682">
@@ -8404,8 +7623,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>49440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId250">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="692" name="Entrada de lápiz 691">
@@ -8424,7 +7643,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="692" name="Entrada de lápiz 691">
@@ -8469,8 +7688,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>132420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId252">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="701" name="Entrada de lápiz 700">
@@ -8489,7 +7708,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="701" name="Entrada de lápiz 700">
@@ -8534,8 +7753,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>108600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId254">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="704" name="Entrada de lápiz 703">
@@ -8554,7 +7773,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="704" name="Entrada de lápiz 703">
@@ -8599,8 +7818,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>109560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId256">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="707" name="Entrada de lápiz 706">
@@ -8619,7 +7838,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="707" name="Entrada de lápiz 706">
@@ -8664,8 +7883,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>90960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId258">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="720" name="Entrada de lápiz 719">
@@ -8684,7 +7903,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="720" name="Entrada de lápiz 719">
@@ -8729,8 +7948,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>84720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId260">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="728" name="Entrada de lápiz 727">
@@ -8749,7 +7968,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="728" name="Entrada de lápiz 727">
@@ -8794,8 +8013,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>15960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId262">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="737" name="Entrada de lápiz 736">
@@ -8814,7 +8033,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="737" name="Entrada de lápiz 736">
@@ -8859,8 +8078,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId264">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="738" name="Entrada de lápiz 737">
@@ -8879,7 +8098,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="738" name="Entrada de lápiz 737">
@@ -8924,8 +8143,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>138480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId266">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="739" name="Entrada de lápiz 738">
@@ -8944,7 +8163,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="739" name="Entrada de lápiz 738">
@@ -8989,8 +8208,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>108540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId268">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="750" name="Entrada de lápiz 749">
@@ -9009,7 +8228,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="750" name="Entrada de lápiz 749">
@@ -9054,8 +8273,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>179700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId270">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="757" name="Entrada de lápiz 756">
@@ -9074,7 +8293,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="757" name="Entrada de lápiz 756">
@@ -9119,8 +8338,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>69060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId272">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="758" name="Entrada de lápiz 757">
@@ -9139,7 +8358,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="758" name="Entrada de lápiz 757">
@@ -9184,8 +8403,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>144240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId274">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="761" name="Entrada de lápiz 760">
@@ -9204,7 +8423,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="761" name="Entrada de lápiz 760">
@@ -9249,8 +8468,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>15720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId276">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="766" name="Entrada de lápiz 765">
@@ -9269,7 +8488,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="766" name="Entrada de lápiz 765">
@@ -9314,8 +8533,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>168720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId278">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="805" name="Entrada de lápiz 804">
@@ -9334,7 +8553,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="805" name="Entrada de lápiz 804">
@@ -9379,8 +8598,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>52740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId280">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="806" name="Entrada de lápiz 805">
@@ -9399,7 +8618,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="806" name="Entrada de lápiz 805">
@@ -9444,8 +8663,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>16563</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId282">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="814" name="Entrada de lápiz 813">
@@ -9464,7 +8683,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="814" name="Entrada de lápiz 813">
@@ -9509,8 +8728,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>27960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId284">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="821" name="Entrada de lápiz 820">
@@ -9529,7 +8748,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="821" name="Entrada de lápiz 820">
@@ -9574,8 +8793,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId286">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="822" name="Entrada de lápiz 821">
@@ -9594,7 +8813,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="822" name="Entrada de lápiz 821">
@@ -9639,8 +8858,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>51780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId288">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="823" name="Entrada de lápiz 822">
@@ -9659,7 +8878,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="823" name="Entrada de lápiz 822">
@@ -9704,8 +8923,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>149700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId290">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="824" name="Entrada de lápiz 823">
@@ -9724,7 +8943,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="824" name="Entrada de lápiz 823">
@@ -9769,8 +8988,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId292">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="825" name="Entrada de lápiz 824">
@@ -9789,7 +9008,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="825" name="Entrada de lápiz 824">
@@ -9834,8 +9053,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>11760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId294">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="828" name="Entrada de lápiz 827">
@@ -9854,7 +9073,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="828" name="Entrada de lápiz 827">
@@ -9899,8 +9118,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>139980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId296">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="833" name="Entrada de lápiz 832">
@@ -9919,7 +9138,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="833" name="Entrada de lápiz 832">
@@ -9964,8 +9183,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId298">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="836" name="Entrada de lápiz 835">
@@ -9984,7 +9203,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="836" name="Entrada de lápiz 835">
@@ -10029,8 +9248,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId300">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="837" name="Entrada de lápiz 836">
@@ -10049,7 +9268,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="837" name="Entrada de lápiz 836">
@@ -10094,8 +9313,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>17160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId302">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="846" name="Entrada de lápiz 845">
@@ -10114,7 +9333,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="846" name="Entrada de lápiz 845">
@@ -10148,71 +9367,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>155640</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>156000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25860</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId304">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="851" name="Entrada de lápiz 850">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ABE87B8-3857-45D7-A343-946C32414177}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7013640" y="216000"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="851" name="Entrada de lápiz 850">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ABE87B8-3857-45D7-A343-946C32414177}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6996000" y="198360"/>
-              <a:ext cx="36000" cy="36000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>25680</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -10224,9 +9378,9 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>5520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId305">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId304">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="852" name="Entrada de lápiz 851">
               <a:extLst>
@@ -10244,7 +9398,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="852" name="Entrada de lápiz 851">
@@ -10289,8 +9443,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>2640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId307">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="853" name="Entrada de lápiz 852">
@@ -10309,7 +9463,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="853" name="Entrada de lápiz 852">
@@ -10354,8 +9508,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>45840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId309">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="854" name="Entrada de lápiz 853">
@@ -10374,7 +9528,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="854" name="Entrada de lápiz 853">
@@ -10419,8 +9573,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>112800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId311">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="855" name="Entrada de lápiz 854">
@@ -10439,7 +9593,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="855" name="Entrada de lápiz 854">
@@ -10484,8 +9638,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>91560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId313">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="856" name="Entrada de lápiz 855">
@@ -10504,7 +9658,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="856" name="Entrada de lápiz 855">
@@ -10538,201 +9692,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>68880</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>39480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>69240</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>43080</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId315">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="877" name="Entrada de lápiz 876">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67D7911-5C85-4C27-9BD0-E90A971A13C1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7688880" y="420480"/>
-            <a:ext cx="360" cy="3600"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="877" name="Entrada de lápiz 876">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67D7911-5C85-4C27-9BD0-E90A971A13C1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId316"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7671240" y="402840"/>
-              <a:ext cx="36000" cy="39240"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>86160</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>138120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>86520</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>138480</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId317">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="878" name="Entrada de lápiz 877">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B355F28A-A6AC-446F-A055-64F5DE2A048A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7706160" y="519120"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="878" name="Entrada de lápiz 877">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B355F28A-A6AC-446F-A055-64F5DE2A048A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7688520" y="501480"/>
-              <a:ext cx="36000" cy="36000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>25680</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>103500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>89760</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>130140</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId318">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="881" name="Entrada de lápiz 880">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B0E36C-5B1F-4AB4-AF90-A8D6BE53727B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7645680" y="675000"/>
-            <a:ext cx="64080" cy="26640"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="881" name="Entrada de lápiz 880">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B0E36C-5B1F-4AB4-AF90-A8D6BE53727B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId319"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7628139" y="657000"/>
-              <a:ext cx="99521" cy="62280"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>675840</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -10744,9 +9703,9 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>169920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId320">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId315">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="915" name="Entrada de lápiz 914">
               <a:extLst>
@@ -10764,7 +9723,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="915" name="Entrada de lápiz 914">
@@ -10809,8 +9768,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>103740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId322">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="917" name="Entrada de lápiz 916">
@@ -10829,7 +9788,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="917" name="Entrada de lápiz 916">
@@ -10874,8 +9833,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>114360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId324">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="920" name="Entrada de lápiz 919">
@@ -10894,7 +9853,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="920" name="Entrada de lápiz 919">
@@ -10939,8 +9898,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>112440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId326">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="921" name="Entrada de lápiz 920">
@@ -10959,7 +9918,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="921" name="Entrada de lápiz 920">
@@ -10993,136 +9952,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>42900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>502560</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>166320</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId327">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="931" name="Entrada de lápiz 930">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C60FE6-C99A-4A66-9048-ACE8A851B2AC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7074000" y="1185900"/>
-            <a:ext cx="286560" cy="313920"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="931" name="Entrada de lápiz 930">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C60FE6-C99A-4A66-9048-ACE8A851B2AC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId328"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7056360" y="1167900"/>
-              <a:ext cx="322200" cy="349560"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>631920</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>88980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>565440</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId329">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="932" name="Entrada de lápiz 931">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AAFFF95-7EB6-4F90-97B2-76A33BB78C08}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="5965920" y="1231980"/>
-            <a:ext cx="695520" cy="246600"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="932" name="Entrada de lápiz 931">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AAFFF95-7EB6-4F90-97B2-76A33BB78C08}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId330"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5947920" y="1214340"/>
-              <a:ext cx="731160" cy="282240"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>726960</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -11134,9 +9963,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>78180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId331">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId327">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="933" name="Entrada de lápiz 932">
               <a:extLst>
@@ -11154,7 +9983,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="933" name="Entrada de lápiz 932">
@@ -11188,461 +10017,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>233400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>172800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>588000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>62880</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId332">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="939" name="Entrada de lápiz 938">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6F3FF5-A592-464D-93BB-15FAE0B2C80F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="5567400" y="1506300"/>
-            <a:ext cx="354600" cy="271080"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="939" name="Entrada de lápiz 938">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6F3FF5-A592-464D-93BB-15FAE0B2C80F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId333"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5549742" y="1488324"/>
-              <a:ext cx="390276" cy="306673"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>155520</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>155880</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId334">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="940" name="Entrada de lápiz 939">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08DA076A-4874-4AD9-9041-4ABDBC9D34D2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7013520" y="1480380"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="940" name="Entrada de lápiz 939">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08DA076A-4874-4AD9-9041-4ABDBC9D34D2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6995520" y="1462740"/>
-              <a:ext cx="36000" cy="36000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>173880</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>326520</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>79500</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId335">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="941" name="Entrada de lápiz 940">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D334C3-26E9-4208-B991-2D7943C5A859}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7031880" y="1470660"/>
-            <a:ext cx="152640" cy="132840"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="941" name="Entrada de lápiz 940">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D334C3-26E9-4208-B991-2D7943C5A859}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId336"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7013880" y="1453020"/>
-              <a:ext cx="188280" cy="168480"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>173160</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>308160</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>46020</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId337">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="942" name="Entrada de lápiz 941">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE57B51-B1D7-4D5F-BB41-A67D68ED1221}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7031160" y="1470660"/>
-            <a:ext cx="135000" cy="99360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="942" name="Entrada de lápiz 941">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE57B51-B1D7-4D5F-BB41-A67D68ED1221}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId338"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7013160" y="1453020"/>
-              <a:ext cx="170640" cy="135000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>300120</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>408120</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>169080</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId339">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="964" name="Entrada de lápiz 963">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9018ED94-3C7A-4D87-A080-DBB6690CDD0D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7158120" y="1179360"/>
-            <a:ext cx="870000" cy="704220"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="964" name="Entrada de lápiz 963">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9018ED94-3C7A-4D87-A080-DBB6690CDD0D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId340"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7140475" y="1161349"/>
-              <a:ext cx="905650" cy="739881"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>649200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>34260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>158760</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId341">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="965" name="Entrada de lápiz 964">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51487A26-56E7-4875-8221-E244BF62338C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="5983200" y="1177260"/>
-            <a:ext cx="1033560" cy="309960"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="965" name="Entrada de lápiz 964">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51487A26-56E7-4875-8221-E244BF62338C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId342"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5965200" y="1159620"/>
-              <a:ext cx="1069200" cy="345600"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>242400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>164340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>242760</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>164700</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId343">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="966" name="Entrada de lápiz 965">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A8D5AC-8F62-4CFE-A9F5-16B7A1227F61}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="5576400" y="735840"/>
-            <a:ext cx="360" cy="360"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="966" name="Entrada de lápiz 965">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A8D5AC-8F62-4CFE-A9F5-16B7A1227F61}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5558400" y="718200"/>
-              <a:ext cx="36000" cy="36000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>718200</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -11654,9 +10028,9 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>121200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId344">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId328">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="967" name="Entrada de lápiz 966">
               <a:extLst>
@@ -11674,7 +10048,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="967" name="Entrada de lápiz 966">
@@ -11719,9 +10093,9 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>181680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId345">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId329">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="968" name="Entrada de lápiz 967">
               <a:extLst>
@@ -11739,7 +10113,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="968" name="Entrada de lápiz 967">
@@ -11761,6 +10135,136 @@
             <a:xfrm>
               <a:off x="14217480" y="10260180"/>
               <a:ext cx="36000" cy="36000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>55080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>55145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>293760</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>458</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId330">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Entrada de lápiz 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{597D614E-3138-4589-8112-A42649A0B994}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5583044" y="1135800"/>
+            <a:ext cx="238680" cy="485640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Entrada de lápiz 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{597D614E-3138-4589-8112-A42649A0B994}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId331"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5565404" y="1118160"/>
+              <a:ext cx="274320" cy="521280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>374040</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>103527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>339971</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>92618</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId332">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="22" name="Entrada de lápiz 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96EE3F5-E4B9-4CF2-9879-CFBAC591D355}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5902004" y="1544400"/>
+            <a:ext cx="755640" cy="169200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="22" name="Entrada de lápiz 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96EE3F5-E4B9-4CF2-9879-CFBAC591D355}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId333"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5884004" y="1526362"/>
+              <a:ext cx="791280" cy="204916"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11844,8 +10348,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
@@ -11864,7 +10368,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Entrada de lápiz 2">
@@ -11909,8 +10413,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>158220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Entrada de lápiz 3">
@@ -11929,7 +10433,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Entrada de lápiz 3">
@@ -11974,8 +10478,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>29640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="Entrada de lápiz 4">
@@ -11994,7 +10498,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Entrada de lápiz 4">
@@ -12039,8 +10543,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>47760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Entrada de lápiz 5">
@@ -12059,7 +10563,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Entrada de lápiz 5">
@@ -12104,8 +10608,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>14820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="Entrada de lápiz 6">
@@ -12124,7 +10628,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="Entrada de lápiz 6">
@@ -12169,8 +10673,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>36600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Entrada de lápiz 7">
@@ -12189,7 +10693,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Entrada de lápiz 7">
@@ -12234,8 +10738,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>32160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Entrada de lápiz 8">
@@ -12254,7 +10758,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Entrada de lápiz 8">
@@ -12299,8 +10803,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="Entrada de lápiz 9">
@@ -12319,7 +10823,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="Entrada de lápiz 9">
@@ -12364,8 +10868,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Entrada de lápiz 19">
@@ -12384,7 +10888,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Entrada de lápiz 19">
@@ -12429,8 +10933,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>130020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="40" name="Entrada de lápiz 39">
@@ -12449,7 +10953,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="40" name="Entrada de lápiz 39">
@@ -12494,8 +10998,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>72780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="44" name="Entrada de lápiz 43">
@@ -12514,7 +11018,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="44" name="Entrada de lápiz 43">
@@ -12559,8 +11063,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>178440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="45" name="Entrada de lápiz 44">
@@ -12579,7 +11083,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="45" name="Entrada de lápiz 44">
@@ -12624,8 +11128,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>12720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="61" name="Entrada de lápiz 60">
@@ -12644,7 +11148,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="61" name="Entrada de lápiz 60">
@@ -12689,8 +11193,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>42060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="62" name="Entrada de lápiz 61">
@@ -12709,7 +11213,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="62" name="Entrada de lápiz 61">
@@ -12754,8 +11258,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>182940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="69" name="Entrada de lápiz 68">
@@ -12774,7 +11278,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="69" name="Entrada de lápiz 68">
@@ -12832,11 +11336,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">529 1120,'-11'581,"-44"-10,53-559,0 9,-2 0,0 0,-2 0,-13 35,18-54,0 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,0 1,1-1,-1-1,1 1,-1 0,0-1,1 1,-1-1,1 1,0-1,-1 0,1 0,0-1,-1 1,-3-3,-4-2,-1-1,1 0,1-1,0 0,0 0,0-1,-8-12,9 10,1 0,1-1,0 0,0-1,1 1,1-1,0 0,1 0,1 0,-3-23,3-12,7-81,0 40,-4 36,-2 14,2-1,2 1,1-1,2 1,13-44,47-155,-58 205,-1 11,1 0,1 2,1-1,24-35,-7 10,-10 15,2 1,25-31,-40 55,1 0,0 0,0 0,1 1,0 0,0 0,0 0,0 1,1 0,0 0,0 1,0-1,0 2,0-1,0 1,12-2,-14 4,1 0,-1 0,0 1,0 0,0 0,0 0,0 0,-1 1,1 0,0 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,-1 1,1-1,0 1,-1 0,0 0,0 0,0 0,3 6,2 6,-1 0,0 1,-1 0,0 0,4 27,14 68,-6-36,-3-1,-4 2,2 80,-15 103,9-504,-3 196,3 0,2 1,17-53,-8 50,2 1,2 1,3 0,46-66,142-158,-205 263,3-5,1 1,0 1,26-21,-34 30,1 0,-1 1,1-1,0 1,-1 0,1 0,0 1,1-1,-1 1,0 0,0 0,0 1,1 0,-1 0,0 0,0 1,6 0,0 1,1 1,-1 0,1 1,-1 0,0 1,-1 0,1 1,-1 0,0 0,0 1,-1 0,0 1,0 0,-1 1,0 0,-1 0,0 0,0 1,7 14,-3-1,-2 0,0 1,-2 0,-1 0,0 1,-2-1,-1 1,0 29,1 32,-4 0,-4 0,-4 0,-18 86,-108 320,119-433,2 0,2 1,-2 61,11-98</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2783.52">0 306,'17'-1,"0"-1,-1-1,1 0,-1-2,17-5,33-9,35 2,181-7,109 24,-164 3,-35 16,179-26,-323 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4152.52">1364 1,'28'3,"-1"1,0 1,0 1,0 2,37 15,-49-18,22 11,-1 2,-1 1,35 24,-27-15,51 23,-83-46,11 4,-1 2,21 13,-42-24,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 1,0-1,1 0,-1 0,1 1,-1-1,0 0,0 1,1-1,-1 0,0 1,1-1,-1 0,0 1,0-1,0 1,0-1,1 1,-1-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,-1 1,1-1,0 1,0-1,-1 1,-21 7,-31-3,53-5,-395 0,166-2,208 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5438.05">2280 1262,'37'3,"0"2,0 1,-1 2,68 23,-11-3,107 31,-192-56</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6448.58">2321 1731,'32'-1,"1"2,-1 1,0 2,0 1,0 1,31 11,-35-9,0-2,0 0,0-2,0-1,1-2,36-2,-29 4,-23 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">543 1054,'-11'547,"-46"-9,55-527,0 9,-2 0,0 0,-2-1,-14 34,19-51,0 1,0-1,-1 0,1 0,-1-1,1 1,-1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,-1-1,1 1,-1 0,0 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,0 1,1-1,-1-1,1 1,-1 0,0-1,1 1,-2-1,2 1,0-1,-1 0,1 0,0 0,-1 0,-3-3,-4-2,-2 0,2-1,1-1,0 1,-1-1,1 0,-8-12,8 10,2-1,1 0,0 0,0-1,1 0,1 0,-1 0,2 0,1-1,-3-21,3-11,7-76,0 37,-4 34,-2 13,2 0,2 0,2-1,1 2,13-42,49-147,-60 194,-1 11,2-1,0 2,1-1,25-32,-7 8,-11 15,3 1,25-30,-41 53,1-1,0 1,0-1,2 1,-1 0,0 1,0-1,0 1,1 1,1-1,-1 1,0-1,0 2,0-1,0 2,13-3,-15 4,1 0,-1 0,1 1,-1 0,0 0,0 0,0 0,-1 0,1 1,0 0,0 0,0 1,-1-1,1 1,-1-1,0 1,-1 1,1-1,0 1,0-1,-1 1,0 0,0 0,3 5,2 6,-1 0,0 1,0 0,-1 0,4 26,15 63,-7-33,-2-2,-5 3,2 75,-15 96,9-473,-3 183,4 1,1 1,18-50,-9 47,3 1,1 0,4 1,47-62,145-149,-209 247,2-4,1 1,1 1,26-20,-35 28,1 0,-1 1,1-1,0 1,-1 0,1 1,1 0,0-1,-1 1,0 0,0 0,0 1,1 0,0 0,-1 0,0 1,6 0,0 1,2 1,-2-1,1 2,0 0,-1 1,-1-1,1 2,0 0,-1-1,0 2,-1-1,1 2,-1-1,-1 2,0-1,0 1,-1-1,0 2,7 12,-2 0,-3 0,0 0,-2 1,-1-1,1 2,-3-1,-1 0,0 28,1 30,-4 0,-4 0,-4 0,-19 81,-111 301,123-407,2-1,1 2,-1 56,11-91</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2783.52">0 288,'17'-1,"1"-1,-2-1,2 1,-2-3,18-4,34-9,36 2,185-7,112 23,-168 3,-35 15,182-25,-330 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4152.52">1400 1,'29'3,"-1"1,-1 0,1 2,0 1,38 15,-51-17,23 10,-1 2,-1 1,36 22,-28-13,52 21,-84-44,10 5,0 1,21 13,-43-23,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 1,0-1,1 0,-1 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 1,0-1,0 1,0-1,1 1,-1-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,-1 1,1-1,0 1,0-1,-1 1,-22 6,-31-2,54-5,-405 0,169-2,215 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5438.05">2341 1188,'38'3,"0"2,0 0,-2 3,71 21,-11-3,109 30,-197-53</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6448.58">2383 1630,'33'-1,"0"2,0 1,0 1,0 2,0 1,31 10,-35-9,0-1,0 0,-1-3,1 0,1-2,37-2,-30 4,-24 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -12881,116 +11385,6 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:28:32.615"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">953 0,'-39'47,"-3"-2,-92 76,50-48,-447 371,494-418,-38 31,74-56,0-1,0 1,1 0,-1-1,0 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 1,2 0,-1 0,0 0,1-1,0 1,-1 0,1-1,0 1,0-1,-1 1,1-1,4 2,10 4,0-1,27 7,-30-9,20 5,1-2,0-1,61 3,106-11,-78-1,-32 7,-69 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink101.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:29:13.559"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">242 270,'18'-2,"0"0,-1-2,0 0,1-1,23-11,3 1,-23 8,69-17,-84 23,0 0,1 0,-1 1,0 0,1 0,-1 0,0 1,1 0,-1 0,0 1,11 3,-15-3,1-1,-1 1,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,-1 0,1 0,-1-1,0 1,0 0,0 5,6 60,-7-53,0-12,3 70,-7 78,2-129,-1 1,-1-1,-1 0,-1 0,-1 0,-1-1,-20 38,-5-1,-3-2,-2-2,-3-2,-48 49,79-93,0 0,-1-1,1-1,-2 1,1-2,0 0,-1 0,0-1,0 0,-1-1,1 0,0-1,-1-1,0 0,1-1,-1 0,0 0,-12-4,17 2,0-1,0 0,1-1,-1 1,1-2,0 1,0-1,0 0,1 0,0-1,-8-8,12 12,0 0,0 0,0 0,1 0,-1-1,1 1,-1 0,1-1,0 1,0-1,0 1,0-1,0 0,0 1,1-1,0 0,-1 0,1 1,0-1,0 0,0 0,1 0,-1 1,1-1,0 0,-1 1,1-1,0 0,1 1,-1-1,0 1,1 0,-1-1,1 1,0 0,0 0,2-2,0 1,1 0,-1 0,1 1,0 0,0 0,0 0,0 0,0 1,1 0,-1 0,0 0,1 1,-1-1,0 2,1-1,-1 0,0 1,1 0,6 2,16 4,-1 2,35 15,-46-18,37 18,-1 3,62 43,-31-19,-50-33,40 15,-4-2,-35-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1503.91">1891 168,'-9'0,"0"-1,0 0,0 1,1 0,-1 1,0 0,0 0,0 1,1 0,-1 1,1 0,0 0,0 0,0 1,0 1,-9 6,-28 27,3 2,1 2,2 1,2 3,2 0,2 3,2 0,2 2,-25 63,47-98,1 1,0 1,2-1,0 1,0-1,2 1,-1 21,3-33,0 0,0 1,1-1,0 0,0 0,0 0,1 0,0 0,0 0,0 0,1 0,0-1,0 0,0 1,1-1,0 0,0 0,0-1,0 1,1-1,0 0,0 0,8 4,1 0,-5-3,-1 0,1 0,0 0,0-1,0-1,0 0,1 0,0-1,-1 0,1 0,13 0,-20-3,-1 0,0 1,0-1,0 0,0 0,0-1,-1 1,1 0,0-1,0 1,-1-1,1 1,-1-1,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,-1 1,1 0,-1-2,6-69,-6 63,1-22,1-5,-2 1,-7-58,6 91,0 1,0-1,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,0-1,0 1,0 0,-1 0,1 0,0 0,-1 0,0 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,-4 0,-9-2,-1 0,1 1,-25 1,30 1,-264 1,226 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3653.9">2358 6,'0'0,"0"0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,-1 1,1-1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,-1 0,1 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,-1-1,1 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,1 0,-1-1,-15 18,-117 222,125-225,2 1,0 0,1 0,0 0,1 0,1 1,0-1,1 1,1-1,1 1,2 17,-3-31,1 0,-1 0,1 0,-1 0,1-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,0 0,1 1,-1-1,1 0,0 0,2 1,0 0,1 0,0 0,0-1,0 1,-1-1,1 0,11 0,-4-1,1-1,-1 0,1 0,-1-1,1-1,11-4,-10 2,0-1,-1 0,1-1,-1 0,-1-1,1-1,15-13,-23 16,1 0,-1 0,0 0,0 0,-1-1,0 0,0 0,0 0,-1 0,0-1,-1 1,1-1,-1 0,-1 0,1-12,-1 12,1-12,-2 0,0 0,-1 0,-4-26,5 42,-1 0,0 1,0-1,0 0,0 1,-1-1,1 1,-1-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 1,-1 0,0-1,1 1,-1 1,-6-2,-88 4,47 1,26-2</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink102.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:29:24.111"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 47,'2'-1,"0"1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,2-3,21-11,-3 10,1 1,-1 0,36 0,-46 3,0 1,0 1,0 0,0 0,0 2,0-1,0 1,16 7,-24-8,-1 0,0 1,0-1,0 0,0 1,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,-1 1,1 0,-1-1,0 1,1 5,0 8,0 0,-2 0,0 20,-1-11,2 43,1-30,-2 0,-1 0,-9 47,9-83,0 0,1 0,-2 0,1-1,0 1,0-1,-1 1,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,-4 2,0 0,0 0,-1 0,1-1,-1 0,1-1,-1 0,-11 1,3-1,0-1,1-1,-1 0,0-1,1 0,-25-8,28 6,4 2,0 0,1-1,-1 0,1 0,-1 0,-7-7,12 9,1 0,0-1,0 1,0-1,-1 1,1-1,1 0,-1 1,0-1,0 0,1 1,-1-1,1 0,-1 0,1 0,0 1,-1-1,1 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,1 1,1-4,1 0,0-1,0 1,0 0,1 0,0 0,0 0,0 1,0 0,1-1,0 2,-1-1,2 0,-1 1,0 0,1 0,-1 1,1-1,0 1,9-2,-8 3,1-1,-1 1,1 0,0 1,-1 0,1 0,-1 1,1 0,-1 0,1 0,-1 1,1 0,-1 1,0 0,10 5,71 55,-68-46,1-2,0 0,43 21,45 18,-107-53,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 1,-1-1,1 1,-1 0,1 0,-1-1,0 1,0 0,1 0,-2 0,1 0,0 1,0-1,0 4,4 15</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink103.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:29:27.994"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">703 1,'-631'663,"617"-649,5-7,1 2,0-1,1 1,0 0,-8 13,15-21,-1 0,1-1,0 1,-1 0,1-1,0 1,0 0,-1-1,1 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,1 0,-1-1,0 1,0 0,1-1,-1 1,0 0,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,-1 1,1-1,0 0,-1 1,1-1,0 0,0 1,-1-1,2 0,40 5,-35-5,35 5,-2 0,1 3,-1 2,0 1,-1 2,49 23,-14-8,90 23,-143-46,1 0,1-2,32 2,-32-5</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink104.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:29:30.914"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -13005,7 +11399,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink101.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -13032,7 +11426,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink102.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -13057,7 +11451,120 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">231 1,'1'0,"0"1,-1-1,1 1,0 0,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,-12 39,13-39,-88 202,70-170,-1-1,-1 0,-46 54,64-85,1 0,0 1,0-1,0 0,0 0,1 1,-1-1,0 0,0 1,1-1,-1 1,1-1,-1 1,1-1,0 1,0 0,0-1,-1 1,2-1,-1 1,0-1,0 1,0 0,1-1,-1 1,0-1,1 1,0-1,-1 0,1 1,0-1,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1-1,-1 1,1 0,1 1,10 5,0 0,0 0,28 8,-20-7,18 8,-20-10,0 2,-1 0,0 1,0 1,-1 0,24 20,-20-10</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1321.2">1066 184,'-8'0,"1"1,-1 0,0 1,1-1,-1 1,1 1,0 0,0 0,-12 7,-59 45,48-33,28-20,-51 35,2 3,2 2,-63 68,107-104,1 0,0 0,0 0,1 1,0-1,0 1,0 0,1 0,0 0,0 0,1 0,0 0,0 0,1 1,-1-1,2 0,-1 0,1 1,0-1,1 0,-1 0,2 0,-1 0,1 0,0-1,6 11,-5-9,1-1,0 1,1-1,0 0,0-1,0 1,1-1,0 0,0-1,1 0,-1 0,1-1,0 1,0-2,1 1,-1-1,1-1,-1 1,1-1,18 1,-17-3,0 0,1-1,-1 0,0 0,0-1,0-1,0 1,0-2,0 1,-1-1,0-1,0 0,0 0,0-1,-1 0,0 0,0-1,0 0,-1-1,0 0,-1 0,0 0,0 0,-1-1,9-18,-2 3,0 0,-1-1,-2 0,-1 0,0-1,-2 0,-1 0,-2-1,2-47,-7-45,2 96</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2474.22">1371 82,'-2'1,"-1"-1,1 1,0 0,-1 0,1 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,1 0,-3 4,-23 40,27-45,-10 18,2 0,1 0,-7 24,12-36,0-1,1 1,0 0,0-1,1 1,0 0,0 0,0-1,1 1,0 0,1-1,-1 1,5 11,-5-16,0 0,1 1,-1-1,0 0,1 0,0 0,-1 0,1 0,0 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 0,0 1,1-2,-1 1,1 0,3 0,-2-1,1 1,0-2,-1 1,1 0,-1-1,1 0,-1 0,1-1,-1 1,1-1,4-2,1-1,-1-1,0 0,0 0,0-1,-1 0,1-1,-2 1,1-1,7-12,-10 10,0-1,0 1,-1-1,-1 0,0 0,0 0,-1-1,1-11,-2 17,-1 1,0 0,1 0,-1-1,-1 1,1 0,-1 0,0-1,0 1,-1 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,0 0,-5-6,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2474.21">1371 82,'-2'1,"-1"-1,1 1,0 0,-1 0,1 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,1 0,-3 4,-23 40,27-45,-10 18,2 0,1 0,-7 24,12-36,0-1,1 1,0 0,0-1,1 1,0 0,0 0,0-1,1 1,0 0,1-1,-1 1,5 11,-5-16,0 0,1 1,-1-1,0 0,1 0,0 0,-1 0,1 0,0 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 0,0 1,1-2,-1 1,1 0,3 0,-2-1,1 1,0-2,-1 1,1 0,-1-1,1 0,-1 0,1-1,-1 1,1-1,4-2,1-1,-1-1,0 0,0 0,0-1,-1 0,1-1,-2 1,1-1,7-12,-10 10,0-1,0 1,-1-1,-1 0,0 0,0 0,-1-1,1-11,-2 17,-1 1,0 0,1 0,-1-1,-1 1,1 0,-1 0,0-1,0 1,-1 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,0 0,-5-6,-6 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink103.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:38:37.942"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="663.59">41 61,'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink104.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:38:56.030"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">759 370</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink105.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:44:55.525"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 11,'4'-1,"0"-1,0 1,1-1,-1 1,0 0,0 0,0 1,0-1,1 1,-1 0,1 0,-1 0,0 1,1-1,6 3,0-2,32 6,0 2,1 1,42 18,-39-13,-1-1,63 9,-10-5,143 44,-85-18,-64-24,-58-13,0 0,-1 3,49 18,-63-20,-1-1,2-2,-1 0,23 2,-22-3,-1-1,1 2,0 1,22 8,31 21,165 63,-10-14,-210-78,-1-1,1-1,-1-1,2 0,0-1,35-1,9 1,207 4,715-1,592 15,-1538-18,-23-3,2 2,-2 0,1 1,-1 0,1 2,-1 0,18 6,-31-8,1 0,-1 1,0-1,0 1,0-1,1 1,-2 1,1-1,-1 1,0 0,0-1,0 1,-1 0,1 0,-1 0,0 0,1 0,-2 1,3 6,-3-7,0-1,1 1,0-1,-1 1,1-1,1-1,-1 1,0 0,1 0,-1-1,8 6,44 19,177 57,-123-48,1482 494,-1537-515,-1-4,2-1,72 4,-51-7,418 46,429 54,-477-35,-307-43</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink106.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:45:02.908"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 2086,'799'0,"-597"16,-26-1,311-11,-58-2,-356 3,103 19,-39-5,1090 117,-1097-122,127 3,286-15,-298-5,25 2,-214 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1479.95">4702 1906,'49'0,"1"2,-1 2,1 2,75 18,-84-14,5 1,61 21,-95-27,1 1,-2-1,2 1,-1 1,-1 0,-1 1,1-1,-1 2,12 13,-20-19,1-2,-2 2,1 0,-1 0,0 0,1 0,-2 0,1-1,0 1,0 0,-1 0,0 0,0 1,0-2,0 1,0 0,0 0,-1 0,0 1,0-2,1 1,-4 5,-4 7,0-1,0-1,-15 19,15-23,-342 436,332-422,2 1,0 0,1 1,2 0,-16 44,14-39,-1 0,-2-1,0-1,-2-1,-28 30,46-55,-31 36</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22692.45">948 653,'-1'-1,"0"0,0 0,0-1,0 1,0-1,0 0,-1 1,1-1,1 0,-1 0,1 1,-1 0,1-1,0 0,0 0,-1 1,1-1,1 0,-1 0,0-3,16-35,-13 33,16-30,2 2,1 0,2 2,1 0,57-56,176-133,-244 210,2 2,0-2,-1 3,3-1,16-7,-26 14,-1 0,0 2,1-1,-1 0,0 1,1 0,0 0,-1 0,1 1,-1 0,1 1,0 0,-1 0,0 0,13 4,3 3,0 2,-1 0,0 0,-1 3,-1-1,0 1,33 30,-24-16,-1 3,0 0,37 57,-51-67,0-1,1-1,1 0,2 0,-1-2,1 0,2-1,0-1,1 0,0-1,1-2,0 1,45 14,63 14,171 49,-230-71</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23742.43">2173 474,'-6'1,"1"-1,0 1,1 0,-1 1,-1-1,2 1,-1 0,1 0,-1 0,0 0,1 0,0 1,0 0,1 0,-2 0,2 1,-1-2,1 2,0 0,1 0,-1 0,1-1,-2 1,2 1,-2 5,-5 14,-1 0,3 0,-7 36,10-41,-125 427,128-443,0 0,0 0,1 0,-1 0,1 0,0 0,0 1,0-2,0 1,1 0,0 0,-1 1,1-1,0-1,0 1,1 0,-1 0,0 0,1-1,0 0,0 1,0-1,0 1,0-1,1 0,4 4,5 1,0 1,0-2,2 1,23 7,-34-12,42 14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25496.39">4226 1227,'-73'-2,"-81"3,137 1,-2 0,0 1,1 0,0 1,-32 12,45-13,0-1,0 1,0 0,0 1,1 0,0-1,0 1,-1 0,2 1,-1-1,1 0,0 1,1 0,-1-1,1 2,-1-1,1 0,1 0,0 0,-1 7,-2 8,2 0,1 0,3 40,-1-51,0 0,1 0,1 0,0-1,1 1,-1-1,1 1,1-1,0 0,1-1,-1 1,1 0,0-1,2 0,-2-1,1 0,2 1,-2-2,1 0,1 1,14 4,-2 0,-1-2,2 1,1-3,-1 1,1-2,0-1,0-1,28 2,-43-5,0 0,-1 0,1 0,-1-1,0 0,1-1,0 0,-2 0,2 1,-1-2,0 0,10-5,-13 5,1 0,0-1,-1 1,0-1,-1 0,1 0,-1 0,1-1,-1 1,0 0,0-1,-1 0,0 1,0-2,0 1,1-10,1-16,-3-1,-2 2,0-1,-4 0,-12-59,15 79,-2 1,1-1,-1 1,0 0,0-1,-11-13,-6-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13075,24 +11582,20 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:35:28.589"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:44:34.146"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-    <inkml:brush xml:id="br1">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
       <inkml:brushProperty name="height" value="0.1" units="cm"/>
       <inkml:brushProperty name="color" value="#66CC00"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">326 550</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="7036.45">0 591,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="8508.18">1608 1,'3'0,"2"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3240 1886,'-937'29,"866"-25,-38 3,0-5,-123-13,218 10,0-2,0 0,0 0,0-1,1-1,0 0,0-1,0 0,1-1,-1-1,-17-14,-15-13,-1 3,-2 1,-1 3,-1 1,-1 3,-67-21,55 20,-66-35,2 0,3 3,-92-36,184 82,-1 1,0 2,-1 0,-61-3,53 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1830.35">330 1167,'0'-6,"-13"-9,-17-8,-16 0,-14-3,-2 3,9 12,13 15,21 12,12 11,15 0,12 2,9-4,13 7,5-2,1-6,-1-8,-8-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55488.45">1501 375,'1'-10,"0"1,0 0,1 0,1 0,-1 0,1 1,1-1,-1 1,2 0,-1 0,1 0,0 0,1 1,-1 0,14-13,9-5,0 1,50-32,-59 44,-2 0,7-5,0 0,2 2,47-20,-66 32,1 0,0 0,1 1,-1 1,0 0,1 0,-1 0,0 1,1 0,-1 1,1-1,-1 2,0-1,0 1,0 1,0-1,0 1,8 5,2 2,-1 1,-1 1,0 0,-1 1,0 1,-1 1,23 28,1 11,33 64,-48-76,2 0,2-2,47 54,-23-46,1-3,69 45,-47-36,-24-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56161.71">2181 299,'-6'6,"-22"35,-31 42,-6 20,1 5,-7 10,2-2,6-9,8-14,12-19,21-20,20-20,17-10,12-8,34-7,32-5,1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57406.96">2560 1055,'-68'-3,"44"1,0 1,1 1,-1 1,0 2,-35 6,55-7,0 0,0 0,0 0,1 1,-1-1,1 1,-1 0,1 0,0 0,0 0,0 1,1-1,-1 1,1-1,0 1,0 0,0 0,0 0,1 0,0 1,-1-1,2 0,-2 9,-1 12,1-1,2 1,2 26,-1-23,-1-4,0 1,2 0,8 48,-9-65,1-1,1 0,-1 1,1-1,1 0,-1-1,1 1,0-1,1 1,0-1,0 0,0-1,0 1,7 4,0-1,0-1,1 0,-1-1,2 0,-1-1,0-1,1 0,0 0,1-2,-1 0,0 0,1-1,0-1,-1-1,17-1,-28 1,0-1,1 0,-1 0,0-1,0 1,0-1,0 0,0 1,-1-1,1 0,0-1,-1 1,0 0,1-1,-1 1,0-1,0 0,0 0,-1 0,1 0,-1 0,1 0,0-5,3-9,0-1,-2 0,3-24,-2 10,21-83,-16 82,-1 1,-2-1,-1-1,-2 1,-1-49,-2 79,0-1,-1 1,1 0,-1 0,0 0,0 0,0-1,0 1,-1 0,1 1,-1-1,0 0,0 0,0 1,0-1,0 1,0 0,-1-1,1 1,-1 0,0 0,1 1,-1-1,-4-1,-2 0,1 1,0 0,-1 0,1 1,-1 0,0 1,-16 1,-9 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13110,7 +11613,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:35:41.631"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:45:41.517"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -13119,7 +11622,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 246,'20'0,"13"0,7 0,12 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="536">549 246,'6'0,"9"0,9 0,6 0,5 0,4 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="961.63">1211 211,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2057.02">1602 280,'-7'-6,"5"-1,9 0,16 0,12 3,20-4,12-1,23 0,36 4,15 0,-1 3,-26 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2640.5">3007 211,'7'0,"2"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3591.8">3671 34,'7'0,"8"7,9 0,7 2,5-4,3 7,-6-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4142.28">4297 141,'6'0,"9"0,9 0,7 0,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4677.13">4765 0,'7'0,"8"0,2 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13137,27 +11647,17 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:35:38.981"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:46:11.105"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1302 698,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="421.93">1812 373,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="986.51">2219 88,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-439.8">855 984,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1323.83">0 1533,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-796.89">366 1330,'4'0,"0"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2006.25">122 1309,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6839.21">509 1187,'144'10,"-9"0,797-7,-490-5,-325 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9288.19">305 1126,'17'-1,"0"-2,-1 0,0-1,0 0,0-1,22-10,-4 1,403-177,-334 135,-66 34,1 3,41-16,314-125,-364 148,14-9,70-46,-16 8,106-40,51-29,-247 125,0-1,-1 0,0 0,0 0,0 0,0-1,-1 0,0 0,0-1,0 1,-1-1,1 0,-1 0,-1-1,1 1,-1-1,0 0,-1 0,3-11,13-43,-8 34</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12762.12">1465 698,'0'4,"0"8,0 5,0 7,0 2,0 5,0-1,0-1,0-2,0-3,0-1,0-2,0 0,-3-4,-5-5,-4-5,-4 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15593.91">1832 678,'-22'67,"3"48,17-99,1-1,1 1,0 0,1-1,4 23,-3-35,-1 1,1-1,0-1,0 1,0 0,0 0,0-1,0 1,1-1,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 0,0 1,1-1,4 1,70 13,-77-15,1 1,0-1,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,-1-1,1 1,0-1,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1-2,0-1,0 1,0 0,-1-1,0 1,0-1,0 1,0-1,0 0,-1 1,1-8,-1 0,-1 0,0 1,0-1,-1 1,0-1,-1 1,-6-14,7 17,-2 1,1 0,-1 0,0 0,0 0,0 1,-1-1,0 1,0 0,0 1,-1-1,1 1,-1 0,-10-5,6 5,-1 1,1 0,-1 0,0 1,0 1,0 0,0 0,-18 2,16-2,1 0,-1 0,0-1,1-1,-1 0,-15-6,13 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18412.81">1771 882,'10'0,"7"0,5 0,4 3,2 2,0 3,-2 0,-1 2,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5624 1042,'-37'-21,"31"16,0 1,-1 0,-1 0,1 1,0 0,-10-3,-22-3,-44-3,-5-2,-104-20,-2 6,-247-4,-453 30,462 4,311 0,-147-4,224-1,1-2,0 0,0-3,-43-14,-54-33,51 18,26 10,43 18,0 0,-2 0,1 3,-36-9,-171-16,-73-12,-376-125,376 90,234 60,15 7,2-2,-1-3,-88-39,108 33,25 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1905.54">814 4,'-149'-1,"2"-2,-281 29,417-25,2 1,-2 1,2 0,-1 0,-9 4,18-6,0-1,0 0,0 1,0-1,0 1,0-1,-1 1,1-1,0 1,0 0,0-1,1 1,-1 0,0 0,0 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1 0,0-1,1 1,-1-1,2 1,10 8,2-2,-1 1,2-2,27 9,38 18,-43-13,-3 0,0 3,49 42,-64-48,-1 2,-2 0,0 0,-1 1,-2 1,21 39,-14-18,39 71,-30-70</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13205,17 +11705,17 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:36:15.383"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:46:18.033"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="920.67">1506 21,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2171 1,'-7'0,"-15"0,-31 6,-33 9,-22 2,-5 4,-4-2,-2-3,12 2,26-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1284.83">762 1,'-8'0,"-27"6,-36 2,-38 7,-28 6,-10 1,6 2,27-3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13233,16 +11733,16 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:36:48.910"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:46:24.906"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">191 0,'-10'0,"-36"0,-22 0,1 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13260,7 +11760,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:38:35.899"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:46:29.273"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13269,8 +11769,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">82 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1160.9">0 62,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2 136,'2'115,"0"-59,-5 75,13-185,-5 32,-1-1,-1 0,-1 1,-1-31,-25-188,21 456,3-148,0-11</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13288,17 +11787,20 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:38:37.942"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:46:38.509"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#CC0066"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="663.59">41 61,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1225 318,'-13'6,"-12"2,-14 5,-8 2,4 3,4-1,0-4,1-4,7-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="896.97">475 424,'-19'0,"-15"0,-8 0,-3 0,-1 0,1 0,2 0,1 0,0 0,1 0,2 0,6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2087.25">40 71,'-7'0,"-1"24,0 68,0 24,3 18,3 2,0-15,8-34,3-32</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3074.72">1 389,'0'-2,"1"1,-1 0,1-1,-1 1,1 1,-1-2,1 1,0 0,0 0,-1 0,1 0,0-1,0 1,0 0,1 0,0 1,-1-1,0 0,0 1,0 0,1-1,-1 0,0 1,1-1,-1 1,0 0,3-1,49-7,26 5,138 8,83 26,-5-1,-233-25,349 36,-211 5,-92-19,-67-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4767.13">277 0,'-13'6,"-5"8,-5 2,-7-2,-18 2,7 17,23 15,15 17,28 10,9-3,6-6,4-9,0-15,-8-8,-2-9,-7-9</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13316,19 +11818,20 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:38:59.187"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:46:53.514"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#CC0066"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">427 652,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="586.2">244 448,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1384.15">81 122</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1743.34">0 0,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4431 36,'-49'0,"1"3,-1 1,-48 10,-94 31,-74 11,-609 36,814-90,-90 13,113-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="850.51">1808 286,'-6'6,"-23"8,-12 8,-14-1,-10 4,-7-4,2-5,12 0,10 0,7-6,-11 3,-2-1,-6 4,8-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1989.42">242 535,'-7'0,"-22"0,-12-12,7-4,16 1,17 1,16 6,12 2,9 3,10 2,5 1,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4973.59">8 392,'29'6,"15"3,-43-9,0 0,0-1,0 1,0 0,0 0,0 0,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,-1 1,1-1,0 0,0 1,-1-1,1 0,0 1,-1-1,1 0,-1 0,2 1,-2-1,0 0,1 0,-1 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,0-2,0 1,0 1,0 0,0-1,0 0,0 1,0-1,0 0,0 1,-1-1,1 0,-1 1,1 0,-2 0,2-1,-1 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,-1 0,1 1,0-1,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1 0,-1-1,2 1,-1 0,0-1,1 1,-1 0,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-2 0,2 0,-1 0,1-1,0 1,0 0,-1 1,1-1,0 0,0 1,0-1,1 0,-1 1,0-1,-1 3,1 0,-1 1,1 0,0-1,0 1,0 0,1-1,0 1,0 0,0 0,0-1,1 1,0 0,0-1,0 1,1 0,-1-1,1 1,0-1,1 1,4 6,-4-8,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,1-1,0 1,0-1,0 1,-1-1,1 0,0 0,0 0,1 0,-1-1,0 1,0-1,0 0,-1 0,1-1,0 1,1-1,-1 0,6-2,-7 2,0-1,-1 1,2 0,-2-1,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0 0,-1-1,1 0,-1 1,0-1,0 1,0-1,0 0,1 0,-1 0,-1 0,0 1,0-1,1 0,-2 0,0-5,1-6,-2 1,0 0,-1 1,0-1,-5-13,4 17,0-1,-2 1,1 0,-1 0,-11-13,15 19,-1 0,0-1,0 1,0 0,-1 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 1,0-1,-1 1,0 0,-5-2,8 3,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,0 1,1-1,-2 1,2 0,-1-1,1 1,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,0 1,-2 1,0 1,1-1,0 2,0-1,-1 1,1-2,0 2,-1 7,1 0,1-2,0 1,0 1,1-1,3 19,-3-30,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,1 1,-1-1,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,14-11,11-24,-21 28,-1 2,1 0,0 0,0 0,1 0,-1 2,1-2,0 1,0 0,0 1,1-1,-1 1,1 0,0 0,0 1,1 0,-1 0,0 0,0 0,0 1,2 0,-2 0,0 1,1 0,0 0,0 0,-1 1,0 0,2 0,-2 0,0 1,13 4,83 30,165 49,218-1,-157-32,-4-2,27 5,-228-32,148 31,-23 6,253 73,-449-114</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6495.51">634 1,'0'4,"-1"0,1 0,-1 1,-1-1,1-1,0 1,-1 1,0-1,-1-1,1 1,0-1,-1 1,0 0,1-2,-1 2,-1-1,1 0,0 0,-2-1,-3 3,-11 6,0 0,-43 15,18-7,30-13,-1-2,1 1,-2-1,2-1,-2 0,1-2,-1 0,-17 0,17-1,0 1,0 0,1 1,-1 1,1 0,-1 0,-17 8,31-10,0 0,-1 0,1 0,0 0,-1 0,2 0,-1 1,0-1,0 1,1-1,-1 1,1 0,-1 0,1 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,1 0,-1-1,1 2,0-1,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 1,1-1,1 2,3 9,1-1,1 0,1 1,16 19,-2-1,-11-15,35 58,4-1,72 80,-115-145,0-2,1 1,-1-1,2 0,-1 0,0-1,12 6,12 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13346,16 +11849,17 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:39:12.568"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:47:04.029"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#CC0066"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">408 1,'-17'0,"-1"1,1 2,0-1,0 2,0 0,0 1,1 1,-1 1,1 0,1 1,-18 11,17-11,-1-1,-33 10,38-14,0 1,0 0,1 1,-1 0,1 1,0 0,-11 8,21-13,1-1,0 0,0 0,-1 0,1 1,0-1,0 0,-1 0,1 1,0-1,0 0,0 0,0 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,1 1,-1-1,0 0,0 0,0 1,1-1,-1 0,0 0,0 1,0-1,1 0,-1 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,25 7,-17-5,35 12,-1 2,0 2,69 39,-100-50</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">50 570,'0'-6,"0"-8,-8-20,-3-29,1-10,1-4,3 4,2 3,3 6,8 16,36 14,27 20,8 19,1 7,-16 9,-15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="969.73">239 174,'-16'6,"-30"8,10 3,26-3,23-4,19-2,17 3,3-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13373,21 +11877,17 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:38:53.431"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:47:06.338"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#CC0066"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">262 571,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="657.43">181 612,'-4'0,"0"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1253.83">1708 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-830.92">1362 225</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2599.42">731 388</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3497.75">1239 245,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">228 199,'0'532,"0"-544,-1-47,2 0,3 0,22-107,-13 118,33-82,-36 107,1 0,1 1,2 1,0 0,24-27,-36 44,1 1,0 0,0 0,0 0,1 0,-1 1,1-1,-1 1,1 0,0 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,1 1,-1 0,0-1,0 1,1 1,-1-1,6 2,-5 0,0 0,-1 0,1 1,0-1,-1 1,0 0,1 1,-1-1,0 1,-1 0,1 0,-1 0,0 0,0 0,0 1,0 0,-1-1,0 1,2 6,2 5,-1-1,-1 1,-1 0,3 28,-5-38,-1 1,1 0,-2-1,1 1,-1-1,0 1,0-1,-1 1,0-1,0 0,0 0,-1 0,0 0,-4 7,-12 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="645.08">1 464,'19'0,"20"0,28 0,49 0,42 13,7 4,-24-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13405,16 +11905,20 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:44:55.525"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:47:27.269"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 12,'4'-2,"0"0,0 1,0-1,0 1,0 0,0 0,0 1,0-1,1 1,-1 0,0 0,0 0,0 1,1-1,6 3,-1-2,32 7,0 1,0 2,42 18,-39-13,0-2,60 10,-9-5,138 46,-81-19,-63-25,-56-14,-1 1,0 2,48 20,-62-22,0-1,1-1,-1-1,23 2,-22-3,0 0,0 1,0 1,22 9,30 21,159 67,-9-15,-204-82,0 0,0-2,0-1,1 0,0-1,35-1,8 1,200 5,693-2,574 16,-1491-19,-21-3,1 2,-1 0,0 1,0 0,0 2,-1 0,18 7,-30-9,1 0,-1 1,0-1,0 1,0 0,0 0,-1 1,1-1,-1 1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,-1 1,3 7,-3-8,0-1,1 1,0-1,-1 1,1-1,1 0,-1 0,0 0,1 0,-1-1,7 6,44 21,170 59,-118-50,1435 517,-1489-540,0-3,1-2,70 5,-49-7,404 47,416 57,-462-36,-297-46</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1278 142,'-14'-5,"1"-1,0 2,-1 0,0 0,0 1,0 0,0 1,-1 1,1 0,-24 2,32-1,0 1,0 0,0 0,0 0,1 1,-2-1,2 1,0 1,-1-1,0 0,1 1,1 0,-1 1,-1-1,2 0,0 1,0 0,0 0,1 0,-2 1,2-1,0 1,0-1,0 2,1-1,0-1,-3 10,0 5,2 0,0 0,1 1,2 0,2 31,20 100,-14-106,-3-13,1 7,1-2,1 1,4-1,30 71,-38-101,1-1,0-1,0 1,1 0,-1-2,1 2,1-1,-1-1,0 0,2 0,-1 0,0-1,1 0,-1 0,0-1,1 1,0-1,0-1,14 2,0-1,-1-1,1 0,0-2,0 0,0 0,24-7,-28 4,0 0,0-2,-2 0,1 0,0-2,-2 1,1-3,0 2,-1-3,-1 1,0-1,-1-1,0 1,-2-2,1 0,-1 0,-1-1,0 0,-1-1,-1 1,-1-1,0-1,-1 0,-1 0,-1 0,4-24,-5-7,-2 0,-2-1,-2 1,-2 0,-4 1,-23-78,28 115,-1 0,1 0,-1 0,-1 1,0-1,0 1,-1 0,-1 1,1-1,-1 2,-15-12,8 8,1 3,0-1,-2 1,1 0,0 1,-31-7,-18 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="669.33">1198 784,'0'30,"0"41,0 26,0 14,0 33,0 1,0-16,0-18,0-16,0-13,0-13,0-7,0-7,0-2,0-3,0 1,0-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1099.08">1278 1783,'0'-7,"-7"-1,-3 7,-12 14,-2 19,-5 21,-23 33,-45 61,-38 42,-23 14,-5 3,4-10,10-26,24-30,39-39,41-48,28-33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1815.26">961 1888,'10'1,"2"1,-2-1,2 1,-2 1,1 0,-1 1,1-1,-1 1,0 1,0 0,-1 0,1 1,-2 0,1 0,-1 1,0-1,0 2,-1-1,9 12,5 9,-1 0,-3 0,0 1,20 48,-17-23,-3 0,-1 2,-3 0,8 94,-19 230,-2-369,0-8,0 1,0-1,0 0,0 0,-1 0,1 1,-1-1,0-1,0 2,-1-1,0 0,-1 3,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2580.92">843 1605,'13'0,"19"0,16-7,7-1,8 0,0 2,2 2,-10 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13432,20 +11936,20 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:45:02.908"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:47:32.500"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 2203,'765'0,"-572"17,-25-1,298-12,-55-2,-341 3,98 20,-37-4,1043 122,-1049-128,121 3,273-16,-284-5,23 2,-204 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1479.95">4499 2013,'47'0,"1"2,-1 2,1 2,71 20,-79-16,4 2,58 22,-90-29,0 1,-1 0,1 0,-1 1,0 1,-1 0,0 0,0 1,11 14,-19-20,0-1,-1 1,1 0,-1 0,0 0,1 0,-2 0,1 0,0 0,0 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,0 1,0-1,1 0,-4 5,-3 8,-1-1,0-1,-14 19,15-23,-328 460,318-446,1 1,1 1,1 0,1 1,-15 45,14-40,-1 0,-2-2,-1 0,-1-1,-27 31,44-58,-29 38</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22692.45">907 690,'-1'-1,"0"-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,1 1,-1-1,1 0,0 0,0 0,-1 1,1-1,1 0,-1 0,0-3,15-38,-12 36,15-32,2 2,1 0,2 2,1 0,55-59,167-140,-232 221,1 2,0-1,0 2,2 0,16-8,-26 15,0 0,0 1,0 0,0 0,0 1,0 0,1 0,-1 0,0 1,0 0,1 1,-1 0,0 0,0 0,12 5,3 2,0 2,-1 1,0 0,-1 2,-1 0,0 1,32 31,-23-16,-1 2,-1 1,37 60,-50-71,0-1,2-1,0 0,2 0,0-2,0 0,2-1,0-1,1-1,0 0,1-2,0 0,43 16,61 14,163 52,-220-75</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23742.43">2079 501,'-5'1,"0"-1,0 1,1 0,-1 1,0-1,1 1,-1 0,1 0,-1 0,1 0,0 1,0 0,0 0,1 0,-1 0,1 1,-1-1,1 1,0 0,1 0,-1 0,1 0,-1 0,1 1,-2 6,-5 14,0 0,2 1,-6 37,9-43,-120 451,123-468,0 0,0 1,1-1,-1 0,1 0,0 0,0 1,0-1,0 0,1 0,0 0,-1 1,1-1,0 0,0 0,1 0,-1 0,0 0,1-1,0 1,0 0,0-1,0 1,0-1,0 0,5 4,5 2,-1 0,1-1,1 0,22 8,-32-13,40 15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25496.39">4044 1296,'-70'-2,"-77"3,130 1,-1 0,0 1,1 0,0 1,-31 13,43-14,0 0,0 0,1 0,-1 1,1 0,0 0,0 0,0 0,1 1,-1 0,1-1,0 1,1 0,-1 0,1 1,0-1,0 0,1 1,0-1,-1 8,-2 8,2 0,1 0,3 42,-1-53,0-1,1 1,1-1,0 0,0 0,0 0,1 0,1 0,0-1,0 0,0 0,1 0,0 0,1-1,-1 0,1-1,1 1,-1-1,1-1,0 1,14 5,-2-1,0-1,1 0,1-2,-1 0,1-2,0 0,0-2,27 2,-42-5,1 0,-1 0,0 0,0-1,0 0,0-1,1 0,-2 0,1 0,0-1,0 0,9-5,-12 4,1 1,-1-1,0 1,0-1,-1 0,1-1,-1 1,0-1,0 1,0-1,0 0,-1 0,0 0,0-1,0 1,1-11,0-17,-2 0,-2 1,0-1,-3 0,-13-62,15 84,-1 0,0 0,-1 0,0 0,0 0,-10-14,-6-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1146 54,'-119'-2,"-147"6,242-1,1 0,-1 2,0 1,2 0,-2 1,2 2,0 0,0 0,1 3,1-1,0 1,1 2,-28 22,40-27,-1-1,2 1,-1-1,1 2,0-1,2 1,-2-1,2 2,1-1,0 0,-2 14,-3 15,-1 64,9-85,0-1,0 0,2 1,0-1,1 0,8 21,-8-30,0 0,1-2,-1 2,2-1,0 0,-1 0,1-1,2 1,-2-2,1 1,1 0,0-1,0 1,0-1,15 7,21 4,-1-1,2-2,-1-1,68 9,3 1,-95-17,0-1,0-1,38 2,-50-6,0 1,-1-1,1 0,0 1,0-1,-1-1,0 0,1-1,-1 1,0-1,1 0,-2 1,1-2,7-6,2-2,0 0,-2-2,0 0,-1-1,17-24,44-88,-48 79,-10 18,-1-1,-2 1,-2-2,0 1,-3-1,-2 0,0-1,-2 1,-2-1,-4-40,1 66,1 0,-2 1,0-1,1 1,-1 0,0 0,-1 0,0 0,0 0,-1 1,1 0,-2 0,1-1,0 3,-1-2,0 0,0 1,-1 1,1-1,0 1,-1 0,0 0,-1 1,2 0,-1 0,-1 0,1 1,-1 0,1 0,-2 1,2 0,0 0,-1 0,-7 2,-3 5,1 0,0 1,0 1,1 0,1 1,0 0,-27 24,23-18,-68 52,5 3,1 3,-93 115,105-96</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="801.45">664 625,'0'24,"0"75,0 57,0 39,0 83,0 18,0-16,0-44,0-51,0-49,13-49,5-39</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1491.34">786 2625,'0'0,"0"-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,-2 0,2-1,0 1,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,0-1,-20 6,-23 22,15 0,1 2,-31 42,29-35,-84 106,5 3,-87 160,179-273,1 1,2 1,1-1,2 1,-12 68,18-71,-2 0,-19 52,13-50</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2103.48">624 2517,'14'30,"12"23,7 20,-2 22,9 13,2 1,23 17,0 6,-4-12,-7-11,-4-10,-5-10,-2-8,3-5,3-17,-7-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2819.34">143 1911,'8'0,"14"-6,18-3,16-4,6-1,18 2,10 2,10-1,16-2,-6 5,-22 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13463,20 +11967,23 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:44:34.146"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:47:08.139"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3240 1886,'-937'29,"866"-25,-38 3,0-5,-123-13,218 10,0-2,0 0,0 0,0-1,1-1,0 0,0-1,0 0,1-1,-1-1,-17-14,-15-13,-1 3,-2 1,-1 3,-1 1,-1 3,-67-21,55 20,-66-35,2 0,3 3,-92-36,184 82,-1 1,0 2,-1 0,-61-3,53 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1830.35">330 1167,'0'-6,"-13"-9,-17-8,-16 0,-14-3,-2 3,9 12,13 15,21 12,12 11,15 0,12 2,9-4,13 7,5-2,1-6,-1-8,-8-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55488.45">1501 375,'1'-10,"0"1,0 0,1 0,1 0,-1 0,1 1,1-1,-1 1,2 0,-1 0,1 0,0 0,1 1,-1 0,14-13,9-5,0 1,50-32,-59 44,-2 0,7-5,0 0,2 2,47-20,-66 32,1 0,0 0,1 1,-1 1,0 0,1 0,-1 0,0 1,1 0,-1 1,1-1,-1 2,0-1,0 1,0 1,0-1,0 1,8 5,2 2,-1 1,-1 1,0 0,-1 1,0 1,-1 1,23 28,1 11,33 64,-48-76,2 0,2-2,47 54,-23-46,1-3,69 45,-47-36,-24-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56161.71">2181 299,'-6'6,"-22"35,-31 42,-6 20,1 5,-7 10,2-2,6-9,8-14,12-19,21-20,20-20,17-10,12-8,34-7,32-5,1-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57406.96">2560 1055,'-68'-3,"44"1,0 1,1 1,-1 1,0 2,-35 6,55-7,0 0,0 0,0 0,1 1,-1-1,1 1,-1 0,1 0,0 0,0 0,0 1,1-1,-1 1,1-1,0 1,0 0,0 0,0 0,1 0,0 1,-1-1,2 0,-2 9,-1 12,1-1,2 1,2 26,-1-23,-1-4,0 1,2 0,8 48,-9-65,1-1,1 0,-1 1,1-1,1 0,-1-1,1 1,0-1,1 1,0-1,0 0,0-1,0 1,7 4,0-1,0-1,1 0,-1-1,2 0,-1-1,0-1,1 0,0 0,1-2,-1 0,0 0,1-1,0-1,-1-1,17-1,-28 1,0-1,1 0,-1 0,0-1,0 1,0-1,0 0,0 1,-1-1,1 0,0-1,-1 1,0 0,1-1,-1 1,0-1,0 0,0 0,-1 0,1 0,-1 0,1 0,0-5,3-9,0-1,-2 0,3-24,-2 10,21-83,-16 82,-1 1,-2-1,-1-1,-2 1,-1-49,-2 79,0-1,-1 1,1 0,-1 0,0 0,0 0,0-1,0 1,-1 0,1 1,-1-1,0 0,0 0,0 1,0-1,0 1,0 0,-1-1,1 1,-1 0,0 0,1 1,-1-1,-4-1,-2 0,1 1,0 0,-1 0,1 1,-1 0,0 1,-16 1,-9 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">747 1247,'0'7,"0"13,0 16,0 19,0 25,0 6,0-7,-8-15,0-15,0-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1126.6">708 1177,'7'-10,"0"1,1 0,0 1,1-1,0 2,0-1,2 1,13-8,20-16,-7 0,-12 10,1 0,1 1,49-27,-68 42,1 2,0-1,-1 1,2 0,-1 0,0 1,1 0,-1 1,0 0,1 1,0-1,-1 1,0 1,2 0,-2 0,0 0,1 1,8 3,-5 0,-1-1,-1 2,2 0,-2-1,0 2,0 1,-1-1,1 1,-2 0,0 1,0 0,0 0,-2 1,0 0,1 1,-2-1,0 0,-1 2,0-1,-1 0,1 1,-2 0,3 16,-4 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2209.05">630 1391,'6'0,"16"0,24 0,11 0,2 0,5 0,-3 5,-4 4,-12-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31860.12">1412 1,'-16'0,"-27"-1,-79 9,106-5,2 0,-2 1,2 0,-1 1,1 0,-1 2,2-1,-23 15,0 4,2 1,1 1,1 2,2 2,-35 43,44-46,1 1,1-1,2 2,2 0,0 1,-18 64,30-82,0 0,1 0,0 1,1 0,1 0,0-1,5 24,-4-30,1 0,1 0,-1-1,2 1,-1-1,1 1,0 0,0-2,0 1,1 0,1-1,-1 1,0-1,1-1,13 9,15 8,2-2,0-2,2-1,1-2,-1-1,1-1,2-2,-1-2,43 4,-14-6,0-3,0-3,0-2,112-17,-172 18,5-1,0 0,-1-1,26-9,-35 11,-1-1,1 0,-1 0,0 0,1 0,0 1,-1-2,-1 0,1 1,0-1,-1 0,1 1,-1-2,0 1,0 0,-1-1,1 2,1-7,4-16,-3-1,-1 1,-1-1,-1 1,-6-45,3 17,-1-88,-5-103,8 237,-1-1,0 1,0-1,0 2,-1-2,0 1,0 0,-1-1,0 2,-1-1,1 1,-1-1,-2 0,-6-8,-12-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32638.46">1489 856,'0'1715,"-39"-1150,3-148,33-365,-3-1,-2 1,-26 86,-29 72,44-164</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33222.54">1333 3849,'0'24,"-6"38,-30 40,-28 26,-30 27,-38 37,-30 15,-35 9,-3-20,26-31,22-31,37-40</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34045.3">903 4169,'7'0,"9"0,7 0,7 13,6 33,-4 22,6 23,3 2,2-1,-1-1,14 6,3-11,-2-12,-4-19,-10-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34795.39">1020 4277,'5'2,"-1"-1,1 1,-1-2,1 2,0 1,-1-1,0 1,0-1,0 1,0-1,0 2,-1-1,1 1,0-1,-1 0,4 8,-1-5,727 828,-588-671,95 105,-147-182,-71-62</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13522,23 +12029,16 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:45:41.517"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:48:08.239"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 264,'19'0,"13"0,7 0,11 0,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="536">531 264,'6'0,"9"0,8 0,6 0,5 0,4 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="961.63">1172 227,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2057.02">1551 301,'-7'-6,"5"-2,9 0,15 1,12 3,19-5,12-1,22 1,35 3,15 1,-2 3,-25 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2640.5">2911 227,'6'0,"3"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3591.8">3553 37,'7'0,"8"7,8 1,7 1,5-3,2 6,-5-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4142.28">4159 151,'6'0,"9"0,8 0,7 0,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4677.13">4612 0,'7'0,"8"0,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13556,7 +12056,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:46:11.105"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:48:13.756"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13565,8 +12065,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5393 1100,'-35'-22,"29"17,0 0,-1 1,0 0,0 1,0 0,-9-4,-21-2,-43-4,-4-2,-101-21,-1 7,-236-5,-436 32,444 4,298 0,-141-4,215-1,1-2,-1-1,1-2,-41-15,-53-35,50 19,25 10,40 19,1 1,-2 0,1 2,-35-9,-163-16,-71-14,-360-131,360 94,225 65,14 6,2-2,-1-3,-84-41,103 35,25 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1905.54">781 4,'-143'-1,"2"-2,-270 30,401-25,1 0,-1 1,1 0,-1 0,-8 5,17-7,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,1 1,-1 0,0 0,0 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1 0,0-1,0 1,0-1,2 1,10 8,1-1,0 0,1-1,26 9,37 18,-42-13,-2 1,-1 2,48 44,-62-50,-1 2,-1 0,-1 1,-1 0,-1 1,19 41,-13-19,38 76,-29-75</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3490 3,'-165'-2,"-197"6,300 4,0 2,2 4,0 1,-78 32,57-19,-125 26,-130 21,4 1,188-42,82-16,-376 91,-356 99,764-200,5-1,1 1,0 1,-41 20,45-15</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13584,7 +12083,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:46:18.033"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:48:17.430"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13593,8 +12092,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2095 1,'-7'0,"-14"0,-30 6,-32 9,-21 2,-5 4,-4-2,-2-3,12 2,24-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1284.84">735 1,'-7'0,"-27"6,-35 2,-36 7,-27 6,-10 1,6 2,26-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2876 1392,'14'1,"0"1,0 0,0 1,15 4,30 6,8-10,-65-3,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,0-1,0 0,0 1,0-1,1-3,-3 4,1-1,0 2,-1-2,1 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,0 0,0-1,0 1,0 0,0 1,0-1,0 0,-1 0,1 0,0 1,0-1,-1 0,1 0,0 1,-2-1,2 1,-1 0,1-1,-1 1,-2 0,-50-7,50 7,0 0,1 0,-1 0,-1 0,1 1,0 0,0 0,0 0,-3 2,5-2,1-1,1 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,1-1,-1 1,1 0,0 0,-1-1,1 0,0 1,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,1 0,-1-1,0 0,1 1,-1 0,1-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,4 0,7 10,1 0,1-1,-1 0,3-2,-2 0,2 1,-1-1,2-2,0 0,-1-1,1 1,0-2,25 3,-38-6,0-1,-1 0,1 0,0 0,0-1,1 1,-1-1,0 1,-1 0,1-1,0 0,0 0,-1-1,1 1,-1 0,2-1,-2 0,0 0,0 1,1-1,-1 0,-1 0,1 0,0 0,0-1,-1 1,1-1,-1 2,0-2,1 0,-1 1,0-1,0 0,-1 0,1 1,-1-1,0 0,0-4,0 1,0-1,0 1,-1-2,0 1,-1 1,0-1,0 1,-1-1,1 0,-1 1,-1 0,1 0,-1 0,-6-7,3 7,-1 0,1 1,-2-1,1 1,0 1,-1 0,0 0,0 0,-1 1,1 0,0 1,-1 0,1 0,-17-1,-4 1,-1 1,0 1,-41 7,68-7,1 0,0 1,-2-1,2 1,0 0,0 0,-1 0,1 1,0-1,0 1,0-1,0 0,0 1,0 1,1-1,-1 0,-2 3,4-4,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,0 2,0 0,0-1,1 1,-1-2,1 2,0-1,-1 0,1 0,1 0,-1 0,0 0,4 1,5 6,2-2,-1 1,0-1,2-2,-1 1,1 0,-1-2,2 0,-1 0,1-1,28 2,-40-5,0 0,0-1,-1 1,1 0,0-1,0 0,-1 1,1-1,1 1,-2-2,1 1,-1 0,1-1,-1 1,0-1,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,-1-1,1 1,-1-1,0 1,1 0,-1 0,0-1,-1 0,1 0,0 1,-1-5,1 3,-1-1,0 1,0-1,0 0,0 1,-1 0,0-1,0 0,0 2,-1-2,1 1,-1-1,0 2,-1-1,1 0,-2 0,2 0,-1 1,-5-5,2 3,-1 2,0-1,1 0,-1 0,-1 2,1-1,0 1,0 0,-14-3,17 4,1 0,-2 1,1-1,1 1,-1 0,0 0,0 0,1 0,-2 1,1 0,1-1,-1 1,1 1,-1-1,1 0,-1 1,0 0,1-1,0 1,-5 4,7-6,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,1-1,0 1,0 0,-1 0,1-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 1,0 0,1 0,-1-1,0 1,0 0,1-1,0 2,1 0,-1-1,1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,2 0,3 1,1 0,0 0,0-1,18 0,-21-1,0-1,0 0,0-1,-1 0,1 0,-1 0,2-1,-2 0,0 1,0-1,0 0,0-1,0 0,-1 1,0-1,0 0,0-1,0 1,0 0,-1-1,0 0,-1 0,4-6,-5 7,0 1,0-1,0 1,0 0,-1-1,1 0,-1 1,0-1,0 1,0 0,0-1,-1 0,0 1,1 0,-2-1,1 1,0-1,0 1,-1 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,-2 1,1-1,0 1,0 0,0 1,0-1,0 0,-1 0,0 1,1-1,-5 0,-6-2,-2 1,0 0,1 0,-1 2,-29-1,7 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2590.03">4602 1891,'-14'0,"-16"0,-38-7,-20-7,-9-7,6-7,5 2,10 4,11-4,12 0,6 7,-2-1,1-3,-4-4,-1 3,3 6,9 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4093.2">4013 1321,'-528'0,"533"1,-1 1,1-1,-1 0,0 0,0 1,0 0,0 0,0 1,4 2,4 3,9 3,-2 3,-1-1,1 1,29 30,54 74,-40-42,-56-68,0-1,2 0,-1 0,0-1,1 1,0-2,0 0,1 1,0-1,0-2,15 8,8-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49869.62">6330 572,'-55'3,"-86"13,-17 1,57-7,1 2,0 6,1 2,-176 61,-31 13,224-73,-157 19,128-26,-158 42,-100 48,-53 13,367-107,0-3,0-1,-1-3,-58-3,39 0,-81 8,117-1,-1 1,2 2,-60 22,53-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51621.54">3426 964,'-24'0,"-15"-1,-1 1,1 2,-1 1,1 3,-69 16,19 10,2 3,-98 54,173-83,-56 34,66-38,-1 0,0 0,1 0,-2 0,2 0,0 0,0 1,0 0,0-1,0 1,1 0,-1-1,1 1,0 0,0 1,0-1,0-1,1 1,-1 4,1-5,1 0,0 0,-1-1,1 1,0-1,0 1,0 0,0 0,0-1,0 1,1-1,-1 1,0-2,1 1,-1 1,1-1,0 0,-1 0,1 0,1 0,-1 0,0 0,-1-1,1 1,0-1,0 1,0-1,3 0,65 6,-65-6,30 2,-1 1,1 2,50 13,101 36,-116-31,-17-4,54 26,-103-44,35 17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54519.73">3072 1286,'-37'-15,"-41"-14,42 18,-56-26,1-3,-4 4,-173-45,-96-35,279 81,-225-101,31 7,4 4,-464-190,672 290,-82-33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56706.74">719 3,'-195'-2,"-215"5,405-3,1 1,0-1,-1 1,1 0,0 0,0 0,1 0,-1 1,0 0,0 0,0 0,1 0,-1 1,1-1,0 0,0 1,0 0,1 0,-2 0,2 0,-1 0,1 1,0-1,1 1,-1-1,-1 7,-3 7,1 0,1 1,1-1,0 27,2-39,-1 22,2 0,0 1,8 44,-6-61,0-2,1 1,0 0,1-1,0 1,0-1,1 0,2 0,-2 0,1-1,1 1,-1-2,12 10,14 5</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13612,7 +12116,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:46:24.906"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:49:43.098"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13621,7 +12125,9 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">115 0,'-6'0,"-22"0,-13 0,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">386 1,'0'6,"0"14,0 47,0 43,0 77,0 17,0-4,0-27,0-36,0-35,0-34</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="864.92">428 181,'7'0,"10"0,23 0,14 0,3 7,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1551.68">1 544,'7'0,"10"0,9 0,15 0,14 0,14 12,1 4,-3 0,-7-4,-6-2,-4 1,3 0,1-2,-10-3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13639,7 +12145,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:46:29.273"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:49:48.291"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13648,7 +12154,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2 136,'2'115,"0"-59,-5 75,13-185,-5 32,-1-1,-1 0,-1 1,-1-31,-25-188,21 456,3-148,0-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">423 1,'-34'578,"24"-529,2-36,7-13,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 1,-1 0,1-1,0 0,-1 1,1-1,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,-11-63,8 40,-1-1,-1 1,-2 0,-9-24,13 42,-1-1,1 1,-1-1,-1 1,1-1,-1 2,0-1,0 1,-1-1,0 2,0-1,0 0,-1 1,0 0,1 0,-1 1,-1 0,-9-3,9 4,1-1,-1 1,1 0,-1 1,0 0,0 0,0 1,0 0,0 0,0 0,0 1,-11 3,14-2,1 0,-1 0,1-1,0 2,0 0,0-1,0 1,0 0,0 0,1 0,0 0,0 1,0 0,0 0,0-1,1 1,0 1,0-2,0 1,0 1,0 4,-3 7,1-1,1 1,1 0,0 0,2 0,0 0,0 0,2-1,0 2,5 15,-5-25,0-1,0 1,0-1,1 1,0-1,0 0,1 0,0 0,0-1,0 1,1-1,0 0,0 0,0-1,1 1,-1-1,1 0,0 0,1-1,-1 0,1 0,-1 0,1 0,0-1,0-1,10 2,-13-2,0-1,0 1,1-1,-1-1,0 1,0 0,0-1,0 0,0 0,0 0,0 1,0-2,0 0,1 1,-2-1,1-1,0 1,-1 1,5-6,-4 2,0 1,0-1,0 1,0-2,-1 1,0 0,0-1,-1 1,0-1,0 1,2-13,1-12</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13666,20 +12172,17 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:46:38.509"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:50:00.894"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="color" value="#CC0066"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1173 340,'-13'6,"-11"3,-13 5,-8 2,4 3,3-1,1-4,1-4,6-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="896.97">455 453,'-19'0,"-13"0,-8 0,-3 0,-1 0,1 0,1 0,2 0,0 0,1 0,1 0,7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2087.26">38 76,'-6'0,"-2"26,0 72,1 26,2 19,3 3,0-17,8-36,2-34</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3074.72">1 416,'0'-2,"1"1,-1 0,1-1,-1 1,1 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0-1,0 1,0 0,0 0,1 1,-1-1,0 0,0 0,0 1,1-1,-1 0,0 1,1-1,-1 1,0 0,3-1,46-7,26 4,132 10,79 27,-5-1,-222-27,333 39,-202 5,-87-20,-65-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4767.13">265 0,'-12'6,"-6"9,-4 2,-6-2,-18 3,7 17,21 16,15 19,27 10,9-3,5-7,4-9,0-16,-7-8,-3-11,-6-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4923 0,'-22'0,"2"1,-1 0,0 1,1 1,-1 0,1 2,-31 10,-55 19,-140 26,-969 139,595-105,53 23,-406 81,727-160,-432 87,615-104,51-12,12-4,19 1,15-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1624.01">1528 216,'-20'-1,"1"2,-1 0,1 1,0 1,0 1,0 1,0-1,1 2,0 1,0 0,-29 18,-54 40,4 3,-108 98,198-160,-6 4,1 1,0-1,0 3,2-2,-9 15,17-25,0 1,1 0,0 1,0-1,0 1,0-1,0 0,1 0,-1 0,1 1,0-1,-1 1,1 0,0-1,0 0,1 0,-1 1,1-1,-1 1,1-1,0 1,0-1,0-1,0 2,0-1,0 0,2 0,-2 0,1 0,-1 0,1 0,0-1,0 1,0-1,0 1,0-1,0 1,5 1,19 8,2 0,-1-2,1 0,1-2,-2-1,2-2,45 4,-30-3,-1 1,61 16,134 41,11 2,-209-53</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13697,7 +12200,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:46:53.514"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:50:18.369"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -13706,11 +12209,9 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4278 38,'-47'0,"0"3,0 2,-47 10,-90 32,-72 13,-588 37,786-94,-86 13,108-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="850.51">1746 304,'-6'6,"-22"9,-12 8,-13 0,-10 3,-6-4,1-5,12 1,10-2,6-5,-10 3,-2-1,-6 4,8-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1989.42">234 568,'-7'0,"-21"0,-12-13,7-4,16 1,16 2,16 5,11 3,8 3,11 2,4 1,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4973.59">8 416,'28'7,"14"2,-41-9,0 0,0-1,0 1,0 0,0 0,0 0,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,-1 1,1-1,0 0,0 1,-1-1,1 0,0 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,0-2,0 1,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,1-1,-1 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,0 1,0-1,1 0,-1 1,0-1,-1 4,1-1,-1 1,1 0,0 0,0 0,0 0,1 0,0 0,0 0,0 0,0 0,1 0,0 0,0 0,0 0,1 0,-1 0,1 0,0-1,1 1,4 7,-4-9,-1 0,1 0,0 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 0,1-1,0 1,-1-1,1 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,-1 0,1-1,0 1,0-1,0 0,6-2,-7 2,0-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 1,-1-1,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,0 0,0 0,1 0,-2 0,0-6,1-5,-1 0,-1 0,-1 1,0-1,-5-13,4 17,0 0,-1 0,0 0,-1 1,-10-14,14 19,-1 1,0-1,0 1,0 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,0 0,0 0,0 0,-1 1,1 0,-6-2,8 3,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,0 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 1,-2 1,0 1,1 0,0 1,0-1,0 1,0-1,0 1,-1 8,1-1,1-1,0 1,0 0,1 0,3 20,-3-32,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,1 1,-1-1,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,13-11,11-27,-20 31,-1 2,1-1,0 1,0 0,0 0,0 1,1-1,0 1,0 0,0 0,0 0,0 1,1 0,0 0,0 0,0 1,0 0,0 0,0 0,0 1,1 0,-1 0,0 1,1 0,-1 0,1 0,-1 1,0 0,1 0,-1 0,0 1,12 5,81 31,159 52,210-1,-151-34,-5-1,27 4,-220-34,143 34,-23 5,245 79,-434-122</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6495.51">612 1,'0'4,"-1"1,1-1,-1 1,-1-1,1 0,0 0,-1 1,0-1,0 0,0 0,0-1,-1 1,0 0,1-1,-1 1,-1-1,1 0,0 0,-1 0,-4 2,-10 7,-1-1,-41 17,18-8,28-14,0-1,0 0,-1-1,1-1,-1 0,0-1,0-1,-17 0,17-1,-1 1,1 0,0 1,0 1,0 0,0 1,-17 7,30-10,0 0,-1 0,1 0,0 0,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,1 0,-1 1,1-1,1 2,3 10,1-1,1 0,0 0,16 21,-1-1,-12-16,35 62,3-1,70 84,-111-154,-1-1,2 0,-1 0,1-1,0 0,0 0,11 5,12 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">623 1294,'0'-6,"7"-1,3-7,-1-6,-2-31,5-23,-1-19,6-17,0-7,4 3,-2 9,-4 5,-5 7,-4 7,-3 12,-1 20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1033.02">423 407,'1'-19,"1"0,1-1,0 1,3 1,-1-1,11-20,56-103,-68 138,0-4,0 0,1 1,1-1,0 0,1 1,-1 0,1 1,0-1,0 2,2-1,13-7,-17 10,2 0,-1 0,2 2,-2-1,0 0,2 1,-2 0,2 0,-2 0,2 1,-2 0,1 1,1-1,-2 1,2 0,-2 1,13 2,7 6,-2-1,0 1,0 3,-1-1,-1 1,0 1,38 33,-16-7,-3 2,50 62,-65-68,-4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6745.11">1066 833,'-20'0,"-9"-1,0 1,0 2,1 0,-1 1,-40 11,-52 24,-164 76,263-105,-3-1,2-1,-2 0,1-3,-1 1,1-1,-2-2,-36 0,49-2,-2 2,0 0,1 1,-21 6,28-8,2 1,0 0,-1 1,1-1,0 1,-1-1,2 1,-1 1,1-1,-1 1,1-1,0 1,-7 8,11-12,-1 1,1 0,0-1,-1 1,1 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,1-1,-1 0,0 1,0 0,1-1,-1 1,0 0,1-1,-1 1,0 0,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,1 1,-2-1,1 1,0-1,-1 0,2 1,35 8,-32-8,671 151,-625-142,0-1,1-3,0-2,1-1,82-7,-31 2,-70 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13728,17 +12229,17 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:47:04.029"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:19.474"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">40 598,'0'-6,"0"-9,-6-21,-3-30,1-10,1-5,2 4,2 4,2 6,7 16,28 16,22 20,7 20,0 8,-12 9,-13 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="969.73">192 183,'-13'6,"-24"9,8 2,21-2,19-4,14-3,15 3,1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">22 71,'16'1,"1"1,-1 1,-1 0,1 0,0 2,-1 0,26 13,-19-7,-1 0,-1 2,0 0,30 26,-29-20,1-1,1-2,30 18,-8-10,57 22,-82-38,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2066.77">528 23,'-4'-3,"1"1,-1 0,1-1,-1 1,0 1,0-1,0 0,0 1,0 0,-1 0,1 0,0 1,0-1,-1 1,1 0,0 0,0 0,-1 1,1 0,0-1,0 2,0-1,-1 0,-6 5,-5 1,1 0,0 2,0 0,-23 19,-8 12,35-29,0-1,-1 0,1-1,-2 0,0-1,0 0,0-1,-16 6,-98 26,106-30</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13756,17 +12257,16 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:47:06.338"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:24.310"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">228 199,'0'532,"0"-544,-1-47,2 0,3 0,22-107,-13 118,33-82,-36 107,1 0,1 1,2 1,0 0,24-27,-36 44,1 1,0 0,0 0,0 0,1 0,-1 1,1-1,-1 1,1 0,0 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,1 1,-1 0,0-1,0 1,1 1,-1-1,6 2,-5 0,0 0,-1 0,1 1,0-1,-1 1,0 0,1 1,-1-1,0 1,-1 0,1 0,-1 0,0 0,0 0,0 1,0 0,-1-1,0 1,2 6,2 5,-1-1,-1 1,-1 0,3 28,-5-38,-1 1,1 0,-2-1,1 1,-1-1,0 1,0-1,-1 1,0-1,0 0,0 0,-1 0,0 0,-4 7,-12 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="645.08">1 464,'19'0,"20"0,28 0,49 0,42 13,7 4,-24-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">278 115,'-2'43,"-9"52,6-62,1 0,2-1,2 48,0-78,0 1,0-1,1 0,-1 1,0-1,1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0 0,0-1,0 0,0 1,0-1,1 0,2 1,-1-1,-1-1,1 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,1-1,-1 1,0-1,0 0,5-3,9-9,-1 0,-1 0,0-1,-1-1,-1-1,14-22,-2-1,33-77,-47 88,12-51,-7 23,-16 56,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 1,0-1,0 1,0-2,7 16,-1 35,-3-3,-3 0,-2 0,-1 0,-3 0,-2 0,-21 77,22-103,-1 0,-1 0,-19 35,21-47,0 1,0-2,0 1,-1-1,0 0,0 0,-1-1,0 0,0 0,-13 6,2-2,0-1,0-1,-1-1,0-1,0 0,0-2,-30 4,38-8,0 1,0-2,0 1,1-2,-1 1,0-2,1 0,-1 0,1-1,0 0,0-1,1 0,-1-1,-14-10,-45-42,54 42</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13784,20 +12284,16 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:47:27.269"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:33.274"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1221 151,'-13'-6,"0"0,1 2,-2-1,1 1,0 1,-1 0,1 1,-1 1,0 0,-22 2,30-1,0 1,1 0,-1 0,0 0,1 1,-1-1,1 1,0 1,-1-1,1 1,0 0,1 0,-1 1,0-1,1 1,0 0,0 0,0 0,1 1,-1 0,1-1,0 1,0 0,0 1,1-1,0 0,-2 9,-1 6,2 1,0-1,1 1,2 0,2 33,19 106,-13-112,-3-14,0 7,2-1,1 0,3-1,29 76,-36-108,1-1,0 0,-1 0,2 0,-1-1,1 1,0-1,0-1,0 1,1-1,0 0,0-1,0 1,0-1,0-1,0 1,1-1,0-1,13 2,0-1,-1 0,1-1,0-2,0 0,0-1,23-6,-27 4,0-1,0-1,-1 0,0-1,0-1,-1 0,0-2,0 1,-1-2,0 0,-1 0,0-2,-1 1,-1-2,0 1,0-1,-2-1,1 0,-2-1,0 1,-1-1,-1-1,0 1,-1-1,-1 0,3-26,-4-7,-2 0,-2 0,-2 0,-2 0,-3 1,-23-82,27 121,0 1,0-1,-1 1,-1 0,1 0,-1 0,-1 1,0 0,0 0,-1 1,-14-12,8 9,1 2,-1 0,-1 0,1 1,-1 1,-29-8,-17 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="669.33">1145 831,'0'32,"0"43,0 28,0 15,0 34,0 2,0-17,0-20,0-16,0-14,0-14,0-7,0-8,0-2,0-3,0 2,0-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1099.08">1221 1890,'0'-7,"-7"-2,-2 8,-12 15,-2 20,-5 22,-22 35,-42 65,-37 45,-22 14,-5 3,4-10,10-28,22-31,38-42,39-51,27-35</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1815.26">918 2002,'10'1,"1"1,-1-1,1 1,-1 1,0 0,0 1,0 0,0 0,-1 1,1 0,-1 1,0 0,-1 0,0 1,0 0,0 0,-1 1,0 0,8 12,5 9,-1 1,-2 0,-1 1,19 50,-16-24,-2 1,-2 1,-3 0,8 100,-18 244,-2-391,0-9,0 1,0-1,0 1,0-1,-1 0,1 1,-1-1,0 0,0 1,0-1,-1 0,-1 4,-6-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2580.92">805 1701,'13'0,"17"0,16-7,7-1,7-1,0 3,2 1,-9 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 77,'102'0,"291"-7,773-44,-612 35,1804 14,-1191 4,9163-2,-10168 0,0 6,0 6,180 30,-265-25,-27-3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13824,7 +12320,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">208 1,'1'0,"0"1,-1 0,1-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,0 0,1 0,-1-1,0 1,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,1 0,-2-1,1 1,0 0,0 0,0 0,0-1,0 1,-1 0,1 0,-1 0,-10 100,-43 170,40-213,-28 115,-23 114,54-222,3 0,0 100,12 181,-2-327,1 0,1 0,1 0,0 0,2-1,0 0,1-1,0 1,1-2,2 1,-1-1,2-1,0 0,1 0,20 17,-13-17,1-1,0-1,37 15,-5-1,-29-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">209 1,'1'0,"0"1,-1 0,1-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,0 0,1 0,-1-1,0 0,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,1 0,-2-1,1 1,0 0,0 0,0 0,0-1,0 1,-1 0,1 0,-1 0,-10 94,-44 160,41-201,-28 109,-23 107,54-208,3-1,0 94,12 171,-2-308,1-1,1 1,1 0,0 0,2-1,0 0,1-1,0 1,1-2,2 1,-1-1,2-1,0 0,1 0,20 17,-13-17,2-1,-1-1,37 14,-5 0,-29-13</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13842,20 +12338,20 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:47:32.500"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:34.470"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1081 57,'-112'-2,"-139"6,228-1,1 1,0 1,-1 1,2 1,-1 0,1 2,0 1,1 0,0 2,1 0,0 1,1 1,-26 25,37-30,0 0,1 0,-1 0,2 1,-1 0,2 0,-1 0,1 1,1 0,0 0,-2 14,-2 16,-2 68,9-90,0-1,0 0,2 1,0-1,1 0,7 23,-7-33,0 0,1-1,-1 1,1 0,1-1,-1 0,1 0,1 0,-1-1,1 0,0 0,1 0,-1 0,1-1,14 8,19 4,0-1,1-2,0-2,64 10,2 2,-89-19,0-1,0-1,36 3,-48-7,1 1,-1-1,0 0,1 0,-1 0,0-1,0 0,0-1,0 1,0-1,0 0,-1 0,1-1,6-6,2-3,0 0,-2-2,1 1,-2-2,16-26,42-92,-45 83,-10 19,-1 0,-2 0,-1-2,-1 1,-2-1,-2 0,-1 0,-1 0,-2-1,-4-43,1 71,1 0,-1 0,-1 0,1 1,-1-1,0 1,-1-1,1 1,-1 0,-1 1,1-1,-1 1,0-1,0 2,0-1,-1 0,0 1,0 0,0 0,0 1,0 0,-1 0,0 0,1 1,-1 0,0 0,0 1,0 0,0 0,-1 1,1 0,0 0,0 0,-7 2,-3 5,1 1,0 0,0 2,1-1,0 2,1 0,-25 25,21-19,-64 54,4 5,2 2,-88 122,99-102</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="801.45">626 661,'0'26,"0"79,0 60,0 41,0 88,0 20,0-18,0-46,0-54,0-52,13-52,4-41</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1491.34">741 2778,'0'0,"0"-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,-1 0,1-1,0 1,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,0-1,-19 6,-21 23,13 1,2 2,-30 44,28-37,-80 112,6 4,-83 169,169-289,1 0,1 2,2-1,2 1,-12 72,17-75,-1 0,-19 55,13-53</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2103.48">589 2664,'13'32,"11"24,7 21,-1 24,7 13,3 1,21 19,1 6,-5-14,-6-10,-4-11,-4-11,-3-8,4-6,2-17,-7-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2819.34">135 2023,'7'0,"14"-7,17-2,15-5,5-1,18 2,9 3,9-2,15-1,-5 4,-21 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 73,'8'8,"3"44,0 25,-3 8,-2 1,-2-1,-2-7,-2-13,1-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="669.66">0 0,'4'0,"10"4,10 2,6 3,5 1,5-2,4-2,3-2,1-2,6-1,-4-1,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1430.39">0 338,'4'0,"6"0,9 0,9 0,9 0,1 0,-1 4,-3 1,-3 0,-3-1,-2-1,3 3,-4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2105.73">529 506,'4'4,"6"1,5 1,3-2,4-1,2-1,1-1,0-1,0 0,0 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2784.61">649 530,'0'4,"0"6,0 12,0 24,0 13,0 3,0 4,0 3,0-6,0-10,0-9,-4-9,-1-10</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13873,23 +12369,16 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:47:08.139"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:38.253"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">722 1323,'0'7,"0"14,0 17,0 21,0 26,0 6,0-7,-7-17,-1-15,0-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1126.61">685 1248,'6'-10,"1"0,1 1,0 0,0 0,1 1,0 0,1 0,14-8,18-17,-6 1,-12 9,1 1,1 1,48-29,-66 45,0 1,1 0,-1 1,1 0,0 0,0 1,0 0,0 0,0 1,1 1,-1-1,0 1,0 1,1 0,-1 0,0 1,0 0,9 3,-6 0,0 0,-1 1,1 0,-1 0,-1 1,1 1,-1 0,0 0,-1 1,0 0,-1 1,1 0,-2 0,0 1,0 0,-1 0,0 0,-1 1,0 0,-1 0,0 0,-1 1,3 17,-4 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2209.05">609 1475,'6'0,"15"0,24 0,10 0,2 0,5 0,-3 6,-4 3,-12-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31860.12">1365 1,'-15'0,"-27"-1,-76 10,103-6,1 0,-1 1,1 0,0 2,0-1,0 2,1 0,-22 15,1 4,1 2,1 1,1 2,2 1,-34 47,43-49,0 0,2 0,2 2,1 0,1 1,-18 67,29-86,0 0,1 0,0 1,1-1,1 1,0-1,5 25,-4-31,1-1,1 0,-1 0,1 0,0 0,1 0,0 0,0-1,0 0,1 0,0 0,0 0,0-1,1 0,12 9,15 8,2-2,0-2,2-1,0-2,0-1,1-2,1-1,0-3,41 5,-13-7,0-2,-1-4,1-2,108-19,-166 20,4-1,1 0,-1-1,24-10,-33 12,-1-1,1 0,-1 0,0 0,1 0,-1 0,0-1,-1 0,1 1,0-1,-1 0,1 0,-1-1,0 1,0 0,-1-1,1 1,1-6,3-18,-2 0,-1 0,-1 0,-1 0,-6-47,3 18,-1-94,-4-108,7 250,-1 0,0 0,0 0,0 1,-1-1,0 0,0 1,-1-1,0 1,-1 0,1 0,-1 0,-1 0,-7-9,-11-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32638.46">1440 908,'0'1819,"-38"-1220,3-157,32-387,-2 0,-3 0,-25 91,-28 77,43-174</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33222.54">1289 4082,'0'26,"-6"40,-29 42,-26 27,-30 30,-37 38,-29 17,-33 9,-4-21,26-33,21-33,36-42</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34045.3">873 4422,'7'0,"8"0,8 0,6 13,6 36,-5 23,7 25,3 2,1-2,0 0,13 5,3-10,-2-14,-3-20,-11-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34795.39">986 4536,'5'2,"-1"-1,1 1,-1-1,1 1,-1 1,0-1,0 1,0-1,0 1,0 0,0 1,-1-1,0 1,1-1,-1 1,4 7,-1-4,703 877,-569-711,92 111,-142-192,-69-67</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 27,'0'-5,"4"0,6-1,5 2,3 1,4 1,2 1,1 1,0 0,0 0,0 0,-1 1,1-1,-1 4,-4 6,-5 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13907,16 +12396,16 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:48:08.239"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:38.968"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#CC0066"/>
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'4'0,"6"0,25 0,27 0,12 0,1 0,-4 0,-10 0,-15 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13934,16 +12423,16 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:48:13.756"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:40.113"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#CC0066"/>
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3336 3,'-158'-2,"-188"6,287 4,0 3,1 3,1 2,-75 32,55-19,-120 27,-124 22,3 1,181-44,77-17,-358 95,-341 102,730-206,5-2,1 1,0 1,-39 21,43-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">50 0,'-4'83,"-16"95,-3 25,20 172,5-205,-1-156,0 1,1-1,1 0,0 0,1 0,1 0,0-1,1 1,0-1,1-1,0 1,1-1,1-1,0 1,0-1,17 14,-12-12</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13961,22 +12450,16 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:48:17.430"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:41.319"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#CC0066"/>
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2771 1477,'14'1,"-1"1,1 0,-1 1,15 5,29 5,7-10,-62-3,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1-1,-1 1,1 0,-1-1,0 1,1-1,-1 1,0-1,0 0,0 1,0-1,1-3,-3 4,1-1,0 1,-1-1,1 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,-1 0,1 0,0 1,-1-1,1 1,-1 0,1-1,-1 1,-2 0,-48-8,48 8,0 0,1 0,-1 1,0-1,0 1,0 0,0 0,0 0,-3 2,6-2,0-1,1 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,1-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,1 0,-1-1,0 1,1 0,-1 0,1-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,3 0,8 11,1-1,0 0,0-1,2-1,-1 0,1 0,0-1,1-1,0-1,0 0,0 0,1-2,23 4,-36-7,0-1,-1 0,1 0,0 0,0-1,0 1,0-1,0 1,-1-1,1 0,0 0,0 0,-1-1,1 1,-1 0,1-1,-1 0,0 0,0 1,1-1,-1-1,-1 1,1 0,0 0,0-1,-1 1,1-1,-1 1,0-1,0 0,0 1,0-1,0 0,-1 0,1 0,-1 0,0 0,0-4,0 0,0 0,0 0,-1-1,0 1,-1 0,1 0,-1 0,-1 0,1 0,-1 0,-1 1,1-1,-1 1,-5-8,2 8,-1 0,1 0,-1 0,0 1,0 0,0 1,-1 0,0 0,0 0,0 1,0 1,0 0,0 0,-16-1,-4 1,-1 1,0 1,-39 7,65-7,1 0,0 1,-1-1,1 1,0 0,0 0,-1 0,1 1,0-1,0 1,0 0,1-1,-1 1,0 1,1-1,-1 0,-2 4,4-5,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,0 2,0 0,0-1,1 1,-1-1,1 1,0-1,-1 0,1 0,1 0,-1 0,0 0,3 2,6 5,1-1,0 0,0-1,1-1,0 0,0 0,0-1,1-1,0 0,0-1,27 3,-38-6,0 0,0-1,-1 1,1 0,0-1,0 0,-1 1,1-1,0 0,-1-1,1 1,-1 0,1-1,-1 1,0-1,1 0,-1 0,0 0,0 0,-1 0,1 0,0 0,-1-1,1 1,-1-1,0 1,1-1,-1 1,0-1,-1 0,1 0,0 1,-1-6,1 4,-1-1,0 0,0 0,0 0,0 1,-1-1,0 0,0 0,0 1,-1-1,1 1,-1-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,-5-4,2 3,0 1,-1 0,1 0,-1 0,0 1,0 0,0 1,0 0,-13-3,16 4,1 0,-1 1,0-1,1 1,-1 0,0 0,0 0,1 0,-1 1,0 0,1-1,-1 1,1 1,-1-1,1 0,-1 1,1 0,0-1,0 1,-5 5,7-7,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,1-1,0 1,0 0,-1 0,1-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,1 0,-1-1,0 1,0 0,1-1,0 2,1 0,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0 0,3 0,3 1,1 0,-1 0,1-1,17 1,-20-3,0 0,-1 0,1-1,-1 0,1 0,-1 0,1-1,-1 0,0 0,0 0,0 0,-1-1,1 0,-1 0,0 0,0 0,0-1,-1 0,1 1,-1-1,0-1,-1 1,4-7,-5 8,0 1,0-1,0 1,0-1,-1 0,1 0,-1 1,0-1,0 0,0 1,0-1,-1 0,0 1,1-1,-2 0,1 1,0-1,0 1,-1-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,-5 0,-6-2,-1 0,0 1,0 0,0 2,-29-1,8 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2590.03">4434 2006,'-13'0,"-16"0,-37-7,-19-8,-8-8,5-6,5 1,10 5,11-5,10 1,7 6,-2 0,1-3,-4-5,-1 4,2 6,10 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4093.2">3867 1401,'-509'0,"514"1,-1 1,0-1,0 1,0-1,0 1,0 0,0 0,-1 1,5 3,4 2,8 4,-2 2,0 0,0 1,28 32,52 78,-38-44,-54-73,0 0,1-1,0 0,0 0,1 0,-1-1,1-1,1 1,-1-1,1-1,14 7,8-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49869.62">6099 607,'-53'3,"-83"14,-16 1,55-8,0 3,1 6,1 3,-170 64,-30 13,216-77,-152 21,125-28,-154 44,-95 52,-52 13,354-114,0-2,0-2,-1-3,-56-3,38 0,-78 9,112-2,0 2,1 1,-57 24,50-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51621.54">3301 1023,'-23'0,"-15"-2,0 3,0 1,0 1,0 3,-66 17,18 11,2 4,-94 56,167-88,-55 37,64-41,-1 0,0 0,1 0,-1 0,1 1,0-1,0 1,0 0,0-1,0 1,1 0,-1 0,1 0,0 0,0 1,0-1,0 0,1 0,-1 4,1-5,1 0,0 0,-1 0,1 0,0-1,0 1,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,0 0,-1-1,1 1,0-1,0 1,0-1,3 0,62 7,-62-7,29 2,-1 1,0 2,49 14,97 39,-111-34,-17-4,52 28,-99-47,33 18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54519.73">2960 1364,'-36'-16,"-39"-14,40 18,-53-27,0-4,-3 5,-168-48,-91-37,268 86,-217-107,30 7,4 4,-447-201,648 307,-80-34</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56706.74">693 3,'-188'-2,"-207"5,390-3,1 1,0-1,0 1,0 0,0 0,0 1,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 1,1-1,0 1,0 0,0 0,1 0,-1 0,1 1,-1-1,1 1,0-1,1 1,-1 0,-1 6,-3 8,2 0,0 1,1-1,0 29,2-42,-1 24,2 0,0 0,8 48,-6-66,0-1,0 1,1-1,1 0,0 0,0 0,1-1,1 1,-1-1,1 0,1 0,-1-1,11 10,14 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'1'6,"0"1,1-1,-1 1,1-1,0 0,1 1,-1-1,8 11,5 13,95 287,-100-267,-3 1,-1-1,-3 1,-2 0,-6 51,2 16,3-100,0-1,-2 0,0 1,-5 18,5-27,-1 0,-1-1,0 0,0 1,0-1,-1-1,0 1,-1-1,-10 12,-14 11,1-3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13994,18 +12477,17 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:49:43.098"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:50.982"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#CC0066"/>
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">341 1,'0'6,"0"15,0 49,0 45,0 80,0 19,0-6,0-27,0-38,0-36,0-36</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="864.92">378 189,'6'0,"9"0,21 0,11 0,4 7,-7 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1551.69">1 568,'6'0,"9"0,8 0,13 0,13 0,12 13,1 4,-3-1,-6-3,-5-3,-4 2,3-1,0-1,-8-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">573 1,'-28'1,"0"1,0 1,1 1,-1 2,-46 15,37-11,-1-2,1-1,-1-2,-54 0,39-2,51-4,-1 1,1 0,-1 0,1 1,-1-1,1 0,-1 1,1 0,-1-1,1 1,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,0 1,1 0,-1-1,0 1,0 0,1 0,-1 0,1 0,0 1,-2 2,2 3,-1-1,1 1,1 0,0-1,0 1,0 0,3 11,-1-3,3 64,-4-45,2 0,1-1,17 63,-21-95,0-1,0 1,1-1,-1 1,1-1,0 0,-1 1,1-1,0 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0 0,2 0,-1-1,0-1,0 1,0 0,0-1,-1 1,1-1,0 1,0-1,-1 0,1 1,-1-1,1 0,-1 0,1-1,-1 1,3-2,8-10,-1 0,0-1,13-21,-15 21,0 0,0 1,-1 0,2 1,0 0,0 0,22-18,-28 28,-1-1,0 1,1 1,0-1,-1 0,1 1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,-1 0,1 0,0 0,0 1,0 0,0-1,0 2,0-1,0 0,-1 1,1-1,0 1,-1 0,0 0,4 3,4 1,-1 1,0 0,0 0,-1 1,0 1,0-1,-1 1,0 1,-1 0,0 0,0 0,-1 1,-1 0,1 0,-2 0,0 1,0-1,-1 1,0 0,-1 0,-1 1,0-1,0 17,-1 26,2-26,-2 0,-2-1,0 1,-7 28,8-52,-1 0,0-1,0 1,0-1,0 1,-1-1,0 0,0 0,0 0,0 0,-1-1,1 1,-1-1,0 0,0 0,0 0,-1 0,1-1,-1 0,1 0,-1 0,0 0,0-1,1 0,-1 0,0 0,0-1,-9 1,-13-1,0-1,0-1,1-1,-30-8,35 7,-91-24,82 17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="829.05">1077 554,'0'4,"0"10,-4 6,-1 4,-4 10,-5 8,-4 0,-6 2,-1-3,-2 0,-3-3,2-8,0-5,5-7</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14023,16 +12505,18 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:49:48.291"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:52.748"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#CC0066"/>
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">422 1,'-34'625,"24"-572,2-39,7-14,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,0 0,-1 1,1-1,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,-11-69,8 44,-1-1,-1 1,-2 0,-9-25,13 44,-1 0,1 0,-1 0,-1 0,1 0,-1 1,0 0,0 0,-1 0,0 1,0 0,0 0,-1 0,0 1,1 0,-1 0,-1 1,-8-3,8 3,1 0,-1 1,1 0,-1 1,0 0,0 0,0 1,0 0,0 0,0 0,0 1,-11 3,14-2,1 0,-1 0,1 0,0 1,0 0,0-1,0 1,0 1,0-1,1 0,0 1,0 0,0 0,0 0,0 0,1 0,0 1,0-1,0 0,0 1,0 5,-3 7,1 0,1 0,1 0,0 0,2 1,0-1,0 0,2 0,0 1,5 17,-5-28,0 0,0 0,0 0,1 0,0 0,0-1,1 1,0-1,0 0,0 0,1 0,0-1,0 0,0 0,1 0,-1-1,1 1,0-1,1-1,-1 1,1-1,-1 0,1 0,0-1,0 0,10 1,-13-2,0-1,0 1,1-1,-1-1,0 1,0 0,0-1,0 0,0 0,0 0,0 0,0-1,0 0,0 1,-1-1,1-1,0 1,-1 0,5-5,-4 2,0 0,0 0,0 0,0-1,-1 1,0-1,0 0,-1 0,0 0,0 0,2-13,1-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 49,'0'16,"0"14,0 18,0 9,0 7,0 1,0 2,0 9,0 1,0-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1622.82">386 0,'-5'1,"0"0,0 0,0 1,0 0,0-1,0 1,1 1,-1-1,1 1,-1 0,1 0,0 0,0 0,0 1,1 0,-1 0,1 0,0 0,-4 8,-7 10,1 0,-14 35,20-38,1-1,0 1,-5 34,9-44,1 1,0 0,1-1,0 1,0 0,1 0,1-1,-1 1,5 13,-4-20,0-1,0 1,0 0,0-1,1 0,-1 1,1-1,-1 0,1 0,0-1,0 1,0 0,0-1,0 0,0 1,0-1,0-1,0 1,1 0,-1-1,0 0,1 1,-1-1,5-1,9 1,-1-1,0-1,26-5,-29 3,-1 0,0-1,0 0,-1-1,1-1,-1 1,-1-2,1 1,-1-1,-1-1,1 0,-2 0,1-1,9-14,-12 15,0 0,0 0,-1-1,0 1,-1-1,0-1,-1 1,0-1,0 1,-1-1,0 0,-1 0,0 1,-1-1,-1 0,1 0,-3-12,1 19,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,0 1,0 0,0-1,0 1,0 0,-1 0,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,0 0,-1 1,1-1,-8 1,-10-1,0 0,0 2,0 0,-25 6,12-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3562.82">338 458,'-4'1,"0"0,0 1,1-1,-1 1,1 0,-1 0,1 1,0-1,-6 6,-3 1,-1 0,0 0,0 0,2 1,-1 1,1 0,0 1,1 0,1 0,0 1,1 0,0 1,1 0,-8 20,14-30,0 0,0 0,0 0,1-1,-1 1,1 0,0 0,0 0,0 0,1 0,0 0,-1 0,1-1,1 1,-1 0,0-1,1 1,3 5,-2-5,1 0,0 1,0-1,0-1,0 1,1-1,-1 1,1-1,0 0,0-1,8 4,5 0,0-1,0-1,0 0,1-1,0-1,29-1,-28-1,-3 0,-1 0,1-1,31-7,-43 7,1-1,-1 0,1 0,-1-1,0 0,0 0,0 0,-1 0,1-1,-1 0,1 0,-1 0,-1 0,1-1,3-4,3-7,-1 0,0 0,-1-1,-1 0,-1-1,0 1,-2-1,0 0,2-22,-5 34,-1 0,0 0,0 0,-1 0,1 0,-1 1,-1-1,1 0,-1 0,0 1,0-1,-1 1,-5-9,5 10,0 0,-1 1,0-1,0 1,0 0,0 0,0 0,0 1,-1 0,1 0,-1 0,0 0,1 0,-1 1,0 0,0 0,0 1,-9-1,-20 2,4 4</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14050,17 +12534,17 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:50:00.894"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:55:02.912"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#CC0066"/>
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4769 0,'-21'0,"1"1,0 0,0 1,0 1,0 1,1 1,-31 11,-53 20,-135 27,-939 148,577-112,50 25,-392 85,703-169,-417 93,595-111,49-13,12-3,18 0,15-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1624.01">1480 228,'-19'-1,"0"2,0 1,1 0,-1 1,1 1,-1 1,1 0,1 1,-1 1,1 1,-29 18,-52 43,4 3,-104 103,191-168,-6 3,2 2,-1-1,1 2,1-1,-9 15,18-25,-1 0,1 0,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,1 1,0-1,-1 1,1 0,0-1,0 1,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0-1,0 1,0-1,0 1,5 1,18 9,2-1,-1-1,1-1,1-1,-1-2,1-1,43 3,-28-3,-1 2,58 16,131 43,10 3,-202-56</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'17'0,"13"0,5 0,2 0,-2 4,-3 1,2 8,-1 2,2-1,-1-4,-2 1,-7-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="890.55">25 242,'4'0,"10"0,6 0,4 0,6 0,2 0,0 0,-2 0,-2 0,3 0,0 0,-1 4,3 5,-5 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14078,18 +12562,16 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:50:18.369"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:55:30.854"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#E71224"/>
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">585 1378,'0'-6,"7"-2,2-7,-1-6,-1-33,4-25,0-20,5-18,0-8,3 4,-1 9,-4 5,-4 8,-5 8,-2 12,-1 21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1033.02">397 434,'1'-21,"1"1,1-1,0 1,2 0,0 0,10-21,53-111,-65 148,1-5,0 1,1 0,0 0,1 0,0 0,0 1,1 0,-1 0,1 1,1 0,13-8,-16 11,1 0,0 0,1 1,-1 0,0 0,1 1,-1 0,1 0,-1 0,1 1,-1 0,1 1,0-1,-1 1,1 0,-1 1,12 3,6 5,-1 0,-1 1,1 2,-2 0,0 1,0 1,35 35,-15-7,-2 1,46 67,-60-73,-5-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6745.11">1001 887,'-19'0,"-8"-1,0 1,0 2,0 0,0 2,-38 10,-48 27,-155 80,247-111,-2-2,1 0,-1-1,0-2,0 0,0-1,-1-2,-34 0,45-1,-1 1,0 0,1 1,-20 7,27-9,1 1,0 0,0 1,0-1,0 1,0 0,1 0,-1 1,1-1,0 1,0 0,0 0,-6 9,10-13,-1 1,1 0,0-1,-1 1,1 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,1-1,-1 1,0 0,0 0,1-1,-1 1,0 0,1-1,-1 1,0 0,1-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 0,2 1,33 9,-30-9,629 161,-586-151,0-2,1-3,0-1,1-2,76-7,-28 2,-66 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'12'0,"16"0,13 0,6 0,8 0,15 4,-5 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14107,7 +12589,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:19.474"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:57:59.479"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14116,8 +12598,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">22 71,'16'1,"1"1,-1 1,-1 0,1 0,0 2,-1 0,26 13,-19-7,-1 0,-1 2,0 0,30 26,-29-20,1-1,1-2,30 18,-8-10,57 22,-82-38,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2066.77">528 23,'-4'-3,"1"1,-1 0,1-1,-1 1,0 1,0-1,0 0,0 1,0 0,-1 0,1 0,0 1,0-1,-1 1,1 0,0 0,0 0,-1 1,1 0,0-1,0 2,0-1,-1 0,-6 5,-5 1,1 0,0 2,0 0,-23 19,-8 12,35-29,0-1,-1 0,1-1,-2 0,0-1,0 0,0-1,-16 6,-98 26,106-30</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">201 208,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2169.16">345 113,'-31'35,"2"1,-44 72,25-36,-2 5,-25 35,74-111,0 0,0 1,1-1,-1 0,-1 1,1-1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,-3 0,3-2,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,1 1,0-1,-1 0,1 0,0 0,0 1,-1-1,1 0,0 0,0 0,0-1,-1-8,1 0,0 0,1 1,3-17,1 6,1 1,1 0,1 1,1 0,0 0,1 1,15-19,95-109,-80 100,-33 37,0 1,0 0,0 0,1 0,0 1,0 1,1-1,0 1,-1 0,16-4,-19 7,-1 1,1 0,0 0,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0 1,0-1,-1 1,1 0,0 0,-1 0,1 0,-1 1,0 0,0 0,0 0,5 5,0 2,0 0,0 0,-1 1,0 0,-1 1,11 24,24 80,-36-100,-6-13,1-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0-1,1 1,0 0,-1-1,1 0,3 2,-4-2,0-1,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,0 0,1-1,-1 1,0-1,1 1,-1-1,0 0,0 1,2-2,6-6,0 0,0 0,-1-1,-1 0,8-11,-5 8,22-32,-1-2,44-86,-72 126,0 1,0-1,1 1,0 0,0 0,0 1,8-8,-11 11,0 0,0 0,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,1 1,-1-1,0 0,0 0,1 1,-1-1,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 1,24 47,-2 0,-2 1,-2 1,14 65,-30-103,31 135,-24-89</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4576.17">1500 425,'-49'-2,"34"1,-1 0,1 1,-1 0,0 1,-21 5,33-4,0 0,0 0,0 0,0 0,0 1,1-1,0 1,-1 0,1 0,0 1,0-1,1 1,-1-1,1 1,-3 5,-27 66,26-57,-6 13,-30 89,38-106,0 1,1 0,1-1,1 1,0 0,1 18,1-28,-1 0,1 0,1 0,-1 0,1 0,0-1,0 1,0 0,1-1,-1 0,1 1,0-1,1 0,-1 0,1-1,-1 1,1-1,0 0,0 0,1 0,-1 0,1-1,-1 0,1 0,0 0,0 0,0-1,5 1,-2 0,0-1,-1 0,1 0,0-1,-1 0,1-1,0 1,-1-2,1 1,-1-1,1 0,-1 0,0-1,0 0,0 0,0-1,-1 0,8-5,-5 0,0 0,-1 0,-1 0,1-1,-2 0,1-1,-1 1,-1-1,0-1,6-18,1-14,10-69,-16 78,-4 27,0-6,1 0,-2-1,0-17,-1 28,0 0,-1 0,1 0,-1 0,0 0,0 1,-1-1,1 0,-1 1,0-1,0 1,0-1,0 1,0 0,-1 0,-4-4,2 2,-1 0,1 0,-1 1,0 0,-1 0,1 0,-1 1,1 0,-10-3,-3 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7335.11">1764 690,'-1'-1,"0"1,0 0,0-1,0 0,0 1,0-1,0 1,0-1,0 0,0 0,0 0,1 1,-1-1,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0 0,0 0,-1-2,-3-37,4 35,-1-6,1 0,0-1,1 1,0-1,4-15,-5 25,0 0,1 1,-1-1,1 0,0 0,0 0,0 1,-1-1,2 0,-1 1,0-1,0 1,0-1,1 1,-1-1,1 1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 1,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,2 2,1 0,-1-1,0 1,0 0,0 0,-1 0,1 1,0 0,-1-1,0 1,0 0,1 1,-2-1,1 0,0 1,-1 0,0-1,1 1,1 7,2 6,-1 0,0 1,3 26,-7-31,1 0,1 1,0-1,1-1,0 1,12 22,9 16,-21-43,-1 0,1 0,1 0,-1-1,8 10,-9-14,0 0,1 0,-1-1,0 1,1-1,0 0,-1 0,1 0,0 0,0-1,0 1,0-1,0 0,9 0,10 1,-1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8222.13">2101 473,'0'-5,"-4"0,-5 4,-6 10,-4 9,-3 8,-10 21,-3 10,3 0,4-10,3-9,4-6,-1 3,-5 4,-3 3,5-5</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14144,21 +12629,21 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 672,'201'-1,"202"3,-400-3,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,-1-1,0 1,1 0,-1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,-1 4,1 21,-2 0,0 0,-2 0,-13 48,11-59,0-1,-2 1,1-2,-2 1,0-1,-1 0,0-1,-24 25,-146 122,-44 85,185-198</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="634.11">143 1201,'44'1,"0"2,0 1,0 3,0 1,-1 2,81 31,128 50,-231-84</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2247.25">1283 794,'-2'-1,"0"0,0-1,1 1,-1 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 1,0-1,0 1,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,0 0,0 0,0 0,1 0,-3 2,-8 4,1 1,0 0,-15 15,15-14,-15 14,0 2,1 1,2 1,0 1,-24 40,37-50,0 0,2 1,0 0,1 0,1 1,0 0,2 0,0 0,1 0,0 36,3-9,-1-26,1 1,0-1,2 1,1-1,6 29,-5-44,-1 0,1 0,0 0,0 0,1 0,-1-1,1 0,0 0,1 0,-1-1,1 1,0-1,0-1,0 1,1-1,-1 0,1-1,11 4,3 0,0-1,0 0,0-2,1 0,22-1,-40-2,3 1,0-1,0-1,0 1,-1-1,1 0,7-2,-12 2,1-1,-1 1,1-1,-1 1,0-1,1 0,-1 0,0 0,0 0,0 0,-1 0,1 0,0-1,-1 1,0-1,1 1,0-5,25-55,-3-1,28-117,-50 162,-1 0,-1 0,0 0,-2 0,-5-32,-3-24,10 64,-1-14,-1-1,-1 1,-10-36,12 54,-1 1,0 0,0 0,0 0,0 0,-1 0,0 0,0 0,0 1,-1 0,1 0,-1 0,0 0,0 0,-1 1,1-1,-1 1,0 0,1 1,-1-1,-8-2,-25-7,23 6,1 2,0-1,-1 2,0 0,0 0,0 2,0 0,-15 1,28 0,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,0 0,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1 0,0-1,0 1,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 4,0-4,-5 42</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3514.69">1750 1486,'-17'17,"-13"13,-5 8,-6 8,0 0,3-1,5-9,8-6,9-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5746.54">1669 1527,'-66'-21,"31"9,-15-7,38 13,-1 1,1 1,-1 0,0 1,-1 0,-21-2,34 5,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,0 0,1 0,-1 0,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 1,19 58,-15-50,0 3,68 154,-64-149,2 0,-1-1,2 0,0-1,1-1,30 28,-40-40,0-1,0 0,0 0,1 0,-1 0,1 0,-1-1,1 0,-1 1,1-1,0-1,0 1,-1 0,1-1,0 0,0 0,4 0,-6-1,-1 1,0 0,1-1,-1 1,0-1,0 1,0-1,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,1-2,-1 0,-1 1,1-1,-1 1,1-1,-1 1,0-1,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,-2-3,-2-5,0 1,-1 0,0-1,-1 2,0-1,0 1,-1 0,0 0,0 1,-1 0,0 0,-13-9,8 7,1-1,1-1,-1 0,-14-19,8 0,14 22,0 1,0 0,-1 0,0 1,0 0,0-1,-8-5,0 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6740.98">1974 957,'1'-1,"-1"0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 0,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,1 0,35-4,-32 4,25-3,0 2,0 2,-1 0,53 10,-67-7,-1 0,1 0,-1 1,0 1,0 1,0 0,-1 0,0 1,-1 1,0 0,12 13,-20-18,0 1,-1-1,0 1,0 0,-1 0,1 0,-1 0,0 0,0 0,-1 1,1-1,-1 1,-1-1,1 1,-1 0,0-1,0 1,0-1,-1 1,0-1,0 1,-2 6,-5 14,-1 1,-2-2,-16 32,16-34,-81 157,70-143,-1 0,-48 57,69-90,-1-1,0 1,0-1,0 1,0-1,-1 0,0 0,1 0,-1-1,0 0,0 1,0-1,-1-1,1 1,0 0,-1-1,-5 1,-4-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7357.94">2137 1283,'7'0,"6"0,7 0,4 0,2 0,2 0,1 0,2 3,-1 2,5 3,0 0,-2-2,-1 6,2 1,2-3,2-2,-6-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7998.55">3033 1567,'0'4,"-4"0,-4 1,-4-2,-4 0,-3 5,-1 2,-8 24,-2 12,-4 2,1 0,3-5,6-6,8-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8871.14">3521 530,'3'2,"0"0,0 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,1 0,0 0,-1 0,7 0,52 0,-41-1,17 1,-6-2,0 2,50 9,-73-9,0 1,-1 1,1-1,-1 2,1-1,-1 1,0 0,0 1,-1 0,0 0,1 0,-2 1,13 14,-15-14,0 0,0 0,-1 1,0-1,-1 1,1 0,-1 0,0 0,-1 0,0 0,0 12,-3 85,1-83,-2 12,-1 0,-2 0,-1 0,-2-1,-1-1,-1 1,-2-2,-1 0,-1 0,-2-1,0-1,-3-1,0 0,-1-2,-25 23,25-31,1-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9457.08">3684 896,'1'-1,"0"-1,-1 1,1 0,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,1 0,-1 1,0-1,1 0,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,2 0,42-2,52 13,-58-6,47 1,145-7,-166 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10768.59">4905 692,'-10'1,"-1"0,1 0,0 1,0 1,0 0,1 0,-1 0,1 2,-1-1,1 1,-15 11,-5 6,-51 50,64-57,-13 13,1 1,-47 62,67-79,0 0,1 1,1 0,0 1,0-1,1 1,1 0,1 0,0 1,0-1,0 22,2-13,2 0,0 0,1 0,1 0,12 44,-12-59,0 1,1-1,0 0,1 0,0 0,0 0,0-1,1 0,0 0,1-1,-1 1,1-2,1 1,-1-1,1 0,0 0,15 7,-12-9,-1 1,0-2,1 1,-1-2,1 1,-1-1,1-1,0 0,0 0,-1-1,1-1,-1 0,1 0,-1-1,0 0,0-1,0 0,15-8,12-10,-1-1,-1-1,40-37,-64 52,-5 4,0 0,0-1,0 0,0 0,-1 0,0-1,-1 0,0 0,0 0,0 0,3-11,-4 6,0-1,-1 1,0 0,-1-1,-1 0,-2-20,1-31,2 42,-1-1,-2 1,-7-40,7 57,0 0,-1 0,0 0,0 0,0 0,0 0,-1 1,0 0,0 0,0 0,-1 0,1 0,-1 1,0 0,0 0,-8-3,-2-2,-1 1,0 1,-1 1,-20-5,16 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11293">5516 1547,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12127.62">5821 631,'78'-2,"-45"0,-1 1,0 2,56 8,-84-8,-1 0,1 0,-1 0,1 1,-1 0,0 0,0 0,1 0,-2 0,1 1,0-1,0 1,-1 0,1 0,-1 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1-1,0 1,0-1,0 1,-1 0,1 3,1 13,-1 0,0 1,-5 35,3-39,-3 17,-1 0,-1 0,-2 0,-2-1,-16 39,0-14,-65 105,60-108,-32 79,47-97,4-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12834.71">5740 1018,'3'0,"5"0,11 0,7 0,4 0,2 0,2 0,-2 0,2 0,-3 0,-2 0,-4 0,-1 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14189.28">6493 1,'50'49,"-2"3,-3 2,-2 2,-2 2,-3 1,53 112,-60-94,-3 1,-3 1,-4 1,-4 0,-3 2,-4 0,0 160,-10-203,-2 0,-2 0,-1 0,-2 0,-2-1,-1 0,-19 43,18-52,-1-1,-2 0,-1-1,-1 0,-1-1,-1-1,-1-1,-2 0,0-2,-48 40,-19-5,66-44</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 644,'210'-1,"210"3,-416-3,-1 1,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,0-1,-1 2,2-1,-2 1,1 0,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,-1-1,0 1,1 0,-1 0,0 0,-1-1,1 1,-1 0,1 0,-1 0,0 0,0 0,0 0,-1 3,1 21,-2 0,0 0,-2 0,-14 45,12-55,-1-2,-1 1,1-1,-3 0,1-1,-2 1,1-2,-26 25,-151 116,-47 81,193-189</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="634.11">149 1151,'46'0,"0"3,0 1,0 3,0 1,-1 1,84 30,134 49,-241-82</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2247.25">1339 761,'-2'-1,"0"0,0-1,1 1,-1 0,0 0,0 0,0 0,-1 1,1-1,-1 0,1 1,0-1,0 1,0 0,0 0,-1 0,1 0,0 0,-1 0,1 1,0-1,0 1,-1-1,1 1,0 0,0 0,0 0,1 0,-4 2,-7 3,0 2,1 0,-16 14,15-14,-15 14,0 2,1 1,2 1,0 1,-25 38,38-48,1 1,2 0,-1 0,2 0,1 1,-1 1,3-1,0 0,1 0,0 35,3-9,-1-25,1 1,0-1,2 1,1-1,6 28,-4-42,-2 0,1-1,0 1,0 0,1 0,0-2,0 1,0 0,1 0,0-1,0 0,0 0,0-1,1 1,0-1,-1 0,2-1,10 3,4 1,0-1,0 0,0-3,1 1,23-1,-42-2,3 1,1-1,-1-1,0 1,0-1,0 0,7-2,-11 3,0-2,-1 1,1-1,-1 1,0-1,1 0,-1 0,0 0,0 0,1 0,-2 0,1 0,0 0,-1 0,0-1,1 1,0-5,26-52,-3-2,30-111,-53 155,-1 0,-1-1,0 1,-2 0,-6-31,-2-23,10 61,-1-13,-1-1,-1 1,-11-34,13 51,-1 1,0 1,0-1,0 0,0 0,-2 1,1-1,0 0,0 1,-1 0,1 0,-1 1,-1-1,1 0,-1 1,1-1,-1 1,-1 0,2 2,-1-2,-9-2,-25-7,23 7,1 1,1-1,-2 2,1 0,-1 0,0 2,1 1,-17 0,30 0,0 0,0 0,0 1,0 0,0 0,1 0,-1 0,-1 0,1 0,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1 0,0-1,0 1,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 3,0-3,-6 40</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3514.69">1827 1424,'-18'16,"-13"13,-6 7,-6 8,0 0,4-1,4-8,9-7,10-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5746.54">1742 1463,'-69'-20,"33"8,-16-6,39 12,-1 1,2 2,-2-1,1 1,-2 0,-21-2,35 5,0 0,-1 0,1 1,0-1,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,0 0,1 0,-1 0,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0 0,0 0,0 0,-1 0,1 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 1,20 55,-16-47,0 2,71 148,-66-143,1 1,0-2,1 0,1 0,0-2,32 27,-42-38,0-1,0 0,1 0,0 0,-1 0,1 0,-1-1,1-1,0 2,0-1,0-1,0 1,-1 0,1-1,1 0,-1 0,4 0,-6-1,-1 1,0 0,1-1,-1 1,0-1,0 1,0-1,2 0,-2 1,0 0,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,1-2,-1 0,-1 1,1-1,-1 1,1 0,-1 0,0-1,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,-2-2,-2-6,0 1,-2 1,1-2,-1 3,0-2,-1 1,0 1,0-1,0 1,-2 1,1-1,-14-8,8 6,2-1,0 0,0-1,-15-17,8-1,15 21,0 1,-1 1,0-1,0 1,0 1,0-2,-9-5,0 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6740.98">2060 917,'2'-1,"-2"0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 0,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,2 0,35-3,-33 3,27-3,-1 2,0 2,0 0,54 9,-69-6,-2 0,2 0,-1 0,-1 2,1 1,0 0,-2-1,1 2,-2 1,1-1,12 13,-21-17,0 1,-1-1,0 1,1-1,-2 1,1 0,-1 0,0-1,0 1,-1 1,1-1,-1 1,-1-2,1 2,-1 0,0-1,0 0,0 0,-1 1,0-1,0 0,-2 7,-5 13,-2 1,-1-2,-17 30,16-32,-84 151,73-138,-1 1,-50 54,72-87,-1 0,0 1,-1-1,1 1,0-1,-1 0,0 0,1-1,-1 0,-1 0,1 1,0-1,-1-1,1 1,-1 0,0-1,-5 1,-5-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7357.94">2231 1229,'7'0,"7"0,6 0,5 0,3 0,1 0,1 0,2 3,0 2,4 2,1 1,-3-2,0 5,1 2,3-4,1-1,-5-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7998.55">3166 1501,'0'4,"-4"0,-5 1,-3-3,-5 1,-3 5,-1 2,-8 22,-2 12,-5 2,2 0,3-5,6-5,8-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8871.14">3675 508,'3'2,"1"0,-1-1,1 1,-1 0,1-1,-1 1,1-1,0 0,0 0,0 0,-1 0,8 0,53 0,-42-1,18 1,-7-2,1 2,51 8,-75-8,-1 1,-1 1,2-1,-2 2,2-1,-2 1,0-1,1 2,-2 0,0 0,2 0,-3 0,14 15,-16-15,0 1,0 0,-1 0,0 0,-1 1,2 0,-2-1,0 1,-1 0,0-1,0 13,-3 80,1-79,-2 12,-2 0,-1-1,-1 1,-2-1,-2-2,0 2,-3-2,-1-1,0 1,-3-1,0-1,-3-1,1-1,-2-1,-26 22,26-29,1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9457.08">3845 858,'1'-1,"1"-1,-2 2,1-1,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,1 0,-1 1,0-1,1 0,-1 1,1 0,-1-1,2 1,-2 0,1 0,-1 0,1 0,2 0,44-2,54 13,-60-6,49 0,151-6,-173 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10768.59">5120 663,'-11'1,"0"0,1 0,-1 1,1 1,-1-1,2 1,-2 0,2 2,-1-1,0 1,-15 10,-5 6,-54 48,68-55,-15 13,2 1,-49 59,70-75,-1-1,2 2,1-1,-1 1,1 0,1 0,1 1,1-1,-1 1,1 0,0 20,2-12,2 0,0 0,1 1,1-1,13 42,-13-57,0 2,2-1,-1-1,1 1,0 0,0-1,1 0,0 0,0-1,1 0,0 1,0-2,1 0,0 0,0 0,0 0,16 6,-12-8,-2 1,1-2,0 1,0-2,0 1,0-1,0-1,1 0,-1 0,-1-1,2-1,-2 0,2 0,-2-1,1 0,-1-1,1 1,15-9,12-9,0-1,-2-1,43-36,-68 51,-5 3,1 0,-1 0,0-1,1 0,-2 0,0 0,-1-1,0 0,0 0,1 1,2-11,-4 5,0 0,-1 0,0 1,-1-2,-1 1,-2-20,1-29,2 40,-1-1,-2 1,-7-39,7 55,0 1,-1-1,-1 0,1 0,0 0,0 1,-1 0,0 0,0 0,-1 0,0 1,1-1,-1 1,-1 0,1 0,-8-3,-3-1,-1 0,1 1,-2 1,-21-4,17 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11293">5758 1482,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12127.62">6076 604,'81'-1,"-46"-1,-2 1,1 2,58 7,-88-7,-1 0,1 0,-1 0,1 1,0 0,-1 0,0 0,1 0,-2 0,1 0,0 0,0 1,0 0,0 0,-1 0,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,0 1,0-1,0 0,-1 1,1 3,2 12,-2 0,0 1,-6 34,4-38,-3 17,-1 0,-1-1,-3 1,-1-2,-17 38,0-13,-68 100,62-103,-32 75,48-93,4-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12834.71">5992 975,'3'0,"5"0,12 0,7 0,4 0,3 0,1 0,-1 0,1 0,-3 0,-1 0,-5 0,-1 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14189.28">6778 1,'52'47,"-2"3,-3 1,-2 3,-3 2,-2 0,55 108,-63-90,-2 0,-4 2,-4 1,-5-1,-2 3,-4 0,-1 152,-10-193,-2-1,-2 0,-2 1,-1-1,-2 0,-2-1,-19 42,19-51,-2 0,-2 0,0-1,-2 0,-1-1,0-1,-2-1,-2 0,0-2,-50 38,-20-4,69-43</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14176,7 +12661,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:24.310"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:59:11.326"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14185,7 +12670,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">278 115,'-2'43,"-9"52,6-62,1 0,2-1,2 48,0-78,0 1,0-1,1 0,-1 1,0-1,1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0 0,0-1,0 0,0 1,0-1,1 0,2 1,-1-1,-1-1,1 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,1-1,-1 1,0-1,0 0,5-3,9-9,-1 0,-1 0,0-1,-1-1,-1-1,14-22,-2-1,33-77,-47 88,12-51,-7 23,-16 56,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 1,0-1,0 1,0-2,7 16,-1 35,-3-3,-3 0,-2 0,-1 0,-3 0,-2 0,-21 77,22-103,-1 0,-1 0,-19 35,21-47,0 1,0-2,0 1,-1-1,0 0,0 0,-1-1,0 0,0 0,-13 6,2-2,0-1,0-1,-1-1,0-1,0 0,0-2,-30 4,38-8,0 1,0-2,0 1,1-2,-1 1,0-2,1 0,-1 0,1-1,0 0,0-1,1 0,-1-1,-14-10,-45-42,54 42</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 297,'58'99,"-13"29,-13-35,-32-93,0 1,1-1,-1 1,0-1,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,0 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1-1,0 1,1 0,-1 0,0-1,0 1,1 0,-1-1,0 1,0 0,1-1,-1 1,0-1,0 1,0 0,0-1,0 1,1-2,19-34,-16 27,53-101,50-136,-102 227,0 0,-1 0,1-26,3-12,-7 54,-1 0,1 1,0-1,0 0,0 1,1-1,-1 1,1 0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,0 1,-1-1,1 0,5 0,8 0,0 0,1 0,29 4,-13-1,32-1,-26-2,-1 2,62 10,-75-5</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14203,7 +12688,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:33.274"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:59:14.922"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14212,7 +12697,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 99,'98'1,"281"-11,745-55,-590 43,1739 20,-1149 4,8833-2,-9801 1,0 7,0 7,174 40,-256-34,-26-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">361 6,'-77'-3,"45"1,1 1,-1 2,-37 5,68-6,-1 0,1 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,1 0,-1-1,0 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 1,1 1,0-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,1-1,0 1,1 2,3 7,1 1,1-1,10 14,-15-23,13 20,-7-13,0 1,-2-1,1 1,-1 1,-1-1,0 1,0 0,-1 0,3 20,-2-10,1-30,-4 5,-1 0,0 1,1-1,0 0,0 0,0 1,0-1,0 1,0-1,4-1,-1 1,0 0,0 1,0 0,1 0,-1 0,1 0,-1 1,1 0,-1 0,1 1,0 0,0 0,-1 0,1 0,0 1,-1 0,1 0,-1 1,1-1,-1 1,0 1,6 2,-7-4,-1 1,1 0,-1 1,0-1,1 1,-1-1,0 1,-1 0,1 0,0 0,-1 0,1 1,-1-1,0 1,0 0,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,-1 0,1 0,-1 0,1 0,-3 5,2-4,-1-1,0 0,0-1,-1 1,1 0,-1-1,0 1,0-1,0 0,0 0,0 0,-1 0,0 0,1-1,-1 0,0 1,0-2,0 1,0 0,0-1,-1 0,1 0,0 0,-7 0,-13 2,0-1,-1-1,-30-3,27 0,-19 2,21 0,0-1,-38-5,41 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14230,7 +12715,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:34.470"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:59:16.686"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14239,11 +12724,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 73,'8'8,"3"44,0 25,-3 8,-2 1,-2-1,-2-7,-2-13,1-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="669.66">0 0,'4'0,"10"4,10 2,6 3,5 1,5-2,4-2,3-2,1-2,6-1,-4-1,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1430.39">0 338,'4'0,"6"0,9 0,9 0,9 0,1 0,-1 4,-3 1,-3 0,-3-1,-2-1,3 3,-4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2105.74">529 506,'4'4,"6"1,5 1,3-2,4-1,2-1,1-1,0-1,0 0,0 0,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2784.61">649 530,'0'4,"0"6,0 12,0 24,0 13,0 3,0 4,0 3,0-6,0-10,0-9,-4-9,-1-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">239 1,'-1'0,"-1"0,1 1,-1 0,1-1,0 1,-1 0,1 0,0 0,-1-1,1 2,0-1,0 0,0 0,0 0,0 0,0 1,0-1,-1 3,-18 33,13-22,-18 29,-8 12,3 1,2 2,-39 121,65-169,1-1,0 1,1 0,0 0,1 0,0 0,1 0,0 0,0-1,1 1,1-1,0 0,6 13,0-3,1-1,1 0,0 0,2-1,22 24,-27-34,-1 0,1 0,0-1,1 0,0-1,0 0,0 0,1-1,0-1,0 0,14 4,0-4</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14261,7 +12742,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:38.253"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:59:18.053"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14270,7 +12751,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 27,'0'-5,"4"0,6-1,5 2,3 1,4 1,2 1,1 1,0 0,0 0,0 0,-1 1,1-1,-1 4,-4 6,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'19'9,"-1"1,0 1,0 1,-1 0,0 1,-1 1,-1 1,0 0,-1 1,-1 0,0 1,-2 1,20 37,-5 5,-2 1,-3 1,-3 1,16 107,-33-161,0 1,-2 0,1-1,-1 1,0-1,-1 1,0-1,-1 1,0-1,0 0,-8 12,-4 7,-2 0,-21 26,9-14,-73 111,82-120</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14288,7 +12769,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:38.968"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:59:23.583"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14297,7 +12778,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'4'0,"6"0,25 0,27 0,12 0,1 0,-4 0,-10 0,-15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">167 1,'-3'4,"0"1,1-1,-1 1,1 0,0-1,0 1,1 0,-2 7,-3 10,-31 76,-57 174,92-261,-1-1,2 1,-1 0,1 0,1 0,0 0,1 0,3 21,2-12,0 0,1-1,17 32,-2-5,-12-23,1 0,1-1,1 0,29 37,-28-44</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14315,7 +12796,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:40.113"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:01:09.674"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14324,7 +12805,39 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">50 0,'-4'83,"-16"95,-3 25,20 172,5-205,-1-156,0 1,1-1,1 0,0 0,1 0,1 0,0-1,1 1,0-1,1-1,0 1,1-1,1-1,0 1,0-1,17 14,-12-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">700 2752,'-66'-11,"12"2,27 7,-1 1,0 1,0 1,0 2,1-1,-1 3,1 1,1 1,-1 0,1 3,1-1,-1 3,2-1,0 2,0 1,-25 20,41-27,0 2,-1 0,2 0,0 1,0 0,1-1,0 2,2-1,-9 22,4-1,1 1,-6 39,13-67,1 0,0 0,0 0,0 1,0-1,1 0,0 0,0 1,0-1,0-1,1 1,-1 1,1-1,0 0,5 4,-2-2,0-1,0 0,1 0,0 0,-1 0,1-1,2 0,8 5,12 3,0-2,1 0,53 10,-60-15,41 11,60 12,-108-26,-1 0,1-1,-1 0,0-2,0 1,24-5,-14 1,-1-1,0-2,-2 0,2-1,-2-2,1 1,19-14,-32 18,-1 0,0-1,0-1,-1 2,1-2,-1-1,-1 2,0-2,0 0,-1 0,0-1,0 2,-1-2,-1 0,2 0,-3 1,1-2,1-16,-2-16,-3-1,-9-58,9 95,0 1,1-1,-3 1,2 0,-1-1,0 1,0-1,0 2,-1-1,1-1,-1 2,-1 0,0-1,0 0,0 1,0 1,0-2,0 2,-2-1,1 0,-8-3,0 1,0 1,0 1,0 0,-1 0,1 1,-2 1,-25-2,9 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1603.64">6384 2592,'-25'-1,"0"1,-1 1,1 1,0 1,0 0,0 2,1 1,-43 16,-4 13,3 2,0 3,-77 61,64-44,73-52,-1 1,2 0,0 0,0 1,0 0,1-1,0 2,1 0,-6 7,9-11,1 0,-1 0,1 0,0 0,0 1,1-2,-1 1,1 1,0-1,0 0,0 0,0 0,1 0,0 1,0-2,0 1,1 0,-1 1,1-1,0-2,4 8,3 0,-1 1,2-2,-1 1,1-2,1 1,-1 0,2-2,-1 1,1-2,0 0,1 0,18 6,4 0,0-2,1-1,55 7,-76-13,-1-2,0-1,0 1,0-1,0-1,0 1,0-2,-1 0,1-1,0-1,-1 0,1 0,-2-1,2-1,-3 0,2 0,-2-1,13-9,24-15,-3-4,64-59,-96 81,0 0,-1-2,0 0,-2 0,0 0,-1-1,-1-1,0 1,-1-1,-1 0,6-30,-4 9,-5 25,0 0,-1 0,1-25,-3 35,0-1,0 1,-1 0,1-1,-1 2,0-1,0-1,0 1,-1 0,1 0,-1 0,1 1,-1-1,0 0,0 0,-1 1,0-1,1 1,-1 0,-4-3,-7-2,1 0,-1 2,1 0,-2 0,1 1,-1 1,-20-3,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-179799.25">4505 31,'-3'45,"0"-1,-3 0,-18 66,-53 125,10-41,67-192,-10 28,5-24,3-17,3-17,2 1,1 0,1 1,15-41,-4 10,-11 38,18-74,53-131,-63 187,14-29,-23 61,-2-1,1 2,0-1,0 0,0 0,1 2,0-2,1 1,5-4,-9 7,0 0,0 0,0 0,1 1,-1-1,0 0,0 1,1-1,-1 1,1-1,0 1,-1 0,0 0,1 0,-1-1,1 1,-1 0,0 1,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 1,0-1,3 2,-1 0,-1 1,1-2,0 2,-1-1,0 1,0 0,0 0,0 0,1-1,1 7,3 8,-1 1,-1 0,4 18,-9-34,37 155,87 221,-102-332,-6-27,-16-18,0-1,1 0,-1 0,0 0,0 0,1 1,-1-1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,0-1,0 1,1 0,-1 0,0-1,0 1,0 0,0-1,0 1,1 0,-1 0,0-1,0 1,0-1,13-36,15-72,-17 57,-8 40,0-10,3 0,0 1,0 0,2 0,1 0,1 1,1 0,23-32,105-83,-39 41,-99 93,0-1,0 1,0 0,2-1,-2 1,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 1,0-1,-1 1,4-1,-4 1,0 1,1-1,-1 0,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 2,5 7,-2 1,0-1,0 1,2 18,0-7,223 738,-208-696</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-178323.33">6408 832,'-7'-6,"0"1,0 0,-1 2,0-2,0 1,0 1,0 0,0 1,-2-1,2 1,0 0,-16-1,-1 0,1 2,0 1,-35 3,53-1,1-1,-1 1,1 1,1-1,-2 0,1 1,1 0,-1 0,1 0,0 1,-1-1,1 1,1 0,-1 0,-4 8,1-3,1-2,1 2,0 0,1 0,-1 0,2 0,-5 16,8-21,-1-1,1 1,0 0,0 0,0 0,0-1,1 1,0 0,0 0,0 0,0-1,0 0,1 1,0 0,0-1,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0-1,5 4,0-2,-2 0,1-1,1 0,-1-1,0 1,2-1,-2 0,1 0,-1-1,2 0,13 0,-8-1,1-1,-2 0,2 0,-2-2,1 0,-1 0,1 0,0-2,-1 0,0 0,-1-1,1 0,-2-2,0 2,1-3,-1 1,0 0,17-21,-11 12,27-38,-40 50,0 0,-1-1,0 1,0 0,-1-1,0-1,0 2,0-1,-1 0,0-1,-1 2,1-12,-2 15,1 0,-1-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,0-1,1 0,-1 0,0 1,0-1,-1 1,1-1,0 1,0 0,0 1,0-1,-1 0,1 0,0 1,-1-1,1 1,-2-1,2 1,0 0,-1 0,1 0,-3 0,-18 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-176356.45">6759 648,'-3'91,"1"-42,2 1,10 63,-10-109,1-1,-1 0,1 1,0-1,0-1,0 1,0 0,1 0,-1 0,1 0,0 0,0-1,0 1,0-1,0 1,2-1,-2 0,1 0,-1 1,1-3,0 2,5 2,-2-2,-1-1,0 0,1 0,-1 0,1-1,-1 1,1-1,-1-1,1 1,-1-1,1 0,-1 0,0-1,6-1,9-4,-1-1,0 0,0-2,-1 0,-1-1,0 0,0-2,-2 0,1 0,21-27,-27 30,-2 1,-1-2,2 1,-3-1,0-1,0 1,0-1,-1 1,-1-1,-1-1,0 1,0-1,-2 1,1 0,-2-2,0 2,-2-15,4 41,-2-1,0 1,-2 21,0 6,0 552,2-588,0 1,0-1,0 0,-1 0,0 0,0 1,0-2,-1 1,1 0,-1 0,-1-1,1 1,-5 5,5-8,-1 0,0 1,0-1,0 0,0 0,0 0,-2 0,2-1,-1 1,1-1,-1-1,1 1,-2 0,2 0,-1-1,0 1,0-1,1 0,-1 0,-7-2,-13 1,0-1,-1-2,1-1,1-1,0 1,0-3,0-1,1 1,0-3,1 0,0 0,1-2,-28-22,41 28,1 0,1 0,-1 0,0-1,2-1,0 2,0-2,0 1,1-1,1 1,-2-1,3 0,-1 0,1-1,0 2,2-16,-1 19,0 1,1-1,-1 0,1 0,0 1,2-1,-2 0,1 1,0 0,0-1,1 1,-1 0,1-1,0 2,0-1,2 0,-2 1,1-1,0 2,0-2,0 1,1 1,-1-1,1 0,-1 1,1 1,-1-1,2 0,-1 1,0 0,11-2,64 2,-67 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-102517.7">524 1678,'4'0,"10"0,15 0,12 0,3 0,-3 0,-2 0,-5 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-101716.18">1325 1357,'0'4,"0"5,0 21,0 17,0 11,0 8,0 4,0 4,0-10,0-6,0-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-100211.27">1776 1334,'-5'0,"-1"0,0 0,1 1,0-1,0 1,-1 0,0 1,1-1,1 1,-1 0,-1 1,-6 3,10-5,0 1,0 1,0-1,0 0,-1 1,1-1,1 1,-1-2,1 2,0 0,-1 0,2-1,-1 1,0 0,0-1,1 1,0 0,-1 0,1 0,0 0,0 0,1-1,0 7,1 3,1 5,0 1,2-1,8 26,-10-37,-1-1,1 1,1-2,0 1,-1 0,1 0,0-1,0 0,1 0,0 1,0-2,0 0,0 1,11 4,-4-2,0-1,0 0,1 0,0-2,13 3,-24-5,1-1,0 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,-1 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,-1-1,1 1,0-1,-1 1,1-1,0 0,-1 1,0-1,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,-1 0,1-3,5-28,-3 15,0 0,3 0,8-24,-1 14,18-44,-30 67,1 1,-1-2,0 1,-1 0,1 0,-1 0,0-1,0 2,-1-2,1 1,-4-10,3 13,0 0,0 0,-1 0,1 0,-1 0,1 2,-1-2,-1 0,1 1,0-1,1 1,-1 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 1,-5-2,-57-3,33 3,6-1,17 0,-1 2,0-1,0 1,0 1,0 0,0 0,0 1,-19 3,18 5,5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-98732.14">1951 1266,'0'4,"0"13,8 7,4 8,3 1,0 12,-4 9,-2 8,-4 4,-2 7,-2-5,-1-11,-1-10,1-10,-1-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-97338.2">2252 1037,'1'9,"0"-1,1 1,-1-2,2 2,4 11,3 5,14 60,-5 1,-2 1,-5 0,-5 2,-3-2,-5 2,-4-2,-28 141,0-123,18-67</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-76579.14">4606 1243,'1'0,"-1"0,0 1,1-1,-1 0,1 1,-1-1,0 0,1 1,-1-1,0 1,0-1,1 0,-1 1,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,0 1,0-1,-1 1,-6 22,-15 25,-53 77,44-77,-32 70,55-100,0 0,2 1,1 0,1 0,1 0,0 0,1 35,2 12,-1-39,1 0,2-1,0 1,13 45,-13-67,0-1,0 0,0-1,2 1,-2 0,1 0,0 0,0-2,1 2,-1-1,1 0,0 0,0 0,0-2,5 4,2 1,-1-2,1 0,0 0,0-1,13 3,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-74782.16">4630 1632,'0'-2,"0"0,0 1,0-1,0 0,2 1,-2 0,0-1,1 1,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 2,1-1,-1 0,3-1,0 0,1 0,-1 1,0 0,0 0,0 0,0 0,1 1,-1-1,8 1,-3 1,-1-1,-1 1,2 0,-2 1,1 0,-1 0,1 1,-1-1,0 1,14 8,-17-7,0-1,0 1,0 1,-1 0,0-1,-1 0,1 1,-1 1,0-2,0 1,1 0,-2 1,0-2,0 2,0 7,0 14,-4 51,1-36,2-26,-8 76,7-86,1 0,-2-1,1 1,-1 0,0-2,0 2,-1-1,1 1,-1-2,-1 1,0 0,1 0,-7 5,8-8,0 0,-2-1,2 1,0-1,-1 1,1-1,-1-1,1 1,-1 0,0 0,-1 0,2-1,-1 1,0-1,0 0,0 1,1-1,-1-1,0 1,-5-1,4 0,0-1,0 1,0 0,-1-1,1-1,0 1,0 0,1-1,-1 0,1 0,-1 1,-2-5,2 2,0 1,0 0,1-1,-1 0,1 0,0 0,1 0,0 0,0-1,0 1,0 0,1-1,0 1,0-1,1 0,0 1,0-1,0 0,2-7,-1 11,-1 1,1 0,-1-1,1 1,0 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,2 1,-2-1,1 0,-1 1,0 0,1-1,-1 1,1 0,-1 0,1-1,0 1,-1 0,1 1,-1-1,1 0,-1 0,2 1,-2-1,1 1,-1-1,0 1,1-1,1 2,9 3,1 2,-1 0,20 13,-18-12,122 84,-117-82</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-73182.06">5131 1518,'-2'0,"0"1,1-1,-1 1,0 0,1 0,-1-1,1 1,-1 0,1 0,0 0,-2 0,2 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-2 2,-16 45,14-35,-15 37,0-3,2 1,3 1,-10 62,24-107,-1 0,1-1,0 0,0 1,1 0,-1-1,2 0,-1 1,1 0,-1-2,1 2,0-1,0 1,0-1,0-1,1 1,0 0,-1 0,3 0,-2-2,0 1,6 5,2-1,0-2,-1 1,2-1,-1-1,1 0,-1-1,2 1,12 1,-23-4,1 0,0-1,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,-1 0,1-1,0 1,0 0,-1 0,2-1,-2 0,1 0,0 0,-1 0,0 0,1-1,-1 1,0-1,0 0,2 1,-2-1,-1 0,1 1,0-1,0-1,-1 1,1 0,-1-1,0 1,0-1,0 1,0 0,0 0,0-1,-1 0,1 1,-1-1,0 0,0 1,0-6,1-3,0 0,-1 0,-1 0,1 0,-2 0,0 0,0 0,-5-12,4 17,0 0,-1 1,0-1,1 1,-1-1,-1 2,1-1,-2 0,1 0,0 2,0-2,-1 1,0 1,0-1,-7-2,-12-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-72392.78">5281 1403,'4'0,"15"15,4 21,-3 44,-4 27,-4 7,-6-8,-2-11,-3-12,-1-22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-30362.65">2902 1518,'-29'-1,"1"2,0 1,-1 1,1 1,-50 14,72-17,0 1,0 0,0 0,-1 1,2 0,0 0,-1 0,1 0,-1 1,2 0,-1 1,1-2,0 2,0 0,-1 0,2-1,-1 1,1 0,1 1,-1-1,1 0,0 1,0 0,-1-1,2 1,0 1,0-2,1 1,0 0,0-1,1 11,0-8,1 1,1-2,-1 2,1-1,0 0,0 0,1-1,0 1,2-1,-2 0,1 0,1-1,-1 1,2-1,0-1,-1 1,1 0,1-1,-1-1,1 1,0 0,0-1,0-1,1 0,10 3,78 29,-74-29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-29021.1">3178 1586,'-13'0,"-10"-1,0 1,-1 2,1 0,-28 6,44-6,-2 1,2-1,1 1,-1 0,-1 1,2 0,-1 0,1 0,-1 0,2 1,-1 1,1-2,-1 2,1 0,1-1,-5 10,2-7,2 2,0 0,0 0,1 0,1 1,-1-1,1 0,1 1,1-1,0 1,0 18,2-24,-1-1,1 0,0 0,0 0,0 0,0 0,1 0,-1-1,2 1,-1 0,1 0,-1-1,1 0,-1 0,1 1,0-1,0 0,2 0,-2-1,0 0,1 0,0 1,0-1,0 0,0 0,1-1,-1 1,0-1,0 0,0 0,2-1,4 1,-2-1,2 1,-2 0,0-1,2-1,-2 1,0-1,2 0,-2-1,0 0,1 0,-1-1,-1 0,2-1,-2 2,1-3,11-7,-12 6,2-1,-3 0,1 0,0-1,-1 1,-1-2,0 1,0 0,0-1,-1 0,-1 0,0 0,4-16,-7 24,3-11,0-2,0 2,-1-1,-1-1,-1-19,-1 29,0 1,1-1,-2 0,0 0,1 0,-1 1,0 0,0-1,0 0,0 1,-1-1,1 2,-1-1,0 0,-1 0,1 0,0 0,-1 1,1 0,-1 0,1 0,-8-2,-9-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-27485.37">3980 1518,'-23'0,"1"1,0 2,0 0,0 0,2 2,-2 1,-32 12,44-14,1-1,0 2,0 0,1 0,0 0,-1 1,2 0,-1 0,1 1,0 0,1 0,0 0,-1 1,2 0,1 0,-1 0,1 1,-6 14,10-20,-1-2,1 2,0-1,0 1,0-1,0 1,0-1,1 1,-1-2,1 2,0-1,-1 1,1-1,0 0,0 1,2-1,-2 0,0-1,1 1,-1 0,1 0,0 0,0-1,0 1,3 2,8 3,-1 1,1 0,21 7,5 3,-32-14,0 0,-1 0,1 2,-1-1,0 0,0 0,0 2,-1-2,0 1,8 13,-11-15,-1 1,1-2,-1 2,1 0,-2-1,1 1,0-1,-1 1,0 0,0 0,0-1,-1 0,1 1,-1 0,0-1,-1 0,1 1,-1-1,-4 6,4-6,0-1,-1 1,0-1,1 0,-1 1,0-1,-1 0,0 0,0-1,1 0,-1 1,0-1,0 0,-1 0,1 0,0-1,0 1,-1-1,1 0,-1 0,-4 0,-12 0,0 0,0-1,-30-2,11-1,18 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17544.75">7310 1540,'-7'0,"2"0,-2 0,2 0,0 1,0-1,0 1,-11 2,15-3,0 1,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,0 1,1 1,-1 6,2 1,-1-1,1 1,0-1,2 0,0 0,-1 0,1-1,1 2,0-3,1 2,-1-1,1-1,1 1,0-1,12 11,-9-11,0 0,1-2,0 1,1 0,-1-1,0-1,1 0,0 0,0-1,0 0,1-1,-1-1,20 1,-25-3,-1 2,0-1,1 1,-1-1,0 2,0-1,1 1,-1 0,0 0,9 5,-12-6,0 1,-1 1,1 0,-1-1,1 1,-1 0,0 0,1 0,-1 0,-1 0,1 1,-1-1,0 0,0 0,0 1,0-1,-1 1,1 6,3 17,-1 0,-2 1,-1 0,-1-2,-1 2,-8 32,9-58,-1 2,1-1,-1 1,-1-1,1 0,0 0,0 0,-1 0,1 0,-1-1,1 1,-1-1,0 0,-1 0,0 0,-4 3,0-1,-1-1,1-1,0 0,-1 0,1 0,0-1,-13 1,1-2,1 0,0-2,0 0,-1 0,1-1,-24-9,14 2,1-3,-42-24,13 8,15 6,5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18325.3">7836 1494,'2'4,"0"-1,0 0,0 0,-1 0,0 1,0 0,0 0,0-1,0 0,-1 1,0 0,0 5,1-5,8 225,-7-66,2-140,1-1,1-1,2 1,0-1,1 0,22 34,-29-51,0 1,0-1,1-1,0 1,0 0,0-1,1 1,-1-2,1 1,0 0,-1 0,1 0,0-1,7 3,8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18910.18">8287 1746,'8'0,"8"0,4 0,4 0,2 0,1 0,-1 0,2 0,-2 0,3 0,-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19435.89">8887 1540,'0'16,"0"20,-8 28,-8 14,-4 6,0-4,4-8,-4-7,2-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20411.74">9087 1540,'-1'14,"-1"0,-1 1,-1-2,0 0,-1 0,-8 16,-3 11,8-18,-24 75,29-86,0 0,1 0,1 0,0 1,1-1,2 19,-2-29,-1 0,1 0,0 0,1 0,-1 0,0 1,0-1,0 0,1 0,-1 0,1 0,-1 1,2-1,-2 0,1 0,0 0,-1 0,1 0,0 0,0-1,0 0,0 1,0 0,0 0,0-1,1 2,-1-3,1 1,-1 0,1-1,-1 1,0-1,0 0,1 1,0-1,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-2,37-60,-38 63,10-21,-3 1,0 0,0-1,-2 0,4-41,-8-108,-2 86,1 80</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21243.19">9213 1334,'4'9,"-1"0,1-1,-2 1,0-1,-1 2,1-2,-2 1,0 16,-12 74,8-68,-34 147,22-115,-11 100,22-127,-2 0,-16 49,11-51,4-1,-10 70,18-95,0-3,0-1,0 0,0-1,-1 1,0 0,0 1,0-1,0-1,0 1,-1-1,0 1,-2 4,-7 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22013.41">9413 1220,'4'64,"2"-1,25 92,-12-61,-1-1,54 348,-69-410,-2 0,-1 0,-2 0,-1-1,-13 56,10-67,-1 0,-1 1,-1-1,0 0,-2-1,0-1,-2 0,1 0,-26 24,12-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23235.82">10466 1654,'-7'2,"1"-1,0 1,1-1,-2 1,2 0,-1 1,1 0,-1 0,1 0,0 0,0 1,1 0,-7 6,-5 2,-21 14,-57 44,86-62,1-2,-1 2,1 0,0 0,1 1,0-1,0 2,-4 9,8-17,1 0,0 1,0 0,1-1,-1 1,0 0,1-1,0 0,-1 1,1 0,0 0,1-1,-1 1,0 0,1-1,0 0,-1 1,1 0,0-1,0 1,1-1,-1 1,0-2,1 1,0 0,-1 1,1-1,0 0,0 0,1-1,3 3,6 3,2-1,-2-1,2 0,-1-1,23 5,-25-7,1 0,-2 1,1 1,0 0,-1 0,15 8,-22-8,1-1,0 0,-1 1,-1 0,1 0,0 1,-1-2,0 2,0-1,-1 1,2-1,-2 1,0-1,1 10,0 73,-2-66,0 10,1-16,-1 0,0 1,-4 21,3-33,0-2,1 1,-1 1,-2-1,2 0,0 0,-1-1,1 1,-1 0,0 0,0 0,0-1,-1 1,1-1,0 0,-1 0,-1 0,2 0,-1 0,0 0,-4 2,-14 2,-1 0,1-1,-1-1,1-2,-42 3,-110-10,163 4,0 1,1-2,0 0,-1 0,1-1,0 0,-1-1,2 1,0-1,-1-1,1 0,-9-5,-4-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24123.97">10715 1723,'5'0,"1"20,-1 13,-1 22,-1 31,-1 14,-1 1,-1-13,1-13,-2-16,1-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24667.54">10791 1266,'0'-4,"0"11,0 15,0 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25780.62">11342 1678,'-3'2,"1"1,0 0,0 0,0 0,1 1,-2-2,2 2,-1-1,0 6,-4 9,-41 84,-79 198,113-248,-9 79,16-88,9-54,37-169,-31 150,1 0,1 1,3-1,16-27,-20 45,-1-1,0 2,3 0,-2-1,2 2,0 0,1 1,-1 0,2 1,-1 0,2 0,-1 2,27-9,-39 14,1 0,0 0,-1 1,1-1,0 1,0-1,0 1,0 0,-1 0,1 1,0-1,-1 0,1 1,0-1,0 1,0 0,-1 0,1 0,-1-1,0 2,1-1,-1 1,0-1,1 1,-1 0,0 0,0-1,0 1,-1 1,1-2,-1 1,1 0,-1 1,0-1,0 1,0-1,0 1,0 1,5 13,-2-2,-1 1,0 0,0 28,-3-40,0 299,-1-238,0-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26505.81">12168 1608,'1'0,"0"-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,1-1,-1 1,0 0,-1-1,1 1,0 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,1 0,-1-1,0 1,1 0,-1-1,0 1,0 0,0 0,1 1,0 5,1-1,-1 0,0 0,-1 1,1 9,-21 128,11-92,-3 82,12-117,1-1,0 1,2-1,-1-1,2 1,0 1,2-2,0 0,11 21,-5-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27737.68">12593 1769,'14'-10,"-1"1,2 0,0 1,-1 0,2 1,-1 1,1 0,0 1,0 1,1 0,17-2,-31 5,2 1,-2 0,0 0,1 0,-1 0,1 1,-1-1,1 1,0 0,-1 0,0 0,0 0,1 1,-1-1,0 1,1-1,-2 1,1 0,4 4,-2-1,-1-1,1 2,-1 0,0 0,-1-1,0 1,0 1,0-2,3 10,0 9,-1 2,-1-1,1 49,-3-61,-2 0,-2-1,1 1,-1 0,0-1,-7 20,6-24,-1 0,-2 1,1-1,0-1,0 1,-1-1,-1 1,0-1,-14 10,-18 19,-36 28,69-60,1-1,0 1,-1-1,1 0,-2-1,2 1,-1-1,0 0,-1 0,1-1,0 1,-10 0,14-3,-1 1,1-1,0 0,0 1,0-1,1 0,-1 0,0-1,-1 1,1 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,0 0,0 0,0 0,0 1,0-1,0 0,1-1,-1 2,1-1,-1 0,1-4,-9-60,8 52,2 0,0 1,1-2,1 2,0 0,6-18,-8 29,0-2,1 1,-1 0,1-1,0 1,0 1,2-1,-2 0,0 0,1 1,0-1,5-2,-6 3,1 1,-1 0,1 1,-1-1,1 0,-1 1,0-1,1 1,-1 0,1 0,-1 0,2 0,-2 0,1 0,-1 1,1-1,-1 1,0 0,1-1,-1 1,4 2,0-1,0 2,0 0,1 0,-2 1,0-2,0 2,0 0,1 0,-2 0,0 1,0-1,-1 0,7 13,20 25,-17-28</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29143.08">13320 1700,'-5'81,"-4"0,-3-1,-32 103,31-129,12-52,0 0,0 1,1-1,-1 0,1 0,-1 0,1 1,0-2,0 1,0 0,0 1,0-1,1 0,-1 0,1 0,-1 1,1-2,0 1,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1-1,1 0,0 0,-1 1,1-1,1 0,-1 1,0-1,0 0,0-1,0 1,0 0,1 0,-1-1,4 1,4 0,-1-1,1 0,0 0,-1-1,1-1,-1 1,0-1,1-1,10-2,32-14,-26 13,-1-3,0 0,-1-1,0-1,-1-2,23-14,-43 24,1 0,-1-1,0 2,0-2,-1 0,0 1,1-1,-2 0,1 1,0-2,-1 1,0 0,1 1,-1-2,0 1,-1-1,1 1,-1 1,0-2,-1 1,1-1,-1 2,0-1,-1-1,1 1,-1 0,-3-7,4 7,-2-1,1 2,0-1,-1 0,0 0,-1 0,1 1,0-1,-1 1,1 0,-1 0,0 0,-1 1,1-1,-1 1,1-1,0 1,-1 0,-1 1,2-1,-1 1,0 0,0 0,0 1,-6-1,3 2,-2 0,2 1,-1 0,0 1,1 0,0 0,-16 7,-3 2,10-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30207.18">13770 1494,'-12'1,"1"0,0 0,0 1,0 1,-1-1,2 1,-1 0,0 2,0-1,2 1,-1 0,0 1,1 0,0 0,0 1,1 1,0-2,0 2,1 0,0 1,0 0,1-1,0 1,1 0,0 1,0-1,2 2,-1-2,1 2,1-1,0 0,1 0,0 0,1 20,0-24,0 0,0 0,1 1,0-2,0 1,1 1,-1-2,1 1,6 10,-7-14,0 0,2-1,-1 1,-1-1,1 1,0-1,0 1,0-1,0 0,0-1,0 1,0 0,0 0,0-1,1 1,0 0,-1-1,0 0,0 1,1-1,-1 0,0 0,1-1,-1 1,0 0,1-1,-1 1,1-1,-1 0,0 0,2 0,8-3,-1-1,-1 0,1-1,-1 0,1 0,-2-1,0 0,1-1,-2 1,0-2,1 2,-2-3,-1 1,9-12,-12 16,-1 1,1 0,-1-1,0 2,0-2,-1 0,1 0,0 2,-2-2,1 0,0 0,-1 1,0-1,0 0,-1 0,1 1,-1-1,0 0,-2 0,2 1,-1 0,0-1,0 1,0-1,-1 2,1-1,-1 0,0 0,0 0,-2 1,2-1,-1 1,0 0,0 0,-7-3,-15-7,2 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31824.1">13895 1403,'5'1,"0"0,0 1,0-1,1 1,-1-1,-1 2,1-1,-1 1,1 0,-1 0,0 0,0-1,0 2,-1 0,6 5,6 9,0 0,-2 0,0 1,-1 1,-1 0,-1 0,-1 1,6 25,40 179,-54-220,16 85,-5 3,-1 93,-12-169,0-1,-1 0,-1 1,-1-1,-2-1,1 1,-1-1,-15 27,-7 3,-47 58,34-49,35-47,2 1,0-1,-1 0,-2 0,2-1,-1 1,0 0,-1-2,0 1,0-1,0 0,-1-1,-13 8,3-8</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14342,7 +12855,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:41.319"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:01:19.810"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14351,7 +12864,9 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'1'6,"0"1,1-1,-1 1,1-1,0 0,1 1,-1-1,8 11,5 13,95 287,-100-267,-3 1,-1-1,-3 1,-2 0,-6 51,2 16,3-100,0-1,-2 0,0 1,-5 18,5-27,-1 0,-1-1,0 0,0 1,0-1,-1-1,0 1,-1-1,-10 12,-14 11,1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2784 2,'-34'-2,"0"2,-1 2,0 1,0 1,2 1,-58 18,41-7,20-7,1 2,0 0,-51 28,75-36,1 0,0 1,1 0,-2-1,2 2,0-1,0 1,0-2,0 2,1 0,0 0,0-1,-1 2,2-1,0-1,0 2,-1 6,1 12,0-1,5 39,-1-25,-2 25,-3-44,2-1,0 2,1-1,2 0,0 0,1 0,1 0,9 22,-11-35,0 0,1-1,0 0,-1 0,1 1,2-1,-2-1,1 0,-1 1,1-1,1 0,-1-1,1 1,-1-1,1 0,0 0,0 0,-1-1,9 2,2-2,-1 0,2 0,-2 0,1-2,0 0,19-2,-31 2,2 0,-2-1,0 1,1-1,-1 0,1 0,-2 0,1 0,0-1,0 1,-1-1,0 0,1 0,4-6,2-3,0-2,13-22,-2 1,-8 15,6-5,-1-1,-3-1,1-1,17-49,-24 53,-6 16,0 2,0-2,-1 0,0 1,-1-1,0 0,0 0,0 1,-1-1,-1 1,1-2,-1 2,-1-1,-2-10,-29-55,21 55</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2081.67">8027 320,'-53'-1,"-1"1,-57 4,91-1,0 0,1 1,0 0,0 2,0 0,-27 13,12-2,0 1,0 0,1 3,2 2,0-1,-33 36,58-52,3-2,-1 2,1-1,0 0,0 1,0 0,1-1,-1 2,1-2,1 1,0 1,0-2,0 10,1-13,0 1,0 1,0-1,1 1,-1-2,1 1,0 1,0-1,0 0,1-1,0 1,0 0,-1 0,1 0,0 0,0-1,0 0,1 1,-1-1,1 0,-1 0,2 0,-1 0,0-1,0 1,4 1,12 6,1-2,0 0,-1-2,2 1,-1-1,1-2,37 2,-46-5,-2 0,1-1,-1 0,1 0,-1-1,0-1,0 0,0 0,0-1,-1 1,1-2,-1 0,0 1,0-2,-1 0,0 1,1-2,-2 0,0 0,-1 0,2 0,-2-2,-1 2,8-14,56-113,-15 25,-52 106,16-34,-17 35,-1 0,1 0,-1 1,0-1,1 0,-1 0,0 1,0-1,0 0,-1 0,1 0,0 1,-1-1,1 0,-1 0,0 0,1 0,-3-2,-6-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23751.32">1 908,'498'12,"-76"-2,169-9,-574 0,-2 0,33 7,8 0,675 21,-563-29,-29 1,72-1,263 30,-16 27,765 116,-414-61,-487-73,-140-23,303-11,-216-7,98 13,116-1,-408-15,-1-3,0-3,133-36,-117 25,179-24,123-14,-31 4,-153 43,-125 11,-1-4,100-19,-100 12,2 4,131-2,-120 9,476-17,-424 14</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14369,7 +12884,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:50.982"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:03:26.339"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14378,8 +12893,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">573 1,'-28'1,"0"1,0 1,1 1,-1 2,-46 15,37-11,-1-2,1-1,-1-2,-54 0,39-2,51-4,-1 1,1 0,-1 0,1 1,-1-1,1 0,-1 1,1 0,-1-1,1 1,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,0 1,1 0,-1-1,0 1,0 0,1 0,-1 0,1 0,0 1,-2 2,2 3,-1-1,1 1,1 0,0-1,0 1,0 0,3 11,-1-3,3 64,-4-45,2 0,1-1,17 63,-21-95,0-1,0 1,1-1,-1 1,1-1,0 0,-1 1,1-1,0 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0 0,2 0,-1-1,0-1,0 1,0 0,0-1,-1 1,1-1,0 1,0-1,-1 0,1 1,-1-1,1 0,-1 0,1-1,-1 1,3-2,8-10,-1 0,0-1,13-21,-15 21,0 0,0 1,-1 0,2 1,0 0,0 0,22-18,-28 28,-1-1,0 1,1 1,0-1,-1 0,1 1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,-1 0,1 0,0 0,0 1,0 0,0-1,0 2,0-1,0 0,-1 1,1-1,0 1,-1 0,0 0,4 3,4 1,-1 1,0 0,0 0,-1 1,0 1,0-1,-1 1,0 1,-1 0,0 0,0 0,-1 1,-1 0,1 0,-2 0,0 1,0-1,-1 1,0 0,-1 0,-1 1,0-1,0 17,-1 26,2-26,-2 0,-2-1,0 1,-7 28,8-52,-1 0,0-1,0 1,0-1,0 1,-1-1,0 0,0 0,0 0,0 0,-1-1,1 1,-1-1,0 0,0 0,0 0,-1 0,1-1,-1 0,1 0,-1 0,0 0,0-1,1 0,-1 0,0 0,0-1,-9 1,-13-1,0-1,0-1,1-1,-30-8,35 7,-91-24,82 17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="829.05">1077 554,'0'4,"0"10,-4 6,-1 4,-4 10,-5 8,-4 0,-6 2,-1-3,-2 0,-3-3,2-8,0-5,5-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">479 243,'-230'422,"33"-65,188-340,3-7,0 1,1 0,0 0,0 0,1 1,1-1,0 1,-2 14,5-26,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,1 1,-1-1,0 0,0 1,0-1,0 0,0 0,1 1,-1-1,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,0-1,1 1,-1 0,0-1,10-7,-1-2,-1 1,1-1,-2-1,1 1,-2-1,7-15,-5 13,33-63,-4-2,27-82,43-175,-69 211,-36 116,0 0,1 1,0-1,0 0,1 1,0 0,9-12,-11 17,0 1,0-1,-1 1,1-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 1,1-1,-1 1,1 0,-1 0,0 0,1 0,-1 1,0-1,1 1,-1-1,0 1,0 0,1 0,-1 0,0 0,0 0,3 3,8 4,0 1,0 0,-1 1,0 1,-1 0,0 1,17 24,0 5,29 58,-15-8,-4 1,34 129,-35-103,-34-108,-2-5,1 0,0 1,0-1,0 0,0 0,5 7,-6-12,-1 0,0 1,0-1,1 0,-1 0,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0-1,0 1,0 0,1 0,-1-1,14-29,113-456,-31 101,-87 352,-7 21,1 0,0 1,1-1,6-11,-9 21,0 1,0 0,0 0,-1 0,1 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,1 1,-1-1,0 1,1 0,-1-1,0 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 1,1-1,-1 0,0 1,1-1,-1 1,0-1,1 1,-1 0,0 0,0-1,0 1,0 0,2 2,3 2,1 0,-1 1,0 0,0 0,9 13,-1 6,0 1,-2 0,-1 1,14 52,-19-60,42 157,34 234,-74-358</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2416.88">1826 749,'-22'0,"-19"-1,-56 8,83-5,0 1,1 0,-1 1,1 1,0 0,0 0,-21 14,18-9,1 1,0 1,1 0,1 1,0 0,0 1,-13 20,22-27,0-1,1 1,-1-1,1 1,1 0,-1 0,1 1,0-1,0 10,1-12,1-1,1 1,-1 0,0-1,1 1,0-1,0 1,1-1,-1 0,1 1,0-1,0 0,0 0,1 0,-1 0,5 4,-2-2,1-1,0 0,1 0,-1-1,1 0,0 0,0 0,0-1,0 0,0-1,1 1,-1-1,11 1,0 0,0-1,1-1,-1 0,28-4,-33 0,0 0,0-2,-1 1,0-2,0 1,0-2,0 0,16-13,-6 6,-5 2,1 0,-2 0,22-22,-32 28,-1 0,0-1,0 0,0 0,-1 0,0 0,-1-1,1 1,-1-1,-1 0,4-16,-3 7,-1 0,0 0,-1 0,-1-1,-1 1,-3-22,4 35,-1 0,0 1,0-1,0 0,-1 0,1 1,-1-1,0 1,1-1,-2 1,1 0,0 0,-1 0,1 0,-1 0,0 0,0 1,0 0,0-1,-1 1,1 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,0 0,0 0,0 1,1-1,-1 1,-5 0,-13 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14397,7 +12912,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:54:52.748"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:06:15.639"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14406,9 +12921,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 49,'0'16,"0"14,0 18,0 9,0 7,0 1,0 2,0 9,0 1,0-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1622.82">386 0,'-5'1,"0"0,0 0,0 1,0 0,0-1,0 1,1 1,-1-1,1 1,-1 0,1 0,0 0,0 0,0 1,1 0,-1 0,1 0,0 0,-4 8,-7 10,1 0,-14 35,20-38,1-1,0 1,-5 34,9-44,1 1,0 0,1-1,0 1,0 0,1 0,1-1,-1 1,5 13,-4-20,0-1,0 1,0 0,0-1,1 0,-1 1,1-1,-1 0,1 0,0-1,0 1,0 0,0-1,0 0,0 1,0-1,0-1,0 1,1 0,-1-1,0 0,1 1,-1-1,5-1,9 1,-1-1,0-1,26-5,-29 3,-1 0,0-1,0 0,-1-1,1-1,-1 1,-1-2,1 1,-1-1,-1-1,1 0,-2 0,1-1,9-14,-12 15,0 0,0 0,-1-1,0 1,-1-1,0-1,-1 1,0-1,0 1,-1-1,0 0,-1 0,0 1,-1-1,-1 0,1 0,-3-12,1 19,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,0 1,0 0,0-1,0 1,0 0,-1 0,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,0 0,-1 1,1-1,-8 1,-10-1,0 0,0 2,0 0,-25 6,12-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3562.82">338 458,'-4'1,"0"0,0 1,1-1,-1 1,1 0,-1 0,1 1,0-1,-6 6,-3 1,-1 0,0 0,0 0,2 1,-1 1,1 0,0 1,1 0,1 0,0 1,1 0,0 1,1 0,-8 20,14-30,0 0,0 0,0 0,1-1,-1 1,1 0,0 0,0 0,0 0,1 0,0 0,-1 0,1-1,1 1,-1 0,0-1,1 1,3 5,-2-5,1 0,0 1,0-1,0-1,0 1,1-1,-1 1,1-1,0 0,0-1,8 4,5 0,0-1,0-1,0 0,1-1,0-1,29-1,-28-1,-3 0,-1 0,1-1,31-7,-43 7,1-1,-1 0,1 0,-1-1,0 0,0 0,0 0,-1 0,1-1,-1 0,1 0,-1 0,-1 0,1-1,3-4,3-7,-1 0,0 0,-1-1,-1 0,-1-1,0 1,-2-1,0 0,2-22,-5 34,-1 0,0 0,0 0,-1 0,1 0,-1 1,-1-1,1 0,-1 0,0 1,0-1,-1 1,-5-9,5 10,0 0,-1 1,0-1,0 1,0 0,0 0,0 0,0 1,-1 0,1 0,-1 0,0 0,1 0,-1 1,0 0,0 0,0 1,-9-1,-20 2,4 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14426,7 +12939,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:55:02.912"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:09:54.048"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14435,8 +12948,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'17'0,"13"0,5 0,2 0,-2 4,-3 1,2 8,-1 2,2-1,-1-4,-2 1,-7-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="890.55">25 242,'4'0,"10"0,6 0,4 0,6 0,2 0,0 0,-2 0,-2 0,3 0,0 0,-1 4,3 5,-5 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14481,7 +12993,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:55:30.854"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:11:21.491"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14490,7 +13002,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'12'0,"16"0,13 0,6 0,8 0,15 4,-5 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14508,7 +13020,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:57:59.479"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:22:22.032"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14517,11 +13029,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">201 208,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2169.16">345 113,'-31'35,"2"1,-44 72,25-36,-2 5,-25 35,74-111,0 0,0 1,1-1,-1 0,-1 1,1-1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,-3 0,3-2,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,1 1,0-1,-1 0,1 0,0 0,0 1,-1-1,1 0,0 0,0 0,0-1,-1-8,1 0,0 0,1 1,3-17,1 6,1 1,1 0,1 1,1 0,0 0,1 1,15-19,95-109,-80 100,-33 37,0 1,0 0,0 0,1 0,0 1,0 1,1-1,0 1,-1 0,16-4,-19 7,-1 1,1 0,0 0,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0 1,0-1,-1 1,1 0,0 0,-1 0,1 0,-1 1,0 0,0 0,0 0,5 5,0 2,0 0,0 0,-1 1,0 0,-1 1,11 24,24 80,-36-100,-6-13,1-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0-1,1 1,0 0,-1-1,1 0,3 2,-4-2,0-1,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,0 0,1-1,-1 1,0-1,1 1,-1-1,0 0,0 1,2-2,6-6,0 0,0 0,-1-1,-1 0,8-11,-5 8,22-32,-1-2,44-86,-72 126,0 1,0-1,1 1,0 0,0 0,0 1,8-8,-11 11,0 0,0 0,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,1 1,-1-1,0 0,0 0,1 1,-1-1,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 1,24 47,-2 0,-2 1,-2 1,14 65,-30-103,31 135,-24-89</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4576.17">1500 425,'-49'-2,"34"1,-1 0,1 1,-1 0,0 1,-21 5,33-4,0 0,0 0,0 0,0 0,0 1,1-1,0 1,-1 0,1 0,0 1,0-1,1 1,-1-1,1 1,-3 5,-27 66,26-57,-6 13,-30 89,38-106,0 1,1 0,1-1,1 1,0 0,1 18,1-28,-1 0,1 0,1 0,-1 0,1 0,0-1,0 1,0 0,1-1,-1 0,1 1,0-1,1 0,-1 0,1-1,-1 1,1-1,0 0,0 0,1 0,-1 0,1-1,-1 0,1 0,0 0,0 0,0-1,5 1,-2 0,0-1,-1 0,1 0,0-1,-1 0,1-1,0 1,-1-2,1 1,-1-1,1 0,-1 0,0-1,0 0,0 0,0-1,-1 0,8-5,-5 0,0 0,-1 0,-1 0,1-1,-2 0,1-1,-1 1,-1-1,0-1,6-18,1-14,10-69,-16 78,-4 27,0-6,1 0,-2-1,0-17,-1 28,0 0,-1 0,1 0,-1 0,0 0,0 1,-1-1,1 0,-1 1,0-1,0 1,0-1,0 1,0 0,-1 0,-4-4,2 2,-1 0,1 0,-1 1,0 0,-1 0,1 0,-1 1,1 0,-10-3,-3 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7335.11">1764 690,'-1'-1,"0"1,0 0,0-1,0 0,0 1,0-1,0 1,0-1,0 0,0 0,0 0,1 1,-1-1,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0 0,0 0,-1-2,-3-37,4 35,-1-6,1 0,0-1,1 1,0-1,4-15,-5 25,0 0,1 1,-1-1,1 0,0 0,0 0,0 1,-1-1,2 0,-1 1,0-1,0 1,0-1,1 1,-1-1,1 1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 1,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,2 2,1 0,-1-1,0 1,0 0,0 0,-1 0,1 1,0 0,-1-1,0 1,0 0,1 1,-2-1,1 0,0 1,-1 0,0-1,1 1,1 7,2 6,-1 0,0 1,3 26,-7-31,1 0,1 1,0-1,1-1,0 1,12 22,9 16,-21-43,-1 0,1 0,1 0,-1-1,8 10,-9-14,0 0,1 0,-1-1,0 1,1-1,0 0,-1 0,1 0,0 0,0-1,0 1,0-1,0 0,9 0,10 1,-1-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8222.13">2101 473,'0'-5,"-4"0,-5 4,-6 10,-4 9,-3 8,-10 21,-3 10,3 0,4-10,3-9,4-6,-1 3,-5 4,-3 3,5-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14539,16 +13047,17 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:58:52.690"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T23:57:13.640"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
       <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="color" value="#FFC114"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'29,"1"0,2-1,1 1,1-1,2 1,18 50,36 72,143 254,-191-380,-2 1,14 41,-1-1,-7-15,-14-39,0 0,1-1,1 0,0 1,7 10,-8-15,1 1,-1 0,0 0,3 13,-2-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="892.28">289 1193,'12'2,"-1"0,1 1,-1 1,1-1,-1 2,0-1,-1 1,1 1,12 9,2-1,160 73,-183-86,-1 0,1 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,3 0,-4 0,0 0,-1 0,1 0,0-1,-1 1,1 0,-1-1,1 1,0 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,0-1,1 0,-1 1,1-1,-1 0,1-3,0-1,0 1,-1 0,1 0,-1-1,0 1,-1-8,0 2,-4-121,4 104</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14566,16 +13075,24 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:59:11.326"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T23:57:17.907"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
       <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="color" value="#FFC114"/>
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 297,'58'99,"-13"29,-13-35,-32-93,0 1,1-1,-1 1,0-1,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,0 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1-1,0 1,1 0,-1 0,0-1,0 1,1 0,-1-1,0 1,0 0,1-1,-1 1,0-1,0 1,0 0,0-1,0 1,1-2,19-34,-16 27,53-101,50-136,-102 227,0 0,-1 0,1-26,3-12,-7 54,-1 0,1 1,0-1,0 0,0 1,1-1,-1 1,1 0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,0 1,-1-1,1 0,5 0,8 0,0 0,1 0,29 4,-13-1,32-1,-26-2,-1 2,62 10,-75-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 78,'0'3,"0"4,0 5,0 3,0 3,0 1,3 1,2 0,-1 0,-1 0,-1 0,3-1,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1908.99">38 97,'1'-5,"0"1,-1 0,2 0,-1 0,0 0,1 0,0 0,0 0,0 1,0-1,0 0,1 1,0 0,0 0,0 0,5-5,-5 5,0 1,0-1,0 1,0 0,1 0,-1 0,1 1,-1-1,1 1,0-1,-1 1,1 0,0 1,0-1,0 1,0 0,0-1,4 2,-6 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0 0,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,0 2,1 8,0 0,-3 22,1-21,1-9,0 0,-1 0,1 0,-1-1,0 1,-1 0,1-1,0 1,-1-1,0 1,0-1,0 0,0 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,-1-1,1 0,-6 4,-14 11,22-17,1 0,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,0-1,-1 1,1-1,0 1,-1-1,1 1,0-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 1,-1-1,1 1,0 0,0-1,0 1,0-1,1 1,-1-1,0 2,1-2,0 1,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,1-1,0 0,50 2,-48-2,6 0,1 0,-1 1,0 0,1 1,-1 0,0 0,16 7,-13-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2609.96">442 78,'3'0,"5"0,4 0,3 0,3 0,0 0,2 0,0 0,1 0,-5 3,-4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3221.36">557 155,'4'0,"4"0,3 0,5 0,1 0,2 0,1 0,6 0,6 0,1 0,-2 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5973.8">1096 78,'0'3,"0"4,0 5,0 3,0 6,0 9,0 3,0 5,0 0,0 0,0-1,0-2,0-5,4-6,3-9,2-9,-2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7345.28">1346 78,'-14'40,"11"-27,1 1,1-1,0 26,1-37,0 1,0-1,0 0,0 1,1-1,-1 0,1 0,-1 1,1-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1-1,1 1,0 0,0-1,-1 1,1-1,0 0,0 0,0 1,1-1,-1-1,4 3,5-1,0-1,0 0,0 0,1-1,13-2,-23 2,1 0,-1-1,1 1,0-1,-1 1,1-1,-1 0,0 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0-1,0 0,-1 0,1 1,0-1,0 0,-1 0,0-1,1 1,-1 0,0 0,0-1,1-3,-1 3,0 0,-1 0,1 0,-1 0,0-1,0 1,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 1,-1-1,1 0,0 0,-1 0,1 1,-1-1,0 1,0 0,0-1,-4-3,1 3,0 0,0 0,0 0,0 0,-1 1,1 0,-1 0,1 1,-1 0,0 0,-11-1,1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8535.81">1405 251,'-3'1,"1"-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 1,1-1,-1 0,0 1,1-1,-1 1,1 0,-3 3,1-1,0 0,0 0,0 0,1 1,0-1,-3 8,3-1,0-1,0 1,1 0,0 0,1 0,0 0,1 0,0 0,5 20,-5-29,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,1 0,-1 1,1-1,0 0,-1 0,1 0,0-1,0 1,-1 0,1-1,0 0,5 0,-1 1,1-1,-1 0,0-1,1 0,-1 0,0 0,11-4,-15 3,0 1,0-1,0 0,-1 0,1 0,0 0,-1-1,0 1,1-1,-1 1,0-1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1-4,-1 5,-1 0,1 0,-1-1,0 1,1 0,-1 0,0 0,0-1,-1 1,1 0,0 0,-1 0,1 0,-1 0,0-1,0 1,0 0,0 1,0-1,0 0,0 0,0 0,-1 1,1-1,-1 0,0 1,1 0,-3-2,-2-1,1 1,-1 0,0 0,-12-3,4 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9542.46">1693 328,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11143.93">1924 0,'0'23,"-1"0,-1 0,-7 31,5-33,1 0,-2 41,5-52,0 0,1 0,0-1,1 1,0 0,0-1,1 1,6 13,-7-19,1-1,0 0,0 0,-1 0,2 0,-1 0,0 0,0-1,1 0,0 0,-1 0,1 0,0 0,0-1,0 0,0 1,0-1,5 0,-2 0,-1 0,1 0,-1-1,1 0,0 0,-1-1,1 0,-1 0,1 0,11-5,-16 6,-1-1,1 1,-1-1,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-1-3,1 2,-1 0,0 1,0-1,1 0,-1 0,-1 0,1 1,0-1,0 1,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,0 0,0 0,0 0,1 1,-1-1,0 0,-2 0,-13-2,1 1,0 1,-1 0,1 2,0-1,-1 2,-22 5,26-3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14593,7 +13110,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:59:14.922"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:11:56.014"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14602,7 +13119,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">361 6,'-77'-3,"45"1,1 1,-1 2,-37 5,68-6,-1 0,1 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,1 0,-1-1,0 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 1,1 1,0-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,1-1,0 1,1 2,3 7,1 1,1-1,10 14,-15-23,13 20,-7-13,0 1,-2-1,1 1,-1 1,-1-1,0 1,0 0,-1 0,3 20,-2-10,1-30,-4 5,-1 0,0 1,1-1,0 0,0 0,0 1,0-1,0 1,0-1,4-1,-1 1,0 0,0 1,0 0,1 0,-1 0,1 0,-1 1,1 0,-1 0,1 1,0 0,0 0,-1 0,1 0,0 1,-1 0,1 0,-1 1,1-1,-1 1,0 1,6 2,-7-4,-1 1,1 0,-1 1,0-1,1 1,-1-1,0 1,-1 0,1 0,0 0,-1 0,1 1,-1-1,0 1,0 0,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,-1 0,1 0,-1 0,1 0,-3 5,2-4,-1-1,0 0,0-1,-1 1,1 0,-1-1,0 1,0-1,0 0,0 0,0 0,-1 0,0 0,1-1,-1 0,0 1,0-2,0 1,0 0,0-1,-1 0,1 0,0 0,-7 0,-13 2,0-1,-1-1,-30-3,27 0,-19 2,21 0,0-1,-38-5,41 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14620,7 +13137,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:59:16.686"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:12:08.105"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14629,7 +13146,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">239 1,'-1'0,"-1"0,1 1,-1 0,1-1,0 1,-1 0,1 0,0 0,-1-1,1 2,0-1,0 0,0 0,0 0,0 0,0 1,0-1,-1 3,-18 33,13-22,-18 29,-8 12,3 1,2 2,-39 121,65-169,1-1,0 1,1 0,0 0,1 0,0 0,1 0,0 0,0-1,1 1,1-1,0 0,6 13,0-3,1-1,1 0,0 0,2-1,22 24,-27-34,-1 0,1 0,0-1,1 0,0-1,0 0,0 0,1-1,0-1,0 0,14 4,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">163 0,'2'1,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 1,1-1,0 1,-1 0,0-1,1 1,-1 0,0 0,0 0,0 0,2 5,15 46,-12-19,-2 1,-2 1,-1-1,-4 36,1 15,-5 83,-46 276,24-245,-12 63,6-35,32-209,-1 0,-7 25,5-25,1 1,-3 26,-15 359,24-358,-1-25</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14647,7 +13164,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:59:18.053"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:12:13.722"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14656,7 +13173,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'19'9,"-1"1,0 1,0 1,-1 0,0 1,-1 1,-1 1,0 0,-1 1,-1 0,0 1,-2 1,20 37,-5 5,-2 1,-3 1,-3 1,16 107,-33-161,0 1,-2 0,1-1,-1 1,0-1,-1 1,0-1,-1 1,0-1,0 0,-8 12,-4 7,-2 0,-21 26,9-14,-73 111,82-120</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'843,"2"-802,13 76,0-20,-5 33,18 136,-11-140,2 153,-20 130,-2-159,3-124,-24 516,13-524,4 140,8-235</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14674,7 +13191,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:59:23.583"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:12:16.781"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14683,7 +13200,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">167 1,'-3'4,"0"1,1-1,-1 1,1 0,0-1,0 1,1 0,-2 7,-3 10,-31 76,-57 174,92-261,-1-1,2 1,-1 0,1 0,1 0,0 0,1 0,3 21,2-12,0 0,1-1,17 32,-2-5,-12-23,1 0,1-1,1 0,29 37,-28-44</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0,'4'0,"4"0,4 4,4 0,2 0,3 3,-1 1,-2 1,-1 0,0-2,0-2,-2 2,3 3,2 3,0-1,-2 5,-5 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14701,7 +13218,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:00:04.359"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:12:19.377"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14710,7 +13227,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 10,'0'-4,"0"-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1123,'4'-4,"-1"0,0-1,-1 1,1-1,-1 0,3-8,7-15,57-92,91-118,-66 115,65-88,43-99,-174 269,-22 29</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14728,7 +13245,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:00:04.816"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:12:20.886"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14782,7 +13299,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:00:05.224"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:12:24.338"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14791,8 +13308,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="549.26">169 73,'4'0,"1"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 18,'0'-3,"3"-2,5 1,5 1,6 0,4 5,2 5,3 5,-4 4,-1-1,-5 1,1 4,-3-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14810,7 +13326,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:01:09.674"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:12:40.956"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14819,39 +13335,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">672 2895,'-63'-11,"11"1,26 8,-1 1,0 1,1 1,-1 2,1 0,-1 2,1 1,1 1,-1 1,1 2,1 0,-1 2,2 0,0 2,0 0,-24 22,39-28,0 1,0 1,1-1,0 1,1 1,0-1,0 1,2 0,-8 22,3 0,1 0,-5 42,12-71,1 1,0-1,0 0,0 1,0-1,1 1,0-1,0 1,0-1,0 0,1 0,-1 1,1-1,0 0,4 5,-1-3,0-1,0 1,0-1,1 0,-1 0,1 0,1-1,9 5,11 4,0-2,0-1,52 11,-58-16,40 12,57 13,-104-28,0 0,0-1,0 0,-1-2,1 1,22-5,-13 0,-1 0,0-2,-1-1,1 0,-2-2,1 0,18-14,-30 19,-1-1,-1 0,1-1,-1 1,0-1,0-1,-1 1,0-1,-1-1,0 1,0-1,0 1,-1-1,-1-1,1 1,-2 0,1-1,1-18,-2-16,-3-1,-9-61,9 100,0 0,1 0,-2 1,1-1,-1 0,0 1,0-1,0 1,-1 0,1-1,-1 1,-1 1,1-1,-1 0,0 1,0 0,0-1,0 2,-1-1,0 0,-8-4,1 2,-1 1,1 0,-1 1,0 0,0 1,-1 1,-24-2,8 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1603.64">6132 2727,'-24'-1,"0"1,-1 1,1 1,0 1,0 1,0 1,1 1,-41 17,-4 14,2 2,1 3,-74 64,61-46,70-54,0 0,1 0,0 1,0 0,1 0,0 0,0 1,1 0,-5 8,8-12,1 1,-1-1,1 0,0 0,0 1,1-1,-1 0,1 1,0-1,0 0,0 1,0-1,1 0,0 1,0-1,0 0,1 0,-1 1,1-1,0-1,4 7,2 1,0 0,1-1,0 0,1-1,0 0,0 0,1-1,0 0,1-1,-1-1,2 0,16 7,5-1,0-1,0-2,54 8,-74-14,-1-2,1 0,-1 0,1-1,-1-1,1 0,-1-1,0 0,0-1,0-1,0 0,0-1,-1 0,1-1,-2 0,1-1,-1 0,12-10,23-16,-3-3,62-63,-92 85,-1 0,0-1,-1-1,-1 0,-1 0,0-1,-1 0,-1 0,0-1,-1 0,5-31,-3 9,-5 26,0 0,-1 0,1-26,-3 37,0-1,0 1,-1 0,1-1,-1 1,0 0,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,-1 1,1-1,0 1,-1-1,-4-2,-6-2,0 0,0 1,0 1,-1 0,0 1,0 0,-20-2,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-179799.24">4327 33,'-2'47,"-1"-1,-3 1,-17 68,-51 132,10-42,64-203,-10 29,5-24,3-19,3-17,2 0,1 1,1 0,14-42,-4 10,-10 40,17-78,51-138,-60 198,13-32,-23 65,-1-1,1 1,0 0,0 0,0 0,1 1,0-1,0 1,6-5,-9 8,0 0,0 0,0 0,1 1,-1-1,0 0,0 1,1-1,-1 1,0-1,1 1,-1 0,0 0,1 0,-1-1,1 1,-1 0,0 1,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 1,0-1,2 2,0 0,-1 1,1-1,0 1,-1-1,0 1,0 0,0 0,0 0,0 0,2 6,3 9,-1 1,-1 0,3 19,-8-36,36 163,83 233,-98-350,-6-28,-15-19,0-1,1 0,-1 0,0 0,0 0,1 1,-1-1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,0-1,0 1,1 0,-1 0,0-1,0 1,0 0,0-1,0 1,1 0,-1 0,0-1,0 1,0-1,12-38,15-76,-16 60,-8 43,0-11,2 0,1 0,0 1,2 0,0 0,2 1,0 0,23-34,101-87,-38 43,-95 98,0-1,0 1,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 1,0-1,-1 1,3-1,-3 1,0 1,1-1,-1 0,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 2,4 8,-1 0,0 0,0 0,2 20,-1-8,215 777,-199-733</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-178323.33">6155 875,'-6'-6,"-1"1,0 0,0 1,-1-1,0 1,1 1,-1 0,0 0,-1 0,1 1,0 0,-15-1,-1 0,1 2,0 1,-34 3,52-1,0-1,-1 1,1 1,1-1,-1 1,0 0,1 0,-1 0,1 0,0 1,0 0,0 0,1 0,-1 0,-4 9,2-4,0-1,1 1,0 1,1-1,0 1,1-1,-5 17,8-22,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,0 0,0 0,0 0,0 0,0-1,1 1,0 0,0-1,0 1,0-1,0 0,1 0,-1 0,1 0,0 0,0 0,5 3,-1-2,-1 0,1-1,0 1,0-2,0 1,1-1,-1 0,1 0,-1-1,1 0,13 0,-7-1,0-1,-1 0,1 0,-1-2,0 0,0 0,0-1,0-1,0 0,-1 0,0-2,0 1,-1-2,0 1,0-2,0 1,-1-1,17-21,-11 12,27-40,-39 53,-1-1,0 0,0 1,0-1,-1 0,0-1,0 1,0 0,-1 0,0-1,-1 1,1-12,-2 16,1 0,-1-1,0 1,0 0,0 0,0 0,-1-1,1 1,0 0,-1 1,0-1,1 0,-1 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 1,-1-1,1 1,-1-1,1 1,0 0,-1 0,1 0,-3 0,-17 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-176356.45">6493 682,'-3'95,"1"-43,2 1,9 66,-9-115,1-1,-1 0,1 1,0-1,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 0,1 0,-1 1,1-2,0 1,5 2,-3-2,0-1,0 0,1 0,-1 0,0-1,0 1,1-1,-1-1,0 1,0-1,1 0,-1 0,0-1,5-1,9-5,0 0,-1-1,0-1,-1-1,0 0,-1-1,0-1,-1-1,0 0,21-28,-27 32,-1 0,-1-1,1 0,-2-1,0 0,0 0,-1 0,0 0,-1-1,-1 0,0 0,0 0,-2 0,1 0,-2-1,0 1,-2-16,4 44,-2-1,0 1,-2 21,0 8,0 580,2-619,0 1,0-1,0 1,-1-1,0 0,0 1,0-1,-1 0,1 0,-1 0,-1 0,1 0,-4 5,4-7,-1-1,0 1,0-1,0 0,0 0,0 0,-1 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,1 0,-1 0,-6-2,-13 1,0-2,-1-1,1-1,1-1,-1 0,1-2,0-1,1 0,0-2,1-1,0 0,0-1,-26-24,40 30,0-1,1 1,-1-1,1 0,1-1,0 1,0-1,0 0,1 0,1 0,-1 0,2-1,-1 1,1-1,0 1,2-16,-1 20,0 0,1 0,-1 0,1 0,0 0,1 0,-1 0,1 1,0-1,0 0,1 1,-1 0,1-1,0 1,0 0,1 0,-1 1,1-1,0 1,0-1,0 1,0 1,0-1,1 0,-1 1,1 0,-1 0,1 0,0 1,0 0,10-2,62 2,-64 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-102517.7">503 1765,'4'0,"10"0,14 0,11 0,3 0,-2 0,-3 0,-4 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-101716.17">1273 1428,'0'4,"0"5,0 23,0 17,0 12,0 9,0 4,0 3,0-9,0-7,0-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-100211.27">1706 1404,'-5'0,"-1"0,1 0,0 1,0-1,0 1,0 0,-1 1,1-1,1 1,-1 0,0 1,-7 3,10-4,0 0,0 1,0-1,0 0,0 1,0-1,1 1,-1-1,1 1,0 0,-1 0,2-1,-1 1,0 0,0 0,1 0,0 0,-1 0,1 0,0 0,0 0,1 0,0 6,1 4,1 5,0 0,1 0,9 28,-10-40,-1-1,1 1,0-1,1 0,-1 0,1 0,0 0,0-1,1 0,-1 1,1-2,0 1,0 0,10 4,-3-1,-1-2,1 0,0 0,1-1,12 2,-23-5,0-1,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0-1,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0-1,-1 1,0-1,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1-3,5-30,-3 16,0 0,2 0,9-25,-2 15,18-47,-29 71,1 0,-1-1,0 1,-1-1,1 1,-1 0,0-1,0 1,-1-1,1 1,-4-11,3 14,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,0 1,0-1,1 1,-1 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 1,-4-2,-56-4,33 4,5-1,16 0,-1 2,1-1,-1 1,1 1,-1 0,0 0,1 1,-19 3,17 5,6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-98732.14">1874 1332,'0'4,"0"14,8 7,3 9,4 1,-1 12,-3 10,-3 8,-3 5,-2 6,-2-4,-1-12,-1-11,1-10,-1-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-97338.2">2163 1091,'1'9,"0"0,1 0,-1-1,2 1,4 12,2 6,14 62,-4 2,-3 0,-5 1,-4 1,-3-1,-5 1,-4-1,-26 148,-1-130,17-70</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-76579.14">4424 1308,'1'0,"-1"0,0 1,1-1,-1 0,1 1,-1-1,0 0,1 1,-1-1,0 1,0-1,1 0,-1 1,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,0 1,0-1,-1 2,-5 22,-16 26,-50 82,43-82,-32 74,53-105,1 0,1 1,1 0,1 0,1 0,1 0,0 37,2 13,-1-42,1 0,2 0,0 0,12 48,-12-71,0-1,0 0,0 0,1 0,-1 0,1 0,0 0,0-1,1 1,-1-1,1 0,-1 0,1 0,0-1,5 3,1 1,0-2,1 1,-1-1,1-1,12 3,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-74782.15">4448 1717,'0'-2,"0"0,0 1,0-1,0 0,1 1,-1-1,0 0,1 1,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 1,1 0,-1 0,3-1,0 0,0 0,0 1,0 0,0 0,0 0,0 0,0 1,0-1,8 1,-4 1,0-1,-1 1,1 0,-1 1,1 0,-1 0,0 1,0-1,0 2,13 7,-16-7,0 0,-1 0,1 1,-1 0,0-1,-1 1,1 0,-1 1,0-1,0 0,0 0,-1 1,0-1,0 1,0 8,0 14,-4 54,1-38,2-27,-7 80,6-91,1 0,-2 0,1 0,-1 0,0-1,0 1,-1-1,1 1,-1-1,0 0,-1 0,1 0,-7 6,8-9,0 0,-1-1,1 1,0-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0-1,0 0,0 1,1-1,-1-1,0 1,-4-1,3 0,0-1,0 1,0-1,0 0,0-1,0 1,0 0,1-1,-1 0,1 0,0 0,-3-4,2 2,0 1,0-1,1 0,0 0,0 0,0-1,1 1,0 0,0-1,0 0,0 1,1-1,0 0,0 0,1 0,0 0,0 0,0 0,2-8,-1 12,-1 1,1 0,-1-1,1 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 1,0 0,1-1,-1 1,1 0,-1 0,1-1,0 1,-1 0,1 1,-1-1,1 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,1-1,1 2,9 4,0 1,0 0,18 14,-16-12,116 87,-111-85</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-73182.06">4929 1597,'-2'0,"0"1,1-1,-1 1,0 0,1 0,-1-1,1 1,-1 0,1 0,0 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-2 3,-15 46,13-36,-14 38,-1-2,3 1,3 0,-10 66,23-113,-1 0,1 0,0-1,0 1,1 0,-1 0,1-1,0 1,1 0,-1-1,1 1,0-1,0 1,0-1,0 0,1 0,0 0,-1 0,2 0,-1-1,0 0,6 5,1-1,1-1,-1 0,1-1,0-1,0 1,0-2,1 1,12 1,-22-4,1 0,0-1,-1 1,1 0,0-1,-1 0,1 1,0-1,0 0,-1 0,1-1,0 1,0-1,-1 1,1-1,-1 0,1 0,0 0,-1 0,0 0,1-1,-1 1,0-1,0 0,1 1,-1-1,-1 0,1 0,0 0,0-1,-1 1,1 0,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,-1 0,1 1,-1-1,0 0,0 0,0-5,1-3,0-1,-1 0,-1 1,1-1,-2 1,0-1,0 1,-5-14,4 19,0 0,0 0,-1 0,1 1,-1-1,-1 1,1 0,-1 0,0 0,0 1,0-1,-1 1,1 1,-1-1,-7-3,-11-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-72392.78">5073 1476,'4'0,"14"16,4 22,-3 46,-3 28,-5 8,-5-8,-2-12,-3-13,-1-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-30362.65">2788 1597,'-28'-1,"1"2,0 1,-1 1,1 2,-48 13,70-16,-1 0,0 0,0 0,0 1,1 0,0 0,-1 1,1-1,0 1,1 0,-1 1,1-1,0 1,0 0,0 0,1 0,-1 0,1 0,1 1,-1 0,1-1,0 1,0 0,0 0,1 0,0 1,0-1,1 0,0 0,0 0,1 10,0-7,1 0,0-1,0 1,1-1,0 1,0-1,1 0,0 0,1-1,-1 1,1-1,1 0,-1 0,1-1,1 0,-1 0,1 0,0-1,0 0,1 0,-1 0,1-1,0-1,0 1,11 2,74 31,-71-31</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-29021.1">3053 1669,'-13'0,"-9"-1,0 1,-1 2,1 0,-27 6,42-6,-1 1,1 0,1 0,-1 0,0 1,1 0,-1 0,1 1,0-1,1 1,-1 1,1-1,0 1,0 0,1 0,-5 9,3-6,1 1,0 1,0-1,1 1,1 0,0 0,0 0,1 0,1 0,0 0,0 20,2-26,-1-1,1 0,0 1,0-1,0 0,0 0,1 0,-1 0,1 0,0 0,1 0,-1-1,1 1,-1-1,1 1,0-1,0 0,1 0,-1-1,0 1,1-1,0 1,0-1,0 0,-1 0,2-1,-1 1,0-1,0 0,0 0,1-1,5 1,-2 0,1 0,-1 0,0-1,1-1,-1 1,0-1,1-1,-1 0,0 0,0 0,0-1,-1 0,1-1,-1 1,1-2,10-7,-11 5,1 0,-2 0,1-1,-1 0,0 0,-1-1,0 1,0-1,-1 0,0-1,-1 1,0-1,4-16,-7 25,3-12,0-1,-1 1,0-1,-1 0,-1-21,-1 31,0 0,1 0,-2 0,1 0,0 0,-1 0,0 1,0-1,0 0,0 1,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,1 0,-7-2,-9-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-27485.37">3823 1597,'-22'0,"1"1,0 2,0 0,0 1,1 1,-1 1,-31 13,43-15,0 0,0 1,1 0,0 0,0 1,0 0,1 0,-1 1,2 0,-1 0,1 1,0-1,0 1,1 1,1-1,-1 1,1 0,-5 15,9-21,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,0 0,0-1,0 1,3 2,7 4,0 0,0 0,21 8,4 3,-30-15,0 1,-1-1,0 2,0-1,0 1,0-1,-1 2,0-1,0 0,7 14,-10-16,-1 1,1-1,-1 1,1 0,-2-1,1 1,0 0,-1 0,0 0,0 0,0 0,-1-1,1 1,-1 0,0 0,-1-1,1 1,-1-1,-3 7,3-7,0-1,-1 1,0 0,1-1,-1 1,0-1,-1 0,1 0,-1 0,1-1,-1 1,0-1,0 0,0 0,0 0,0-1,0 1,-1-1,1 0,0 0,-5 0,-11 1,0-1,-1-1,-28-3,11 0,17 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17544.75">7022 1620,'-7'0,"2"0,-1 0,1 0,0 1,0-1,0 1,-10 2,14-2,0 0,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,0 1,1 1,-1 7,2 0,-1 0,1 0,0 0,1-1,1 1,-1-1,1 0,1 1,0-2,0 1,0-1,1 0,1 0,-1 0,13 10,-10-10,1-1,0-1,1 0,0 0,0-1,0 0,0-1,1 0,-1-1,1 0,0-1,0 0,18 0,-23-3,-1 2,0-1,0 1,0-1,0 2,0-1,0 1,0 0,0 0,8 5,-11-5,0 0,-1 1,1 0,-1-1,1 1,-1 0,0 0,0 1,0-1,-1 0,1 1,-1-1,0 1,0-1,0 1,0-1,-1 1,1 7,3 17,-1 1,-2 0,-1 0,-1-1,-1 1,-8 34,9-60,-1 1,1-1,-1 1,0-1,0 0,0 1,0-1,-1 0,1 0,-1-1,1 1,-1-1,0 1,0-1,-1 0,-4 3,0-1,0-1,0-1,0 1,0-1,0 0,0-1,-12 1,1-2,1 0,-1-2,1 0,-1 0,1-2,-24-8,15 1,0-2,-41-26,14 8,13 7,6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18325.31">7527 1572,'2'4,"0"-1,0 0,0 1,-1-1,0 1,0 0,0 0,0-1,0 1,-1 0,0 0,0 5,1-4,7 236,-6-70,2-147,1-1,1 0,1 0,1-1,1 0,20 36,-27-54,0 1,0-1,1 0,0 0,0 0,0-1,0 1,0-1,1 0,0 0,-1 0,1 0,0-1,6 3,8 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18910.18">7960 1837,'8'0,"7"0,5 0,3 0,2 0,1 0,-1 0,1 0,-1 0,3 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19435.89">8537 1620,'0'17,"0"21,-8 29,-7 15,-5 7,1-5,4-8,-4-8,1-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20411.74">8729 1620,'-1'15,"-1"0,-1 0,-1-1,0 0,0 0,-9 16,-2 12,7-19,-23 79,28-90,1-1,0 1,1 0,0 0,1 0,2 19,-2-30,-1 0,1 1,0-1,1 0,-1 0,0 1,0-1,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,1 2,-1-3,1 1,-1 0,1-1,-1 1,0-1,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-2,36-63,-37 66,9-22,-2 1,0-1,-1 0,-1 0,4-43,-8-114,-2 91,1 84</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21243.19">8850 1404,'4'9,"-1"0,0 0,-1 0,0 0,-1 1,1-1,-2 0,0 17,-11 79,7-73,-33 155,22-120,-11 104,21-133,-2 0,-15 52,11-55,3 0,-9 73,17-99,0-4,0-1,0 0,0 0,-1 0,0 0,0 1,0-1,0 0,0 0,-1-1,0 1,-2 5,-6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22013.41">9042 1284,'4'67,"2"-1,23 97,-10-64,-2-1,52 366,-66-431,-2-1,-1 1,-2-1,-1 0,-12 58,9-69,-1-1,0 1,-2-2,0 1,-1-1,-1-1,-1 0,0 0,-24 25,11-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23235.82">10053 1740,'-6'2,"0"-1,0 1,1 0,-1 0,1 0,-1 1,1 0,0 0,0 0,0 1,0 0,1 0,-6 6,-6 3,-19 14,-55 47,82-66,1-1,-1 1,2 1,-1-1,1 1,0 0,1 1,-5 10,8-17,1-1,0 1,0 0,1-1,-1 1,0 0,1-1,0 1,-1 0,1 0,0 0,1-1,-1 1,0 0,1 0,0-1,-1 1,1 0,0-1,0 1,1-1,-1 1,0-1,1 0,0 0,-1 1,1-1,0 0,0 0,0-1,4 4,6 2,1-1,-1-1,1 1,0-2,21 5,-23-7,0 1,-1 0,1 1,-1 0,0 0,14 9,-21-9,0-1,1 1,-1 0,-1 0,1 0,0 1,-1-1,0 1,0-1,-1 1,1 0,-1 0,0-1,1 11,0 76,-2-69,0 11,1-17,-1 0,0 0,-4 23,3-35,0-1,1 0,-1 1,-1-1,1 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0-1,-1 1,1 0,0-1,-1 0,0 0,1 0,-1 0,0 0,-4 2,-13 3,-1-1,1-1,-1-1,0-1,-39 2,-106-10,156 4,1 0,0-1,0 0,0 0,0-1,0 0,0-1,1 0,0 0,0-1,0 0,-8-6,-4-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24123.97">10293 1813,'4'0,"2"21,-1 14,-1 22,-1 34,-1 14,-1 1,-1-13,1-14,-2-17,1-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24667.54">10366 1332,'0'-4,"0"11,0 16,0 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25780.62">10895 1765,'-3'3,"1"0,0 0,0 0,0 0,1 1,-1-1,1 1,-1-1,0 6,-4 10,-39 89,-76 207,108-260,-8 83,15-93,9-57,36-177,-31 157,2 1,1 0,2 0,16-29,-20 47,0 0,0 1,2 0,-1 0,1 1,1 1,0 0,0 1,1 0,0 1,1 0,0 1,25-9,-37 15,1 0,0 0,-1 1,1-1,-1 1,1-1,0 1,0 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 1,0 0,-1 0,1 0,-1 0,0 1,1-1,-1 1,0-1,0 1,0 0,0 0,0-1,0 1,-1 1,1-1,-1 0,1 0,-1 1,0-1,0 1,0-1,0 1,0 2,4 12,-1-1,-1 1,0 0,0 29,-3-42,0 315,-1-250,0-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26505.81">11688 1692,'1'0,"0"-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,0-1,0 1,0 0,-1-1,1 1,0 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,1 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,1 1,0 5,1-1,-1 1,0-1,-1 1,1 10,-20 135,10-98,-3 88,12-125,1 0,0 1,2-1,-1-1,2 1,0 0,2-1,-1 0,12 22,-6-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27737.68">12097 1861,'13'-10,"0"0,1 1,0 0,0 1,1 1,0 0,0 1,0 1,1 0,0 1,17-2,-30 5,1 1,-1 0,0 0,1 0,-1 0,1 1,-1-1,0 1,1 0,-1 0,0 0,0 0,1 1,-1-1,0 1,0 0,-1 0,1 0,4 4,-2-1,-1 0,0 1,0 0,0 0,-1 0,0 0,0 1,0-1,2 9,1 11,-1 1,-1-1,1 52,-4-64,-1-1,-1 0,0 1,-1-1,0 0,-7 21,6-26,-1 1,-1 0,0-1,0 0,0 0,-1 0,0 0,-1-1,-13 11,-18 20,-34 30,67-64,0-1,0 1,-1-1,1 0,-1 0,1 0,-1-1,0 0,0 0,0-1,0 1,-9 0,13-3,-1 1,1-1,0 0,0 1,0-1,1 0,-1 0,0-1,0 1,0 0,1 0,-1-1,1 1,-1-1,1 0,-1 1,1-1,0 0,0 0,0 0,0 1,0-1,0 0,1-1,-1 1,1 0,-1 0,1-4,-8-64,7 56,2-1,0 1,1-1,0 1,1 0,6-18,-8 29,0-1,1 1,-1 0,1-1,0 1,0 0,1 0,-1 0,0 0,1 1,0-1,5-3,-6 4,0 1,0 0,1 1,-1-1,1 0,-1 1,0-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,1-1,-1 1,3 2,1 0,0 1,0 0,0 0,-1 1,0-1,0 1,0 0,0 0,-1 1,0 0,0-1,-1 1,6 12,20 28,-16-30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29143.08">12795 1789,'-5'85,"-3"0,-4-1,-30 109,29-136,12-55,0 0,0 1,1-1,-1 0,1 0,-1 0,1 1,0-1,0 0,0 0,0 1,0-1,1 0,-1 0,1 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1-1,1 1,0-1,-1 1,1-1,0 0,0 1,0-1,0 0,0-1,0 1,0 0,1 0,-1-1,4 1,3 0,0-1,0 0,1 0,-1-1,0-1,0 1,0-1,0-1,10-3,31-13,-25 12,-1-2,0-1,-1 0,0-2,0-1,21-16,-41 26,0 0,0-1,0 1,0-1,-1 0,0 1,1-1,-2 0,1 0,0-1,-1 1,0 0,0 0,0-1,0 1,-1-1,1 1,-1 0,0-1,-1 1,1-1,-1 1,0 0,0-1,0 1,-1 0,-3-8,4 8,-2-1,1 1,0 0,-1 0,0 0,0 0,0 0,0 0,-1 1,1 0,-1 0,0 0,0 0,0 0,-1 1,1-1,0 1,-1 0,0 1,1-1,-1 1,0 0,0 0,1 1,-7-1,3 2,-1 0,1 1,-1 0,1 1,0 0,0 0,-15 8,-3 1,10-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30207.18">13227 1572,'-11'1,"0"0,1 0,-1 1,0 1,0-1,1 2,0-1,-1 2,1-1,1 1,-1 1,1 0,0 0,0 1,1 0,0 1,0-1,1 1,0 1,0 0,1 0,0 0,0 0,1 1,0 0,1 0,1 1,-1-1,1 1,1 0,0-1,1 1,0 0,1 20,0-25,0 1,0-1,1 1,0-1,0 0,1 1,-1-1,1 0,6 11,-7-15,0 0,1-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1-1,0 0,0 1,1-1,-1 0,0 0,1-1,-1 1,0 0,0-1,0 1,1-1,-1 0,0 0,2-1,7-2,0-1,-1 0,0-1,0-1,0 1,-1-1,0-1,0 0,-1 0,0-1,0 1,-1-2,-1 1,8-14,-11 18,-1 1,1 0,-1-1,0 1,0-1,-1 0,0 0,1 1,-2-1,1 0,0 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,0 0,-1 0,1 0,-1 1,0-1,0 1,0-1,-1 1,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 1,0 0,0 0,-6-4,-15-6,2 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31824.1">13347 1476,'5'1,"0"0,0 1,0-1,0 1,0 0,-1 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 1,-1 0,5 5,7 10,-1 0,-1 0,-1 1,0 1,-2 0,0 0,-2 1,7 27,38 188,-52-232,15 90,-5 2,0 99,-12-178,0-1,-1 0,-1 0,-1 0,-1-1,0 1,-1-1,-14 28,-7 3,-45 62,33-53,33-48,2 0,0 0,-1-1,-1 0,1 0,-1 0,0 0,0-1,-1 0,0-1,0 0,0 0,-13 7,2-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'21'7,"7"5,5 5,4 3,0-3,-4-3,0-1,-2-3,-4-3,-2-2,-2-3,-1 2,-2 1,0-1,-4-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14869,7 +13353,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:01:19.810"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:12:57.115"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14878,9 +13362,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2670 2,'-33'-2,"0"2,0 2,-1 1,1 2,1 0,-55 19,39-7,19-7,1 1,0 1,-48 29,71-37,1-1,0 1,1 0,-1 0,1 1,0-1,0 1,0-1,0 1,1 0,0 0,0 0,0 1,1-1,0 0,0 1,-1 7,1 12,0 0,5 40,-1-25,-2 25,-3-46,2 0,0 1,1-1,1 0,1 0,1 0,1 0,8 24,-10-38,0 0,1-1,0 1,-1-1,1 1,1-1,-1 0,1-1,-1 1,1-1,0 0,0 0,1 0,-1-1,0 0,1 0,0 0,-1-1,8 2,2-1,0-1,1 0,-1 0,0-2,0 0,19-3,-30 3,1 0,-1-1,0 1,1-1,-1 0,0 0,-1 0,1-1,0 0,0 1,-1-1,0 0,0 0,5-7,2-3,-1-1,13-25,-2 2,-7 16,5-6,-1 0,-2-2,0 0,17-53,-24 56,-5 18,0 1,0-1,-1 0,0 0,-1 0,0-1,0 1,0 0,-1 0,-1 0,1-1,-1 1,-1 0,-2-11,-28-59,21 59</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2081.68">7697 339,'-51'-1,"-1"1,-54 5,87-2,0 0,0 1,1 1,0 1,0 0,-26 14,11-2,0 1,1 1,0 2,2 2,1 0,-33 37,57-55,2-1,-1 1,1-1,0 1,0 0,0 0,1 0,0 1,0-1,1 0,0 1,0-1,0 9,1-12,0 0,0 1,0-1,1 1,-1-1,1 0,0 1,0-1,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0-1,0 1,1 0,-1-1,1 0,-1 0,1 0,0 0,0 0,0 0,4 1,11 6,1-1,0-1,0-1,1 0,-1-1,1-2,36 3,-45-6,-1 0,0-1,0 0,0-1,0 0,0-1,-1 0,1 0,-1-1,0 0,1-1,-2 0,1 0,-1-1,0 0,0 0,0-1,-1 0,0-1,-1 1,1-1,-1-1,-1 1,7-14,54-120,-14 26,-50 113,15-36,-16 37,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,1 0,-2-2,-7-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23751.32">1 963,'478'13,"-74"-2,163-10,-551 0,-1 0,31 7,7 1,648 21,-540-30,-27 1,68-1,252 32,-14 29,732 122,-396-64,-467-78,-135-24,291-11,-207-8,94 13,111 0,-391-16,-1-4,0-2,128-39,-113 26,172-25,118-14,-30 3,-147 47,-119 10,-1-3,95-20,-95 12,1 4,126-1,-114 8,455-17,-406 15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">144 509,'3'0,"0"1,0-1,0 1,0 0,0 0,0 0,0 1,0-1,-1 1,1-1,-1 1,1 0,-1 0,1 0,-1 0,0 1,0-1,3 5,25 20,4 1,-34-27,1-1,-1 1,1 0,-1-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1-1,0 1,-1 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,0 0,1-1,-1 1,0-1,1 0,-1 1,0-1,0 0,0 1,1-1,-3 0,-20 9,0 0,0-2,-1-1,0-1,0-2,0 0,-40 0,45-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1491.9">266 489,'-7'10,"0"1,1 0,0 0,1 0,0 1,0 0,-3 20,6-27,1 0,-1-1,1 1,0 0,0 0,0 0,1 0,0 0,0 0,0 0,3 10,-3-13,1-1,0 1,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,0 0,1 1,-1-1,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,4-1,-4 0,1 1,-1-1,0 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,0-1,0 1,0-1,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0-1,-1 1,1-1,-1 1,1-1,-1 1,0-1,0 1,-1-4,3-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3215.98">653 20,'1'1,"0"0,1 0,-1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 0,0 1,1-1,-1 0,0 1,0-1,0 1,0-1,0 1,-1 1,2 2,-1-2,3 22,-2-1,0 1,-4 26,2-43,0-1,-1 1,1-1,-2 0,1 1,-1-1,0 0,-1-1,1 1,-1-1,-1 1,1-1,-1 0,-8 7,-1 0,0-1,-1-1,0 0,0-2,-1 1,-1-2,1 0,-2-1,1-1,0 0,-32 5,46-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4845.16">653 0,'3'14,"2"18,-1 11,0 12,-2 10,0-2,-1-5,-1-9,-7-13,-6-12,-7-11,-5-7,0-4,0-4,-3-4,0-1,5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6165.99">775 305,'-59'38,"18"-12,0 2,-69 62,108-88,0-1,0 1,0 0,0 0,0 1,0-1,1 0,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,0-1,1 1,-1 0,1 0,0-1,0 1,0 0,0 0,0-1,0 1,1 0,0-1,-1 1,1 0,0-1,0 1,0-1,1 1,-1-1,1 0,-1 1,1-1,0 0,0 0,0 0,0 0,2 1,0 0,-1-1,0 0,1 0,0 0,-1 0,1-1,0 1,0-1,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,1 0,-1-1,0 0,0 0,0 0,-1 0,1-1,0 1,0-1,-1 0,7-4,-4 1,-1 0,0 0,0 0,-1-1,0 1,0-1,0 0,0 0,-1 0,4-11,16-70,-7 22,-12 95,-10 163,-1-33,10-122,-2-38,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,9-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7078.96">1039 244,'-2'1,"1"-1,-1 1,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,0 1,1 0,-1-1,-1 3,-3 5,-24 35,3 2,2 0,1 1,-17 55,39-98,-1-1,1 1,0 0,0-1,0 1,1 0,0 0,-1 0,1-1,0 1,1 0,-1 0,1-1,0 1,-1 0,2-1,-1 1,0 0,1-1,0 0,-1 1,1-1,1 0,-1 0,0 0,1 0,-1 0,1-1,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,1-1,0 0,-1 0,1-1,0 1,5 0,-6-1,1 0,-1-1,1 1,-1 0,1-1,-1 0,1 0,-1 0,0 0,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,-1 0,1-1,-1 1,1-1,-1 1,0-1,0 0,0 0,0 0,-1 0,1-1,-1 1,2-7,2-3,-1-1,-1 1,0-1,-1 0,0 0,-1-17,-5-175,4 185</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14898,7 +13385,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:03:26.339"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:13:05.441"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14907,8 +13394,19 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">479 243,'-230'422,"33"-65,188-340,3-7,0 1,1 0,0 0,0 0,1 1,1-1,0 1,-2 14,5-26,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,1 1,-1-1,0 0,0 1,0-1,0 0,0 0,1 1,-1-1,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,0-1,1 1,-1 0,0-1,10-7,-1-2,-1 1,1-1,-2-1,1 1,-2-1,7-15,-5 13,33-63,-4-2,27-82,43-175,-69 211,-36 116,0 0,1 1,0-1,0 0,1 1,0 0,9-12,-11 17,0 1,0-1,-1 1,1-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 1,1-1,-1 1,1 0,-1 0,0 0,1 0,-1 1,0-1,1 1,-1-1,0 1,0 0,1 0,-1 0,0 0,0 0,3 3,8 4,0 1,0 0,-1 1,0 1,-1 0,0 1,17 24,0 5,29 58,-15-8,-4 1,34 129,-35-103,-34-108,-2-5,1 0,0 1,0-1,0 0,0 0,5 7,-6-12,-1 0,0 1,0-1,1 0,-1 0,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0-1,0 1,0 0,1 0,-1-1,14-29,113-456,-31 101,-87 352,-7 21,1 0,0 1,1-1,6-11,-9 21,0 1,0 0,0 0,-1 0,1 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,1 1,-1-1,0 1,1 0,-1-1,0 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 1,1-1,-1 0,0 1,1-1,-1 1,0-1,1 1,-1 0,0 0,0-1,0 1,0 0,2 2,3 2,1 0,-1 1,0 0,0 0,9 13,-1 6,0 1,-2 0,-1 1,14 52,-19-60,42 157,34 234,-74-358</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2416.88">1826 749,'-22'0,"-19"-1,-56 8,83-5,0 1,1 0,-1 1,1 1,0 0,0 0,-21 14,18-9,1 1,0 1,1 0,1 1,0 0,0 1,-13 20,22-27,0-1,1 1,-1-1,1 1,1 0,-1 0,1 1,0-1,0 10,1-12,1-1,1 1,-1 0,0-1,1 1,0-1,0 1,1-1,-1 0,1 1,0-1,0 0,0 0,1 0,-1 0,5 4,-2-2,1-1,0 0,1 0,-1-1,1 0,0 0,0 0,0-1,0 0,0-1,1 1,-1-1,11 1,0 0,0-1,1-1,-1 0,28-4,-33 0,0 0,0-2,-1 1,0-2,0 1,0-2,0 0,16-13,-6 6,-5 2,1 0,-2 0,22-22,-32 28,-1 0,0-1,0 0,0 0,-1 0,0 0,-1-1,1 1,-1-1,-1 0,4-16,-3 7,-1 0,0 0,-1 0,-1-1,-1 1,-3-22,4 35,-1 0,0 1,0-1,0 0,-1 0,1 1,-1-1,0 1,1-1,-2 1,1 0,0 0,-1 0,1 0,-1 0,0 0,0 1,0 0,0-1,-1 1,1 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,0 0,0 0,0 1,1-1,-1 1,-5 0,-13 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">231 0,'-13'5,"1"0,0 0,0 1,0 0,1 2,0-1,0 1,1 0,0 1,0 1,1-1,1 1,-1 1,2 0,-1 0,1 0,1 1,0 0,-6 20,3-3,2 0,0 0,2 1,2 0,0 0,2 0,4 48,-2-72,0 0,0 0,0 0,0 0,1 0,0 0,1 0,-1-1,1 1,0-1,0 0,1 0,-1 0,1 0,0-1,1 1,-1-1,1 0,0 0,0-1,0 1,0-1,1 0,-1-1,1 1,6 1,-6-2,1 0,0-1,0 0,0 0,0 0,0-1,0 0,1-1,-1 1,0-2,0 1,-1 0,1-1,0-1,0 1,-1-1,1 0,-1 0,0-1,0 0,0 0,6-6,-4 2,0-1,0 0,0 0,-2-1,1 1,-1-2,0 1,-1 0,0-1,-1 0,0 0,3-21,-2-1,-2 0,-1-1,-3-37,0 37,1 28,-1 0,1 0,-1 0,0 0,-1 1,1-1,-1 0,-1 0,1 1,-6-10,-5-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="669.07">434 41,'4'24,"4"36,1 28,-1 20,-2 10,-2 1,-2-13,-1-10,-7-7,-4-16,1-17,2-14,-2-11,4-15,4-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1526.06">882 0,'-1'7,"0"0,-1 0,1 0,-1-1,-1 1,1-1,-1 1,-7 10,-5 14,-9 32,3 2,3 0,3 1,2 1,4 0,2 0,4 1,9 131,-5-196,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,1 0,-1 1,1-1,0 0,-1 0,1 1,0-1,0-1,0 1,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 0,4 1,-3-2,0 1,0 0,0-1,0 0,0 0,-1 0,1 0,0-1,0 1,0-1,0 0,-1 0,1-1,0 1,-1-1,1 0,-1 0,0 0,1 0,2-3,12-14,-1 0,-1-2,-1 1,0-2,-2 0,20-45,-19 34,-2 0,-1-1,-2 0,9-57,-12 38,-3 1,-2-1,-9-88,8 139,0 0,-1-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 1,-3-3,-13-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2109.3">1309 0,'4'0,"1"24,3 36,0 29,-1 15,-2 23,-2-1,-5-15,-1-19,-1-22,0-22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2647.15">1309 590,'0'-3,"4"-2,11 1,14-6,22-6,23-2,10-3,1 0,-14 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3747.86">2082 265,'6'-1,"-1"1,1-1,-1 0,0 0,0-1,9-3,14-4,47-5,-1 3,2 4,100 2,-101 4,-36 0,415 4,-365 7,-88-10,1 1,0-1,0 0,0 1,0-1,-1 1,1 0,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,1 1,-1-1,0 1,0-1,1 3,-2-2,0-1,0 1,0 0,0 0,0 0,0-1,-1 1,1 0,-1-1,1 1,-1 0,0-1,1 1,-1 0,0-1,0 1,0-1,-2 3,-8 8,-1-1,0 0,-26 18,28-22,-39 28,31-25,1 2,1 0,0 1,0 1,-26 30,41-43,0 1,0-1,0 1,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,1 0,0 0,0 2,3 2,0 1,1-1,0 0,10 10,11 15,-18-14,0 0,-1 1,-1 0,-1 0,0 0,-2 0,0 1,-1 0,0-1,-2 1,-3 31,3-45,-1 0,0 0,-1-1,1 1,-1 0,0 0,0-1,0 0,-1 1,1-1,-1 0,0 0,-1 0,1 0,0-1,-1 1,0-1,0 0,0 0,0-1,-1 1,1-1,-1 0,1 0,-6 2,-14 3,-1-1,0 0,-47 3,23-3,2 1,-135 17,156-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4680.01">3365 224,'0'1,"1"0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 1,0 1,-22 122,5 1,-2 199,20-320,0-1,0 1,0-1,1 1,0 0,0-1,0 1,0-1,0 1,1-1,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,4 3,-2-4,-1 0,0-1,1 0,0 0,-1-1,1 1,0-1,0 0,0 0,0 0,0-1,0 0,0 0,0 0,0-1,6 0,4-2,0 1,0-2,-1 0,1-1,-1 0,0-1,0-1,-1 0,0-1,0 0,-1-1,0-1,-1 1,18-21,-13 11,0-1,-2-1,-1 0,0-1,-2 0,-1-1,0 0,7-28,-16 46,14-41,-3-1,10-80,-20 113,-1 0,-1 0,-1 0,0 0,0 0,-2 0,1 0,-2 1,0-1,-1 1,0 0,-1 0,-13-21,17 30,-1 0,0 0,-1 0,1 1,0-1,-1 1,0 0,0 0,0 0,0 1,-1-1,1 1,-9-3,-26-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5616.65">4606 244,'4'0,"1"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6117.83">3874 509,'7'0,"6"0,3 0,11 0,10 0,13 0,8-4,2 0,4-4,1 0,1 1,-5-2,-9 1,-9 2,-10 2,-6 1,-8 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6633.46">3976 773,'7'0,"9"-3,12-2,12-3,13 0,11-2,9 0,-1-1,-7 1,-10-1,-11 1,-13 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7014.98">4769 265,'0'3,"0"16,0 21,0 21,0 15,0-3,0-3,0-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8083.23">4912 142,'3'1,"1"-1,-1 1,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,3 4,38 42,-33-34,17 18,-2 2,-1 0,-2 2,-2 0,-1 2,-2 0,17 49,-32-72,0 0,-1 0,0 1,-1-1,-1 1,0-1,-2 1,1-1,-2 0,0 0,-1 0,-7 18,2-9,-1 0,-2-1,0-1,-1 0,-2-1,-25 30,36-47,0-1,0 1,0-1,0 1,-1-1,0-1,1 1,-1-1,0 1,0-1,-1-1,1 1,0-1,0 0,-1 0,1 0,-9-1,6 0,1-1,0 1,-1-1,1-1,0 0,0 0,0 0,0-1,0 0,0 0,1 0,-9-6,13 7,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,0 0,0-1,0 1,1-1,-1 1,1-1,-1-3,1 0,0 1,0-1,1 0,0 0,0 0,0 1,4-11,4-3,0 0,1 0,16-22,-19 29,1 1,1-1,0 2,0-1,1 1,0 1,14-10,-18 15,0 1,0 0,0 0,1 0,0 1,-1-1,1 2,0-1,0 1,0 0,0 1,0-1,0 1,0 1,12 1,-1 2,0 1,-1 1,0 1,-1 0,1 1,-1 0,-1 2,0 0,0 0,19 19,-31-26,0-1,1 0,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 0,0-1,0 1,0-1,-1 1,1-1,0 0,0-1,0 1,0-1,0 1,6-3,31-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9211.84">5909 122,'-1'-1,"-1"0,1 0,-1 1,0-1,1 0,-1 0,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,-3 2,-41 14,39-13,-35 16,1 1,2 1,0 3,1 1,1 2,-50 48,69-56,0 0,1 1,1 2,1-1,-17 35,24-40,1 0,1 0,0 1,1-1,1 1,1 1,0-1,1 0,1 19,2-27,1 0,0 1,0-1,1 0,0 0,0 0,1-1,1 1,-1-1,1 0,0 0,1 0,0-1,0 0,1 0,0-1,14 11,6 3,1 0,1-2,49 23,-66-36,1 0,-1-1,1 0,-1-1,1 0,0-1,0-1,0 0,1 0,-1-2,0 1,0-2,0 0,0 0,0-1,-1-1,1 0,-1-1,0 0,0-1,-1 0,1-1,-1 0,12-11,-5 3,-1 0,-1-1,0-1,-2-1,0 0,0 0,-2-2,-1 1,0-2,-1 1,-1-1,-1-1,6-28,-4 8,-2 12,-1 0,-1 0,-1-1,-2 1,-1-1,-3-33,0 60,0 0,0 0,-1 1,0-1,1 1,-1-1,0 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 1,0-1,-6-2,-58-31,59 33,-16-8,-1 2,0 0,0 2,-34-5,49 10,0 0,0 1,-1 1,1 0,0 0,0 1,0 1,0-1,0 2,0-1,0 1,1 1,0 0,-10 5,14-6,1 1,-1 0,1 0,0 0,0 1,1-1,-1 1,1 0,-5 9,1 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14926,7 +13424,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:06:15.639"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:13:42.338"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14935,7 +13433,9 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 327,'3'0,"-1"1,0 0,0-1,1 1,-1 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 1,0-1,-1 0,1 0,0 4,13 67,-13-69,2 42,-4 86,-2-88,3 0,5 50,14-4,-12-66,-2 1,5 43,-10-47</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1448.71">510 1,'0'0,"1"0,-1 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,0-1,1 1,-1 0,0-1,0 1,0-1,0 1,0-1,0 1,0 0,1 23,-6 13,-1-1,-2 1,-1-1,-26 63,-5 19,37-104,-4 5,1 0,1 1,1 0,0 0,2 0,0 0,2 0,3 40,-1-54,0-1,1 0,-1-1,1 1,0 0,0-1,1 0,-1 1,1-1,0-1,0 1,0 0,1-1,-1 0,1 0,0 0,-1-1,1 0,1 0,-1 0,8 2,3 1,1-1,-1-1,1 0,0-1,31 0,-45-3,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,0-1,0 0,0 1,0-1,-1 0,2-4,28-64,-30 69,2-5,-1 1,0-1,0 0,-1 0,0 0,0 0,0 0,-1-12,-1 17,1 0,-1 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 0,-1 1,1 0,-1-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,-3 0,-79 4,65-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3098.13">896 82,'-26'40,"-31"64,50-89,1 1,0 0,1 0,1 0,0 1,1-1,-1 31,5-40,0 1,1-1,0 1,0-1,1 0,0 0,0 0,1 0,0 0,5 6,49 60,-54-69,1 0,-1-1,1 1,0-1,0-1,0 1,0-1,1 1,-1-1,1-1,-1 1,1-1,-1 0,10 0,-11 0,0-1,0 0,0 0,0 0,0-1,1 1,-1-1,0 0,0 0,0 0,0-1,-1 1,1-1,0 0,-1 0,1 0,-1-1,1 1,-1-1,4-5,5-10,-1-1,0-1,-2 0,0 0,-2-1,0 0,-1 0,-1-1,-1 1,-1-1,-1 0,-1-36,-2 53,0 0,0 0,0 0,-1 0,0 0,0 1,0-1,-1 1,1-1,-1 1,0 0,0 0,-1 0,1 0,-1 1,0-1,0 1,-8-5,0 0,0 2,0-1,0 2,-1-1,-24-5,1 3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14953,7 +13453,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:09:08.328"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:14:31.544"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14962,13 +13462,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">193 0,'4'5,"2"12,-1 17,0 6,-2 1,-6-7,-5-14,-3-13,-2-13,-4-5,1-4,4-5,3-10,4-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1454.81">1 290,'13'-1,"0"2,0 0,17 3,-26-3,0 0,0 1,0-1,0 1,0 0,-1 0,1 0,0 0,-1 0,1 1,-1 0,0 0,6 6,-9-9,1 1,-1-1,0 0,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0-1,0 1,0-1,1 1,-1-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,-1 0,1-1,0 0,-1 2,-21 7,-2 2,24-11,-1 1,1-1,-1 1,1-1,-1 1,1-1,0 1,-1 0,1-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,1 1,-1 0,0-1,0 1,0 0,1-1,-1 1,0-1,1 1,-1 0,2 0,30 32,-29-31,0 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,0 0,0 1,0-1,0 1,0 0,1 6,-3-9,0 0,0 1,0-1,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,-1-1,1 1,0-1,0 0,-1 0,1 1,0-1,-1 0,-1 0,-52 4,49-4,-19 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2060.81">170 458,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2729.17">241 481,'0'4,"0"2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3647.66">458 338,'0'4,"0"17,0 10,0 16,0 8,-4-2,-2-5,1-6,1-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4902.82">626 410,'-1'-2,"0"1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-2 1,1 0,0 1,0-1,1 1,-1-1,1 1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,1 0,-2 3,-2 12,1 0,0 0,0 23,3-38,-1 15,0 66,1-79,1-1,-1 1,0 0,1-1,0 1,0 0,0-1,1 1,-1-1,1 0,-1 1,1-1,0 0,1 0,-1 0,0 0,1-1,3 4,-4-6,0 1,-1 0,1-1,0 1,0-1,1 1,-1-1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,2-1,40-19,-24 11,-17 8,0 1,0-1,0 1,0 0,0 0,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,0 0,3 2,-3 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,0-1,0 1,0 0,-1 0,1 0,-1 0,0 0,1 7,0-4,-2 1,1-1,-1 1,0-1,0 0,-1 1,0-1,0 1,-1-1,0 0,0 0,-1 0,-4 9,6-13,-1 0,1 0,-1-1,0 1,0 0,0-1,0 1,0-1,0 0,-1 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0-1,0 0,-1 0,1 0,0 0,0 0,0-1,-1 1,1-1,0 0,0 0,-1-1,1 1,0 0,0-1,-5-1,-8-7,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5674.15">626 386,'4'0,"10"0,6 0,8 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">233 263,'-9'26,"-82"316,-30-39,109-274,29-71,26-105,-25 78,3 1,46-99,-57 150,1 1,0 0,1 1,20-20,23-29,-44 45,0 0,12-30,11-19,-34 67,0 0,0 1,0-1,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,1-1,-1 1,0 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,10 20,-2 36,-4 166,-5-65,4-134,-4-23,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,16-41,-13 33,134-386,-126 353,-9 31,0-1,1 1,0 0,1 0,0 1,0-1,1 1,0 0,1 0,0 0,9-9,-14 17,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,1-1,0 1,1 1,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,0 1,0 0,2 3,5 11,0 1,10 32,-16-42,19 59,25 133,-8 76,-14-86,-17-138</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14986,7 +13480,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:09:44.539"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:14:34.543"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -14995,7 +13489,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 17,'1'-1,"-1"0,0 0,0 0,1 1,-1-1,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 1,0-1,-1 1,1-1,0 0,-1 1,1-1,0 1,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,1-1,40 9,-39-8,125 48,-87-31,52 14,-70-24,-1 1,38 20,1 0,159 47,-152-38,-6-3,190 65,353 90,-484-157,-19-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 143,'0'31,"0"35,0 54,0 28,0 2,0-10,0-19,4-19,0-21,0-20,3-13,4-16,-1-16,-1-31,-2-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="605.74">41 224,'7'0,"5"0,12 0,26-7,17-9,5-2,-2-1,-4-1,-9-1,-14 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1470.11">122 794,'-18'0,"11"1,0-1,-1 0,1 0,0-1,-1 1,1-2,0 1,0-1,-12-5,19 7,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,0 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,1-1,13-7,24 0,30 5,0 3,78 10,38 2,-162-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3284.2">1404 0,'1'37,"11"62,-1-9,7 201,-32 452,10-709,2-44,0-57,2 27,0-7,-9-79,8 114,-1 1,0 0,-1-1,-1 1,0 0,0 1,-1-1,0 1,-1-1,0 2,-1-1,-10-11,7 13,0 1,-1 0,1 1,-2 0,1 1,-1 0,1 1,-1 0,0 1,-1 1,1-1,0 2,-1 0,1 0,-1 1,1 1,-25 4,29-2,1-1,0 2,0-1,0 1,1 0,0 1,-1-1,1 1,1 0,-1 1,1 0,0 0,0 0,-7 11,3-1,-1 1,2 0,0 0,1 0,-5 20,11-33,0 0,1 1,-1-1,1 1,0-1,0 1,0-1,0 0,1 1,0-1,0 1,0-1,1 0,-1 0,1 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1-1,0 0,1 1,-1-2,0 1,1 0,0-1,6 4,13 6,0-1,0-1,1-1,28 7,-12-4,-34-10,11 5,1-1,0 0,1-2,-1 0,1-1,0-1,28 0,-44-2,0-1,-1 0,1 0,-1 0,0-1,1 1,-1 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0-1,1 1,-1 0,0-1,0 1,0-1,0-3,3-9,0 0,2-28,-5 35,0-1,2-11,-1 0,-1 1,-2-22,1 37,0 0,-1 0,1 0,-1-1,0 1,0 0,-1 0,1 0,-1 1,0-1,0 0,0 0,-1 1,1 0,-1-1,0 1,0 0,0 0,0 0,-5-2,-7-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8675.9">2361 632,'-11'1,"0"0,0 1,1 0,-1 1,1 0,-1 1,1 0,0 0,0 1,1 1,-1-1,-13 13,-10 10,-55 57,73-68,0-2,1 0,1 1,1 1,-16 27,23-34,0 2,0-1,2 0,-1 1,1 0,1-1,0 1,1 0,0 14,1 0,0 0,2-1,1 1,1-1,1 0,14 42,-16-59,0 0,1 0,0-1,0 1,1-1,-1 0,2 0,-1-1,1 0,0 0,0 0,1 0,-1-1,1 0,1-1,-1 1,0-2,1 1,0-1,0 0,0 0,0-1,17 2,4-1,1-2,0-1,-1-1,1-2,31-6,-38 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10003.08">2951 733,'-5'1,"0"0,1 0,-1 0,0 0,1 1,-1 0,1 0,0 0,0 0,-1 1,2 0,-1-1,0 1,0 1,-5 5,-47 62,47-58,-21 30,2 2,-29 60,49-88,1 0,0 1,1 0,1 1,0-1,2 1,0 0,1 0,1 32,3-40,1 1,0 0,0-1,1 0,0 1,1-1,1-1,0 1,0-1,1 0,0-1,0 1,1-1,1-1,-1 0,1 0,13 9,-16-13,-1-1,1 1,0-1,0 0,0 0,0 0,0-1,1 0,-1 0,1-1,-1 0,1 0,-1 0,1-1,0 0,-1 0,1-1,0 0,-1 0,1-1,-1 1,1-1,-1-1,0 1,0-1,0 0,0-1,-1 1,1-1,-1 0,8-8,-3 1,-2 0,0-1,0 0,-1 0,-1-1,0 1,0-2,-1 1,5-22,-2-3,-1 0,3-51,-6 17,-8-114,3 183,1 0,-1 0,1 1,-1-1,0 0,0 0,0 1,-1-1,1 1,0-1,-1 1,0-1,0 1,1 0,-1 0,-1 0,1 0,0 0,0 0,-1 1,1-1,-1 1,1 0,-1-1,0 1,1 0,-1 1,0-1,0 0,-3 0,-11-1,0 1,0 0,0 2,-19 2,1-1,-13 2,25 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11268.57">3969 733,'-11'1,"1"0,0 1,1 0,-1 1,0 0,1 1,-1-1,1 2,0-1,0 1,1 1,-10 7,9-6,0 0,0 1,1 0,0 0,0 1,1 0,0 1,1 0,0 0,-6 13,11-21,0 1,1-1,-1 0,0 1,1-1,0 1,-1-1,1 1,0 0,0-1,1 1,-1-1,0 1,1-1,0 1,-1-1,1 0,0 1,0-1,1 0,-1 0,0 1,1-1,-1 0,1 0,0-1,-1 1,1 0,0 0,0-1,0 1,0-1,1 0,3 2,9 4,0-1,0 0,1-2,22 5,-18-4,-4-1,1 1,-2 1,1 0,-1 1,0 1,0 0,-1 1,0 1,23 20,-29-22,0 0,-1 0,0 1,0 0,-1 0,0 1,-1 0,0 0,-1 0,0 0,0 1,-1 0,0-1,-1 1,1 19,-2-23,0-1,-1 0,0 1,0-1,0 1,-1-1,0 0,0 1,-1-1,0 0,0 0,0 0,-1 0,0-1,0 1,0-1,-1 1,0-1,0 0,0 0,0-1,-1 1,0-1,0 0,0 0,0-1,-9 5,-11 6,-2-1,0-1,0-2,-1 0,-1-2,-48 8,12-9,-125-2,172-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13069.15">4864 570,'-1'6,"-1"0,1 0,-1 0,0 0,-1-1,1 1,-1-1,-6 9,-3 9,-79 139,63-118,2 1,3 1,1 1,-31 99,48-115,2 0,1 0,2 0,5 58,-2-69,0 0,1-1,1 1,1-1,11 23,-12-29,1-1,0 0,1-1,1 0,0 0,0 0,1-1,18 16,-21-22,1 0,-1 0,1-1,0 0,0 0,0-1,1 0,-1 0,1-1,-1 0,1 0,-1-1,1 1,0-2,-1 1,1-1,-1 0,1-1,-1 0,0 0,1-1,-1 1,0-1,-1-1,1 0,0 0,-1 0,7-6,9-9,-2 0,0-1,-1-1,-1-1,-2 0,25-43,-8 3,36-100,-62 140,-1-1,6-38,-1 0,-3 31,-2 0,-2-1,0 0,-2 0,-4-56,1 81,-1-1,0 1,0 0,0 1,-1-1,1 0,-1 1,-1-1,1 1,-1 0,0 0,0 0,-1 1,1 0,-1-1,0 2,0-1,0 0,-1 1,1 0,-1 0,-11-3,-13-4,0 1,-1 1,-45-5,24 5,37 5,8 1,-1 0,0 1,0 0,-14 0,20 1,0 0,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 1,1-1,0 0,0 1,-1-1,1 1,0-1,0 1,0 0,-1 3,-10 36,3 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13892.29">4782 977,'0'4,"4"0,8 1,12-2,5 0,2-1,6-2,3 1,2-1,0 0,-2-1,-6 1,-4 0,-5 0,-2 0,-2 3,-1 2,-5-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15013,7 +13515,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:09:54.048"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:15:02.250"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -15022,7 +13524,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'8'0,"1"2,-1-1,0 1,0 1,0 0,0 0,0 0,0 1,-1 0,0 0,0 1,0 0,8 8,46 27,-49-36,0 2,-1 0,0 0,0 1,0 1,-1-1,0 2,0-1,-1 2,15 18,-17-20,1-1,-1 1,1-1,0-1,1 1,0-2,-1 1,12 4,38 28,-49-30,5 5,0-1,1 0,1-2,-1 1,2-2,19 9,-22-10,0 0,-1 1,-1 1,1 0,-2 0,1 1,-1 0,13 20,6 3,-20-24,20 24,1-1,2-1,1-2,57 38,-79-61,0 1,-1 0,0 0,0 2,-1-1,-1 1,1 0,14 23,2 5,1-2,45 47,-54-67</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15040,7 +13542,7 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:11:04.198"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:15:09.723"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.1" units="cm"/>
@@ -15049,37 +13551,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">795 0,'0'5,"4"0,5 0,6 0,8-2,4 3,10 4,3 1,-6-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="681.44">1 193,'4'0,"9"0,8 0,3 0,2 0,0 0,1 0,-1 0,-1 0,0 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1269.19">289 121,'4'0,"6"0,5 4,4 14,-2 11,-2 6,-1 5,-3 3,-2 3,-4-2,-2-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1782.38">410 49,'12'16,"4"26,4 18,-2 16,0 10,1 4,2-6,-3-9,-1-4,-3-11,-3-16</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink169.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:11:06.930"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">489 20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="522.5">286 183</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1299.44">1 285,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1907.52">428 123,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2751.4">592 0,'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15110,307 +13586,6 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink170.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:11:10.532"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">287 28,'-4'-3,"0"0,0 0,-1 1,1-1,-1 1,1 0,-1 1,1-1,-1 1,0 0,0 0,0 0,0 1,1 0,-10 0,0 1,-1 0,0 1,-26 7,34-8,1 1,0 0,0 1,0-1,0 1,0 0,0 0,1 1,-1 0,1 0,0 0,1 0,-1 1,1 0,-1 0,1 0,1 1,-1-1,1 1,0 0,0 0,1 0,0 0,0 0,0 1,1-1,0 0,0 1,1-1,-1 1,2 12,0-15,0 0,0 0,1-1,-1 1,1 0,0 0,0-1,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,0 0,1-1,-1 0,0 1,1-1,0 0,-1-1,1 1,0-1,5 2,8 2,0-1,0-1,0-1,23 1,-33-3,-1-1,1 0,-1 0,1-1,-1 0,0 0,1 0,-1-1,0 0,-1 0,1-1,0 1,-1-1,0-1,0 1,0-1,-1 1,1-1,-1-1,5-8,-1 4,-1-2,0 1,-1-1,0 0,-1 0,-1-1,0 1,0-1,2-19,-6 30,1 0,-1-1,0 1,0 0,-1 0,1 0,0 0,0 0,-1 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,0 0,0 0,1 0,-1 0,0 1,0-1,0 0,0 1,-3-1,1 1,0-1,-1 1,1 0,0 0,0 0,0 1,0-1,-1 1,1 0,0 0,0 1,1-1,-1 1,0 0,0 0,-5 4,1 1,-1 1,2 0,-1 1,1 0,0 0,0 0,1 1,1 0,0 0,0 0,1 1,0 0,1-1,-3 16,6-24,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,1 1,-1-1,1 0,0 1,-1-1,1 1,0-1,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,0-1,2 2,-2-2,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0-1,2-2,-1-1,0 1,0 0,0-1,-1 1,0-1,0 1,0 0,0-1,-1-5,0 8,1 1,0-1,-1 1,1-1,-1 1,1-1,-1 1,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,-1-1,1 1,0 0,0 0,-1 0,1 1,0-1,-1 0,1 0,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,-2 1,4 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 0,0 1,0-1,-1 1,1-1,0 1,0 0,8 16,25 15,-25-25,0-1,1 0,0 0,1-1,-1 0,1-1,0 0,0 0,0-1,1-1,-1 0,1 0,-1-1,1 0,0-1,-1 0,17-3,-26 3,1 0,-1 0,1 0,-1-1,0 1,1 0,-1-1,1 1,-1-1,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1-1,0 1,1-1,-1 1,0 0,0-1,0 1,0-1,-1 1,1-1,0 1,-1-1,1 1,-1 0,1-1,-2-1,0-2,-1 1,0-1,0 1,0-1,0 1,-1 0,0 0,0 1,0-1,0 1,-7-5,-4 1,-1 1,0 0,0 0,0 2,0 0,-1 1,1 0,-1 2,-20 0,32 1,0 1,0 0,0 1,0-1,0 1,1 0,-1 0,1 0,-1 1,1 0,0 0,0 0,0 0,0 0,1 1,-1 0,1 0,0 0,0 0,0 0,-2 6,-4 6,1 0,0 1,1-1,-7 31,12-41,1 0,-1 1,1 0,0-1,1 1,-1 0,2 0,-1-1,1 1,1 7,-1-12,0 0,0 0,0 1,0-1,1 0,-1 0,1 0,-1-1,1 1,0 0,0 0,0-1,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,4-1,6 0,0-1,0 0,-1 0,1-1,-1-1,1 0,-1-1,-1 0,1 0,-1-2,14-8,-19 11,1-1,-1 1,1-1,-1 1,0-2,-1 1,0 0,1-1,-2 0,1 0,-1 0,0 0,0-1,0 1,-1-1,0 0,-1 0,1 0,-1 1,0-14,-1 17,0 1,-1 0,1 0,-1-1,1 1,-1 0,0 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,1 1,-3-2,-1 0,0 1,1 0,-1 0,0 0,0 0,0 1,0 0,-9-1,-7 1,0 1,0 1,-29 4,48-5,0 1,0-1,-1 0,1 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,-2 1,4-3,0 1,-1-1,1 1,-1 0,1 0,0-1,-1 1,1 0,0-1,0 1,0 0,0 0,-1 0,1-1,0 1,0 0,1 0,-1-1,0 1,0 0,0 0,0-1,1 1,-1 0,0 0,1 0,1 2,0 0,1 0,-1-1,0 1,1-1,0 0,-1 1,1-1,0 0,0-1,0 1,1 0,-1-1,0 0,7 2,-2-1,1-1,-1 0,1 0,0-1,-1 0,1 0,13-3,-20 3,0 0,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1-1,0 1,-1 0,1-1,-1 1,0-1,1 1,-1-1,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1-3,0 2,0-1,-1 1,1 0,-1-1,0 1,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,0 1,0 0,0 0,0 0,-1 0,1 0,-6-1,-5-3,0 1,0 0,-22-4,8 5,4 2</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink171.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:11:18.847"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">48 99,'-1'1,"0"-1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0 0,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,9 37,-6-34,0 0,1-1,-1 0,1 0,0 0,0 0,1-1,-1 1,1-1,0 0,-1-1,1 1,1-1,8 3,13 4,47 7,-43-10,-10 0,-9-2,0-1,1 0,23 2,-34-5,-1 0,0 0,0 1,1-1,-1 0,0 0,1-1,-1 1,0 0,0 0,0-1,1 1,-1 0,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,-1 0,1 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,-1-2,0-3,-1-1,0 1,0 0,-1 0,1 0,-1 0,-1 0,1 1,-1-1,0 1,0 0,-1 0,1 0,-1 1,0 0,-1 0,1 0,0 0,-1 1,0 0,-8-3,-10-4,0 2,0 1,-1 1,-28-3,46 8,-8-2,0 1,0 0,-18 2,30 0,1 0,-1 0,0 1,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 0,-1 2,3-2,0-1,0 1,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,1 1,0 1,1-1,-1 0,1 1,-1-1,1 0,0 0,0-1,0 1,0 0,1-1,-1 1,0-1,0 1,1-1,-1 0,1 0,0 0,3 0,53 14,-54-14,10 2,-1-1,1 0,0-1,0 0,16-2,-29 1,0 0,1 0,-1-1,0 1,0 0,0-1,0 1,0-1,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,-1 0,1-1,-1 1,0-1,0 0,1 0,-1 1,0-1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,-1-3,0 0,-1 0,1 0,-1 0,0 0,0 1,-1-1,1 1,-1 0,0 0,0 0,0 0,-1 1,0 0,1 0,-1 0,0 0,0 1,0 0,-9-3,-5-1,-1 1,1 1,-1 1,-23-2,19 4</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink172.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:22:47.628"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-    <inkml:brush xml:id="br1">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1975 21,'0'7,"0"16,0 18,0 9,0 3,-4 6,0-4,-1 0,2-6,0-8,-2-8,-4-9,0-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="976.25">1954 0,'4'0,"4"0,4 0,4 0,3 0,5 0,1 0,4 4,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1605.04">1975 245,'3'0,"9"0,5 0,7 0,2 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3132.86">2077 448,'0'-1,"0"0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,-1 0,1 1,0-1,0 0,0 1,0-1,0 1,0 0,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,2 0,33-2,-32 2,-1 0,1 0,-1 1,1-1,-1 1,1 0,-1 0,0 0,0 1,1-1,-1 1,0-1,0 1,0 0,-1 0,1 1,0-1,-1 1,1-1,-1 1,0 0,0-1,0 1,0 0,-1 1,1-1,-1 0,1 0,-1 1,0-1,-1 0,2 8,0 7,-1 1,-1 0,0 0,-6 34,6-51,-1 0,1 0,-1 0,1 1,-1-1,0 0,0 0,0 0,0 0,0 0,-1-1,1 1,0 0,-1 0,0-1,1 1,-1-1,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,-1-1,1 1,0 0,0-1,0 1,0-1,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,0-1,0 0,-1 1,1-1,0 0,-3-2,3 2,0 0,0 0,-1 0,1-1,0 1,0-1,0 1,1-1,-1 1,0-1,1 0,-1 0,1 0,-1 0,1 0,-2-5,3 6,-1-1,1 0,0 1,0-1,0 0,0 1,0-1,0 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,1-1,0 0,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,1 0,-1 0,3-2,2 0,0 0,1 0,-1 0,0 1,1 0,-1 0,1 1,0-1,0 2,-1-1,1 1,0 0,0 0,0 1,-1-1,1 2,0-1,-1 1,9 3,15 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="151032.5">1953 1140,'11'0,"6"0,11 0,15 0,0 4,-4 4,-5 1,-6-1,-2-2,-8 1,2 0,0-1,-3 1,-2 0,2-1,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="155496.75">2157 1119,'4'0,"4"0,4 0,4 0,3 0,1 0,1 0,0 0,4 0,0 4,1 1,1-1,-6 0,-7-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="158504.46">2035 1119,'31'0,"1"0,-1 2,0 1,0 2,51 14,2 2,-59-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1.89952E6">1859 1029,'0'4,"0"14,0 28,0 14,0 2,0-6,0-9,0-8,0-2,0-4,0 2,0-3,4-1,2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1.9007E6">1932 1101,'386'0,"-366"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1.90152E6">1836 1294,'4'0,"5"0,6 0,4 0,3 0,1 0,2 0,-4 4,-1 1,-1 0,2 0,-4 2,0 0,-3-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1.90314E6">2245 1582,'1'0,"0"0,0 0,0-1,0 1,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 2,-1-2,-1 1,1-1,0 0,-1 0,0 1,1-1,-1 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0-1,-1 1,1 0,0 0,0-1,0 1,-1-1,1 1,0-1,-1 1,1-1,0 0,-4 1,-2 0,-24 7,28 0,20 2,23 5,-22-9,-1 1,1 1,-1 0,-1 1,25 17,-40-25,0-1,0 1,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 1,0-1,1 0,-1 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 2,-1 0,1 0,-1 0,0-1,0 1,0 0,0-1,-1 1,1-1,-5 4,-4 1,1 0,-2 0,1-1,-14 6,8-7,-1-1,1-1,0 0,-1-1,0-1,-29-2,16 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="810017.99">1 62,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="810708.63">1221 21,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2.91692E6">248 1101,'0'12,"0"21,0 8,0 10,0 9,0-3,-4-10,-1-5,-1-6,-2-9,0-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2.91746E6">200 1173,'4'0,"6"0,13-8,31-11,15-3,-1 4,-11 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2.91792E6">296 1366,'5'0,"4"0,5 0,5 0,3 0,-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2.91912E6">368 1534,'4'0,"10"0,6 4,4 2,2-1,1-1,-5 3,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2.91978E6">465 1534,'0'12,"0"25,0 14,0 3,8-1,3-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2.92093E6">826 1125,'-5'0,"-4"0,-10 8,-1 15,-2 12,-1 0,4-2,8-2,11-7,10-8,10-6,3 0,1 1,1 4,-5 3,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2.92169E6">826 1053,'0'8,"-5"11,0 7,0 10,0 4,2-1,1-3,1-4,5-7,6-8,5-7,4 4,-1 2,-4 4,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2.92259E6">1042 1125,'-3'4,"0"0,1 0,-1 1,1-1,0 1,0 0,1-1,-1 1,1 0,0 0,0 0,0 7,1 60,0-67,1 1,1 0,-1-1,1 0,0 1,0-1,1 0,-1 0,1 0,0 0,1 0,-1-1,1 0,0 0,0 0,0 0,8 5,-7-5,1 1,-1 0,0 0,0 0,-1 1,0 0,0 0,0 0,0 0,3 11,-5-9,0 0,0 0,-1 0,0 0,-1 0,0 1,0-1,-1 0,0 0,0 1,-5 13,5-20,0 1,0-1,0 0,0 0,0 1,0-1,-1 0,1 0,-1 0,1-1,-1 1,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1-1,0 1,-1-1,1 0,-1 1,1-1,-1 0,1-1,-1 1,1 0,-1-1,1 1,0-1,-1 0,1 0,0 0,-1 0,1 0,-4-3,-12-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2.92314E6">1210 1486,'0'8,"0"15,0 16,-4 10,-1 0,-5 0,1-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2.92367E6">1426 1053,'0'16,"0"14,0 14,0 16,0 22,0 1,0-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2.92471E6">1571 1198,'0'-1,"0"1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0 0,-1-1,1 1,0 0,0 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0 0,-1-1,1 1,-1 0,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 1,0-1,1 0,-1 1,1-1,-1 1,1 0,0-1,-1 1,1-1,-1 1,1 0,0-1,0 1,-1 0,1-1,0 2,-15 47,2 2,3-1,-5 57,9-60,10-95,-4-74,-2 39,2 52,0 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2.92566E6">1451 1438,'0'4,"0"5,0 6,0 4,4 3,5-2,6-5,4-5,3-3,1-4,2-2,-4-6,-5-5,-6-6,-8 0,-9-1,-3 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2.9266E6">1667 812,'4'6,"-1"-1,0 1,0 0,-1 0,1 0,-1 0,-1 0,1 1,-1-1,0 1,0 7,1 6,11 69,-5 0,-3 1,-10 130,1-189,-2-1,-1 1,-1-1,-19 44,13-36,-17 72,24-86,-2 0,0 0,-1-1,-1 0,-2-1,-22 31,24-36</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink173.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T19:11:38.253"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'14'2,"0"0,0 1,0 1,-1 0,1 1,-1 1,-1 0,25 15,9 3,262 112,-96-45,-163-72,53 14,12 4,-88-29,1-1,-1-2,45 5,11 1,244 43,-133-25,-181-26,-1 0,0 0,0 1,0 0,17 11,2 0,-12-8,1-1,34 7,16 4,431 130,-186-58,-258-72</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink174.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:10:55.471"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink175.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:11:21.491"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink176.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:22:22.032"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink177.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:11:56.014"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink178.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:12:08.105"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">163 0,'2'1,"0"0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 1,1-1,0 1,-1 0,0-1,1 1,-1 0,0 0,0 0,0 0,2 5,15 46,-12-19,-2 1,-2 1,-1-1,-4 36,1 15,-5 83,-46 276,24-245,-12 63,6-35,32-209,-1 0,-7 25,5-25,1 1,-3 26,-15 359,24-358,-1-25</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink179.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:12:13.722"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'843,"2"-802,13 76,0-20,-5 33,18 136,-11-140,2 153,-20 130,-2-159,3-124,-24 516,13-524,4 140,8-235</inkml:trace>
-</inkml:ink>
-</file>
-
 <file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -15438,303 +13613,6 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink180.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:12:16.781"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0,'4'0,"4"0,4 4,4 0,2 0,3 3,-1 1,-2 1,-1 0,0-2,0-2,-2 2,3 3,2 3,0-1,-2 5,-5 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink181.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:12:19.377"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1123,'4'-4,"-1"0,0-1,-1 1,1-1,-1 0,3-8,7-15,57-92,91-118,-66 115,65-88,43-99,-174 269,-22 29</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink182.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:12:20.886"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink183.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:12:24.338"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 18,'0'-3,"3"-2,5 1,5 1,6 0,4 5,2 5,3 5,-4 4,-1-1,-5 1,1 4,-3-1</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink184.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:12:40.956"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'21'7,"7"5,5 5,4 3,0-3,-4-3,0-1,-2-3,-4-3,-2-2,-2-3,-1 2,-2 1,0-1,-4-1</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink185.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:12:57.115"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">144 509,'3'0,"0"1,0-1,0 1,0 0,0 0,0 0,0 1,0-1,-1 1,1-1,-1 1,1 0,-1 0,1 0,-1 0,0 1,0-1,3 5,25 20,4 1,-34-27,1-1,-1 1,1 0,-1-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1-1,0 1,-1 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,0 0,1-1,-1 1,0-1,1 0,-1 1,0-1,0 0,0 1,1-1,-3 0,-20 9,0 0,0-2,-1-1,0-1,0-2,0 0,-40 0,45-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1491.9">266 489,'-7'10,"0"1,1 0,0 0,1 0,0 1,0 0,-3 20,6-27,1 0,-1-1,1 1,0 0,0 0,0 0,1 0,0 0,0 0,0 0,3 10,-3-13,1-1,0 1,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,0 0,1 1,-1-1,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,4-1,-4 0,1 1,-1-1,0 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,0-1,0 1,0-1,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0-1,-1 1,1-1,-1 1,1-1,-1 1,0-1,0 1,-1-4,3-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3215.98">653 20,'1'1,"0"0,1 0,-1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 0,0 1,1-1,-1 0,0 1,0-1,0 1,0-1,0 1,-1 1,2 2,-1-2,3 22,-2-1,0 1,-4 26,2-43,0-1,-1 1,1-1,-2 0,1 1,-1-1,0 0,-1-1,1 1,-1-1,-1 1,1-1,-1 0,-8 7,-1 0,0-1,-1-1,0 0,0-2,-1 1,-1-2,1 0,-2-1,1-1,0 0,-32 5,46-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4845.16">653 0,'3'14,"2"18,-1 11,0 12,-2 10,0-2,-1-5,-1-9,-7-13,-6-12,-7-11,-5-7,0-4,0-4,-3-4,0-1,5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6165.99">775 305,'-59'38,"18"-12,0 2,-69 62,108-88,0-1,0 1,0 0,0 0,0 1,0-1,1 0,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,0-1,1 1,-1 0,1 0,0-1,0 1,0 0,0 0,0-1,0 1,1 0,0-1,-1 1,1 0,0-1,0 1,0-1,1 1,-1-1,1 0,-1 1,1-1,0 0,0 0,0 0,0 0,2 1,0 0,-1-1,0 0,1 0,0 0,-1 0,1-1,0 1,0-1,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,1 0,-1-1,0 0,0 0,0 0,-1 0,1-1,0 1,0-1,-1 0,7-4,-4 1,-1 0,0 0,0 0,-1-1,0 1,0-1,0 0,0 0,-1 0,4-11,16-70,-7 22,-12 95,-10 163,-1-33,10-122,-2-38,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,9-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7078.97">1039 244,'-2'1,"1"-1,-1 1,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,0 1,1 0,-1-1,-1 3,-3 5,-24 35,3 2,2 0,1 1,-17 55,39-98,-1-1,1 1,0 0,0-1,0 1,1 0,0 0,-1 0,1-1,0 1,1 0,-1 0,1-1,0 1,-1 0,2-1,-1 1,0 0,1-1,0 0,-1 1,1-1,1 0,-1 0,0 0,1 0,-1 0,1-1,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,1-1,0 0,-1 0,1-1,0 1,5 0,-6-1,1 0,-1-1,1 1,-1 0,1-1,-1 0,1 0,-1 0,0 0,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,-1 0,1-1,-1 1,1-1,-1 1,0-1,0 0,0 0,0 0,-1 0,1-1,-1 1,2-7,2-3,-1-1,-1 1,0-1,-1 0,0 0,-1-17,-5-175,4 185</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink186.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:13:05.441"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">231 0,'-13'5,"1"0,0 0,0 1,0 0,1 2,0-1,0 1,1 0,0 1,0 1,1-1,1 1,-1 1,2 0,-1 0,1 0,1 1,0 0,-6 20,3-3,2 0,0 0,2 1,2 0,0 0,2 0,4 48,-2-72,0 0,0 0,0 0,0 0,1 0,0 0,1 0,-1-1,1 1,0-1,0 0,1 0,-1 0,1 0,0-1,1 1,-1-1,1 0,0 0,0-1,0 1,0-1,1 0,-1-1,1 1,6 1,-6-2,1 0,0-1,0 0,0 0,0 0,0-1,0 0,1-1,-1 1,0-2,0 1,-1 0,1-1,0-1,0 1,-1-1,1 0,-1 0,0-1,0 0,0 0,6-6,-4 2,0-1,0 0,0 0,-2-1,1 1,-1-2,0 1,-1 0,0-1,-1 0,0 0,3-21,-2-1,-2 0,-1-1,-3-37,0 37,1 28,-1 0,1 0,-1 0,0 0,-1 1,1-1,-1 0,-1 0,1 1,-6-10,-5-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="669.07">434 41,'4'24,"4"36,1 28,-1 20,-2 10,-2 1,-2-13,-1-10,-7-7,-4-16,1-17,2-14,-2-11,4-15,4-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1526.06">882 0,'-1'7,"0"0,-1 0,1 0,-1-1,-1 1,1-1,-1 1,-7 10,-5 14,-9 32,3 2,3 0,3 1,2 1,4 0,2 0,4 1,9 131,-5-196,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,1 0,-1 1,1-1,0 0,-1 0,1 1,0-1,0-1,0 1,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 0,4 1,-3-2,0 1,0 0,0-1,0 0,0 0,-1 0,1 0,0-1,0 1,0-1,0 0,-1 0,1-1,0 1,-1-1,1 0,-1 0,0 0,1 0,2-3,12-14,-1 0,-1-2,-1 1,0-2,-2 0,20-45,-19 34,-2 0,-1-1,-2 0,9-57,-12 38,-3 1,-2-1,-9-88,8 139,0 0,-1-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 1,-3-3,-13-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2109.3">1309 0,'4'0,"1"24,3 36,0 29,-1 15,-2 23,-2-1,-5-15,-1-19,-1-22,0-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2647.15">1309 590,'0'-3,"4"-2,11 1,14-6,22-6,23-2,10-3,1 0,-14 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3747.86">2082 265,'6'-1,"-1"1,1-1,-1 0,0 0,0-1,9-3,14-4,47-5,-1 3,2 4,100 2,-101 4,-36 0,415 4,-365 7,-88-10,1 1,0-1,0 0,0 1,0-1,-1 1,1 0,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,1 1,-1-1,0 1,0-1,1 3,-2-2,0-1,0 1,0 0,0 0,0 0,0-1,-1 1,1 0,-1-1,1 1,-1 0,0-1,1 1,-1 0,0-1,0 1,0-1,-2 3,-8 8,-1-1,0 0,-26 18,28-22,-39 28,31-25,1 2,1 0,0 1,0 1,-26 30,41-43,0 1,0-1,0 1,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,1 0,0 0,0 2,3 2,0 1,1-1,0 0,10 10,11 15,-18-14,0 0,-1 1,-1 0,-1 0,0 0,-2 0,0 1,-1 0,0-1,-2 1,-3 31,3-45,-1 0,0 0,-1-1,1 1,-1 0,0 0,0-1,0 0,-1 1,1-1,-1 0,0 0,-1 0,1 0,0-1,-1 1,0-1,0 0,0 0,0-1,-1 1,1-1,-1 0,1 0,-6 2,-14 3,-1-1,0 0,-47 3,23-3,2 1,-135 17,156-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4680.01">3365 224,'0'1,"1"0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 1,0 1,-22 122,5 1,-2 199,20-320,0-1,0 1,0-1,1 1,0 0,0-1,0 1,0-1,0 1,1-1,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,4 3,-2-4,-1 0,0-1,1 0,0 0,-1-1,1 1,0-1,0 0,0 0,0 0,0-1,0 0,0 0,0 0,0-1,6 0,4-2,0 1,0-2,-1 0,1-1,-1 0,0-1,0-1,-1 0,0-1,0 0,-1-1,0-1,-1 1,18-21,-13 11,0-1,-2-1,-1 0,0-1,-2 0,-1-1,0 0,7-28,-16 46,14-41,-3-1,10-80,-20 113,-1 0,-1 0,-1 0,0 0,0 0,-2 0,1 0,-2 1,0-1,-1 1,0 0,-1 0,-13-21,17 30,-1 0,0 0,-1 0,1 1,0-1,-1 1,0 0,0 0,0 0,0 1,-1-1,1 1,-9-3,-26-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5616.65">4606 244,'4'0,"1"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6117.83">3874 509,'7'0,"6"0,3 0,11 0,10 0,13 0,8-4,2 0,4-4,1 0,1 1,-5-2,-9 1,-9 2,-10 2,-6 1,-8 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6633.46">3976 773,'7'0,"9"-3,12-2,12-3,13 0,11-2,9 0,-1-1,-7 1,-10-1,-11 1,-13 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7014.98">4769 265,'0'3,"0"16,0 21,0 21,0 15,0-3,0-3,0-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8083.23">4912 142,'3'1,"1"-1,-1 1,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,3 4,38 42,-33-34,17 18,-2 2,-1 0,-2 2,-2 0,-1 2,-2 0,17 49,-32-72,0 0,-1 0,0 1,-1-1,-1 1,0-1,-2 1,1-1,-2 0,0 0,-1 0,-7 18,2-9,-1 0,-2-1,0-1,-1 0,-2-1,-25 30,36-47,0-1,0 1,0-1,0 1,-1-1,0-1,1 1,-1-1,0 1,0-1,-1-1,1 1,0-1,0 0,-1 0,1 0,-9-1,6 0,1-1,0 1,-1-1,1-1,0 0,0 0,0 0,0-1,0 0,0 0,1 0,-9-6,13 7,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,0 0,0-1,0 1,1-1,-1 1,1-1,-1-3,1 0,0 1,0-1,1 0,0 0,0 0,0 1,4-11,4-3,0 0,1 0,16-22,-19 29,1 1,1-1,0 2,0-1,1 1,0 1,14-10,-18 15,0 1,0 0,0 0,1 0,0 1,-1-1,1 2,0-1,0 1,0 0,0 1,0-1,0 1,0 1,12 1,-1 2,0 1,-1 1,0 1,-1 0,1 1,-1 0,-1 2,0 0,0 0,19 19,-31-26,0-1,1 0,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 0,0-1,0 1,0-1,-1 1,1-1,0 0,0-1,0 1,0-1,0 1,6-3,31-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9211.85">5909 122,'-1'-1,"-1"0,1 0,-1 1,0-1,1 0,-1 0,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,-3 2,-41 14,39-13,-35 16,1 1,2 1,0 3,1 1,1 2,-50 48,69-56,0 0,1 1,1 2,1-1,-17 35,24-40,1 0,1 0,0 1,1-1,1 1,1 1,0-1,1 0,1 19,2-27,1 0,0 1,0-1,1 0,0 0,0 0,1-1,1 1,-1-1,1 0,0 0,1 0,0-1,0 0,1 0,0-1,14 11,6 3,1 0,1-2,49 23,-66-36,1 0,-1-1,1 0,-1-1,1 0,0-1,0-1,0 0,1 0,-1-2,0 1,0-2,0 0,0 0,0-1,-1-1,1 0,-1-1,0 0,0-1,-1 0,1-1,-1 0,12-11,-5 3,-1 0,-1-1,0-1,-2-1,0 0,0 0,-2-2,-1 1,0-2,-1 1,-1-1,-1-1,6-28,-4 8,-2 12,-1 0,-1 0,-1-1,-2 1,-1-1,-3-33,0 60,0 0,0 0,-1 1,0-1,1 1,-1-1,0 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 1,0-1,-6-2,-58-31,59 33,-16-8,-1 2,0 0,0 2,-34-5,49 10,0 0,0 1,-1 1,1 0,0 0,0 1,0 1,0-1,0 2,0-1,0 1,1 1,0 0,-10 5,14-6,1 1,-1 0,1 0,0 0,0 1,1-1,-1 1,1 0,-5 9,1 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink187.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:13:42.338"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 327,'3'0,"-1"1,0 0,0-1,1 1,-1 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 1,0-1,-1 0,1 0,0 4,13 67,-13-69,2 42,-4 86,-2-88,3 0,5 50,14-4,-12-66,-2 1,5 43,-10-47</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1448.71">510 1,'0'0,"1"0,-1 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,0-1,1 1,-1 0,0-1,0 1,0-1,0 1,0-1,0 1,0 0,1 23,-6 13,-1-1,-2 1,-1-1,-26 63,-5 19,37-104,-4 5,1 0,1 1,1 0,0 0,2 0,0 0,2 0,3 40,-1-54,0-1,1 0,-1-1,1 1,0 0,0-1,1 0,-1 1,1-1,0-1,0 1,0 0,1-1,-1 0,1 0,0 0,-1-1,1 0,1 0,-1 0,8 2,3 1,1-1,-1-1,1 0,0-1,31 0,-45-3,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,0-1,0 0,0 1,0-1,-1 0,2-4,28-64,-30 69,2-5,-1 1,0-1,0 0,-1 0,0 0,0 0,0 0,-1-12,-1 17,1 0,-1 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 0,-1 1,1 0,-1-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,-3 0,-79 4,65-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3098.13">896 82,'-26'40,"-31"64,50-89,1 1,0 0,1 0,1 0,0 1,1-1,-1 31,5-40,0 1,1-1,0 1,0-1,1 0,0 0,0 0,1 0,0 0,5 6,49 60,-54-69,1 0,-1-1,1 1,0-1,0-1,0 1,0-1,1 1,-1-1,1-1,-1 1,1-1,-1 0,10 0,-11 0,0-1,0 0,0 0,0 0,0-1,1 1,-1-1,0 0,0 0,0 0,0-1,-1 1,1-1,0 0,-1 0,1 0,-1-1,1 1,-1-1,4-5,5-10,-1-1,0-1,-2 0,0 0,-2-1,0 0,-1 0,-1-1,-1 1,-1-1,-1 0,-1-36,-2 53,0 0,0 0,0 0,-1 0,0 0,0 1,0-1,-1 1,1-1,-1 1,0 0,0 0,-1 0,1 0,-1 1,0-1,0 1,-8-5,0 0,0 2,0-1,0 2,-1-1,-24-5,1 3</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink188.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:14:31.544"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">233 263,'-9'26,"-82"316,-30-39,109-274,29-71,26-105,-25 78,3 1,46-99,-57 150,1 1,0 0,1 1,20-20,23-29,-44 45,0 0,12-30,11-19,-34 67,0 0,0 1,0-1,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,1-1,-1 1,0 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,10 20,-2 36,-4 166,-5-65,4-134,-4-23,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,16-41,-13 33,134-386,-126 353,-9 31,0-1,1 1,0 0,1 0,0 1,0-1,1 1,0 0,1 0,0 0,9-9,-14 17,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,1-1,0 1,1 1,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,0 1,0 0,2 3,5 11,0 1,10 32,-16-42,19 59,25 133,-8 76,-14-86,-17-138</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink189.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:14:34.543"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 143,'0'31,"0"35,0 54,0 28,0 2,0-10,0-19,4-19,0-21,0-20,3-13,4-16,-1-16,-1-31,-2-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="605.74">41 224,'7'0,"5"0,12 0,26-7,17-9,5-2,-2-1,-4-1,-9-1,-14 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1470.11">122 794,'-18'0,"11"1,0-1,-1 0,1 0,0-1,-1 1,1-2,0 1,0-1,-12-5,19 7,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,0 0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,1-1,13-7,24 0,30 5,0 3,78 10,38 2,-162-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3284.2">1404 0,'1'37,"11"62,-1-9,7 201,-32 452,10-709,2-44,0-57,2 27,0-7,-9-79,8 114,-1 1,0 0,-1-1,-1 1,0 0,0 1,-1-1,0 1,-1-1,0 2,-1-1,-10-11,7 13,0 1,-1 0,1 1,-2 0,1 1,-1 0,1 1,-1 0,0 1,-1 1,1-1,0 2,-1 0,1 0,-1 1,1 1,-25 4,29-2,1-1,0 2,0-1,0 1,1 0,0 1,-1-1,1 1,1 0,-1 1,1 0,0 0,0 0,-7 11,3-1,-1 1,2 0,0 0,1 0,-5 20,11-33,0 0,1 1,-1-1,1 1,0-1,0 1,0-1,0 0,1 1,0-1,0 1,0-1,1 0,-1 0,1 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1-1,0 0,1 1,-1-2,0 1,1 0,0-1,6 4,13 6,0-1,0-1,1-1,28 7,-12-4,-34-10,11 5,1-1,0 0,1-2,-1 0,1-1,0-1,28 0,-44-2,0-1,-1 0,1 0,-1 0,0-1,1 1,-1 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0-1,1 1,-1 0,0-1,0 1,0-1,0-3,3-9,0 0,2-28,-5 35,0-1,2-11,-1 0,-1 1,-2-22,1 37,0 0,-1 0,1 0,-1-1,0 1,0 0,-1 0,1 0,-1 1,0-1,0 0,0 0,-1 1,1 0,-1-1,0 1,0 0,0 0,0 0,-5-2,-7-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8675.9">2361 632,'-11'1,"0"0,0 1,1 0,-1 1,1 0,-1 1,1 0,0 0,0 1,1 1,-1-1,-13 13,-10 10,-55 57,73-68,0-2,1 0,1 1,1 1,-16 27,23-34,0 2,0-1,2 0,-1 1,1 0,1-1,0 1,1 0,0 14,1 0,0 0,2-1,1 1,1-1,1 0,14 42,-16-59,0 0,1 0,0-1,0 1,1-1,-1 0,2 0,-1-1,1 0,0 0,0 0,1 0,-1-1,1 0,1-1,-1 1,0-2,1 1,0-1,0 0,0 0,0-1,17 2,4-1,1-2,0-1,-1-1,1-2,31-6,-38 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10003.08">2951 733,'-5'1,"0"0,1 0,-1 0,0 0,1 1,-1 0,1 0,0 0,0 0,-1 1,2 0,-1-1,0 1,0 1,-5 5,-47 62,47-58,-21 30,2 2,-29 60,49-88,1 0,0 1,1 0,1 1,0-1,2 1,0 0,1 0,1 32,3-40,1 1,0 0,0-1,1 0,0 1,1-1,1-1,0 1,0-1,1 0,0-1,0 1,1-1,1-1,-1 0,1 0,13 9,-16-13,-1-1,1 1,0-1,0 0,0 0,0 0,0-1,1 0,-1 0,1-1,-1 0,1 0,-1 0,1-1,0 0,-1 0,1-1,0 0,-1 0,1-1,-1 1,1-1,-1-1,0 1,0-1,0 0,0-1,-1 1,1-1,-1 0,8-8,-3 1,-2 0,0-1,0 0,-1 0,-1-1,0 1,0-2,-1 1,5-22,-2-3,-1 0,3-51,-6 17,-8-114,3 183,1 0,-1 0,1 1,-1-1,0 0,0 0,0 1,-1-1,1 1,0-1,-1 1,0-1,0 1,1 0,-1 0,-1 0,1 0,0 0,0 0,-1 1,1-1,-1 1,1 0,-1-1,0 1,1 0,-1 1,0-1,0 0,-3 0,-11-1,0 1,0 0,0 2,-19 2,1-1,-13 2,25 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11268.57">3969 733,'-11'1,"1"0,0 1,1 0,-1 1,0 0,1 1,-1-1,1 2,0-1,0 1,1 1,-10 7,9-6,0 0,0 1,1 0,0 0,0 1,1 0,0 1,1 0,0 0,-6 13,11-21,0 1,1-1,-1 0,0 1,1-1,0 1,-1-1,1 1,0 0,0-1,1 1,-1-1,0 1,1-1,0 1,-1-1,1 0,0 1,0-1,1 0,-1 0,0 1,1-1,-1 0,1 0,0-1,-1 1,1 0,0 0,0-1,0 1,0-1,1 0,3 2,9 4,0-1,0 0,1-2,22 5,-18-4,-4-1,1 1,-2 1,1 0,-1 1,0 1,0 0,-1 1,0 1,23 20,-29-22,0 0,-1 0,0 1,0 0,-1 0,0 1,-1 0,0 0,-1 0,0 0,0 1,-1 0,0-1,-1 1,1 19,-2-23,0-1,-1 0,0 1,0-1,0 1,-1-1,0 0,0 1,-1-1,0 0,0 0,0 0,-1 0,0-1,0 1,0-1,-1 1,0-1,0 0,0 0,0-1,-1 1,0-1,0 0,0 0,0-1,-9 5,-11 6,-2-1,0-1,0-2,-1 0,-1-2,-48 8,12-9,-125-2,172-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13069.15">4864 570,'-1'6,"-1"0,1 0,-1 0,0 0,-1-1,1 1,-1-1,-6 9,-3 9,-79 139,63-118,2 1,3 1,1 1,-31 99,48-115,2 0,1 0,2 0,5 58,-2-69,0 0,1-1,1 1,1-1,11 23,-12-29,1-1,0 0,1-1,1 0,0 0,0 0,1-1,18 16,-21-22,1 0,-1 0,1-1,0 0,0 0,0-1,1 0,-1 0,1-1,-1 0,1 0,-1-1,1 1,0-2,-1 1,1-1,-1 0,1-1,-1 0,0 0,1-1,-1 1,0-1,-1-1,1 0,0 0,-1 0,7-6,9-9,-2 0,0-1,-1-1,-1-1,-2 0,25-43,-8 3,36-100,-62 140,-1-1,6-38,-1 0,-3 31,-2 0,-2-1,0 0,-2 0,-4-56,1 81,-1-1,0 1,0 0,0 1,-1-1,1 0,-1 1,-1-1,1 1,-1 0,0 0,0 0,-1 1,1 0,-1-1,0 2,0-1,0 0,-1 1,1 0,-1 0,-11-3,-13-4,0 1,-1 1,-45-5,24 5,37 5,8 1,-1 0,0 1,0 0,-14 0,20 1,0 0,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 1,1-1,0 0,0 1,-1-1,1 1,0-1,0 1,0 0,-1 3,-10 36,3 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13892.29">4782 977,'0'4,"4"0,8 1,12-2,5 0,2-1,6-2,3 1,2-1,0 0,-2-1,-6 1,-4 0,-5 0,-2 0,-2 3,-1 2,-5-1</inkml:trace>
-</inkml:ink>
-</file>
-
 <file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -15762,64 +13640,6 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink190.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:15:02.250"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'8'0,"1"2,-1-1,0 1,0 1,0 0,0 0,0 0,0 1,-1 0,0 0,0 1,0 0,8 8,46 27,-49-36,0 2,-1 0,0 0,0 1,0 1,-1-1,0 2,0-1,-1 2,15 18,-17-20,1-1,-1 1,1-1,0-1,1 1,0-2,-1 1,12 4,38 28,-49-30,5 5,0-1,1 0,1-2,-1 1,2-2,19 9,-22-10,0 0,-1 1,-1 1,1 0,-2 0,1 1,-1 0,13 20,6 3,-20-24,20 24,1-1,2-1,1-2,57 38,-79-61,0 1,-1 0,0 0,0 2,-1-1,-1 1,1 0,14 23,2 5,1-2,45 47,-54-67</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink191.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T20:15:09.723"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">489 20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="522.5">286 183</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1299.44">1 285,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1907.52">428 123,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2751.4">592 0,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
 <file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -15843,31 +13663,31 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2934 733,'0'1385,"2"-1349,2 0,11 51,-7-47,4 57,-11 130,-2-97,1-132</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1186.99">3016 794,'3'0,"5"0,8 0,8 0,17 0,13 0,23 0,11 0,-4 0,-12 0,-16 0,-9 0,-10 0,-11 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1945.99">2975 1405,'0'-3,"3"-2,5 1,12 0,15 1,31 2,27 0,36 1,7 0,-13 0,-24 0,-25 0,-26 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2740.99">2833 326,'15'-1,"0"-1,1-1,-1 0,16-6,24-5,77-2,0 5,184 8,-184 4,-95-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3689">3748 61,'3'0,"6"0,3 0,4 4,3 1,1-1,1 3,0 4,0 3,-3 3,-16 5,-11-1,-11 3,-6 4,-1-2,3-3,2-5,6-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4606">5295 958,'0'3,"-1"0,1 0,-1 0,1 0,-1 0,0 0,0-1,-1 1,1 0,0 0,-1-1,0 1,1-1,-5 5,-36 30,16-15,-38 40,-97 120,-41 90,87-115,52-69,-5-3,-3-3,-103 91,74-91,74-63</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5691.99">4318 937,'2'0,"1"0,-1 1,1 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 1,0 0,0-1,0 1,-1 0,3 3,25 43,-20-32,141 271,53 88,-179-340,2-1,1-1,2-2,1 0,2-3,1 0,0-2,65 37,-29-33,-41-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6830.99">5987 814,'0'11,"0"44,0 48,0 38,0 25,0 13,0 3,0-8,0-17,0-24,0-28,0-29,0-23,0-17,0-12,0-17,0-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8193.02">6028 794,'24'-1,"1"-1,-1-2,32-8,-28 5,0 1,36-1,177 5,-151 3,-81-1,1 1,-1 1,0 0,-1 0,1 0,0 1,-1 1,1-1,14 10,6 5,34 29,-27-19,-21-16,0 1,-1 1,-1 0,0 0,-1 1,0 1,14 26,2 11,22 63,-6-14,-29-71,-1 1,-2 0,-1 1,-1 0,-2 1,-1 0,-2 0,2 65,-7-72,-2 0,0 0,-2 0,-13 51,11-61,0-1,-1 1,-1-1,-1 0,0-1,-1 0,-1-1,-19 21,-15 9,-2-3,-2-1,-1-3,-3-1,-71 35,110-64,-1-2,0 0,0 0,0-2,-1 0,-29 2,23-2,-1 0,-27 8,6-1,0-2,0-2,-1-2,-77-2,65-3,1 3,-58 10,104-10,-10 0,19-6,9-6,13-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9223.99">5987 82,'43'3,"0"2,0 2,-1 2,81 27,-64-17,86 15,-136-32,363 70,-353-66,-10-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10563.99">6719 1,'18'8,"-1"2,0 0,-1 1,0 1,-1 0,0 1,-1 1,-1 0,0 1,-1 0,11 18,8 8,18 27,-45-63,-1 0,0 1,-1-1,0 1,1 0,-2 0,1 0,-1 0,0 0,1 8,-2-11,-1 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,0-1,-1 1,0 0,1 0,-1-1,0 1,0-1,-1 1,1-1,0 0,-1 0,1 0,-1 0,0-1,0 1,1-1,-1 1,0-1,-6 1,-8 3,-1 0,0-2,-32 3,28-4,3 0,0 1,1 1,-26 8,18-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18192.99">64 3135,'1'1,"0"-1,0 0,-1 1,1-1,0 1,0 0,-1-1,1 1,0 0,-1-1,1 1,-1 0,1 0,0-1,-1 1,0 0,1 0,-1 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 1,3 36,-3-30,-14 902,3-857,11-52,0 0,-1-1,1 1,0 0,-1 0,1-1,0 1,-1 0,1 0,-1-1,1 1,-1-1,1 1,-1 0,0-1,1 1,-1-1,0 0,1 1,-1-1,-1 1,1-1,0-1,0 1,0 0,1-1,-1 0,0 1,0-1,0 1,0-1,1 0,-1 1,0-1,1 0,-1 0,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,-1-2,-4-11,0-1,1 1,0-1,1 0,1 0,0 0,1 0,1 0,0-1,1 1,1 0,7-29,6-12,3 2,26-58,-26 68,47-127,35-82,-65 164,-25 60,1 1,2 1,20-36,-33 63,0-1,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,1-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,1 0,0 0,0 1,12 15,3 35,-16-47,45 216,-19-84,55 170,7-97,-84-196,6 17,1-1,23 44,-31-67,0 0,1 0,0-1,0 1,0-1,0 0,1 0,0-1,0 1,0-1,1 0,-1 0,1-1,0 0,0 0,0 0,1-1,8 3,-14-5,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,1 1,-1 0,0-1,0 1,0 0,1-1,-1 0,0 1,0-1,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1-2,6-50,-5 42,3-136,13-154,67-181,-77 451,2 0,1 1,1 0,17-31,68-108,-81 151,-5 18,-9 3,1-1,-1 1,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,-1 0,0 3,6 398,-8-262,-1 395,4-529,0-1,1 1,0-1,0 0,1 1,-1-1,2-1,-1 1,1 0,0-1,0 0,1 0,5 7,18 26,50 109,-59-120</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19436.02">1509 4193,'1'-3,"-1"0,1 1,0-1,-1 0,1 0,0 1,1-1,-1 1,0-1,1 1,-1 0,1-1,0 1,2-3,34-29,-27 25,20-17,-8 5,1 0,1 2,54-31,-72 46,0 1,0 0,0 0,1 0,-1 1,1 1,0-1,-1 1,1 0,0 1,0 0,0 0,0 0,-1 1,1 1,0-1,-1 1,1 0,-1 1,1 0,8 5,-2 1,-1 0,1 2,-2-1,1 2,-1 0,-1 0,0 1,-1 0,11 20,11 22,27 67,-34-68,5 8,3-1,60 85,-78-126</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20249.99">2323 3969,'-14'1,"0"0,-1 1,1 1,0 0,0 1,0 1,1 0,0 0,0 2,0-1,-20 16,-8 9,-72 69,71-60,-70 69,-50 46,157-151,0 1,-1-1,0 0,0-1,0 1,0-1,0-1,-1 1,1-1,-1 0,-12 2,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21305.99">2710 3684,'14'0,"11"0,9 0,5 0,0 0,-4 0,-1 0,1 0,-2 0,-3 0,0 0,2 0,-1 0,1 0,-1 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22016.99">2710 3949,'65'-3,"85"-15,41-2,-59 20,-107 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23877.99">4176 3400,'0'7,"0"19,0 27,0 17,0 8,0 0,0 2,0-10,0-10,0-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24775.99">4216 3461,'4'0,"4"0,4 0,4 0,3 0,8 0,3 0,0 3,-2 2,-2-1,-2-1,-1 3,-6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25804.99">4033 3684,'18'2,"0"0,0 1,0 1,-1 1,20 7,16 4,21 7,-53-14,1-2,1-1,-1-1,38 4,-40-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28332.99">5132 3583,'0'0,"-1"-1,1 1,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 1,-1-1,1 0,0 1,-1-1,-22 12,-53 45,2 2,-128 137,155-132,40-52,-2 0,1 0,-2 0,1-1,-12 9,20-19,0 0,0 0,1 0,-1-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-2,-14-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28855.02">4725 3583,'14'1,"0"1,0 1,-1 0,1 1,-1 0,25 12,0 0,-8-4,-1 1,0 2,-1 1,0 1,-2 1,0 2,-1 0,-1 2,-1 0,-1 2,-1 1,-1 0,-1 1,21 40,-29-48</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29490.99">5682 3603,'3'0,"2"21,-1 27,-1 23,0 10,-2 23,0 3,0-13,-1-15,-1-18,1-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30841.99">5723 3684,'5'-1,"0"-1,0-1,0 1,0-1,0 0,-1 0,1 0,-1-1,0 1,0-1,0 0,4-6,8-5,7-6,-13 11,1 0,1 0,-1 1,1 1,16-8,-24 14,0 0,-1 1,1 0,0 0,1 0,-1 0,0 1,0-1,0 1,0 0,0 0,1 1,-1-1,0 1,0 0,0 0,0 0,0 1,0-1,-1 1,1 0,0 0,3 3,9 8,-1 0,0 1,-1 1,0 0,-1 1,-1 0,-1 1,0 0,-1 1,-1 0,-1 0,0 1,-1 0,-2 1,0-1,0 1,-2 0,-1 0,0 39,-2-39,0 0,-1 0,-2 0,0-1,-1 1,-8 23,10-37,-1 0,1 0,-2-1,1 1,-1-1,1 0,-2 0,1 0,0 0,-1 0,0-1,0 0,0 0,-1-1,1 1,-1-1,0 0,0-1,0 1,0-1,0-1,-1 1,-6 0,-11 1,-45-1,-11 2,51 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32206.99">3911 3155,'-1'1,"0"1,0-1,1 0,-1 1,0-1,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 1,0-1,0 3,0 7,-13 465,12-184,-19-41,17-222,-2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33402.99">6659 3338,'0'4,"0"14,0 33,-4 31,-4 23,-1 14,1 45,2 10,2-15,2-32,0-29,2-29,0-25</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3060 692,'0'1308,"2"-1274,2 0,12 48,-8-44,5 53,-12 124,-2-93,1-123</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1186.99">3146 750,'3'0,"5"0,9 0,8 0,17 0,15 0,23 0,12 0,-5 0,-11 0,-18 0,-9 0,-10 0,-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1945.99">3103 1327,'0'-3,"3"-2,5 1,13 1,16 0,31 2,29 0,38 1,7 0,-14 0,-25 0,-25 0,-28 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2740.99">2955 308,'15'-1,"1"-1,1-1,-2 0,18-5,24-5,81-2,-1 4,193 8,-192 4,-100-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3689">3909 58,'3'0,"6"0,4 0,4 3,2 2,2-1,1 3,0 3,0 3,-3 3,-17 5,-11-1,-12 2,-6 5,-2-3,4-2,2-5,7-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4606">5522 905,'0'2,"-1"1,1 0,-1 0,1 0,-1 0,0-1,0 0,-1 1,1 0,0 0,-1-1,0 1,1-2,-5 6,-38 28,17-14,-40 37,-101 114,-43 85,91-109,55-65,-6-2,-3-4,-108 86,78-85,77-60</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5691.99">4503 885,'3'0,"0"0,-1 1,1 0,-1-1,0 1,1 0,-1 0,0-1,0 1,1 1,-1-1,0 0,0 1,0 0,0-1,0 1,-1 0,3 2,26 42,-20-31,146 256,56 83,-187-321,2-1,1-1,3-2,0 1,2-4,2 1,-1-3,68 36,-30-32,-43-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6830.99">6244 769,'0'10,"0"42,0 45,0 36,0 24,0 12,0 3,0-8,0-16,0-22,0-27,0-27,0-22,0-16,0-11,0-17,0-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8193.02">6287 750,'25'-1,"1"-1,-1-2,33-7,-28 4,-1 2,38-2,184 5,-157 3,-85-1,2 1,-2 1,0 0,0 0,0-1,1 2,-2 1,1-1,15 9,6 5,36 28,-28-19,-23-15,1 2,-1 0,-2 0,1 0,-2 1,1 2,14 23,2 11,23 60,-6-14,-30-67,-2 2,-1-1,-2 1,0 0,-3 1,-1 0,-1 0,1 62,-7-69,-2 1,0-1,-2 1,-14 48,12-58,-1-1,0 1,-1-1,-2 0,1-1,-1 0,-2-1,-19 21,-16 7,-2-2,-2-1,-1-3,-4-2,-73 35,114-62,0-1,-1 0,0-1,1-1,-2 0,-30 2,24-2,-1-1,-28 9,6-2,0-1,0-3,-1-1,-80-2,68-3,0 3,-60 9,109-9,-11 0,20-6,9-5,14-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9223.99">6244 77,'45'3,"0"2,0 2,-2 1,86 26,-68-16,91 14,-143-30,379 66,-368-62,-11-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10563.99">7008 1,'18'8,"0"1,0 0,-1 2,-1 0,0 0,-1 2,0 0,-1 0,-1 1,0 1,11 16,8 7,19 27,-47-61,-1 1,1 1,-2-2,0 2,1 0,-2-1,1 1,-1 0,0-1,1 9,-2-12,-1 1,1 0,-1 0,0 1,0-1,0-1,0 1,0 0,0-1,-1 1,0 0,1-1,-1 0,-1 1,1-1,-1 1,1-1,0 0,-1 0,1-1,-1 1,0-1,-1 1,2-1,-1 1,0-1,-6 1,-9 3,-1-1,0-1,-33 3,29-4,4 0,-1 0,1 2,-27 8,19-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18192.99">67 2960,'1'1,"0"-1,0 0,-1 1,1-1,0 1,0 0,-1-1,1 1,0 0,-1-1,1 1,-1 0,1 0,0-1,-1 1,0 0,1 0,-1-1,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 1,3 34,-3-29,-14 853,2-810,12-49,0 0,-1-1,1 0,0 1,-1 0,1-1,0 1,-1 0,1 0,-1-1,1 1,-1-1,1 1,-1 0,0-1,1 1,-1-1,0 0,1 1,-1-1,-1 1,1-1,0-1,0 1,0 0,1-1,-1 0,0 1,0-1,-1 1,1-1,1 0,-1 1,0-1,1 0,-1 0,0 0,1 1,-1-1,1 1,0-1,-1 0,1 0,-1-2,-4-10,0-1,1 0,-1 0,2 0,1 0,0 0,1-1,1 1,0-1,1 1,1 0,8-28,5-11,4 2,27-54,-27 63,48-119,38-78,-69 155,-25 56,0 2,3 0,20-33,-34 59,0-1,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,1-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,2-1,-1 1,-1 0,1 0,-1 0,1 0,0 0,0 1,12 15,4 32,-17-45,47 205,-20-79,58 160,6-92,-87-185,7 16,0 0,25 41,-33-64,0 1,1 0,0-1,1 0,-1 0,0 0,1-1,0 0,1 1,-1-1,1-1,-1 1,2-1,-1 0,0 0,0-1,2 0,7 3,-14-5,0 0,0 0,1 0,0 0,-1 0,0 0,0-1,1 1,-1 0,0-1,0 1,0 0,1-1,-1 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,-1 0,1 0,0 0,0 0,-1 0,2 0,-2 0,1 0,-1 0,1 0,-1-1,1 1,-1-2,6-47,-5 40,3-129,14-145,69-171,-79 426,1-1,2 2,0 0,18-30,71-101,-84 142,-6 17,-9 2,2 0,-2 1,0 0,0 0,0-1,0 1,0-1,-1 1,1 0,-1 0,0 3,6 375,-8-247,-1 373,4-499,0-2,1 2,0-2,0 1,1 1,-1-2,3 0,-2 0,1 1,0-1,0-1,2 1,4 6,19 25,52 103,-61-114</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19436.02">1574 3959,'1'-3,"-1"0,1 2,0-2,-1 0,1 0,0 1,1-1,-1 1,0 0,1 0,-1 0,1-1,0 1,3-3,34-27,-27 24,20-17,-8 5,1 1,1 1,57-30,-76 45,0 0,0 0,1 0,0 0,-1 1,2 2,-1-2,-1 1,2 0,-1 1,0 0,1 0,-1 0,-1 1,2 1,-1-1,-1 0,2 1,-2 1,1 0,9 5,-2 0,-2 1,2 1,-3-1,2 3,-2-1,0 0,-1 2,0-1,11 19,11 21,29 63,-36-64,5 8,3-2,63 81,-81-119</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20249.99">2423 3748,'-15'1,"1"0,-2 0,1 2,1 0,-1 1,0 1,2-1,-1 1,1 2,-1-2,-20 16,-9 8,-75 66,74-57,-72 64,-53 45,163-143,1 0,-1 0,0 0,-1-1,1 0,0 0,0-1,-2 1,2-1,-1 0,-13 2,-4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21305.99">2826 3479,'15'0,"11"0,10 0,4 0,1 0,-5 0,0 0,0 0,-1 0,-4 0,0 0,3 0,-2 0,1 0,0 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22016.99">2826 3729,'68'-3,"89"-14,42-2,-62 19,-110 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23877.99">4355 3210,'0'7,"0"18,0 25,0 16,0 7,0 1,0 2,0-10,0-10,0-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24775.99">4397 3268,'4'0,"5"0,3 0,5 0,3 0,8 0,3 0,0 3,-1 2,-3-2,-2 0,-1 3,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25804.99">4206 3479,'19'1,"0"1,0 1,-1 1,0 1,21 6,16 4,22 7,-55-14,1-1,1-1,-1-2,39 5,-41-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28332.99">5352 3383,'0'0,"-1"-1,1 1,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 1,-1-1,1 0,0 1,-1-1,-23 12,-56 41,3 3,-133 129,161-124,41-50,-1 0,0 1,-1-1,1-1,-13 9,21-18,0 0,0 0,1 0,-1-1,0 1,0 0,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0-2,-14-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28855.02">4928 3383,'15'1,"-1"1,1 1,-2 0,2 0,-2 1,27 11,0 0,-9-3,-1 0,0 2,0 1,-1 1,-2 1,0 2,-1 0,-1 2,-1 0,-1 1,-1 2,-1 0,-1 0,21 38,-29-45</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29490.99">5926 3402,'3'0,"2"20,0 25,-2 22,0 10,-2 21,0 3,0-12,-1-15,-1-16,1-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30841.99">5969 3479,'5'-1,"0"-1,0-1,1 1,-1-1,0 0,-1 0,1 1,0-2,-1 1,0-1,0 1,5-7,7-4,8-6,-13 11,0-1,2 1,-2 0,2 2,16-8,-25 13,0 0,-1 1,1 0,1 0,0 0,-1 0,0 1,0-1,1 1,-1 0,0 0,1 1,-1-1,0 1,1 0,-1 0,0 0,0 1,0-1,-1 1,2-1,-1 1,3 3,10 7,-2 1,1 0,-1 1,-1 0,0 1,-2 0,0 1,-1 0,0 1,-2 0,-1 0,1 1,-2 0,-2 1,0-1,1 1,-3 0,-1 0,0 37,-2-38,0 1,-1 0,-2 0,0-1,-1 1,-9 22,11-36,-1 1,1 0,-2-2,0 2,0-1,1-1,-2 1,1 0,0-1,-2 1,1-1,0 0,0 0,-2-2,2 2,-1-1,0 0,-1-1,1 1,0-2,0 0,-2 1,-5 0,-12 1,-47-1,-12 2,54-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32206.99">4079 2979,'-1'1,"0"1,0-1,1 0,-1 1,0-1,1 1,-1-2,1 2,-1-1,1 1,0-1,-1 1,1-1,0 1,0-1,0 3,0 6,-14 439,13-173,-20-39,18-210,-2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33402.99">6945 3152,'0'4,"0"13,0 31,-4 29,-5 22,0 14,1 42,2 9,1-14,3-30,0-28,2-26,0-25</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16122,14 +13942,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 856,'1'0,"0"1,0 0,0-1,0 1,1 0,-1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,1 2,8 38,-8-36,5 41,0 88,-4-41,-1-89,0 1,0 0,1 0,-1-1,1 1,0-1,0 1,1-1,-1 0,1 0,6 8,-8-11,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0-1,1 1,-1 0,1-1,-1 1,0-1,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,1-2,1-1,-1 0,-1-1,1 1,-1-1,1 1,-1-1,-1 0,1 1,-1-1,1 0,-1 1,-1-1,1 0,-2-8,0-4,1-47,3 0,3 0,2 1,3 0,3 1,30-89,32-147,-75 295,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1 1,1-1,-1 0,1 1,0-1,0 1,1 0,-1 0,0-1,1 2,-1-1,1 0,-1 0,1 1,0-1,0 1,0 0,0 0,0 0,0 0,5 0,0 1,1 0,-1 1,0 0,1 1,-1 0,0 0,0 0,0 1,-1 1,9 4,111 48,-109-49,1-2,37 7,-36-8,0 0,28 10,-39-11,-2-1,-1 1,1 0,-1 0,1 0,-1 0,0 1,0 0,0 0,-1 1,9 8,-5 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2097.63">509 774,'71'-16,"-58"14,1 2,0-1,0 2,0 0,0 0,0 1,-1 1,1 0,-1 1,1 1,16 8,-23-9,0-1,-1 2,1-1,-1 1,0 0,-1 0,1 1,-1 0,0 0,0 0,-1 0,0 1,0-1,0 1,-1 0,0 1,-1-1,1 0,-1 1,-1 0,2 14,-3-15,0-1,0 0,-1 0,0 0,0 0,-1 0,0 0,0 0,0 0,-4 6,-34 55,23-41,0 1,9-12,-1-1,-1 0,0 0,-15 15,21-25,0-1,0 1,-1-1,1 0,-1-1,1 1,-1-1,0 0,0 0,0 0,0-1,0 1,0-1,-1-1,1 1,0-1,0 0,-6 0,-10-2,1 0,-1-2,1 0,0-1,-32-13,46 15,1 1,-1-1,1 1,-1-1,1-1,0 1,1-1,-1 0,1 0,-1 0,1-1,0 1,1-1,-1 0,1 0,0-1,0 1,1-1,-1 1,1-1,1 0,-1 0,-1-7,3 10,0 1,0 0,0 0,0-1,0 1,1 0,-1 0,1 0,-1-1,1 1,0 0,-1 0,1 0,1 0,-1 0,0 0,0 0,1 1,-1-1,1 0,-1 1,1-1,0 1,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 1,0 0,1 0,-1 0,3 0,2 0,0 0,0 0,0 1,-1 0,1 0,0 0,-1 1,1 0,-1 1,1 0,-1 0,7 4,22 18,-2 0,2-1,1-2,45 22,-39-32,-24-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38506.21">2035 0,'0'4,"0"7,0 20,0 32,-3 37,-5 18,-1 10,-9 8,-5-6,1-11,-2-12,2-21,6-21,5-18,8-15,8-4,6-8,2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39141.21">1323 1344,'50'3,"0"3,-1 2,1 2,74 25,-69-18,-1-3,2-2,75 7,108-19,-163-2,-53 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40289.25">1445 1649,'5'89,"4"0,38 166,-12-79,-26-118,-8-38,2 0,0-1,1 0,2 0,8 24,-14-43,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,1 0,-1-1,0 1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0-1,5-19,-3-34,-6-109,4-156,3 276,1-1,3 1,1 1,3-1,18-48,-28 87,0 1,0-1,1 0,0 1,0 0,0-1,0 1,0 0,0 0,1 0,0 1,0-1,-1 0,1 1,1 0,-1 0,4-2,-2 2,-1 1,1 1,-1-1,1 1,-1 0,1 0,-1 0,1 0,0 1,-1 0,1 0,-1 0,8 3,49 18,126 34,-81-24,-74-20,48 10,-77-22,0 1,1 0,-1 0,0 0,0 0,-1 0,1 1,0-1,3 3,3 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41677.18">1710 2300,'58'-68,"-19"20,-8 12,3 1,1 1,1 2,2 2,1 1,56-30,-90 56,1 0,0 1,-1 0,1 0,0 0,0 0,0 1,0 0,0 1,1-1,-1 1,0 0,0 1,0-1,1 1,-1 0,0 1,11 4,-13-4,1 1,-1 0,0 0,0 1,0-1,0 1,0 0,-1 0,0 0,0 0,0 1,0-1,-1 1,0-1,0 1,0 0,0 0,-1 0,0 0,0 1,0-1,0 9,3 83,-11 129,7-221,0-1,-1 1,1-1,-1 1,0 0,0-1,0 1,-1-1,0 0,1 0,-2 1,1-1,0 0,-1-1,0 1,-6 7,5-9,-1 1,1-1,-1 0,1 0,-1 0,0-1,0 0,0 0,0 0,0 0,0-1,0 0,0 0,0 0,-7-1,-4-1,-1 0,0-1,1 0,-18-7,30 9,1 0,-1 0,1 0,0 0,-1-1,1 0,0 0,0 0,0 0,0 0,1 0,-1-1,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,1 0,-1 0,1-1,0 1,0 0,-1-7,2 9,0 0,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,1-1,-1 1,1 0,0-1,-1 1,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 1,0-1,2-1,1 0,-1 0,1 0,0 1,0 0,0-1,0 2,0-1,6 0,2 0,-1 1,1 0,0 1,0 0,13 4,-9 1,-1 0,1 2,-1 0,0 0,-1 2,0-1,21 21,28 18,-18-18,-28-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42459.5">62 1119,'3'0,"12"0,7 0,2 0,12-3,27-15,28-19,18-16,18-24,20-16,5-9,7-9,19-8,-14 11,-31 21,-39 25</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43142.49">998 2545,'7'0,"9"0,5 0,6-4,20-21,36-35,35-31,28-21,28-12,23-6,70-32,18-10,-25 17,-47 29,-46 29,-51 26,-42 23,-34 19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 807,'1'0,"0"1,0 0,0-1,0 1,1 0,-1 0,0 0,-1 0,1 0,1 0,-1 0,0 0,0 0,-1 0,1-1,-1 1,1 1,-1-1,1 0,-1 1,0-1,1 2,8 35,-8-33,6 39,-1 82,-4-38,-1-85,0 2,0 0,1 0,-1-2,1 2,0-1,1 1,0-2,-1 1,1 0,6 7,-8-10,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0-1,1 0,-1 1,1-1,-1 1,0-1,1 0,0 0,0 1,-1-1,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1-1,0 1,1-1,-1 1,2 0,-2-1,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,1-2,1-1,-1 1,-1-2,1 1,-1-1,2 2,-2-2,-1 0,1 1,-1 0,1-1,-1 1,-1-1,1 1,-2-9,-1-3,2-44,4 0,2-1,2 2,4 0,2 0,32-83,34-139,-79 278,1 0,-1 0,1 0,0 0,0 1,0-1,0 0,1 0,-1 1,1-1,-1 1,1 0,1-1,-1 1,1 0,-1 0,0-1,1 2,-1 0,1-1,-1 0,2 1,-1-1,0 1,0 0,0 0,0 0,0 0,6 0,-1 1,2 0,-2 1,0 0,2 1,-2 0,1 0,-1 0,0 1,0 0,8 5,118 45,-116-47,2-1,39 6,-38-7,0 0,29 9,-40-10,-3-1,-1 1,2-1,-2 1,1 0,-1 0,1 1,-1 0,0-1,0 2,8 7,-4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2097.63">533 730,'75'-15,"-62"13,2 2,0-1,-1 2,1 0,0 0,-1 1,0 1,0-1,0 2,1 1,16 7,-23-8,-1-1,-1 1,1 0,0 1,-1 0,-1-1,2 2,-2 0,0-1,0 1,-1 0,1 0,-1 0,0 1,-1-1,0 2,-1-2,2 1,-2 0,-1 1,2 13,-3-15,0 0,0 0,-1-1,0 1,0 0,-1-1,0 1,-1 0,1-1,-4 7,-36 51,24-39,1 2,8-12,0-1,-2 0,1 0,-16 15,21-24,1-2,0 2,-1-1,1 0,-2-1,2 1,-1-2,0 1,-1 0,1 0,0-1,0 1,-1-1,0-1,1 1,0-1,-1 0,-5 0,-11-2,1 0,-1-2,1 0,0 0,-33-13,47 14,2 1,-1-1,1 1,-2 0,2-2,0 1,1-1,-2 0,2 1,-1-1,1-1,0 1,0 0,0-1,1 0,0 0,0 0,1-1,-1 1,0 0,2-1,-1 0,-1-6,3 9,0 2,0-1,0 0,0-1,0 1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,2 0,-2 0,0 0,0 0,1 2,-1-2,1 0,-1 1,1-1,0 1,-1-1,1 1,0 0,0 0,1 0,-1 0,0 0,0 0,1 1,-1 0,0-1,0 1,0 0,2 0,-2 0,3 0,2 0,1 0,-1 0,0 1,-1-1,2 1,-1 0,-1 1,2 0,-2 1,1 0,0 0,6 3,24 18,-2-1,1 0,2-2,47 20,-41-29,-25-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38506.21">2132 0,'0'4,"0"6,0 19,0 31,-3 34,-6 17,0 10,-10 7,-5-5,1-11,-2-11,2-20,6-20,5-16,9-15,8-4,7-7,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39141.21">1386 1267,'52'3,"1"3,-2 1,1 3,78 23,-72-17,-2-3,3-2,78 7,114-18,-172-1,-55 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40289.25">1514 1555,'5'84,"4"0,41 156,-14-74,-26-111,-9-36,2 0,0-1,1 0,3 0,7 22,-14-40,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,1 0,-1-1,0 1,0 0,0 0,2 0,-2 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0-1,5-18,-3-32,-6-103,4-146,3 259,1 0,3 0,2 1,2 0,20-46,-30 82,0 1,0 0,1-1,0 1,0 0,0-1,0 2,0-1,0 0,2 0,-1 1,0-1,-1 1,1 0,1 0,-1 0,5-2,-3 2,-1 1,1 1,0-1,0 1,-1 0,1 0,0 0,0 0,0 1,-1 0,1 0,0 0,7 3,52 17,132 32,-85-23,-77-19,49 10,-79-21,-1 1,1 0,-1 0,0 0,0-1,-1 1,2 1,-1-1,3 3,3 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41677.18">1791 2169,'61'-64,"-20"19,-9 11,4 1,1 1,0 1,3 3,1 1,59-29,-95 53,1 0,0 2,0-1,0 0,0 0,1 0,-1 1,0 0,0 1,2-1,-2 1,0 0,1 1,-1-1,1 1,-1 0,1 1,11 4,-14-5,1 2,-1 0,0 0,1 1,-1-1,0 0,0 1,-1 0,0 0,1-1,-1 2,0-1,-1 1,0-2,0 2,0 0,0 0,-1-1,0 1,0 1,1-2,-1 10,3 77,-12 122,8-208,0-1,-1 0,1 0,-1 1,0 0,0-2,0 2,-1-1,0 0,1-1,-2 2,1-1,0 0,-2-2,1 2,-6 7,5-10,-2 2,2-1,-1 0,1 0,-1 0,-1-1,1 0,0 0,0 0,-1 0,1-1,0 0,0 0,-1 0,-6-1,-5-1,-1 0,1-1,0 0,-19-6,32 8,1 0,-1 0,0 0,1 0,-1-1,1 0,0 0,0 1,0-1,-1 0,2 0,-1-1,1 1,-1-1,1 0,0 1,0-1,0 0,-1 0,2 0,-1 1,1-2,0 1,0 0,-1-6,2 8,0 0,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,1-1,-1 2,1-1,0-1,-1 1,1 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 1,0-1,2-1,1 0,-1 1,1-1,1 1,-1 0,0-1,0 2,0-1,7 0,1 0,0 1,0 0,1 1,0 0,13 4,-9 0,-2 1,2 2,-1-1,-1 1,0 1,0 0,21 19,30 17,-18-17,-31-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42459.5">65 1055,'3'0,"13"0,7 0,2 0,13-3,28-14,29-17,19-16,19-23,21-15,5-8,8-9,20-7,-16 10,-31 20,-42 24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43142.49">1045 2400,'8'0,"9"0,5 0,6-4,21-19,38-34,37-29,29-19,29-12,24-6,74-30,19-9,-27 16,-49 27,-48 28,-53 24,-45 21,-35 19</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16277,18 +14097,18 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">94 1303,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1129.71">94 1242,'0'-10,"1"0,0 1,1-1,0 0,0 1,1 0,0-1,1 1,0 1,9-15,4-3,1 1,23-22,-11 12,-26 30,0 0,1 0,-1 1,1 0,0 0,7-5,-10 8,-1 1,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,2 2,4 10,-1 0,0 0,-1 0,0 0,-1 1,0-1,-1 1,0 22,11 53,-12-86,0 0,0 1,0-1,1 0,-1 1,1-1,0 0,0 0,0-1,1 1,-1 0,1-1,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,6 1,8 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2342.76">257 916,'-2'157,"4"162,8-232,1 18,-10-28,-3 259,-8-246,-1 37,10-107,-1 0,-7 34,6-38</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3070.9">399 305,'0'3,"0"6,0 20,0 28,0 13,0 6,0-3,-3-11,-2-12,1-12,-3-11,-7-12,-1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4164.51">501 326,'2'0,"-1"1,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,-1 1,0-1,1 1,-1 1,10 39,-9-38,5 45,-2 0,-2 71,-3-108,2-24,5-126,-4 119,1-1,0 1,2-1,0 1,15-34,-19 50,-1 1,1 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,0-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,2 2,2 2,0-1,-1 1,0 0,0 0,0 0,-1 1,0 0,0 0,0 0,-1 0,0 1,0-1,2 8,2 18,-2 1,-1 0,-1 0,-2 0,-1 0,-6 42,5-71,1 0,-1 0,0 0,-1-1,1 1,-1 0,1-1,-1 1,0-1,0 1,-1-1,1 0,-1 0,-3 3,6-6,-1 1,0-1,1 1,-1-1,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1-1,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0-4,-8-27,4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5575.85">949 0,'10'33,"-2"1,-1-1,-2 1,-1 0,-2 1,-2 43,1-10,7 370,-8-416,-5-37,-4-36,4-25,5 50,-2-1,-7-36,8 61,1 0,0-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 0,-1 1,1-1,-3-3,4 5,0 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 0,-1 0,1 1,0-1,-1 0,1 0,0 1,-1-1,1 0,0 1,-1-1,1 1,-3 3,0 1,0 0,1 0,-1-1,1 1,1 1,-1-1,-1 6,-4 19,-11 64,17-87,1 0,-1 1,1-1,1 1,-1-1,1 1,0-1,1 0,0 0,3 8,-5-14,0 0,1 1,-1-1,1 0,0 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,1-1,-1 1,0-1,1 1,-1-1,1 0,-1 0,1 1,-1-1,1 0,-1 0,3-1,-2 0,1 0,-1 0,0 0,1-1,-1 1,0-1,0 0,0 1,0-1,0 0,-1 0,1 0,-1-1,1 1,-1 0,2-4,5-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="37429.44">277 1018,'23'814,"-26"-557,9-201,-5-46,1 1,-1-1,-1 0,0 1,0-1,-3 13,0-5,-1-1,0 0,-1 0,-1 0,-14 26,10-29</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="38564.93">94 1120,'22'-34,"1"1,2 1,2 2,1 1,1 0,1 3,65-45,-94 70,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,0 1,1-1,-1 1,0 0,1 0,-1-1,0 1,1 0,-1 0,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 1,0-1,0 1,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,1 0,-1 1,0-1,0 3,2 10,0 1,-1-1,-1 27,0-32,-8 236,7-212</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="39707.93">74 2381,'0'-1,"0"0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,0 0,0 1,-1-1,1 0,0 1,0-1,0 1,-1-1,1 1,2-1,26-10,-21 8,42-16,0-2,-2-2,-1-2,-1-3,73-56,-75 45,59-70,-47 47,-44 51,-2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="40719.58">684 1852,'4'0,"4"0,4 0,8 0,3 0,5 0,1 0,-1 0,-5 14,-7 11,-6 9,-8 1,-8 6,-2-1,-1-3,1-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="72251.46">196 2361,'-6'-4,"0"0,0 0,-1 0,1 1,-1 0,-10-4,-15-6,20 6,0 1,-1 0,-17-5,28 11,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-2 2,3-2,0 1,0 0,0 0,1 0,-1 0,0-1,1 1,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,0 2,0 1,1 0,0 0,0 0,0 0,0-1,1 1,0-1,0 1,0-1,0 0,0 0,0 0,1-1,0 1,-1-1,1 0,0 0,0 0,0-1,6 2,0 1,1 0,-1-1,1-1,0 0,0 0,22 0,-30-3,1 0,-1 0,0-1,1 1,-1 0,0-1,0 0,0 0,0 0,0 0,-1 0,1-1,-1 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,0 0,0-1,1 1,-2-1,1 1,0-1,-1 1,1-6,-1 6,1 0,-1 0,0 0,1 0,-1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,0 1,0 0,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 1,0-1,0 1,0 0,-4-1,-53-1,57 2,1 1,-1 0,0 0,0 1,0-1,1 1,-1-1,0 1,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 1,1-1,0 1,-3 2,5-2,-1 0,1 0,0 0,-1 0,1 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,3 4,17 38,-10-25,-8-14,1 0,-1-1,1 0,0 1,0-1,1 0,0 0,-1-1,1 1,0-1,0 0,1 0,-1 0,1-1,0 1,-1-1,7 2,-9-4,0 1,0-1,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,0 0,3-2,-3 1,0 1,0-1,0 0,-1 0,1 0,0-1,-1 1,0 0,0-1,1 1,-1-1,0 1,-1-1,1 1,0-1,-1 1,1-6,0-49,-1 55,0 0,0-1,-1 1,1 0,-1-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,-1 0,1 1,-1-1,0 0,1 0,-1 1,0-1,-4-2,-7-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="277848.33">93 1160,'11'-46,"2"0,3 1,26-59,-14 38,-24 56,0 0,1 1,-1 0,2 0,-1 0,13-13,-16 19,0 1,1 0,-1 1,0-1,1 0,-1 1,1-1,0 1,-1 0,1-1,0 1,0 1,0-1,0 0,0 1,0-1,0 1,0 0,0 0,0 0,-1 1,1-1,0 1,0-1,0 1,0 0,5 2,5 3,0 0,0 1,0 0,-1 1,0 0,16 15,-22-17,0 0,-1 1,0-1,0 1,-1 0,0 1,0-1,-1 0,0 1,0 0,0 0,2 15,1 34,0 111,-7-138</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">94 1241,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1129.71">94 1183,'0'-10,"1"1,0 0,1 0,0-1,0 2,1-1,0 0,1 0,0 1,9-14,4-2,1 0,23-21,-11 12,-26 28,0 0,1 1,-1 0,1 0,0 0,7-4,-10 7,-1 1,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,2 2,4 9,-1 1,0-1,-1 0,0 1,-1 0,0-1,-1 2,0 20,11 51,-12-82,0 0,0 0,0 0,1 0,-1 1,1-1,0 0,0 0,0-2,1 2,-1 0,1-1,-1 1,1-1,0 0,0 0,0 0,0-1,0 1,6 1,8 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2342.75">257 872,'-2'150,"4"154,8-221,1 17,-10-27,-3 247,-8-234,-1 35,10-102,-1 0,-7 32,6-36</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3070.9">399 290,'0'3,"0"6,0 19,0 26,0 13,0 5,0-3,-3-10,-2-11,1-12,-3-10,-7-12,-1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4164.51">502 310,'2'0,"-1"1,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,-1 0,0 0,1 1,-1 1,10 37,-9-36,5 43,-2-1,-2 69,-3-104,2-22,5-121,-4 114,1-1,0 1,2-1,0 1,15-33,-19 48,-1 2,1-1,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 1,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,0-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,2 2,2 1,0 0,-1 1,0 0,0 0,0-1,-1 2,0 0,0-1,0 1,-1 0,0 1,0-2,2 9,2 16,-2 2,-1-1,-1 0,-2 1,-1-1,-6 41,5-69,1 1,-1 0,0 0,-1-1,1 1,-1-1,1 0,-1 1,0-1,0 1,-1-1,1-1,-1 1,-3 3,6-6,-1 1,0-1,1 1,-1-1,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1-1,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,0-1,0 0,0 1,0 0,0-1,0 1,0-1,0 0,0-4,-8-25,4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5575.85">950 0,'10'31,"-2"2,-1-2,-2 2,-1-1,-2 1,-2 42,1-11,7 354,-8-397,-5-36,-4-33,4-25,5 49,-2-2,-7-34,8 58,1 0,0-1,-1 1,0 0,1 0,-1 1,0-1,0 0,0 0,-1 1,1-1,-3-3,4 5,0 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 0,-1 0,1 1,0-1,-1 0,1 0,0 1,-1-1,1 0,0 1,-1-1,1 1,-3 3,0 1,0-1,1 1,-1-1,1 1,1 0,-1 0,-1 6,-4 17,-11 62,17-84,1 1,-1 1,1-2,1 2,-1-1,1 0,0 0,1 0,0-1,3 9,-5-15,0 1,1 1,-1-1,1 0,0 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 0,0 1,1-1,-1 1,0-1,1 1,-1-1,1 0,-1 0,1 1,-1-1,1 0,-1 0,3-1,-2 0,1 0,-1 0,0 1,1-2,-1 1,0-1,0 0,0 1,0-1,0 0,-1 0,1 0,-1-1,1 2,-1-1,2-4,5-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="37429.44">277 970,'23'775,"-26"-530,9-192,-5-43,1 0,-1 0,-1-1,0 2,0-2,-3 13,0-5,-1-1,0 0,-1 1,-1-1,-14 25,10-28</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="38564.93">94 1067,'22'-33,"1"2,2 0,2 3,1 0,1 1,1 2,65-43,-94 67,0 0,0 0,0 1,0-1,1 0,-1 1,0 0,0 0,1-1,-1 1,0 0,1 0,-1-1,0 1,1 0,-1 0,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,0 0,0 1,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,-1-1,1 0,-1 0,0 0,1 0,-1 1,0-1,0 3,2 9,0 2,-1-2,-1 26,0-30,-8 224,7-202</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="39707.93">74 2268,'0'-1,"0"0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,0 0,0 1,-1-1,1 0,0 1,0 0,0 0,-1-1,1 1,2-1,26-10,-21 8,42-15,0-2,-2-2,-1-2,-1-2,73-54,-74 43,58-67,-47 45,-44 48,-2 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="40719.58">685 1764,'4'0,"4"0,4 0,8 0,3 0,5 0,1 0,-1 0,-5 13,-7 11,-6 8,-8 2,-8 5,-2-1,-1-3,1-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="72251.45">196 2249,'-6'-4,"0"0,0 0,-1 0,1 2,-1-1,-10-4,-15-5,20 5,0 1,-1 1,-17-6,28 11,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-2 2,3-2,0 1,0 0,0 0,1 0,-1 0,0-1,1 1,-1 0,1 0,-1 0,1 0,-1 1,1-2,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,0 2,0 0,1 1,0 0,0 0,0 0,0-1,1 0,0 0,0 1,0-1,0 0,0 0,0-1,1 0,0 1,-1-1,1 0,0 0,0 0,0-1,6 2,0 0,1 1,-1-1,1-1,0 0,0 0,22 0,-30-3,1 0,-1 0,0-1,1 1,-1 0,0-1,0 0,0 0,0 0,0 1,-1-1,1-1,-1 1,1-1,-1 0,0 0,0 0,0 1,0-1,0 0,-1 0,0 0,0-1,1 2,-2-2,1 1,0-1,-1 1,1-5,-1 5,1 0,-1 0,0 0,1 0,-1 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,0 0,0 1,0-1,-1 0,1 0,-1 1,1-1,-1 0,0 2,0-1,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,0 0,0 0,-4-1,-53-1,57 2,1 1,-1 0,0 0,0 1,0-1,1 1,-1-1,0 1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 1,-3 2,5-2,-1 0,1 0,0 0,-1 0,1-1,0 1,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,3 3,17 37,-10-24,-8-13,1 0,-1-1,1-1,0 2,0-1,1 0,0 0,-1-2,1 2,0-1,0 0,1 0,-1 0,1-1,0 0,-1 0,7 2,-9-4,0 1,0-1,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,0 0,3-2,-3 1,0 2,0-2,0 0,-1 0,1 0,0-1,-1 1,0 0,0-1,1 1,-1 0,0 0,-1-1,1 1,0-1,-1 1,1-5,0-48,-1 53,0 0,0 0,-1 0,1 0,-1-1,0 1,0 0,0 0,0 0,0-1,0 2,0-1,-1 0,1 1,-1-1,0 0,1 0,-1 1,0-1,-4-2,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="-151648.4">93 1105,'11'-44,"2"0,3 1,26-56,-14 36,-24 54,0-1,1 2,-1-1,2 1,-1-1,13-12,-16 18,0 1,1 0,-1 2,0-2,1 0,-1 1,1-1,0 1,-1 0,1-1,0 1,0 1,0-1,0 0,0 1,0-1,0 1,0 0,0 0,0 0,-1 1,1-1,0 1,0-1,0 1,0 0,5 2,5 3,0-1,0 2,0 0,-1 0,0 1,16 14,-22-16,0-1,-1 2,0-1,0 0,-1 1,0 1,0-2,-1 1,0 1,0-1,0 1,2 14,1 32,1 106,-8-131</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16369,7 +14189,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">70 0,'10'739,"1"46,-14-645,-35 229,21-225,-9 46,20-159</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">70 0,'10'703,"1"44,-14-613,-35 217,21-214,-9 44,20-152</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16396,9 +14216,9 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">124 1,'-36'355,"10"-76,-17 339,34-481,0 41,10 452,-2-582</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="700.95">388 896,'4'0,"4"0,11 0,7 0,4 0,2 4,-2 0,-2 1,-2-2,-3 0,-1-2,2 3,-2 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1510.95">266 1262,'4'0,"4"0,4 0,4 0,3 0,1-3,4-1,6-1,0 2,-1 0,-2 2,-2 0,-3 1,0 0,-1 3,-1 2,-3 3,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">124 1,'-36'337,"10"-72,-17 321,34-456,0 39,10 429,-2-553</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="700.95">388 850,'4'0,"4"0,11 0,7 0,4 0,2 4,-2 0,-2 1,-2-3,-3 1,-1-2,2 3,-2 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1510.95">266 1197,'4'0,"4"0,4 0,4 0,3 0,1-2,4-2,6-1,0 2,-1 0,-2 2,-2 0,-3 1,0 0,-1 3,-1 2,-3 3,-5-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16425,11 +14245,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 571,'3'0,"5"0,5 0,3 0,6 0,6 0,5 0,4 3,3 5,-2 1,-5 2,-3 0,-8-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1186.7">915 265,'3'0,"-1"1,0-1,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 1,-1-1,0 1,1 0,-1 0,1 2,21 51,-21-47,18 60,-4 1,10 85,3 153,-25-253,-3-47,0 0,0 0,-1 0,0 0,-1 0,1 0,-1 0,0 0,-1 0,0-1,0 1,-1-1,1 1,-1-1,-1 0,1 0,-1 0,0 0,0-1,-1 1,0-1,-6 5,-19 19,-2-2,-1 0,-1-3,-1-1,-1-1,-42 17,71-36,-1 0,1-1,-1 0,0-1,1 1,-1-2,0 1,0-1,0 0,0-1,0 0,1 0,-1 0,0-1,1 0,-1-1,-8-4,-2-2,1-1,0 0,1-2,0 0,-24-24,35 30,-1-1,1 1,0-2,0 1,1 0,0-1,1 0,-1 0,1 0,1 0,0 0,0-1,0 1,1-1,1 1,-1-11,1 9,1 0,-1 0,2 0,-1 0,1 1,1-1,0 1,0 0,1-1,0 1,1 1,-1-1,12-14,-1 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2336.69">1892 1,'-20'47,"2"2,-18 75,15-50,-3 7,4 1,3 0,4 2,3 0,2 108,9-151,1 0,1 0,3 0,1 0,2-1,27 73,-18-71,43 74,-55-105,2 0,0 0,0 0,1-1,0-1,0 0,1 0,1 0,-1-1,1-1,13 7,2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9218.71">2523 408,'-7'0,"0"1,0 1,1-1,-1 1,0 1,1-1,-1 1,1 0,0 0,0 1,0 0,0 0,-5 5,-11 11,-32 35,52-53,-5 6,1 1,0-1,1 1,0 1,0-1,1 1,0-1,1 1,0 0,0 1,1-1,-1 18,1 10,1 0,6 43,-2-49,-3-27,0 0,0-1,1 1,0 0,0-1,0 1,1-1,0 1,0-1,0 0,0 1,0-1,1 0,0 0,0-1,0 1,0-1,6 5,-1-3,0 0,0-1,0 0,0-1,1 0,-1 0,1-1,17 2,-18-2,4 0,0 0,1-1,17 0,-28-1,0 0,0 0,1 0,-1-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0-1,0 1,0 0,-1 0,1-1,0 1,-1-1,1 0,-1 1,0-1,1 0,-1 0,1-3,17-77,-4 13,-1 21,10-56,-22 88,0 1,-1-1,0 0,-1 0,-1 0,-1 0,-6-28,7 40,-1 0,1 0,-1 0,0 1,0-1,-1 0,1 1,-1 0,0 0,0-1,0 2,0-1,0 0,-1 1,1-1,-1 1,1 0,-1 0,0 0,0 1,0-1,0 1,-7-1,-13-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10182.31">2544 21,'18'-1,"0"2,0 0,0 1,-1 1,1 0,23 9,-33-9,-1 0,1 1,-1 0,0 1,0 0,0 0,-1 0,1 1,-1-1,-1 2,1-1,-1 1,0-1,-1 1,1 1,2 7,25 61,-4 1,24 103,-15-45,-25-93,-1 1,-3 0,-1 1,-3 0,-1 0,-2 0,-3 0,-1 0,-10 52,6-56,2-8,-14 46,17-71,-1 0,0 0,0 0,0 0,-1 0,0-1,0 0,0 0,-1 0,0 0,-11 9,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 539,'3'0,"6"0,4 0,4 0,6 0,7 0,4 0,5 3,3 5,-2 0,-5 3,-4-1,-7-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1186.7">962 250,'3'0,"-1"1,0-1,0 0,0 1,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,1 0,-2 0,0 1,1 0,-1 0,1 2,22 48,-22-45,19 58,-4 0,10 80,4 145,-27-239,-3-44,0-1,0 1,-1-1,0 1,-1 0,1-1,-1 1,0-1,-1 1,0-1,0 0,-1 0,0 1,0-2,-1 1,1 0,-1-1,0 1,-1-1,0 0,0 0,-7 5,-19 17,-3-2,-1 1,0-3,-2-2,-1 0,-44 16,75-34,-2 0,2-2,-1 1,-1-1,2 1,-2-2,1 1,0-1,-1 0,1-1,-1 0,2 0,-1 0,-1-1,2 1,-2-2,-7-4,-3-1,1-2,0 1,1-3,0 1,-25-23,37 28,-1 0,0 0,1-1,0 0,1 0,-1 0,2-1,-1 1,1-1,1 1,0-1,0 0,0 0,1-1,1 2,-2-11,2 9,2-1,-2 1,2-1,-1 1,1 0,1 0,0 0,0 1,1-2,1 2,0 0,-1 0,13-14,-1 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2336.69">1989 1,'-21'44,"2"3,-19 70,16-47,-3 6,4 2,3-1,4 2,4 1,1 101,10-142,1-1,1 1,4 0,0 0,3-2,27 70,-18-67,45 69,-57-98,1-1,1 0,-1 1,1-2,1 0,-1-1,2 1,0-1,0 0,0-2,15 8,1-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9218.71">2652 385,'-7'0,"-1"1,1 1,1-1,-2 1,1 1,0-1,0 1,1-1,0 1,-1 1,1 0,0 0,-6 4,-11 11,-34 33,55-50,-5 5,0 2,1-2,1 2,0 0,-1 0,2 0,0 0,1 0,0 1,-1 0,2-1,-1 18,1 9,1 0,6 40,-2-46,-3-25,0 0,0-1,1 0,1 1,-1-1,0 1,1-2,0 2,0-1,0 0,0 0,0 0,1 0,1 0,-1-1,0 0,0 0,6 5,0-4,-1 1,1-1,-1 0,1-1,0-1,-1 1,2-1,17 2,-18-2,3 0,1 0,0-2,19 1,-30-1,0 0,0 0,1 0,0-1,-1 1,0 0,0 0,0-1,0 0,0 1,0-1,0 0,1-1,-1 1,0 0,-1 0,1-1,0 1,-1-1,1 0,-1 1,0 0,1-1,-1 0,1-3,18-72,-4 11,-1 21,10-53,-23 83,0 1,-1-1,0-1,-1 1,-1 0,-1 0,-6-26,7 37,-1 0,1 0,-1 0,-1 2,1-2,-1 0,1 1,-1 0,0 1,0-2,0 2,-1-1,1 0,-1 1,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,-1 1,-6-1,-14-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10182.31">2674 20,'19'-1,"0"2,0 0,0 1,-1 1,0-1,26 10,-36-9,-1-1,2 2,-2 0,0 1,1-1,-1 1,-1 0,2 0,-2 0,-1 2,2-2,-2 2,0-1,-1 0,2 2,1 6,27 58,-5 1,26 97,-16-43,-27-87,0 0,-4 1,0 0,-4 1,-1 0,-2-1,-3 1,-1-1,-11 50,7-53,1-8,-14 44,18-68,-1 1,0-1,0 1,0 0,-1-1,-1 0,1 0,0-1,-1 1,-1 0,-10 8,-1-5</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16456,19 +14276,19 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1730 510,'-10'0,"-1"0,1 1,0 0,-1 1,1 0,-17 6,23-6,0 0,0 0,0 0,0 0,1 1,-1-1,1 1,-1 0,1 0,0 1,0-1,0 0,1 1,-1 0,1 0,0 0,0 0,-2 6,-8 36,3 0,2 1,2 1,2-1,4 66,-1-35,-2-9,0-3,8 71,-6-133,1-1,0 1,-1-1,2 1,-1 0,0-1,1 0,0 1,-1-1,1 0,1 0,-1 0,0 0,1 0,-1 0,1-1,0 1,0-1,0 0,0 0,0 0,1 0,-1-1,0 1,1-1,-1 0,8 2,8 0,0 0,0-1,0-1,25-2,-29 0,58-2,1-4,-2-3,1-3,-1-3,105-39,-162 50,0-1,0-1,0 0,19-13,-30 17,0 0,0-1,-1 1,1-1,-1 0,1 0,-1 0,-1 0,1-1,-1 1,1-1,-1 1,0-1,-1 0,1 0,-1 0,1-9,-1-18,-2 0,-1 0,-1 0,-2 0,-10-36,3 11,7 30,0 0,0 1,-19-50,21 68,-1 0,0 0,0 1,0 0,-1 0,0 0,-1 1,0 0,0 0,0 0,0 0,-1 1,-12-7,-20-10,5 2,-47-20,69 35,0 1,1 1,-1 0,0 0,0 1,-1 1,1 0,-19 1,-388 49,305-33,50-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="916.92">2748 1,'2'2,"1"1,-1 0,0 0,1 0,-1 1,-1-1,1 0,0 1,-1-1,0 1,2 7,6 18,50 107,153 391,-178-427,-4 3,-5 0,16 140,-39-224,1 1,-1-1,-2 1,-1 22,0-35,0 0,0-1,-1 1,1-1,-2 1,1-1,-1 0,0 0,0 0,-1 0,1-1,-1 1,-7 7,-46 38,-2-2,-107 69,81-61,-160 113,149-104</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-35550.58">448 510,'0'-2,"1"0,0 0,0 1,0-1,0 1,0-1,1 0,-1 1,0 0,1-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 0,2-1,35-14,-36 15,0 0,0 0,0 0,0 1,0-1,1 1,-1 0,0 0,0 0,1 0,-1 0,0 1,0 0,0-1,1 1,-1 0,0 1,0-1,0 0,-1 1,4 2,-2-1,0 1,-1 0,1 0,-1 0,0 1,-1-1,1 1,-1-1,0 1,0 0,0 0,1 5,2 12,-1 0,-2 0,0 0,-1 1,-2 23,-3-16,-1 0,-1 0,-1 0,-15 33,13-37,0 0,2 0,1 0,1 1,-2 47,7-71,0-1,0 1,0-1,1 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,1 0,0 0,2 2,38 23,-20-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-35022.45">692 204</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-25940.48">1384 164,'-2'0,"1"0,-1 1,0-1,1 1,-1-1,0 1,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 1,-1 1,-19 36,14-25,-128 229,-73 144,200-369,1 0,1 0,1 1,0 0,1-1,2 1,-2 22,8 136,1-85,-5-11,-2-49,2 1,1-1,2 0,1 0,12 48,-13-72,1 1,-1-1,2 0,-1 0,1 0,0 0,1-1,0 0,0 0,1-1,-1 0,16 11,-4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15001.9">265 2321,'0'24,"0"32,0 21,0 22,-4 7,-4 6,-4 2,-1-8,3-12,2-18,0-23,1-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15444.25">0 2850,'4'0,"7"0,10 0,7 0,17 3,42 12,41 4,12-3,-3-3,-12 0,-20-3,-27 1,-24-2,-21-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16023.79">1222 2280,'7'3,"5"16,8 18,1 23,0 26,-1 16,-2 4,-6 5,-4-3,7 12,1-8,-3-20,1-21,-3-24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16808.91">1669 2524,'-75'134,"42"-72,-69 97,100-158,1 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 1,1-1,-1 1,1-1,-1 0,1 1,0-1,0 1,-1-1,1 1,0-1,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 0,1 1,1 1,2 0,1 0,-1 0,1 0,-1-1,1 1,0-1,9 3,12 6,22 13,-2 3,-1 2,48 40,-77-57</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17654.98">2992 2117,'-1'1,"-1"-1,0 1,0 0,0 0,1-1,-1 1,1 0,-1 0,0 0,1 1,0-1,-1 0,1 0,0 1,-1-1,1 1,0-1,-1 4,-22 38,19-32,-65 143,-72 238,126-340,2 0,3 1,2 0,2 1,3 0,3 73,4-52,2-1,4-1,19 76,-23-127,2 0,1 0,0 0,1-1,2 0,0-1,1 0,1-1,1 0,0-1,2-1,0 0,36 28,-41-36,1 0,-1-1,2-1,-1 0,1 0,0-2,0 1,1-2,-1 0,19 3,-14-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24311.51">3399 2647,'3'-2,"-1"0,1 0,-1 0,1 1,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,1 1,-1-1,0 1,0 0,4 0,57 8,-39-4,12 0,-17-3,-1 1,1 1,-1 1,27 9,-41-11,0 0,-1 0,1 0,-1 0,0 1,1 0,-1 0,-1 0,1 1,0-1,-1 1,0 0,1 0,-2 0,1 0,0 0,-1 1,0-1,0 1,0 0,-1 0,3 8,-1 13,0 0,-2 1,0-1,-2 1,-1-1,-1 0,-12 45,1-22,-1-1,-3-1,-26 49,21-52</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24831.23">3440 2830,'3'0,"6"0,6 0,9 0,7 0,2 3,2 2,5-1,3 0,1-2,4 0,-3-2,-6 4,-10 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25664.17">4172 2687,'0'-3,"0"-5,11-19,3-7,2 1,3 7,-3 29,-3 33,-5 30,-3 19,-2 14,-2-1,-2-6,1-15,-1-17,0-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1792 484,'-10'0,"-2"0,2 1,-1 0,0 1,1 0,-18 5,24-5,-1 0,1 0,0 0,0 0,1 1,-1-1,1 0,-2 1,2 0,0 1,0-1,0 0,1 0,-1 1,1 0,0 0,0 0,-3 5,-7 35,3-1,1 2,3 0,2 0,4 62,-1-33,-2-8,0-4,8 68,-6-126,1-1,0 1,-1-1,2 1,-1-1,1 0,0 0,0 1,-1-1,1-1,1 1,-1 0,0 0,1 0,-1 0,1-1,0 0,1 0,-1 0,0 0,0 0,1 0,-1-1,0 1,1-1,-1 0,9 2,8-1,-1 1,1-1,0-1,25-2,-29 0,59-2,2-3,-2-4,0-2,0-3,108-37,-167 47,-1-1,1-1,-1 1,20-13,-30 16,-1 0,0-1,-1 1,1 0,-1-1,1 0,-1 0,-1 0,2 0,-2 0,1-1,-1 1,0 0,-1-1,1 0,-1 0,1-8,-1-17,-2-1,-1 1,-1 0,-2-1,-11-33,4 10,7 28,-1 0,1 2,-20-48,22 64,-1 0,0 1,0 0,0 1,-1-1,-1 0,0 2,0-1,0 0,0 1,-1-1,0 1,-13-6,-20-10,5 2,-49-19,71 33,1 1,1 2,-2-1,1 0,-1 1,0 1,0 0,-19 1,-402 47,316-32,52-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="916.92">2846 1,'2'2,"1"1,0 0,-1-1,1 1,-1 1,-1-1,1 0,0 1,-1-2,0 2,2 7,6 16,53 102,157 371,-184-405,-4 3,-5 0,17 132,-41-212,1 1,-1-1,-2 1,-1 21,0-33,0-1,0 0,-1 1,1-2,-2 2,1-1,-2-1,1 1,0 0,-1 0,1-2,-1 2,-8 6,-47 37,-2-3,-111 66,84-58,-165 108,153-100</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-35550.58">464 484,'0'-2,"1"0,0 0,0 1,0-1,0 2,0-2,1 0,-1 1,0 0,1-1,-1 1,2 0,-2 0,1 0,0 0,-1 0,1 0,2-1,36-13,-37 14,1 0,-1 0,0 0,0 1,0-1,1 1,-1 0,0 0,0 0,2 0,-2 0,0 1,0 0,0-1,1 1,-1 0,0 1,1-1,-1 0,-1 1,4 2,-2-1,0 0,-1 1,1 0,0 0,-1 1,-1-2,1 2,-1-1,0 1,0-1,0 1,1 5,2 10,0 1,-3 0,0 0,-1 1,-2 22,-3-16,-2 0,0 1,-1-1,-16 32,14-35,-1 0,3-1,1 1,1 1,-2 44,7-67,0-2,0 2,0-1,1 1,-1-1,1 1,0-1,0 1,0-2,0 1,0 1,0-1,1 0,-1 0,1 0,0 0,2 1,40 23,-21-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-35022.46">717 194</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-25940.49">1433 156,'-2'0,"1"0,-1 1,0-1,1 1,-1-1,0 1,1-1,-1 1,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 1,-2 1,-18 34,13-24,-131 218,-77 136,208-350,1 0,0 0,2 1,0 0,1-1,2 1,-2 21,8 129,1-81,-5-10,-2-46,2 0,1-1,2 1,1-1,13 46,-14-68,1 0,-1 0,2-1,0 1,0-1,0 1,1-1,0-1,1 1,0-1,-1-1,17 11,-5-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15001.9">274 2203,'0'22,"0"31,0 21,0 19,-4 8,-4 5,-4 2,-2-7,4-12,2-17,-1-21,2-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15444.25">0 2705,'4'0,"8"0,9 0,8 0,18 2,43 13,43 3,12-3,-4-3,-11 0,-21-2,-28 0,-26-1,-20-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16023.79">1266 2164,'7'2,"5"16,9 18,1 21,0 24,-2 16,-1 4,-7 4,-3-3,6 12,2-8,-4-18,2-21,-4-22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16808.91">1729 2395,'-78'127,"44"-68,-72 92,104-150,1 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,0-1,0 2,1-1,-1 1,1-1,-1 0,1 1,0-1,0 1,-1-1,1 1,0-1,0 1,1-2,-1 2,0-1,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 0,1 1,1 1,2-1,1 1,-1 0,2 0,-2-1,1 1,0-1,10 2,11 7,24 12,-2 2,-2 3,51 37,-81-53</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17654.98">3099 2009,'-1'1,"-1"-1,0 1,0 0,0 0,1-1,-1 1,1 0,-2 0,1 0,1 0,0 0,-1 0,1 0,0 1,-1-1,1 1,0-1,-1 4,-23 36,20-31,-68 136,-74 226,131-323,1 1,4 0,2 0,1 2,4-1,3 69,4-48,2-2,5-1,19 72,-24-120,2 0,1 0,1 0,0-1,2 0,1-1,0 0,2-1,0 0,1-1,1-1,1 0,37 27,-43-35,2 1,-2-1,2-2,0 1,0-1,1-1,-1 1,2-2,-2-1,20 4,-14-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24311.51">3521 2512,'3'-2,"-1"0,1 0,-1 0,1 1,0-1,0 1,0 1,-1-1,2 0,-1 0,0 0,1 1,-1-1,0 1,0 0,4 0,60 7,-41-3,12 0,-17-3,-2 1,2 1,-1 0,27 10,-41-11,-1 0,-1-1,1 1,-1 0,0 1,2 0,-2 0,-1 0,1 0,0 0,-1 1,0 0,1 0,-2 0,2-1,-1 1,-1 1,0-1,0 0,0 1,-1 0,3 7,-1 13,0 0,-2 0,0 0,-2 0,-1 0,-1 0,-12 42,0-20,0-2,-4 0,-27 46,23-49</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24831.23">3563 2686,'3'0,"6"0,7 0,9 0,7 0,2 2,2 3,6-1,2 0,2-2,4 0,-4-2,-5 3,-11 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25664.17">4321 2550,'0'-3,"0"-5,12-17,2-7,3 0,2 8,-2 26,-4 33,-4 27,-4 19,-2 13,-2-1,-2-6,1-14,-1-16,0-18</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16496,10 +14316,10 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 549,'7'0,"10"0,11 0,12 0,16 0,13 0,1 0,-8 0,-10 0,-15 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2388.26">733 305,'84'-2,"61"2,-125 1,0 1,0 1,0 1,37 12,-54-15,0 0,0 1,0-1,0 1,-1-1,1 1,0 0,-1 0,1 0,-1 1,0-1,0 1,0-1,0 1,0-1,-1 1,1 0,-1 0,0 0,1 0,-1 0,-1 0,1 0,0 0,-1 0,1 1,-1 4,-1 8,-1-1,0 0,-1-1,-8 27,7-29,-42 121,-119 241,87-212,62-125</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2388.25">733 305,'84'-2,"61"2,-125 1,0 1,0 1,0 1,37 12,-54-15,0 0,0 1,0-1,0 1,-1-1,1 1,0 0,-1 0,1 0,-1 1,0-1,0 1,0-1,0 1,0-1,-1 1,1 0,-1 0,0 0,1 0,-1 0,-1 0,1 0,0 0,-1 0,1 1,-1 4,-1 8,-1-1,0 0,-1-1,-8 27,7-29,-42 121,-119 241,87-212,62-125</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2954.17">814 855,'0'-4,"4"-1,7 1,10 0,4 2,5 4,7 2,9 0,-1-1,-1 0,-4-1,-9 2,-4 5,-5 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3772.99">1425 814,'1'-13,"1"0,0 0,1 0,1 0,0 1,0 0,1 0,1 0,7-12,5-13,167-365,-185 401,0 0,0 0,1 0,-1 1,0-1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 1,0-1,0 1,-1-1,1 1,0-1,0 1,1-1,0 4,-1-1,1 0,-1 1,0-1,1 0,-1 1,-1-1,1 1,0 0,-1-1,1 1,-1 3,16 114,-5 0,-7 163,-4-176,-2 271,2-361</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4555.98">1893 0,'3'0,"0"0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,0 0,-1-1,1 1,-1 1,0-1,0 0,0 0,0 1,0-1,0 1,-1 0,1-1,-1 1,1 4,3 6,-1 1,-1 1,0-1,1 24,-2-22,14 660,-19-460,3-202,-1 45,-11 94,10-137,-1 0,-1 0,0 0,-2-1,1 0,-2 0,0 0,-1-1,0 0,-18 22,13-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4555.97">1893 0,'3'0,"0"0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,0 0,-1-1,1 1,-1 1,0-1,0 0,0 0,0 1,0-1,0 1,-1 0,1-1,-1 1,1 4,3 6,-1 1,-1 1,0-1,1 24,-2-22,14 660,-19-460,3-202,-1 45,-11 94,10-137,-1 0,-1 0,0 0,-2-1,1 0,-2 0,0 0,-1-1,0 0,-18 22,13-21</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16611,7 +14431,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'3'0,"12"0,10 0,5 0,0 0,-2 0,-1 0,-3 0,3 0,-1 0,2 4,1 0,-3 4,-4 7,-7 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="554.94">22 204,'3'0,"5"0,4 0,8 0,3 0,1 0,4 3,0 5,0 1,4 6,4 1,0-4,-3-2,3-4,-5-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="554.93">22 204,'3'0,"5"0,4 0,8 0,3 0,1 0,4 3,0 5,0 1,4 6,4 1,0-4,-3-2,3-4,-5-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16638,30 +14458,30 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7 62,'7'0,"5"4,12 3,8 2,3 3,5 2,-1-1,-3-3,-4 1,-5 1,-6-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="771.9">353 1,'17'1,"0"0,0 2,-1 0,1 1,-1 0,29 13,88 50,-133-67,32 23,-31-22,-1-1,1 1,0-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,0-1,1 1,-1 0,0 0,0-1,0 1,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,-1-1,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-2-1,-20 13,-1-2,0-1,-1-1,-38 9,-42 17,77-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-632">47 591,'1'0,"-1"0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 1,0-1,0 0,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,-1 1,15 119,-2 179,-11-233,-14 464,12-509,-6 49,7-67,-1 1,1-1,-1 0,0 1,0-1,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,-4 3,6-6,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 0,-1-1,1 1,0 0,-1 0,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,0 1,0 0,-1-1,1 1,0-1,0 1,0-1,0 1,0 0,0-1,-6-24,6 24,-10-83,5 1,6-127,2 86,-3-31,2-116,-1 265,0 0,1 0,0 0,-1 0,2 0,-1 0,1 0,0 1,0-1,1 1,-1 0,1 0,0 0,1 0,-1 1,1 0,0 0,0 0,10-6,11-5,0 1,55-20,-47 20,-22 10,-1-1,1 2,1-1,-1 2,0 0,0 0,1 1,-1 1,16 0,-19 1,0 1,-1-1,1 1,-1 1,1 0,-1 0,0 1,0 0,0 0,-1 0,1 1,-1 1,10 9,-10-10,-1 1,0 0,-1 0,1 0,-1 1,-1 0,1 0,-1 1,0-1,-1 1,0 0,0-1,0 1,-1 1,0-1,-1 0,0 0,0 1,-1 9,-1 336,-1-129,2-215,-1 0,0 0,0-1,-1 1,0 0,-1-1,0 0,0 0,-1 0,-1 0,1 0,-1-1,-1 1,1-1,-1-1,-1 1,1-1,-1 0,-1-1,1 0,-1 0,-16 9,4-4,0-2,0 0,-1-2,0 0,-1-1,1-2,-1 0,0-1,-26 0,41-3,0 0,0 0,0-1,0 0,0 0,-10-4,-3-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1412.58">801 734,'3'0,"5"0,5 0,3 0,2 0,2 0,1 0,0 0,0 0,4 0,4 7,-3 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2116.62">821 1039,'7'0,"6"3,7 2,4-1,1 0,1-2,-2 0,-1-1,-1-1,-1 0,0 0,-1 0,-3 3,-5 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3306.96">1431 551,'1'0,"-1"1,1-1,-1 1,1 0,-1-1,0 1,0 0,1-1,-1 1,0 0,0 0,1-1,-1 1,0 0,0 0,0-1,0 1,0 0,0 0,-1 0,1-1,0 1,0 0,0-1,-1 1,1 0,-1 1,-7 27,7-27,-111 288,1-5,106-269,1-1,0 1,1 1,1-1,1 0,0 1,2 24,0-33,0 1,1-1,0 0,0 0,1 0,0-1,0 1,0 0,1-1,1 0,-1 0,1 0,0-1,0 0,1 0,8 7,-7-7,0-1,0 0,1 0,-1 0,1-1,15 5,-2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5189.69">2063 693,'-2'1,"1"-1,-1 1,1 0,-1 0,1-1,-1 1,1 1,-1-1,1 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 3,-4 5,-106 141,4-6,92-120,0 0,2 1,1 1,-11 34,21-55,0 0,0 0,1 1,-1-1,2 0,-1 1,0-1,1 1,0-1,0 1,1-1,0 1,-1-1,2 1,-1-1,1 0,0 0,0 1,0-1,1-1,-1 1,1 0,0-1,1 1,-1-1,1 0,0 0,0 0,0-1,1 1,-1-1,1 0,0-1,-1 1,1-1,1 0,5 2,-9-3,127 40,-113-37,0-1,0 0,0-1,0-1,0 0,21-3,-34 2,-1-1,1 0,-1 0,0 0,1 0,-1 0,0 0,0-1,0 1,1-1,-2 1,1-1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0-1,0 1,0 0,0-1,0 1,0-4,3-11,0 1,-2-1,1-17,3-14,18-34,-16 61,-1-1,-1 0,-1-1,-1 0,2-38,-7 56,0 0,0 1,0-1,0 0,-1 1,0-1,0 1,0 0,0-1,-1 1,1 0,-1 1,0-1,-1 0,1 1,0-1,-1 1,-7-5,4 3,-1 1,1-1,-1 1,0 0,0 1,0 0,0 0,-1 1,-12-2,2 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6660.43">2612 1487,'0'-4,"-3"0,-5-1,-5 1,-3 2,-2 4,-2 2,-1 3,-4 5,-1 6,-3 12,0 6,-2 5,4-1,4-1,5-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8193.86">2775 814,'3'-2,"1"0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 1,0 0,0 0,1 1,6-1,55 0,-58 2,6 0,0 0,0 2,-1-1,1 2,-1 0,0 1,20 9,-24-10,-1 1,0 0,0 0,-1 0,1 1,-1 0,0 1,-1-1,0 1,0 1,0-1,5 11,-10-14,1-1,-2 1,1 0,0 0,-1-1,1 1,-1 0,0 0,-1 0,1 0,-1-1,1 1,-1 0,0 0,0-1,-1 1,1 0,-1-1,0 0,0 1,-4 5,-8 10,0-1,-26 25,22-24,15-16,-48 47,48-48,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,0-1,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 0,1 0,-7 0,52-13,-13 14,0 2,0 1,-1 1,1 2,-1 0,-1 2,1 1,-1 2,-1 0,37 24,-62-35,1 0,-1 0,1 0,-1 0,0 1,1-1,-1 0,0 1,0-1,0 1,0 0,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1-1,-1 1,0 0,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1-1,0 1,0 0,-2 2,-4 7,-1 0,0-1,0 0,-12 10,11-11,-18 21,-59 57,75-77,-1 0,0-1,0-1,-1 0,-25 12,32-19,1 1,-1-1,1-1,-1 1,0-1,1 0,-1 0,0 0,1-1,-1 0,1 0,-1-1,1 1,0-1,-1 0,1-1,0 1,-7-6,4 3,-1 0,1-1,0-1,0 1,1-1,0-1,0 1,1-1,-8-12,5 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9202.01">3324 571,'11'-1,"-1"2,1-1,-1 1,1 1,-1 0,1 0,9 5,-14-4,-1-1,1 1,-1 1,0-1,0 1,0 0,0 0,-1 1,0-1,0 1,0 0,0 0,4 9,13 31,-1 1,-3 0,-1 1,12 69,-2-14,-18-75,-1-1,-1 1,-2 0,0 0,-2 0,-1 0,-1 1,-2-1,0 0,-9 36,-13 21,-3 0,-43 88,50-127</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34807.9">333 2443,'-7'14,"-9"49,-6 35,-2 19,3-2,1-8,5-20,4-21,1-26,2-22,2-35,3-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35454.83">190 2443,'3'0,"9"0,12 0,9 0,3 0,-2 0,-3 0,3 0,0 0,-2 0,-4 0,-3 0,-2 0,-5 7,-16 9,-8 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36041.91">271 2688,'4'0,"4"0,8 0,8 0,10 0,7 0,-1 3,-3 1,-1 1,-4-2,4 0,2-2,-1 0,-4-1,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36804.78">170 2036,'23'1,"0"2,1 0,-2 2,1 0,27 11,34 7,-83-22,66 14,107 11,-127-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37920.75">760 1975,'10'0,"8"4,3 0,2 0,0 3,1 4,-5 3,-5 3,-9 2,-8-3,-8-3,-5-5,-3-3,-2-2,3-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43723.7">1289 2199,'-3'104,"-5"-1,-27 134,-66 190,79-354,9-30,1 0,-5 47,15-77,1 0,0 0,1 0,1 0,0-1,1 1,0 0,1 0,0-1,1 0,9 20,3-1,2-1,33 45,-41-63,0 0,1-1,0 0,1 0,0-1,0-1,1 0,17 9,-13-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46117.72">2022 2585,'-4'4,"-1"-1,1 1,0 0,0 1,1-1,-1 0,1 1,0 0,0 0,-3 9,-4 3,-10 16,-91 166,93-161,1 0,2 1,-15 58,29-92,0-1,0 0,0 0,1 0,-1 0,1 1,0-1,0 0,1 0,-1 1,1-1,0 0,0 0,0 0,1 0,-1 0,1 0,3 3,-1-2,0 0,1-1,0 0,-1 0,2 0,-1-1,0 0,1 0,0 0,-1-1,9 3,14 5,0-1,1-1,0-1,52 4,-79-11,1 0,-1 0,0 0,1 0,-1-1,0 1,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,-1 0,0-1,1-1,1-13,-1 1,-1-1,-1 1,-2-19,0 0,5-24,16-109,0 7,-18 158,1 0,-1-1,0 1,0 0,-1-1,1 1,-1 0,1-1,-1 1,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 1,-4-5,0 3,-1-1,0 1,0 0,0 0,0 1,-12-4,1 0,-7-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46718.23">2734 3278,'-3'0,"-5"0,-5 3,-3 1,1 4,0 7,-9 12,-3 11,0 0,0-4,6-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48123.2">3264 2647,'-1'-3,"1"1,0-1,-1 1,0-1,1 1,-1-1,0 1,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,0 1,-1-1,1 1,0 0,0 0,-1 0,1 0,-1 0,1 0,-5 0,4 0,1 1,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 1,1-1,0 1,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 3,-2 13,0 0,2 0,0 1,1-1,1 1,0-1,2 1,0-1,8 33,-7-45,-1-1,1 0,0 0,1 0,-1 0,1 0,0-1,0 1,0-1,1 0,-1 0,1-1,0 0,0 0,1 0,-1 0,0-1,1 1,0-2,-1 1,1 0,0-1,0 0,0-1,0 1,0-1,11-1,-14 0,-1 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,0 0,-1-1,1 1,0-1,-1 1,1-5,0-8,0 0,-1-28,-1 29,1-27,-4-54,3 87,0 0,-1 0,1 0,-2 0,1 1,-1-1,0 1,-1 0,-4-8,-4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49382.59">3243 2952,'-2'3,"-1"1,1-1,-1 0,1-1,-1 1,0 0,0-1,0 0,-1 1,-3 1,-7 6,-10 13,2 2,1 0,0 1,2 1,-25 49,41-72,1 0,0 1,0-1,0 1,0-1,1 1,0 0,0-1,0 1,1 0,0 0,0 0,0-1,0 1,1 0,1 8,0-10,-1 1,1-1,0 0,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0-1,0 0,0 0,0 0,1 0,-1-1,0 1,1-1,-1 0,1 1,-1-2,6 2,53 13,-26-6,69 8,-102-17,0-1,0 1,0-1,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,-1-1,1 0,-1 1,1-1,-1 0,0-1,0 1,0 0,0-1,0 1,-1-1,1 0,2-4,5-12,0 0,8-29,-8 21,80-181,-88 207,0-1,-1 1,1-1,-1 1,0-1,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,0-1,-1 0,1 1,0-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,0 1,0 0,0-1,0 1,0 0,0 0,-1 0,1-1,0 2,-1-1,1 0,0 0,-1 0,-1 0,-3-2,-1 1,0 0,0 1,0-1,1 1,-15 0,0 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50722.49">3752 2544,'-124'188,"-20"35,143-221,-22 37,2 1,1 1,-20 65,39-100,0 0,1-1,0 1,0 0,1 0,0-1,0 1,0 0,0-1,1 1,0-1,0 1,1-1,-1 0,1 0,0 0,1 0,-1-1,8 9,5 3,0 0,1 0,31 21,-41-32,1 0,0-1,1 0,-1 0,1-1,0 0,0 0,0-1,15 2,3-2,53-3,-27-1,-43 1,0 0,-1-1,1-1,-1 1,0-1,1-1,-1 0,-1 0,1-1,-1 0,12-9,12-10,40-40,-61 52,-4 6,0-1,-1 0,0 0,0 0,0-1,-1 0,-1 0,1 0,-1-1,5-15,-6 9,0 0,-2-1,1 1,-2 0,-2-28,0-5,1 12,-2 0,-1 0,-2 1,-10-36,13 61,-1-1,0 1,-1 0,0 0,-1 0,0 1,-1 0,1 0,-2 1,1-1,-1 2,-1-1,1 1,-1 0,0 1,-1 0,-13-6,9 6,0 0,0 2,-1 0,0 0,1 2,-1-1,-24 1,19 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51606.63">4077 2260,'2'0,"10"12,142 204,143 265,-272-432,-2 2,-2 1,-3 1,-2 0,-2 1,-3 0,-2 1,-2 1,-1 69,-6-98,-3 142,1-148,-1-1,-1 1,-1-1,0 0,-1 0,-10 19,14-35,0 0,0 0,-1-1,1 1,-1-1,0 0,0 1,0-1,-1-1,1 1,-1 0,1-1,-1 0,0 0,0 0,-6 2,-2 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54423.84">5095 2423,'4'0,"7"0,27 7,14 5,1 2,-5-3,-7-2,-7-4,-6-1,-4-3,-7 3,-1 0,-2 0,-2-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54945.55">4973 2789,'0'3,"3"2,6-1,6 0,10-2,2 0,1-1,-1-1,-1 0,1 0,3 0,4-1,-1 1,1 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7 59,'7'0,"6"4,11 2,9 3,3 2,5 3,0-2,-4-3,-5 2,-4 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="771.9">363 1,'17'1,"1"0,-1 2,0 0,0 0,0 1,29 12,91 48,-137-64,33 22,-32-21,-1-1,1 1,0-1,-1 1,1-1,-1 1,1 0,-1-1,1 0,-1 1,0-1,1 1,-1 0,0 0,0-1,0 1,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1 0,0-1,-1 1,1 0,0-1,-1 0,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-2-1,-21 13,-1-3,1 0,-2-2,-39 9,-43 16,80-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-632">48 561,'1'0,"-1"0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,0-1,1 0,-1 1,2-1,-2 1,0-1,0 0,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 0,0 0,-1 1,15 113,-2 170,-11-221,-14 440,12-483,-6 47,7-65,-1 2,1-1,-1 0,0 1,0-1,0-1,-1 1,0 0,0 0,0 0,0 0,0 0,0-2,0 2,-4 3,6-6,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 0,-1-1,1 1,0 0,-1 0,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,0 1,0 0,-1-1,1 1,0-1,0 1,0-1,0 1,0 0,0-1,-7-22,7 22,-10-79,5 1,6-120,2 81,-3-29,2-110,-1 251,0 0,1 0,0 1,-1-1,2 0,0 1,0-1,0 1,0 0,1 0,-1 0,1 0,0 1,1-1,-1 1,2 0,-1 0,0 1,10-7,12-4,0 1,56-20,-48 20,-23 9,0-1,0 3,1-2,0 2,-1 0,0 0,2 1,-2 1,17 0,-20 1,0 1,0-1,0 1,-1 1,1 0,0-1,-1 2,0 0,0 0,-1 0,2 0,-2 2,10 8,-9-9,-2 1,0-1,-1 1,1 0,-1 0,-1 1,2 0,-2 0,0 0,-1 1,0-1,0 0,0 0,-1 2,0-1,-1-1,0 1,0 0,-1 9,-1 320,-1-124,2-203,-1-1,0 1,0-2,-1 2,0-1,-1 0,0-1,0 1,-1-1,-1 1,0-1,0 0,-1 1,1-2,-1 0,-1 0,0 0,0 0,-1-2,1 1,-1 0,-17 8,4-3,1-3,-1 1,0-3,-1 1,-1-1,2-3,-2 1,1-1,-28 0,43-3,0 0,0 0,-1-1,1 0,0 0,-10-4,-4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1412.58">824 697,'3'0,"5"0,5 0,4 0,1 0,3 0,0 0,1 0,0 0,3 0,5 7,-3 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2116.62">844 987,'7'0,"7"2,6 3,5-1,1 0,0-2,-1 0,-1-1,-2-1,0 0,0 0,-2 0,-2 2,-6 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3306.96">1471 523,'1'0,"-1"1,1-1,-1 1,1 0,-1-1,0 1,0 0,2-1,-2 1,0 0,0 0,1-1,-1 1,0 0,0 0,0-1,0 1,0 0,0 0,-1 0,1-1,0 0,0 1,0-1,-2 1,2 0,-1 1,-7 26,7-26,-114 273,1-4,109-256,1-1,0 1,0 1,2 0,1-1,0 1,2 23,0-32,0 2,1-1,1-1,-1 1,1-1,0 0,0 1,0-1,1 0,1 0,-1-1,1 1,1-1,-1-1,1 1,8 6,-7-6,1-1,-1-1,1 1,-1 0,2-1,14 4,-1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5189.69">2121 658,'-2'1,"1"-1,-1 1,1 0,-1 0,1-1,-1 1,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 3,-5 4,-108 135,4-6,95-115,-1 1,3 1,1 1,-12 32,22-53,0 1,0 0,1 0,-1 0,2 0,-1 1,0-2,1 2,0-1,0 1,1-2,0 2,-1-1,2 0,-1 0,1 0,0 0,0 0,0 0,1-1,-1 1,1-1,0 0,2 1,-2-1,1 0,0-1,0 1,0-1,1 1,-1-1,1 0,1-2,-2 2,1-1,1 0,5 2,-9-3,131 38,-117-35,1-2,-1 1,1-1,-1-1,1 0,21-3,-35 2,-1-1,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,2-1,-3 1,1-1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 1,0-2,0 1,0 0,0-1,0 1,0-3,3-12,0 2,-2-1,1-16,4-14,17-32,-15 58,-2-1,-1 1,-1-2,-1 0,2-36,-7 53,0 0,0 2,0-2,0 0,-1 1,0 0,0 0,0 0,0-1,-1 1,1 1,-1 0,0-1,-2 0,2 1,0 0,-1 0,-7-5,4 3,-2 2,2-2,-1 1,0 0,0 1,-1 1,1-1,-1 1,-13-2,3 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6660.42">2686 1412,'0'-4,"-3"0,-6 0,-4 0,-3 2,-3 4,-1 2,-2 2,-4 6,0 5,-4 11,0 7,-2 3,4 0,5-1,4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8193.85">2853 773,'3'-2,"2"0,-2 0,1 0,0 0,0 1,-1 0,1-1,0 1,0 0,1 0,0 1,6-1,57 0,-60 2,6 0,1 0,-1 2,0-1,0 1,-1 1,1 1,20 8,-25-9,-1 1,0 0,1-1,-2 1,1 1,-1-1,0 2,0-1,-1 0,0 2,0-1,5 10,-10-13,2-2,-3 2,1 0,0 0,-1-1,1 0,-1 1,0 0,-1 0,1 0,-1-2,1 2,-1 0,-1 0,1-1,-1 1,1-1,-1 0,0 0,0 1,-4 4,-8 10,-1-1,-26 24,23-23,15-15,-50 45,50-46,1-1,-1 1,0 0,0 0,0 0,0-1,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 0,1 0,-8 0,54-13,-13 14,0 2,0 1,-1 1,1 1,-2 1,0 1,1 2,-1 1,-2 1,39 22,-64-33,1 0,-1 0,1 0,-1 0,0 1,1-1,-1-1,1 2,-1-1,0 1,0 0,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1-2,-1 2,0 0,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,-1-1,1 0,-1 1,1 0,-1-1,0 1,0 0,-3 2,-3 6,-1 1,0-2,0 1,-13 9,12-11,-19 21,-60 53,76-72,0-1,0 0,-1-2,0 1,-26 11,33-18,1 1,-2-1,2-1,-1 1,0-1,1 0,-1 0,-1 0,2-1,-1 0,1 0,-1-1,1 1,-1-1,0 0,1-1,0 2,-7-7,3 3,0 0,1 0,0-2,0 1,0 0,1-2,0 2,1-2,-9-11,6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9202.01">3418 542,'11'-1,"-1"2,2-1,-2 1,1 1,0 0,0 0,10 5,-15-5,-1 0,1 1,-1 1,0-1,0 1,1-1,-1 1,-1 1,0-1,0 0,0 1,0 0,5 8,12 30,0 1,-4-1,0 2,11 65,-1-13,-19-71,0-2,-2 2,-2 0,0-1,-2 1,-1 0,-1 0,-2 0,0-1,-9 35,-14 20,-3 0,-44 83,52-120</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34807.9">342 2320,'-7'13,"-9"47,-7 33,-2 18,4-2,0-7,6-19,4-21,0-24,3-21,2-33,3-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35454.83">195 2320,'3'0,"10"0,11 0,10 0,3 0,-2 0,-3 0,3 0,0 0,-2 0,-4 0,-3 0,-3 0,-4 6,-17 10,-8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36041.91">279 2552,'4'0,"4"0,8 0,9 0,10 0,7 0,-1 3,-3 1,-1 1,-4-2,4 0,2-2,-1-1,-4 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36804.78">175 1933,'23'1,"1"2,1 0,-3 2,2-1,27 12,36 6,-86-22,68 15,110 9,-131-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37920.75">781 1875,'11'0,"7"4,4 0,1 0,1 2,1 5,-6 2,-4 3,-10 2,-8-2,-9-4,-4-4,-4-4,-1-1,2-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43723.7">1325 2088,'-3'99,"-5"-1,-28 127,-68 180,82-335,8-30,2 1,-6 45,16-74,1 0,0 1,1-1,1 0,0 0,1 0,0 0,2 1,-1-2,1 1,9 18,4-1,1 0,35 42,-43-59,0-1,1-1,1 1,0-1,0 0,1-2,0 1,18 8,-14-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46117.71">2079 2455,'-4'3,"-1"0,1 1,0 0,-1 1,2-2,-1 1,1 1,0 0,0-1,-3 10,-4 2,-11 15,-93 158,95-153,2 0,1 1,-14 56,29-89,0 0,0 0,0 0,1-1,-2 1,2 1,0-1,0 0,2-1,-2 2,1-1,0 0,0 0,0-1,1 1,-1 0,1 0,3 2,-1-1,0 0,1-1,0-1,0 1,1 0,-1-1,0 0,1 0,0-1,-1 0,10 3,14 5,-1-2,2 0,0-2,53 5,-81-11,2 0,-2 0,0 0,1 0,-1-1,0 1,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-2-1,1 1,0-1,-1 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,-1 0,1-1,0 1,-1 0,0-1,1-1,1-12,-1 1,-1-1,-1 1,-2-18,0-1,5-22,16-103,1 6,-19 150,1 0,-1-1,0 2,0-1,-1-1,1 1,-1 0,1-1,-1 2,0-1,0 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 1,-5-5,1 3,-1 0,0 0,0 0,-1 0,1 1,-12-3,0-1,-7-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46718.23">2811 3113,'-3'0,"-5"0,-5 3,-4 0,2 5,-1 6,-8 12,-4 10,0 0,0-4,7-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48123.2">3356 2514,'-1'-3,"1"1,0-1,-1 1,0-1,1 1,-1-1,0 2,0-1,-1-1,1 1,0 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 1,-1-1,1 1,-1-1,1 1,0 0,0 0,-1 0,1 0,-1 0,1 0,-5 0,4 0,1 1,0 0,-2-1,2 1,0 0,-1 0,1 0,0 0,-1 1,1-1,0 1,0-1,-1 1,1 0,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 1,1-1,-1 1,0-1,1 1,0 0,-1 0,1 0,0 0,0 0,0 0,-1 2,-2 14,0-1,2 0,0 1,0-1,2 1,0-1,3 1,-1-1,8 32,-7-44,-1 0,1 0,0 0,1-1,-1 1,1 0,1-1,-1 0,0 0,1 0,-1 0,1-1,0-1,1 1,0 0,-1 0,0-1,1 1,0-2,-1 1,2-1,-1 0,0 0,0-1,0 1,0-1,12-1,-15 0,-1 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,-1 0,1 0,-1 0,0 1,1-1,-1 0,0-1,0 1,0 0,-1-1,1 1,0 0,-1 0,1-5,0-7,0 0,-1-27,-1 27,1-25,-4-51,3 83,0-1,-1 0,1 1,-2-1,1 2,-1-2,-1 1,0 1,-4-9,-4 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49382.59">3335 2803,'-2'3,"-2"1,2-1,-1-1,1 0,-1 1,0 0,0-1,0 0,-1 1,-3 1,-8 5,-9 13,1 2,1-1,1 2,1 1,-25 46,42-68,1-1,0 2,0-1,0 1,0-1,1 0,0 1,-1-1,1 1,1-1,0 1,0 0,0-1,0 0,1 1,2 7,-1-9,-1 1,1-1,0 0,0 0,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,0 0,0-1,1 1,0 0,-1-1,0 1,1-1,-1 0,1 1,-1-2,6 2,55 12,-27-5,71 7,-105-16,0-1,0 1,1-1,-1 0,0 0,0 0,0 0,-1 0,1-1,0 1,-1-1,1 0,-1 2,1-2,-1 0,1-1,-1 1,0 0,0-1,0 1,-1-1,1 1,2-5,5-11,0 0,9-28,-9 21,83-173,-91 197,0-1,-1 1,1-1,-1 2,0-2,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,0-1,-1 0,1 1,0 0,-1 0,1-1,-1 1,0-1,1 1,-1-1,0 1,0 0,0-1,0 1,0 0,0 0,-2 0,2-1,0 2,-1 0,1-1,0 0,-1 0,-1 0,-3-2,-1 1,0 0,-1 1,1-1,1 1,-16 0,1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50722.49">3858 2416,'-128'178,"-20"34,147-210,-22 35,1 1,2 1,-22 62,41-96,0 1,1-1,0 0,0 1,1 0,0-2,0 2,0 0,1-1,0 0,0 0,0 1,1-1,-1-1,1 1,0 0,1 0,-1-2,8 10,6 2,-1 0,2 0,31 20,-42-30,2 0,-1-1,1-1,-1 1,2-1,-1 0,0 0,0-1,16 1,3-1,54-3,-27 0,-45 0,0 0,-1-1,2-1,-2 1,0-1,1-1,0 1,-2-1,1-1,-1 0,13-8,12-10,41-38,-63 50,-4 5,1 0,-2-1,0 0,0 1,0-2,-1 1,0-1,0 0,-1 0,5-15,-6 9,0 0,-2-2,1 2,-2 0,-2-27,0-5,1 12,-2 0,-1 0,-2 1,-11-35,14 59,-1-2,0 2,-1-1,0 1,-1-1,-1 2,0-1,1 1,-2 0,1 0,-2 1,0-1,1 2,-1-1,-1 1,0 1,-13-7,8 6,1 1,-1 1,0 0,-1 0,2 3,-1-2,-25 1,19 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51606.63">4192 2146,'2'0,"11"11,145 195,147 250,-279-409,-2 1,-3 2,-2 0,-3 0,-1 2,-4-1,-2 1,-2 1,0 66,-7-93,-4 134,2-140,-1-1,-1 1,-1-1,0 0,-1 0,-11 18,15-33,0 0,0-1,-1 0,1 1,-1-1,0 0,0 0,0 0,-1-1,0 1,0 0,1-1,-1 0,0 0,0 0,-6 1,-3 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54423.84">5239 2301,'4'0,"7"0,28 6,15 6,0 1,-4-2,-8-3,-7-3,-6-1,-5-3,-6 2,-2 1,-1 0,-3-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54945.55">5113 2648,'0'3,"4"2,5-1,6 0,11-3,2 1,0-1,0-1,-1 0,1 0,3 0,4-1,-2 1,2 0,-5 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16688,18 +14508,18 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">203 409,'1'-1,"-1"0,1 0,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 1,0-1,0 0,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 1,36 2,-10 4,0 1,0 2,-1 1,-1 1,0 1,0 1,28 22,23 10,-72-43,-1 0,1 1,-1-1,1 1,-1 0,0 0,0 0,-1 1,1-1,-1 1,0 0,-1 0,1 0,-1 0,0 0,3 10,-3-5,0 0,-1-1,0 1,-1 0,0 0,-1 0,1 0,-6 19,5-26,0 0,0 0,-1 1,1-1,-1 0,1 0,-1-1,0 1,-1 0,1-1,0 1,-1-1,1 0,-1 1,0-1,0-1,1 1,-1 0,-1-1,1 1,0-1,0 0,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,1 0,-5-1,-11 0,1-1,-1-1,1-1,-23-7,41 11,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,20-3,30 1,-34 3,0 1,0 0,-1 0,1 2,30 11,-41-14,-1 1,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,-1 1,1 0,-1-1,0 1,0 0,-1 1,1-1,-1 0,0 1,0-1,0 1,0 0,-1 0,0 0,1 6,0 16,-1 1,-1-1,-1 1,-5 33,4-49,0 0,-1 0,0 0,-1 0,-1-1,1 1,-2-1,1 0,-2-1,1 1,-15 16,16-23,0 0,-1 0,1-1,0 1,-1-1,0-1,0 1,0-1,0 0,0 0,0-1,-1 1,1-1,0-1,-1 1,1-1,-1-1,1 1,0-1,-9-2,-9-2,0-2,0 0,-40-20,-32-14,6 3,-88-52,177 89,1 1,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,7-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1499.79">1669 327,'0'0,"0"0,1 0,-1 0,1 0,-1 1,1-1,-1 0,0 0,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,0 0,1 1,-1-1,0 1,0-1,1 0,-1 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0 23,-15 40,-2 0,-2-1,-51 107,28-69,24-56,6-9,-2-1,-2 0,-1-2,-1 0,-2 0,-28 34,46-66,0 1,1-1,0 0,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0 0,1 3,1-3,0 0,-1-1,1 1,0-1,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0 0,1-1,-1 0,1 0,-1 1,1-2,1 1,228 0,-96-3,-105 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3132.77">2829 449,'-9'-5,"-1"0,1 0,0 1,-1 0,0 1,0 0,0 1,0-1,-16 0,15 2,-65-6,73 7,-1-1,1 1,-1 1,1-1,-1 0,0 1,1 0,0 0,-1 0,1 0,-1 1,1-1,0 1,0 0,0 0,0 0,-3 3,-3 8,0 0,2 1,0 0,0 1,1-1,-6 26,-17 96,28-133,-3 19,1 0,0 0,2 0,1 32,0-49,1 0,-1-1,1 1,0-1,0 1,1-1,-1 1,1-1,0 0,0 0,0 1,1-2,-1 1,1 0,0 0,0-1,1 0,-1 1,1-1,-1-1,1 1,0 0,0-1,0 0,0 0,1 0,6 2,6 0,-1-1,1 0,0-1,0-1,0-1,0 0,0-1,0-1,17-4,-31 4,1 0,-1 0,1-1,-1 1,0-1,0 0,0 1,0-1,-1-1,1 1,-1 0,0-1,0 1,0-1,0 1,1-7,6-8,85-132,-18 33,-71 107,1 1,-2-1,1 0,-1-1,-1 1,3-12,-5 20,-1-1,1 0,-1 0,0 1,0-1,0 0,0 0,0 1,-1-1,1 0,-1 0,1 1,-1-1,0 0,0 1,-1-1,1 1,0 0,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-4-1,5 2,1 1,-1 0,0-1,1 1,-1 0,1 0,-1 0,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 1,0-1,1 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,1 1,0 0,-1-1,1 1,0-1,-1 1,1-1,0 1,0 1,-7 34,-13 200,-22 342,40-559,0 38,1-54,1-1,1 1,-1-1,0 1,0-1,1 1,0-1,-1 1,1-1,0 0,0 1,0-1,1 0,-1 0,0 0,4 3,-4-4,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0-1,0 0,10-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4494.81">3785 205,'-9'1,"0"0,0 1,-1 0,1 1,0 0,1 0,-1 1,0 0,1 1,0 0,0 0,1 0,-1 1,1 0,0 1,-8 10,-13 16,0 1,-26 46,38-55,-28 43,-39 83,64-111,2 0,2 1,-17 77,29-102,0 0,2 0,0 0,0 1,2-1,0 0,1 0,1 1,0-1,1-1,1 1,11 27,-11-35,-1 0,1-1,0 1,0-1,1 0,0 0,1-1,-1 1,1-1,0-1,1 1,-1-1,1-1,0 0,0 0,0 0,1-1,0 0,-1-1,1 1,0-2,0 1,0-2,11 1,-14-1,1-1,-1 1,-1-2,1 1,0 0,0-1,0 0,-1 0,1-1,-1 0,0 0,1 0,4-5,8-6,-2-1,19-22,-8 9,139-151,-144 151,0 0,-3-2,0 0,28-64,-42 77,0 0,-1 0,-1 0,0-1,-2 1,0-19,-1-5,-10-60,9 94,0 0,0 1,-1-1,0 1,0-1,-1 1,1 0,-1 0,-1 0,1 0,-1 0,0 1,-1 0,1 0,-1 0,-8-7,4 7,1 0,-1 0,0 1,0 0,0 1,-1 0,1 0,-1 1,0 0,1 1,-12-1,-52-7,51 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5843.16">4640 1,'-12'0,"1"0,-1 1,1 0,-1 1,1 1,-1-1,1 2,0-1,0 2,1 0,-1 0,1 0,0 1,1 1,-1 0,1 0,1 1,-11 11,5-5,1 1,1 0,0 1,2 0,-1 0,2 1,-11 27,18-39,0 1,0 0,0-1,1 1,0 0,0 0,1 0,0 0,0 0,0 0,1 0,-1 0,2 0,-1 0,1 0,-1-1,2 1,-1 0,0-1,1 0,0 1,1-1,-1-1,1 1,0 0,0-1,0 0,7 6,0-4,0 0,1 0,-1-1,1 0,0-1,0-1,1 0,-1 0,1-1,-1-1,1 0,0-1,16-2,-25 1,-1 0,1 0,-1 0,0-1,1 1,-1-1,0 0,0 0,0 0,0-1,-1 1,1-1,-1 1,1-1,-1 0,0 0,0 0,0 0,0 0,-1 0,2-6,6-12,-1 0,6-27,-10 33,-2 8,4-14,0 0,-2 0,3-30,-7 45,0-1,0 0,-1 1,1-1,-2 1,1-1,-1 1,0 0,0-1,0 1,-1 0,0 0,0 1,-1-1,-6-7,8 11,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1-1,-4-1,-7-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34931.25">1160 2098,'-35'-1,"24"0,0 0,0 1,-1 1,1 0,-11 2,19-2,0 0,0 0,0 0,0 0,0 1,0-1,0 1,1 0,-1 0,1 0,-1 0,1 0,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,1-1,0 1,-1 4,-5 14,2 1,1 1,0-1,0 37,7 91,-3-144,0 0,1 0,0 0,0-1,0 1,0 0,1 0,0-1,0 1,1-1,0 1,0-1,0 0,7 8,-6-9,0-1,0 0,1 0,-1-1,1 1,-1-1,1 0,0 0,0-1,0 1,0-1,1 0,-1 0,0-1,0 0,9 0,0 0,1 0,0-2,0 0,-1 0,1-1,-1-1,0 0,0-1,0-1,-1 0,1-1,-1 0,-1-1,0 0,0-1,0-1,-1 0,-1 0,17-21,-16 18,-1-1,0 0,0-1,-2 0,0 0,10-27,-16 35,0 0,0 0,-1 0,0 0,0 0,0 0,-1 0,-1 0,1-1,-1 1,0 0,0 0,-1 0,0 0,-1 1,1-1,-1 0,-6-9,2 6,0 0,-1 0,0 0,-1 1,0 1,0-1,0 2,-1-1,-1 1,1 1,-1-1,0 2,-1 0,1 0,-1 1,0 1,0-1,0 2,-1 0,1 1,0 0,-1 0,-19 3,28-2,0 1,0 0,0 0,-1 0,1 0,0 0,0 1,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 1,1 0,0 0,0 0,1 1,-1-1,-3 7,-2 4,0 1,2 1,-10 29,12-32,-10 34</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36085.96">1242 2566,'-30'0,"-148"5,151-2,0 1,0 1,1 1,-41 16,21-4,-83 46,124-61,1 0,0 0,0 1,0-1,0 1,0 0,1 0,0 0,0 1,0-1,0 1,1 0,-1 0,-1 7,1-3,1 0,0 1,1-1,0 1,0 0,1-1,2 16,1-4,0-1,2 1,1-1,0 0,2-1,17 34,-19-41,1-1,1 0,0-1,0 1,1-2,1 1,-1-1,2-1,-1 0,1 0,0-1,16 8,-9-8,0 0,1 0,0-2,0-1,0 0,0-1,33 0,-9-4,-1-1,1-3,-1-2,0-1,0-2,77-31,-117 41,66-26,-2-3,125-74,-186 99,-1 1,1-1,-1 0,0 0,0 0,-1 0,1-1,-1 1,0-1,0 0,-1 0,0 0,1 0,-2-1,1 1,-1-1,1 1,-1-1,-1 1,1-10,-2 4,1-1,-2 1,0 0,0 0,-1 0,0 0,-1 1,0-1,-8-12,6 13,0 1,-1 0,0 0,-1 1,0 0,0 0,0 1,-1 0,-10-6,-18-9,-39-18,44 24,15 8,0 0,0 1,-1 1,-25-5,16 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37221.25">2606 2139,'-431'1089,"413"-1046,-10 22,-20 53,48-117,-1 1,1-1,-1 0,1 0,-1 1,1-1,0 0,-1 1,1-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1-1,0 1,2 0,5 0,0 1,0-1,1-1,-1 0,13-1,1 1,35 1,164-4,-211 2,0 0,0-1,0 0,0 0,0-1,14-7,-13 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39175.92">3379 2260,'-4'1,"0"-1,0 1,0 0,0 0,0 0,1 1,-1-1,0 1,1 0,-1 0,1 0,0 0,0 1,0-1,0 1,0 0,0 0,1 0,0 0,-1 0,1 1,0-1,-1 5,-7 12,2 0,0 0,-5 23,6-20,-40 142,42-139,0 1,2-1,0 1,3 37,0-60,1-1,0 0,0 1,0-1,0 0,0 0,1 0,0 0,-1 0,1 0,0-1,0 1,1 0,-1-1,1 0,-1 1,1-1,0 0,-1-1,1 1,0 0,0-1,1 1,-1-1,5 1,11 4,0-1,1-1,24 2,-21-3,-16-2,-1 0,1 0,0-1,-1 1,1-2,0 1,0-1,6-1,-11 1,0 0,0 0,1 0,-1 0,0-1,0 1,-1-1,1 1,0-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,-1 0,1-1,0 1,-1 0,0-4,3-19,-2-1,-3-48,1 53,0-1,1 1,1 0,1 0,4-21,-6 41,0-1,0 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,2 0,-2 1,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,1 0,-1 0,0-1,0 1,0 0,0 0,-1 0,1 0,0 0,1 2,28 55,-23-36,0 1,-2-1,0 2,2 45,-8 99,-2-60,2 427,1-483</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40484.01">4274 2199,'0'0,"-1"0,1 0,0-1,0 1,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 1,0-1,0 0,-1 0,1 1,-19 9,8-2,1 0,-1 1,2 1,-1-1,2 1,-1 1,1 0,1 0,-10 19,-6 16,-17 55,28-71,-5 16,1 2,2 0,3 0,1 1,3 0,2 1,1 64,5-79,-1-8,0 1,2-1,1 0,2 0,8 32,-11-53,0 0,1 0,-1-1,1 0,0 1,0-1,1 0,-1 0,1-1,0 1,1-1,-1 0,1 0,0 0,0-1,0 1,0-1,0-1,1 1,0-1,-1 0,1 0,0 0,0-1,0 0,0 0,0 0,0-1,8-1,-10 2,1-1,-1-1,0 1,0-1,1 1,-1-1,0 0,0-1,0 1,0-1,0 0,0 0,6-4,-3-1,0 0,0-1,-1 1,10-18,-12 19,-1 3,178-277,-144 215,-3-1,37-103,-62 136,-1 0,-2 0,-2-1,-1 0,-2-47,0 60,-1 15,0-1,0 1,-1-1,0 1,0 0,0-1,-1 1,0 0,0-1,-1 1,0 1,0-1,0 0,-1 1,1-1,-1 1,-1 0,1 0,-1 1,0-1,0 1,-7-5,0 3,1 0,-2 0,1 1,0 1,-1 0,0 1,0 0,0 1,0 0,-17 0,1 2,10-1,0 1,0-2,1-1,-23-5,11 0,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41584.81">5414 1772,'-6'1,"1"0,-1 0,1 1,0-1,-1 1,1 1,0-1,0 1,0 0,1 0,-1 0,1 1,-1-1,1 1,-5 6,-8 9,-28 41,34-44,1 2,0 0,2 0,0 0,1 1,1 0,-7 35,11-43,0-1,1 0,0 1,1-1,1 0,-1 1,1-1,1 0,0 1,1-1,0 0,0-1,1 1,0 0,1-1,10 16,-11-20,1-1,-1 0,1 0,0 0,0-1,0 0,0 0,1 0,0 0,-1-1,1 0,0 0,0-1,0 1,0-1,0-1,0 1,8-1,-7 0,1 0,-1-1,0 1,1-1,-1-1,0 0,0 0,0 0,0-1,0 0,-1 0,1 0,-1-1,11-9,-4-1,-1 0,0-1,-1 0,-1-1,0 0,12-29,-7 9,-2 0,10-45,-21 77,0-1,-1 1,0-1,0 1,0-1,-1 1,1-1,-1 0,0 1,-1-1,1 0,-1 1,0-1,0 1,0-1,-1 1,1-1,-1 1,-3-5,-11-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43616.01">2056 2057,'-2'0,"0"0,0 1,1-1,-1 0,0 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,0 1,-1 1,-18 38,12-20,-67 133,-95 231,168-377,0-1,0 0,1 1,0 0,0-1,1 1,0-1,0 1,0-1,1 1,1 0,-1-1,1 0,5 14,-2-11,0 1,1-1,0 0,1-1,0 1,1-2,-1 1,19 15,-16-17,1-1,0 0,0 0,0-1,1-1,0 0,0 0,0-1,17 2,50 15,-76-18,0-1,1 1,-1-1,0 0,1 0,0 0,-1-1,1 1,-1-1,1 0,0 0,-1 0,1-1,0 1,4-2,-5 0,0 0,0 0,0-1,-1 1,1 0,-1-1,1 0,-1 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1-1,0-3,5-11,27-67,-4-1,-3-2,15-94,-37 128,-3 0,-7-81,2 82,3 48,0 0,-1 0,1-1,-1 1,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,-1 1,0-1,0 1,0 0,0-1,-5-2,3 3,-1 0,0 0,0 1,0 0,0 1,-1-1,1 1,-1 0,1 1,-1-1,0 1,-11 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">211 386,'1'-1,"-1"0,1 0,-1 1,1-1,-1 0,1 1,1-1,-2 0,1 1,0-1,0 0,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 1,38 2,-11 3,0 2,0 1,0 2,-2 0,0 1,0 2,29 20,24 9,-75-40,0 0,0 1,-1-2,1 2,-1 0,0 0,1 0,-2 0,1 0,-1 1,0-1,-1 1,1 0,-1 0,1-1,2 11,-3-6,0 0,-1 0,0 0,-1 1,0-1,-1 1,1-1,-6 19,5-26,0 1,0 0,-1 1,0-1,0-1,1 1,-1-1,0 1,-1 0,1-1,0 1,-1-2,1 1,-1 1,-1-1,1-1,1 1,-1 0,-1-1,1 1,0-1,0 0,-1-1,0 1,1-1,0 1,-1-1,1 1,-1-1,0 0,-4-1,-12 0,2 0,-2-2,1-1,-24-6,43 10,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,21-3,31 1,-35 3,0 1,-1 0,0 0,1 1,30 12,-41-14,-2 0,1 2,-1-1,0 1,1 0,-1 0,0-1,0 1,-1 1,1 0,-1-1,1 0,-1 1,-1 1,1-1,-1 0,0 0,0 0,0 1,0-1,-1 1,0 0,1 5,1 16,-2 0,-1 0,-1 0,-6 32,5-47,0 0,-1 1,0-1,-1 0,-1 0,0 0,-1 0,1-1,-2-1,0 2,-15 14,17-21,0 0,-1 0,1-2,-1 2,0-1,0-1,0 1,-1-1,1 0,0-1,0 0,-2 1,2-1,0-1,-1 1,0-1,0-1,1 1,0-1,-10-2,-9-1,0-3,0 0,-42-18,-33-14,7 3,-93-49,185 84,1 1,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,7-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1499.79">1738 309,'0'0,"0"0,1 0,-1 0,1 0,-1 1,1-1,-1 0,0 0,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,0 0,1 1,-1-1,0 1,0-1,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0 22,-16 37,-1 1,-3-2,-53 102,29-66,26-52,5-9,-1-1,-3 0,-1-2,-1 0,-1 0,-30 33,48-63,-1 1,2-2,0 1,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,1 0,-1 1,1 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 0,0 1,1 3,1-3,0 0,-1-1,1 1,0-1,0 1,0-2,1 1,0 0,-1 0,0 0,0 0,1-1,-1 1,0 0,1-1,-1 0,2 0,-2 1,1-2,1 1,237 0,-99-3,-110 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3132.77">2945 424,'-9'-5,"-1"1,0-1,1 1,-1 0,-1 2,1-1,-1 1,1-1,-17 0,15 2,-67-5,76 6,-1-1,1 1,-1 1,1-1,-2 0,1 1,1-1,0 1,-1 0,1 0,-1 1,0-1,1 1,0 0,0 0,0 0,-3 2,-4 9,1-1,2 1,-1 0,1 2,1-2,-7 25,-17 90,29-125,-3 18,1-1,0 1,2 0,1 30,0-46,1-1,-1 0,1 1,0-1,0 0,1 0,-1 1,1-1,0-1,0 1,0 1,1-2,-1 1,2-1,-1 1,0-1,1 0,-1 1,1-2,-1 0,2 1,-1 0,0-1,0 0,0 0,1 0,7 1,6 1,-2-1,2 0,0-1,-1-1,1-1,0 0,-1-1,1-1,18-4,-33 4,1 0,-1 0,1 0,-1 0,0-1,0 0,1 1,-1-1,-1 0,1 0,-1 0,0-1,0 1,0-1,0 2,1-8,7-7,88-124,-19 30,-74 102,1 0,-2 0,2-1,-2 0,-1 0,3-10,-5 18,-1-1,1 0,-1 0,0 1,0-1,0 1,0-1,0 1,-1-1,1 0,-1 0,1 2,-1-2,0 0,0 1,-1-1,1 1,0 0,-1 0,1 0,-1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-4 0,5 1,1 1,-1 0,0-1,1 1,-1 0,1 0,-1 0,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,-1 0,2 1,-1-1,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 1,0-1,1 1,-1-1,1 0,0 0,-1 0,1 1,-1-1,1 1,0 0,-1-1,1 1,0-1,-1 1,1-1,0 1,0 1,-7 32,-14 189,-23 323,42-528,0 36,1-52,1 0,1 1,-1-1,0 1,0-1,1 1,0-2,-1 2,1-1,0 0,0 1,0-1,1 0,-1 0,0-1,5 4,-5-4,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0-1,1 1,-1-1,0 0,10-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4494.81">3941 194,'-10'1,"1"0,0 0,-2 1,2 1,0 0,0 0,0 1,0-1,0 2,1 0,0 0,0-1,0 2,1 0,-1 0,-7 10,-14 15,-1 2,-26 42,40-51,-30 40,-41 79,68-106,1 1,2 1,-17 72,30-96,0 0,2 1,0-1,0 1,2-1,0 0,1 0,1 1,0-1,1-1,1 2,12 24,-12-32,-1-1,2 0,-1 0,0 0,1 0,0-1,2 0,-2 0,1 0,1-1,0 1,-1-2,2 0,-1 0,0 0,0-1,2 0,-1 0,0-1,0 1,0-2,1 1,-1-2,12 1,-15-1,1-1,0 1,-2-2,1 1,0 0,1-1,-1 0,-1 0,1-1,0 0,-1 1,1-1,4-5,9-5,-2-1,19-21,-8 9,145-144,-150 144,0 0,-3-3,0 1,28-61,-42 73,-1 0,-1 0,-1 0,0-1,-2 1,0-18,-1-5,-10-56,9 88,0 1,0 0,-1-1,0 2,0-2,-2 1,2 1,-1-1,-1 0,1 1,-1-1,0 1,-2 1,2-1,-1 0,-8-6,3 6,2 0,-2 1,1 0,0 0,-1 1,0 0,1 1,-2 0,1 0,0 1,-11-1,-55-7,53 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5843.16">4831 1,'-12'0,"0"0,0 1,0 0,0 1,0 1,0-2,0 3,1-1,-1 2,2 0,-1-1,0 1,1 1,0 0,0 1,1-1,0 2,-11 10,6-5,0 1,2 1,-1 0,3 0,-2 0,3 1,-12 25,19-36,0 1,0 0,0-2,1 2,0 0,0-1,1 1,0 0,0-1,0 1,1 0,-1-1,2 1,-1 0,1-1,-1 0,2 1,-1-1,0 0,2 0,-1 0,1 0,-1-1,1 1,0-1,0 0,1 0,6 5,0-3,1 0,0-1,0 0,0 0,1-1,-1-2,2 1,-2 0,2-1,-2-1,2 0,0-1,16-2,-26 1,-1 0,1 0,-1 0,0-1,2 1,-2-1,0 1,0-1,0 0,0-1,-1 1,1-1,-1 1,2 0,-2-1,0 0,0 0,0 0,0 0,-1 1,2-7,7-11,-2 0,6-25,-9 31,-3 7,4-13,0 1,-2-1,4-28,-8 42,0-1,0 1,-1 0,1-1,-2 2,0-2,0 1,0 1,0-2,0 2,-1-1,0 0,0 1,-1 0,-7-7,9 10,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,-2-1,-3 0,-7-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34931.25">1208 1981,'-37'-1,"26"1,-1-1,1 1,-2 1,2-1,-12 3,20-2,0 0,0 0,0 0,-1 0,1 1,0-1,0 1,1 0,-1 0,1-1,-1 1,1 0,0 1,-1-1,1 1,0-1,0 0,1 1,-1 0,1-1,0 1,-1 3,-5 14,1 1,2 1,0-1,0 34,7 87,-3-136,0-1,1 1,0 0,0-2,0 2,0 0,1-1,0 0,0 1,2-2,-1 2,0-1,0 0,7 7,-5-8,-1-2,0 1,1 0,-1-1,1 1,0-1,0 0,0-1,0 0,0 1,1-1,0 0,-1 0,0-1,1 0,8 0,1 0,0 0,1-2,0 0,-2 0,2 0,-2-2,1 0,-1-1,1 0,-1-1,0-1,0 1,-2-2,1 1,-1-2,1 0,-2-1,0 1,17-20,-17 16,0 0,-1 0,0-1,-1 0,-1-1,11-24,-17 32,0 1,0-1,-1 0,0 1,0-1,0 0,-1 1,-1-1,1 0,-1 0,0 0,0 1,-1-1,0 1,-1 0,1-1,-2 1,-5-9,2 5,0 1,-2-1,1 1,-1 0,-1 2,1-2,-1 3,0-2,-1 2,0 0,0-1,-1 3,0-1,0 0,0 1,-1 1,1 0,-1 1,0 0,0 1,1 0,-2 0,-19 3,29-2,0 1,-1 0,1 0,-1 0,1 0,0 0,0 1,0-1,0 1,0 0,1 0,-1 1,1-1,-1 1,0-1,1 1,0 0,1 1,-1-1,-3 6,-3 4,1 2,2 0,-11 27,13-30,-11 33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36085.96">1293 2423,'-31'0,"-154"5,156-2,1 1,0 0,1 2,-43 15,22-4,-86 43,129-57,1 0,0 0,-1 1,1-2,0 2,0 0,1 0,0 0,0 0,-1 0,1 1,1-1,-1 1,-1 7,1-4,1 1,0 0,1-1,0 2,0-1,1 0,2 14,1-3,0-1,2 1,1-1,1 0,1-1,18 32,-20-39,2 0,0-1,0-1,0 2,2-3,0 2,0-2,1 0,0-1,0 1,0-2,18 9,-11-9,1 1,1-1,0-1,-1-1,1 0,0-1,34-1,-9-3,-1 0,0-4,0-2,0 0,0-3,79-28,-120 38,67-25,-1-2,130-71,-194 95,-1 0,1-1,0 0,-1 0,0 1,-1-1,1-1,-1 1,1 0,-1-1,-1 0,0 0,1 1,-2-2,1 1,-1 0,1 0,-1-1,-1 2,1-11,-2 5,1-1,-2 0,0 1,0-1,-1 1,0 0,-1 0,-1 0,-7-12,6 13,-1 0,0 1,0-1,-2 2,1-1,0 1,0 0,-2 0,-10-5,-18-9,-41-17,45 23,17 8,-1-1,0 2,0 0,-27-4,17 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37221.25">2713 2020,'-448'1029,"429"-989,-10 22,-21 49,50-110,-1 1,1-1,-1 0,1 0,-1 1,1-1,0-1,-1 2,1-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1-1,0 1,2-1,6 1,-1 1,0-1,2-1,-2 0,14-1,1 1,36 1,171-4,-219 2,-1 1,1-2,-1 0,0 0,1-1,14-6,-14 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39175.92">3518 2134,'-4'1,"0"-1,0 1,-1 0,1 0,0 0,1 1,-1-1,0 1,1 0,-2 0,2 0,0-1,0 2,0-1,0 1,0 0,0 0,0-1,1 1,-1 0,1 1,0-1,-1 4,-7 12,1 0,1 0,-6 22,7-20,-42 135,44-131,0 0,2 0,-1 0,4 36,0-58,2 0,-1 0,0 1,0-1,0 0,0-1,1 1,0 0,-1 0,1 0,0-1,0 0,1 1,-1-1,2 0,-2 1,1-1,0 0,-1-1,1 0,0 1,0-1,1 1,0-1,4 1,12 4,-1-2,2 0,25 2,-22-3,-17-2,0 0,0 0,0-1,-1 0,2 0,-1 0,0-1,7-1,-12 1,0 0,0 0,1 0,-1 0,0-1,0 1,-1-1,2 1,-1-1,0 1,-1 0,1-1,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,-1 0,0-4,3-17,-2-2,-3-45,1 51,0-2,1 1,1 0,1 0,5-19,-7 38,0-1,0 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 1,1-1,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,2 0,-2 1,0 1,2-1,-2 1,0-1,0 1,0-1,0 1,1 0,-1 0,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,1 2,29 52,-23-34,-1 0,-2 0,0 2,3 42,-9 94,-2-57,2 403,1-456</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40484.01">4450 2077,'0'0,"-1"0,1 0,0-1,0 1,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 0,0 0,-2 0,2 1,0-1,0 0,-1 0,1 1,-19 8,7-1,2-1,-2 2,3 0,-1 0,1 0,0 2,1-1,0 0,-9 19,-7 14,-18 53,29-68,-4 15,0 3,3-1,2 0,2 2,2-1,3 1,1 61,5-75,-1-8,0 2,2-2,1 1,2-1,9 31,-12-50,0-1,1 1,-1-1,1-1,1 2,-1-1,1 0,-1-1,1 0,0 1,2-1,-2-1,1 1,0 0,0-1,1 0,-1 0,0-1,1 1,0-1,0 0,0 0,0 0,0-1,1-1,-1 1,0 0,0-1,9-1,-11 2,1-1,-1-1,1 1,-1-1,1 1,-1 0,0-1,1-1,-1 1,0-1,0 0,0 0,7-4,-4 0,0-1,0 0,0 0,9-17,-11 19,-2 2,185-262,-149 204,-4-1,39-98,-65 129,0 0,-3 0,-2-1,-1-1,-2-43,0 56,-1 14,0 0,0 0,-1 0,0 0,0 0,0 0,-1 0,0 0,0 0,-1 0,0 1,-1 0,1-1,-1 1,1 0,-1 0,-1 0,1 0,-2 2,1-2,0 1,-8-4,1 2,0 0,-1 1,0 0,1 1,-2 0,1 2,-1-1,1 1,-1 0,-17 0,1 2,10-1,0 1,0-2,2-1,-25-4,12-1,2 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41584.81">5637 1674,'-6'0,"1"1,-2 0,2 1,0-1,-1 1,0 1,1-1,0 1,0-1,1 1,-2 0,2 1,-1-1,1 1,-5 5,-9 9,-29 39,36-42,0 2,1 0,1 0,1 0,1 1,0 0,-6 33,11-41,0-1,1 1,0 0,1 0,1-1,-1 2,1-2,1 0,0 2,1-2,0 1,0-2,1 2,1-1,0 0,10 14,-10-18,0-1,-1-1,1 1,0 0,1-1,-1 0,0 0,1-1,1 1,-2-1,1 0,0 0,0-1,1 1,-1-1,0-1,0 1,9-1,-8 0,2 0,-2-1,0 1,2-1,-2-1,0 0,0 0,1 0,-1-1,0 0,0 1,0-1,-1-1,12-8,-5-1,0-1,-1 0,0 0,-2-1,1 0,11-28,-6 9,-2 0,10-42,-22 72,0-1,-1 1,0 0,0 0,0-1,-1 1,1 0,-1-1,0 1,-1 0,1-1,-1 1,0-1,0 2,0-2,-1 1,1-1,-1 2,-4-6,-10-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43616.01">2141 1943,'-2'0,"-1"0,1 1,1-1,-1 0,0 1,1-1,-1 1,1-1,-1 0,1 1,-1 0,1 0,-1 0,1 0,0 0,0 0,-2 1,2-1,0 0,0 1,-1 1,-19 35,13-18,-70 126,-99 217,175-355,0-2,0 1,1 0,0 1,0-1,1 0,0 0,0 0,0 0,1 1,1-1,-1 0,1-1,5 14,-2-10,1 0,0-1,0 1,1-2,1 2,0-3,-1 2,20 14,-16-17,0 0,1-1,-1 1,1-1,0-1,1-1,-1 1,1-1,17 2,52 14,-79-17,0-2,1 2,0-1,-1 0,1 0,0 0,-1-1,1 1,-1-1,2 0,-1 0,-1 0,1-1,0 1,5-2,-6 0,0 0,0 1,0-2,-1 1,1 0,-1-1,1 0,0 0,-1 1,0-1,0 0,-1 0,1 0,-1 0,1 0,0-4,5-10,29-63,-5-1,-3-3,16-87,-39 120,-3 0,-7-77,2 78,3 45,0 1,-1-1,1-1,-1 2,0-1,-1 0,1 0,-1 1,-1-1,1 0,0 0,-1 2,0-2,0 1,0 0,0 0,-6-3,4 3,-1 1,0-1,-1 1,1 0,0 1,-1-1,0 1,0 1,1 0,-1-1,-1 1,-11 0,-6 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16899,7 +14719,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="501.57">1 184,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="910.35">1 388,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="910.34">1 388,'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16953,7 +14773,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2723,'8'0,"0"-1,0 0,0 0,-1-1,1 0,0 0,-1-1,1 0,-1 0,0-1,0 0,9-7,6-6,-1-1,25-28,-30 28,2 1,0 1,25-18,-1 9,1 1,71-26,9 1,219-119,-281 135,97-37,-14 7,42-16,262-75,-224 83,-59 19,300-115,-313 102,-55 25,93-53,-152 74,77-28,11-4,-48 13,-1 2,-3-3,87-60,-105 60,-26 20,-2-1,0-1,-2-2,27-28,-43 35,0 1,-1-2,0 0,-2 0,0 0,5-20,-3 10,0 0,-2-1,6-53,-10 56,0 1,2 0,1 0,13-36,-14 49,0 0,1 1,0 0,0 0,1 0,0 1,1 0,0 0,0 1,1 0,0 1,0-1,1 2,0 0,20-10,-13 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2609,'8'0,"1"-1,-1 0,0 0,-1-1,2 0,-1 0,-1 0,1-1,0 0,-1-1,0 0,10-6,6-7,-2 0,27-27,-32 27,3 1,0 1,25-18,0 9,0 1,74-24,9 0,227-113,-290 128,99-35,-14 7,44-15,270-72,-231 79,-61 18,310-109,-324 97,-56 23,95-49,-156 70,79-27,11-4,-49 13,-1 1,-4-2,91-57,-109 56,-27 20,-2-1,0-1,-2-2,28-27,-45 34,0 1,0-2,-1-1,-2 1,0 0,6-19,-4 9,0 0,-1-1,5-50,-10 53,0 1,2 0,2 0,12-34,-13 47,-1-1,1 1,0 1,0-1,2 1,-1 0,1 1,0-1,1 1,0 1,0 0,1-1,0 3,0-1,21-9,-13 9</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17008,7 +14828,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 469,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="512.35">469 224,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="512.34">469 224,'0'0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="946.15">957 0,'0'0</inkml:trace>
 </inkml:ink>
 </file>
@@ -17289,13 +15109,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1444 184,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1510.16">365 937</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-992.92">731 713,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-456.45">1098 489,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="15534.1">834 1,'13'0,"19"-1,0 2,38 6,-58-4,-1-1,0 2,0-1,0 2,0-1,0 2,-1-1,0 1,14 12,-14-11,-1 0,-1 1,1 0,10 14,-16-17,0 0,-1 0,1 0,-1 0,0 0,0 1,0-1,-1 1,0-1,0 1,0 6,-1 155,-2-81,2-62</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="21814.66">40 611,'-9'63,"5"-50,2 1,0-1,0 27,2-37,0 0,1 1,-1-1,1 1,0-1,0 1,0-1,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,4 4,34 20,-30-20,0 1,0 0,0 1,-1 0,0 1,8 9,-8-8,0-2,0 1,1-1,-1-1,2 0,-1-1,1 0,0 0,0-2,1 1,-1-1,1-1,22 3,-14-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="32632.48">40 611,'7'6,"0"0,-1 1,0-1,0 1,0 0,-1 1,0-1,0 1,-1 0,0 0,-1 1,1-1,-2 1,1-1,-1 1,1 10,1 27,-3-30,0 1,1-1,1 0,1-1,8 27,-9-37,-1 0,1 0,0 0,1-1,-1 1,1-1,0 0,0 0,0 0,0 0,1-1,0 0,0 0,-1 0,2 0,-1-1,0 0,0 0,1 0,9 1,29 6,53 15,-88-18,-22-3,-23-3,-161-35,193 34,1-1,-1 1,1-1,-1 0,1 1,0-1,0-1,0 1,0 0,0-1,1 0,-1 0,1 1,-1-1,1-1,0 1,0 0,1 0,-1-1,1 1,-1-1,1 0,0 1,0-7,-3-11,1 0,2 0,0-27,0 12,-2-4,2 25,-1 1,2 0,0-1,1 1,4-26,2 12,2 1,0 0,13-26,-30 66,-53 82,55-83,0-1,1 1,0 0,1 0,1 0,0 1,-1 12,-2 32,-7 117,13-170,1-1,-1 1,1 0,-1-1,1 1,0-1,0 0,0 1,1-1,-1 0,1 0,0 1,0-1,0-1,0 1,1 0,-1 0,1-1,-1 0,1 1,0-1,0 0,0 0,5 2,7 2,0 0,1-1,0-1,21 4,18 5,-38-8,1 0,29 3,-30-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1520 174,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1510.16">384 888</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-992.92">769 675,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-456.45">1156 463,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="15534.1">878 1,'14'0,"19"-1,1 2,40 6,-62-5,0 0,-1 2,1-1,0 2,-1-2,1 3,-2-1,1 1,14 11,-14-11,-2 1,-1 0,2 1,10 13,-17-16,0-1,-1 1,1 0,0 0,-1-1,0 2,0-1,-1 0,0 0,0 1,0 5,-1 147,-2-76,2-59</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="21814.66">42 579,'-9'59,"4"-46,3 0,0-1,0 26,2-35,0 0,1 1,-1-1,1 0,0 0,0 1,0-1,0 0,2 0,-2-1,1 1,0 0,0 0,0 0,0 0,1-2,-1 2,2-1,3 4,36 18,-31-18,-1 1,1-1,-1 2,0 0,-1 0,9 9,-8-7,-1-3,1 2,1-2,-2 0,3 0,-2-2,2 1,0 0,-1-3,2 2,-2-1,2-1,23 2,-15-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="32632.48">42 579,'7'5,"1"1,-2 1,0-2,1 2,-1 0,-1 0,1 0,-1 1,-1-1,0 1,-1 0,2 0,-3 0,1 0,-1 0,1 10,1 26,-3-29,1 1,0-1,1 1,1-2,9 26,-10-36,-1 1,1 0,0-1,1 0,0 1,0-1,0 0,0-1,0 1,1 0,0-1,0 0,0-1,0 1,1 0,-1-1,0 0,1 0,0 0,10 1,30 5,56 15,-92-17,-24-4,-24-2,-169-33,203 32,0-1,0 1,1 0,-1-1,1 1,0-1,-1-1,1 1,0 0,0-1,1 0,-1 1,1 0,-2-1,2-1,0 1,0 0,1 1,-1-2,1 1,-1-1,1 0,0 2,0-8,-4-10,2 0,2 0,0-25,0 11,-2-4,2 24,-1 0,2 1,0-1,1 1,4-25,2 11,3 2,-1-1,15-24,-33 62,-55 78,58-78,-1-2,2 1,0 1,1-1,0 1,1 0,-1 12,-2 30,-8 110,14-160,1-1,-1 1,1 0,-1-2,1 2,0-1,0 0,0 1,1-2,-1 1,2 0,-1 1,0-1,0-1,0 1,1-1,-1 1,1-1,0 0,0 1,0-1,0 0,0 0,6 1,6 3,1 0,1-2,0 0,22 4,19 4,-40-7,1 0,30 2,-31-5</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17340,36 +15160,6 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:22:44.435"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">21 20,'0'17,"0"34,-3 18,-2 12,1 2,0-3,2-4,0-12,1-20,1-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="622.11">42 0,'3'0,"9"0,8 0,5 0,5 0,0 0,0 0,-3 0,-2 0,1 0,1 3,-6 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1342.85">42 244,'3'3,"9"6,5 3,3 1,2-3,1-2,-4 0,-2 0,-3-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2468.59">204 651,'-3'3,"-5"12,-8 11,-1 3,2 5,4-1,4-2,2-3,3 1,2-5</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink66.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:22:52.857"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -17383,7 +15173,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink66.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17410,7 +15200,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink67.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17437,7 +15227,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink68.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17461,6 +15251,33 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0,'4'0,"4"0,4 0,4 0,3 0,1 0,0 0,2 4,-1 0,0 4,0 0,0-1,-1-2,1-1,-1-2,0-2,1 1,-5-2</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink69.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:23:00.425"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">130 1,'0'0,"1"0,-1 0,0 0,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,0 0,1 1,-1-1,0 0,0 1,1-1,-1 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 2,-3 20,2-18,-13 59,-30 82,28-99,1 1,3 0,1 2,-5 66,14-78,0-9,1 0,1 0,5 32,-4-52,1-1,-1 1,1-1,1 0,-1 0,1 0,0 0,1 0,0-1,0 0,0 1,1-1,0-1,0 1,1-1,9 8,2-3,0 0,0-2,1 0,23 7,-19-7,42 21,-39-15,-5-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17487,50 +15304,23 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 41,'4'0,"4"21,8 45,1 38,-2 16,-4 29,-4 0,-6-16,-10-19,-4-30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1538.15">611 143,'-35'-7,"32"6,1 0,-1 0,1 0,-1 1,0-1,0 0,1 1,-1 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 1,1 0,-1 0,0 0,1 0,-1 0,1 1,0-1,-1 1,-3 3,-3 6,1 1,0 0,1 0,0 1,1 0,0 0,-7 26,-22 108,31-125,-18 91,-11 184,33-292,-1 1,2 0,-1 0,0 0,1 0,0 0,1-1,-1 1,1 0,0-1,1 1,-1-1,1 0,0 0,0 0,5 6,0-4,-1 0,1-1,0 0,1 0,-1-1,1 0,1 0,14 5,111 35,-78-28,-55-16,-1 0,1 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,-1 1,1-1,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,0 1,0-1,-1 0,1 0,0 0,-1-1,1 1,-1 0,1 0,-1-1,0 1,1-1,-1 0,0 1,0-1,0 0,0 1,0-1,-1 0,1 0,0 0,-1 0,1-2,27-83,22-120,-41 163,2-23,-4-1,-2-1,-7-103,0 48,2 118,0 1,-1 0,1-1,-1 1,0 0,-1 0,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 1,0-1,-1 1,1 0,-1 0,1 0,-1 1,0-1,0 1,-1 0,1 0,-9-4,1 2,-1 0,1 1,0 0,-1 1,0 1,0 0,0 1,0 0,-15 1,6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3304.15">1446 41,'-9'1,"1"0,0 0,0 1,0 0,0 0,1 1,-1 0,0 1,1-1,0 1,0 1,-9 7,-11 10,-40 41,39-35,-18 18,2 3,2 1,2 2,3 2,2 1,-45 95,77-144,1-1,0 1,0-1,1 1,-1 0,1 0,0 0,1 0,-1 0,1 0,1 0,-1 0,1 0,0 0,2 5,1 1,1 0,1-1,0 0,0 0,1-1,9 11,-4-3,2-1,0-1,1 1,0-2,1 0,1-1,1-1,0-1,0 0,1-1,0-1,1-1,1-1,-1 0,42 8,-22-7,-17-4,0 0,31 2,-52-8,1 1,-1 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,0-1,0 0,3-2,28-38,-23 28,25-35,49-93,-69 113,-2-1,-1 0,-1-1,13-62,-20 70,-2 1,0 0,-2 0,0-1,-1 1,-2 0,-4-22,4 39,1-1,-1 2,0-1,-1 0,1 1,-1-1,1 1,-1 0,-1 0,1 1,0-1,-1 1,0 0,0 0,0 0,0 1,-10-4,-13-4,-57-13,78 21,-95-20,84 20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7999.77">2850 0,'-1'3,"1"0,0 0,-1 0,1 0,-1 0,0-1,0 1,0 0,-3 4,-4 12,-270 668,276-682,-10 29,-2-1,-1 0,-2-1,-1-1,-23 31,37-57,0-1,0 1,1 0,0 0,0 0,-3 8,5-12,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0-1,1 1,-1 0,0-1,2 2,-1-1,0 0,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0-1,-1 1,1-1,0 0,1 0,63 5,124-7,-55-2,-66-5,-31 2,-16 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9079.77">3684 285,'0'2,"-1"0,1 1,-1-1,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,-2 2,-6 8,-97 145,-92 181,196-332,0-1,0 0,1 1,0-1,0 1,0 0,1-1,0 1,0 0,0 10,1-15,0 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,2 1,1-1,-1 1,1-1,-1 0,1 0,0 0,0 0,0-1,-1 0,1 0,4 0,20-2,0-1,0-1,0-2,-1 0,0-2,39-17,153-83,-198 97,36-22,-14 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9595.77">4030 448,'4'0,"0"10,-6 42,-7 36,-9 21,-5 15,-1 8,2-5,6-13,5-20,5-18,3-33,2-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11401.77">4519 346,'-63'-2,"42"0,0 1,0 1,0 0,0 2,-28 6,48-8,-1 1,1 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 1,1-1,-1 0,0 1,0-1,1 1,-1-1,1 1,-1 0,1-1,0 1,0-1,-1 1,1 2,5 50,-2-35,-3-13,2 12,0 0,1-1,0 0,8 20,-11-34,1-1,0 1,0 0,1 0,-1-1,0 1,1 0,0-1,-1 0,1 1,0-1,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,1-1,0 0,-1 1,1-1,0 0,0-1,0 1,0 0,0-1,0 0,0 1,0-1,0 0,4-1,-2 0,1 0,0 0,-1 1,1-1,0 2,0-1,-1 0,1 1,0 0,-1 1,1-1,-1 1,1 0,-1 0,0 1,0-1,0 1,8 7,-7-4,0 0,-1 0,0 1,0-1,0 1,-1 0,-1 1,1-1,-1 1,0-1,3 16,-1 0,-2 1,0-1,-2 1,0 0,-2-1,0 1,-2-1,-7 30,8-43,0-1,-1 0,-1 0,0 0,0 0,0 0,-1-1,-1 0,1 0,-13 13,13-17,0 1,-1-1,1 0,-1 0,0-1,0 0,-1 0,1 0,-1-1,1 1,-1-2,0 1,0-1,0 0,-10 0,14-1,-9 1,1-1,-1 0,0-1,-18-4,27 5,0-1,0 0,0 0,0-1,1 1,-1-1,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,0-1,0 1,0-1,1 1,-1-1,1 0,-1 1,-1-6,-9-36</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13432.77">4783 183,'0'0,"-11"9,-31 48,2 1,-54 108,90-157,0 1,1-1,0 1,0 0,1 0,1 0,-1 0,2 0,-1 0,3 16,-2-22,1 0,-1-1,1 1,0 0,1-1,-1 1,1-1,-1 0,1 1,0-1,0 0,1 0,-1 0,0 0,1-1,0 1,0-1,0 1,0-1,0 0,0 0,0-1,1 1,-1-1,1 1,-1-1,1 0,0 0,-1-1,7 1,-1 0,0-1,0 0,0 0,0-1,0-1,0 1,0-1,0-1,-1 0,1 0,-1-1,0 0,0 0,0 0,0-1,-1-1,0 1,0-1,-1-1,1 1,-1-1,0 0,-1 0,0-1,0 1,-1-1,0-1,0 1,-1 0,4-14,5-19,-1 0,-3 0,-1-1,2-76,-8 116,-1-1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 0,-1 0,1 1,0-1,-1 1,0-1,1 1,-1 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,1-1,-1 1,-5-1,-5-1,1 2,-1 0,1 0,-1 1,-24 3,5-1,14-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31953.82">652 1649,'-3'48,"-1"1,-20 82,14-84,1 1,-3 82,16-81,1 0,3 0,17 59,-23-100,0-1,0 1,1-1,1 1,-1-1,1 0,0 0,1 0,0-1,0 0,0 1,1-2,0 1,0-1,0 0,1 0,-1 0,1-1,0 0,15 5,-9-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32964.83">998 2015,'48'-53,"-2"-1,47-73,-92 126,-1-1,1 1,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 1,0-1,2 0,-2 1,0 1,-1-1,1 0,-1 1,1-1,0 0,-1 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,0 1,1 0,-1-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1-1,0 1,0 1,5 59,-5-58,-4 108,-26 148,8-88,18-128</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33713.82">1405 2198,'3'0,"-2"38,-11 30,-12 14,-1 3,-4-2,-1-9,4-9,3-13,5-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34830.84">1568 1873,'2'-1,"0"1,0 0,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0-1,-1 1,1 0,-1-1,3-2,21-31,-22 30,27-46,-18 29,1 0,29-36,-42 57,1 1,-1-1,0 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,0 0,-1-1,1 1,0 0,-1-1,1 1,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 1,0-1,0 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,1 0,-1-1,0 1,1 0,-1-1,0 1,0 0,0-1,1 1,-1 0,0 0,0 1,9 52,-9-50,6 146,-18 195,3-192,7-108</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37472.93">2056 1384,'6'9,"-1"0,1 0,1-1,-1 0,10 9,13 15,11 20,-2 1,55 105,-79-128,0 1,-2 1,-1 0,-2 0,-1 1,-2 0,4 49,-14 250,2-322,1 1,-1-1,-1 0,0 0,0 0,-1 0,-1 0,1-1,-1 0,-1 0,0 0,0-1,-1 0,-9 10,-11 7,-1-1,-51 34,46-35,-44 31,10-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 38,'4'0,"4"20,9 42,0 36,-1 14,-5 28,-4 0,-6-16,-10-17,-4-28</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1538.15">630 134,'-36'-6,"33"5,1 0,-1 0,1 0,-1 1,0-1,-1 0,2 1,-1 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 1,0 0,0 0,0 0,1 0,-1-1,1 2,0-1,-1 1,-3 3,-4 5,2 1,0 1,1-1,0 1,0 0,1 1,-7 23,-23 102,32-117,-19 85,-11 172,34-273,-1 0,2 1,-1 0,0-1,1 1,0 0,1-2,-1 2,1-1,0 0,1 1,-1-2,1 1,0 0,1 0,4 5,0-4,-1 1,1-1,1-1,0 1,-1-1,2-1,0 1,15 4,114 34,-80-28,-57-14,-1 0,1 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,-1 1,1-1,0 0,0 0,0 0,1-1,-1 1,0 0,0-1,0 1,0-1,0 0,0 1,0-1,-1 0,1 0,0 1,-1-2,1 1,-1 0,1 0,-1-1,0 1,2-1,-2 0,0 1,0-1,0 1,0 0,0-1,-1 0,1 0,0 0,-1 0,1-1,28-79,22-112,-41 153,1-22,-4-1,-2-1,-7-96,0 45,2 110,0 1,-1 1,1-2,-1 1,0 1,-1-1,1 0,-1 1,0-1,0 0,-1 0,1 1,-2 0,1-1,-1 2,1-1,-1 0,1 0,-1 2,0-2,0 1,-2 0,2 0,-9-3,1 1,-2 0,2 2,-1-1,0 1,0 1,-1 0,1 1,-1 0,-15 1,7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3304.15">1491 38,'-9'1,"1"0,-1 0,1 1,0 0,0 0,0 1,0 0,0 0,1 0,0 1,-1 1,-8 6,-12 9,-41 39,40-32,-18 16,1 3,3 1,2 2,2 1,3 2,-46 88,79-134,1-1,0 0,0 0,1 1,-2-1,2 1,0 0,1-1,-1 1,1-1,1 1,-1 0,1-1,0 1,3 4,0 2,1-1,1-1,0 0,0 1,2-2,8 11,-3-3,1-1,0-1,2 1,-1-2,2 0,0-1,2-1,-1-1,1 1,1-2,-1-1,2 0,1-2,-2 1,44 7,-23-7,-17-3,0-1,31 3,-52-8,0 1,-1 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,1 1,-1-1,0-1,0 1,1-1,-1 0,3-2,29-35,-24 26,26-33,51-87,-72 105,-1 0,-2 0,-1-1,14-58,-21 65,-2 2,0-1,-2 0,0 0,-1 0,-2 1,-4-22,4 38,1-2,-1 2,0 0,-1-1,1 1,-2-1,2 2,-1-1,-1 0,1 1,0 0,-1 0,-1 0,1 0,0 0,0 1,-10-3,-14-5,-59-11,81 19,-98-19,86 20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7999.77">2939 0,'-1'3,"1"0,0-1,-1 1,1 0,-1 0,0-1,0 1,0-1,-3 5,-4 11,-279 626,285-639,-11 27,-1-1,-1 0,-3-1,-1-1,-23 29,38-54,0 0,0 1,1 0,0-1,-1 1,-2 7,5-11,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 0,0 1,1 0,-1 0,0-1,1 1,-1 0,0-1,2 2,-1-1,0 0,1 0,0 0,0 0,-1 0,1 0,0-1,-1 1,1-1,0 0,-1 1,1-1,0 0,1 0,65 5,128-7,-57-2,-67-4,-33 1,-17 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9079.77">3799 267,'0'2,"-1"0,1 1,-1-1,0 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,-2 1,-7 9,-99 135,-95 170,202-312,0 0,-1 0,2 0,0 0,0 1,0-1,1 0,0 1,0-1,0 10,1-14,0 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,1 1,-1-1,1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,1 1,1-1,-1 1,1-1,-1 0,1-1,0 1,0 0,1-1,-2 0,1 0,4 0,21-2,0 0,0-2,0-2,-2 1,1-3,40-15,158-79,-204 92,37-21,-15 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9595.77">4156 420,'4'0,"0"10,-6 38,-7 35,-10 19,-4 14,-2 8,2-5,7-12,4-19,6-16,3-32,2-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11401.77">4660 324,'-65'-1,"44"-1,-1 1,0 1,1 0,-1 2,-29 5,50-7,-1 1,1 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,1-1,-1 0,0 1,0-1,1 1,-1-1,1 1,-1 0,1-2,0 2,0-1,-1 1,1 2,5 47,-2-34,-3-11,2 11,0 0,1-1,0 0,9 18,-12-31,1-1,0 1,0 0,1-1,-1 0,0 1,1 0,0-1,-1 0,1 1,0-2,0 1,0 0,1 0,-1 0,0 0,2-1,-2 1,1-1,0-1,-1 2,1-1,0 0,0-1,0 1,0 0,0-1,1 0,-1 1,0-1,0 0,4-1,-2 0,1 0,1 0,-2 1,1-1,0 2,0-1,-1 0,2 1,-1 0,-1 1,1-1,-1 1,1 0,0 0,-1 0,0 0,0 1,9 6,-8-3,0 0,-1-1,0 2,0-1,1 0,-2 1,-1 0,1 0,-1 0,0 0,3 14,-1 1,-2 0,1 0,-3 1,0-1,-2 0,0 0,-3 0,-6 27,8-39,0-2,-1 1,-1-1,0 1,0-1,-1 0,0 0,-1-1,1 1,-14 12,14-17,0 2,-1-1,1 0,-1-1,-1 0,1 0,-1 0,1 0,-1-2,0 2,0-2,0 1,0-1,-1 0,-9 0,14-1,-10 1,2-1,-1 0,-1-1,-18-4,28 5,0-1,0 0,0 0,0 0,1 0,-1-1,0 1,1-1,-1 0,1 0,-2 0,2 0,0 1,0-2,0 1,0-1,1 1,-1-1,1 0,-1 2,-1-7,-10-33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13432.77">4933 172,'0'0,"-12"8,-31 46,2 0,-56 102,93-148,-1 1,2 0,0 0,0 1,1-1,1 0,-1 1,2-1,-1 1,3 14,-2-20,1-1,-1 0,1 1,0 0,1-1,-1 0,1 0,-1 0,1 1,0-2,0 1,2 0,-2 0,0 0,1-1,0 0,0 0,0 1,0-1,0 0,0 0,0-1,2 1,-2-2,1 2,-1-1,1 0,0 0,-1-1,8 1,-2 0,0-1,0 0,1 0,-1-1,0-1,1 1,-1-1,0 0,-1-1,2 0,-2-1,0 0,0 1,1-1,-1-1,-1 0,0 0,1-1,-2 0,1 0,-1 0,0-1,-1 0,1 0,-1 0,-1 0,0-2,0 2,-1-1,4-12,6-19,-2 1,-3-1,0 0,1-72,-8 110,-1-2,0 0,0 0,0 0,-1 0,1 1,-1-1,0 0,1 1,-1-1,0 1,-1-1,1 1,0-1,-1 1,0-1,1 1,-2 1,1-1,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 2,1-2,-1 1,-6-1,-4-1,1 2,-2 0,2 0,-2 1,-24 3,5-1,15-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31953.82">672 1546,'-3'46,"-1"-1,-21 78,15-79,1 1,-4 77,18-76,0 0,3 0,18 55,-24-93,0-1,0 0,1 0,1 0,-1 0,1-1,1 1,0-1,0 0,0 0,0 0,1-1,1 1,-1-2,0 1,1 0,-1-1,2 0,-1 0,15 4,-8-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32964.83">1029 1890,'50'-50,"-3"-1,49-68,-95 118,-1-1,1 2,0-1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,1-1,0 0,-1 1,0-1,2 0,-2 1,0 1,-1-1,1 0,-1 1,1-1,0 0,-1 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,0 1,1 0,-1-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1-1,0 1,0 1,5 55,-5-54,-4 101,-27 139,8-83,19-120</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33713.82">1449 2061,'3'0,"-2"36,-11 28,-13 13,-1 2,-4-1,0-8,3-9,3-13,6-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34830.84">1617 1757,'2'-1,"0"1,0 0,0-1,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,0-1,-1 1,1 0,-1 0,3-3,22-29,-23 28,28-43,-19 28,2-1,29-33,-43 53,1 1,-1-1,0 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,0 0,-1-1,1 1,0 0,-1-1,1 1,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,-1 0,2 0,-1 0,-1 0,1 1,0-1,0 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,1 0,-1-1,0 1,1 0,-1-1,0 1,0 0,0-1,1 0,-1 1,0 0,0 1,9 49,-9-47,6 136,-18 184,3-181,7-100</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37472.93">2120 1298,'6'8,"0"1,0-1,1 0,-1-1,11 9,13 14,11 19,-2 1,57 98,-82-120,1 1,-3 1,0 0,-3 0,-1 1,-2 0,5 46,-16 234,3-301,1 0,-1-1,-1 1,0-1,0 1,-1-1,-1 0,1 0,-2-1,0 1,0-1,0 0,-1-1,-10 10,-11 6,-1 0,-52 31,47-32,-45 28,9-6</inkml:trace>
 </inkml:ink>
 </file>
 
 <file path=xl/ink/ink70.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:23:00.425"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">130 1,'0'0,"1"0,-1 0,0 0,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,0 0,1 1,-1-1,0 0,0 1,1-1,-1 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 2,-3 20,2-18,-13 59,-30 82,28-99,1 1,3 0,1 2,-5 66,14-78,0-9,1 0,1 0,5 32,-4-52,1-1,-1 1,1-1,1 0,-1 0,1 0,0 0,1 0,0-1,0 0,0 1,1-1,0-1,0 1,1-1,9 8,2-3,0 0,0-2,1 0,23 7,-19-7,42 21,-39-15,-5-2</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink71.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17554,14 +15344,14 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">448 0,'7'11,"2"34,0 23,-2 11,-2 2,-2-2,-1-12,-2-9,0-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1003.85">0 367,'7'0,"6"0,4 0,5 0,4 0,4 0,-1 0,3 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1003.84">0 367,'7'0,"6"0,4 0,5 0,4 0,4 0,-1 0,3 0,-4 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2892.57">794 143,'0'-2,"0"1,0-1,0 1,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-2-1,-1 0,0 0,0 0,0 0,0 1,-1 0,1 0,-8-1,0 1,0 0,0 1,-1 0,-22 4,33-3,-1 0,1 0,0 0,0 1,-1-1,1 1,0 0,0-1,1 1,-1 0,0 0,0 0,1 0,-1 0,1 1,0-1,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,1 3,-7 71,7-67,-1 4,1 0,0 0,1-1,1 1,0-1,1 1,0-1,7 16,-8-25,-1-1,1 1,1-1,-1 0,0 0,1 0,0 0,-1 0,1 0,0-1,0 1,1-1,-1 0,1 0,-1 0,1 0,-1-1,1 0,0 1,0-1,0-1,-1 1,1 0,0-1,0 0,0 0,0 0,0 0,0-1,0 0,0 1,0-2,4 0,2-2,0 0,0-1,0 1,0-2,-1 0,1 0,-1 0,-1-1,0-1,0 0,0 0,-1 0,0-1,0 0,-1 0,-1 0,1-1,-2 0,1 0,-1-1,-1 1,0-1,0 0,-1 1,1-15,-4 21,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 1,0-1,0 0,0 1,0-1,-1 1,1 0,-1 0,0 0,0 0,0 0,0 1,0 0,-1-1,-5-2,-7-3,1 0,-1 1,-29-9,27 11</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3907.57">997 102,'-3'14,"-5"22,-1 14,-3 14,2 6,-2 4,-2-2,1-11,3-9,4-2,2-7,2-7,1-6,1-5,4-6,1-7</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4760.39">1282 570,'0'13,"-3"23,-5 19,-1 6,-10 4,-4-2,1-6,5-11</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink71.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17589,7 +15379,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink72.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17613,7 +15403,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">306 0,'-3'1,"0"0,1 0,-1 0,0 0,1 0,-1 1,1-1,0 1,-1-1,1 1,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 3,-3 2,-40 56,3 1,3 2,3 2,-46 119,80-181,0 0,0-1,0 2,0-1,1 0,0 0,0 0,1 1,0-1,0 0,0 0,1 1,0-1,2 7,-1-8,1 0,0 0,0-1,0 1,1-1,0 0,-1 0,2 0,-1 0,0 0,1-1,-1 0,1 0,0 0,9 3,3 3,0 1,-1 1,-1 0,1 1,-2 1,0 1,0 0,-1 0,-1 1,-1 1,0 0,-1 0,0 1,10 30,27 43,-33-70</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1851.18">530 428,'27'0,"1"-1,0-1,-1-2,42-10,-52 10,-1 0,2 1,-1 0,0 1,0 2,34 1,-44 0,0 0,0 0,0 1,0 0,-1 0,1 1,-1 0,1 0,-1 0,0 1,0 0,-1 0,1 0,-1 1,0 0,0 0,0 0,-1 1,8 11,-9-11,0 1,0 0,-1 1,0-1,0 0,-1 1,0-1,0 13,-4 66,1-42,2 8,1-28,-1 0,-1 0,-1 0,-8 34,10-56,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,-1 0,0-1,1 1,-1-1,0 1,0-1,1 0,-1 0,0 0,-4 2,0-1,0-1,0 1,0-1,0 0,0-1,0 1,-8-1,1-1,1 0,-1-1,1-1,0 0,0 0,-21-9,30 10,0 1,1 0,-1-1,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,1-1,0 0,-1 1,1-1,0 0,0 0,1 1,-1-1,1 0,-1 0,1 0,0 0,0-3,1 2,0 1,0 0,0-1,0 1,0 0,1 0,0 0,-1 0,1 0,0 0,0 0,1 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,1 1,0-1,0 0,5-1,6-2,1 0,-1 1,1 1,0 0,1 1,-1 0,0 1,17 2,-25-1,1 1,-1-1,0 2,0-1,0 1,1 0,-2 1,1 0,0 0,0 0,-1 1,0 0,0 0,0 0,0 1,-1 0,1 0,6 9,-10-11,1 1,-1-1,1 0,0 0,0 0,0 0,1 0,-1-1,1 0,-1 1,1-1,0 0,0-1,0 1,0-1,0 0,0 0,0 0,6 0,7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1851.17">530 428,'27'0,"1"-1,0-1,-1-2,42-10,-52 10,-1 0,2 1,-1 0,0 1,0 2,34 1,-44 0,0 0,0 0,0 1,0 0,-1 0,1 1,-1 0,1 0,-1 0,0 1,0 0,-1 0,1 0,-1 1,0 0,0 0,0 0,-1 1,8 11,-9-11,0 1,0 0,-1 1,0-1,0 0,-1 1,0-1,0 13,-4 66,1-42,2 8,1-28,-1 0,-1 0,-1 0,-8 34,10-56,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,-1 0,0-1,1 1,-1-1,0 1,0-1,1 0,-1 0,0 0,-4 2,0-1,0-1,0 1,0-1,0 0,0-1,0 1,-8-1,1-1,1 0,-1-1,1-1,0 0,0 0,-21-9,30 10,0 1,1 0,-1-1,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,1-1,0 0,-1 1,1-1,0 0,0 0,1 1,-1-1,1 0,-1 0,1 0,0 0,0-3,1 2,0 1,0 0,0-1,0 1,0 0,1 0,0 0,-1 0,1 0,0 0,0 0,1 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,1 1,0-1,0 0,5-1,6-2,1 0,-1 1,1 1,0 0,1 1,-1 0,0 1,17 2,-25-1,1 1,-1-1,0 2,0-1,0 1,1 0,-2 1,1 0,0 0,0 0,-1 1,0 0,0 0,0 0,0 1,-1 0,1 0,6 9,-10-11,1 1,-1-1,1 0,0 0,0 0,0 0,1 0,-1-1,1 0,-1 1,1-1,0 0,0-1,0 1,0-1,0 0,0 0,0 0,6 0,7 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2919.82">1446 183,'-3'106,"-26"180,28-282,0 0,0 0,1 0,0 1,0-1,0 0,0 0,0 1,1-1,0 0,0 0,0 0,3 7,-3-9,1 0,0 0,0-1,0 1,1 0,-1-1,0 0,1 1,-1-1,0 0,1 0,0 0,-1-1,1 1,-1 0,1-1,0 0,-1 0,1 0,0 0,-1 0,5-1,17 1,-10 0,-1 0,0-1,0 0,1-1,23-6,-35 7,-1-1,1 1,0 0,0-1,-1 1,1 0,-1-1,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-3,2-3,10-31</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3634.77">1771 102,'0'10,"0"28,0 22,0 10,0 7,-7 12,-2 4,-6 4,-5-4,-2-8,3-15,4-19</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4880.32">2138 855,'-7'3,"-6"2,-4-1,-2 4,-6 2,-8 8,-9 3,2 2,2 11,0 7,2-1,5 0,1-3,4-8</inkml:trace>
@@ -17622,7 +15412,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink73.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17653,7 +15443,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink74.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17680,7 +15470,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink75.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17707,7 +15497,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink76.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17731,7 +15521,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">21 82,'3'0,"9"0,12 0,16 0,18 0,10 0,-3 0,-9 0,-8 0,-8 0,-7 0,1 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="540.83">1 102,'0'4,"0"7,3 10,2 21,-1 18,-1 9,0-1,-2-4,0-10,-1-11,0-9,0-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="540.82">1 102,'0'4,"0"7,3 10,2 21,-1 18,-1 9,0-1,-2-4,0-10,-1-11,0-9,0-10</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1367.81">347 306,'0'3,"0"16,0 14,0 9,0 0,0-2,0-17,0-24,0-17,3-12,2-4,6 1,5 4,3 9,2 7,1 6,-3 4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1882.22">733 326,'0'10,"0"15,0 5,0 2,0 2,0-1,0-6</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2216.91">713 1,'0'0</inkml:trace>
@@ -17739,7 +15529,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink77.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17766,7 +15556,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink78.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17792,6 +15582,33 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">51 22,'0'7,"0"16,0 28,-4 19,-7 26,-3 0,2-10,2-19</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2837.15">498 62,'0'-1,"-1"0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,-1 0,1 1,0-1,-1 1,1-1,-1 1,1 0,0 0,-1-1,1 1,-1 0,-2 1,-40-3,41 2,1 0,-1 1,0-1,0 1,0-1,1 1,-1 0,0 0,1 1,-1-1,1 0,-1 1,1 0,0-1,-1 1,1 0,0 0,0 0,-2 3,2 0,-1 0,0 0,1-1,0 2,0-1,1 0,0 0,0 0,-1 10,1-1,1-1,0 0,1 0,1 1,0-1,1 0,8 24,-9-32,1 1,0-1,1 1,-1-1,1 0,0 0,0-1,0 1,1-1,0 0,0 0,0 0,0-1,0 0,1 0,0 0,-1-1,1 0,0 0,0 0,7 1,6 0,0-1,0 0,0-1,1-2,29-3,-46 4,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,1-3,24-52,-16 30,-5 17,-1 0,0-1,-1 0,0 0,-1 0,4-22,-7 29,0 1,0 0,0 0,-1 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,-1 0,1 0,-1 0,0 0,1 0,-1 1,0-1,0 1,0 0,-3-2,-23-6,0 1,-1 1,1 2,-1 1,0 1,-38 2,50 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4302.99">763 1,'-3'62,"-14"84,-1 5,15-13,-5 50,4-157</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink79.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:24:04.928"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'7'0,"5"0,9 0,3 0,1 0,4 0,0 4,-5 4,0 1,0 2,3 0,0-3,-5 2,-6-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17837,33 +15654,6 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:24:04.928"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'7'0,"5"0,9 0,3 0,1 0,4 0,0 4,-5 4,0 1,0 2,3 0,0-3,-5 2,-6-2</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink81.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:24:07.970"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -17878,7 +15668,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink81.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17902,11 +15692,11 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">61 0,'0'10,"3"14,6 14,0 10,-2 7,3 9,-2 0,-1-4,1-2,3-10,0-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1220.59">0 366,'2'9,"0"1,1-1,0 0,0-1,1 1,0-1,1 1,-1-1,10 11,-2-1,-10-14,1 0,-1 0,1-1,0 1,0-1,1 0,-1 0,1 0,0-1,-1 1,1-1,0 1,0-1,1-1,-1 1,0-1,1 1,-1-1,1 0,-1-1,1 1,-1-1,1 0,-1 0,1 0,0-1,-1 0,1 1,4-3,-8 2,1 0,0-1,0 1,-1-1,1 1,0-1,-1 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0-3,7-49,-5 22,-1 24,3-12,0 0,9-24,-4 25</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1220.58">0 366,'2'9,"0"1,1-1,0 0,0-1,1 1,0-1,1 1,-1-1,10 11,-2-1,-10-14,1 0,-1 0,1-1,0 1,0-1,1 0,-1 0,1 0,0-1,-1 1,1-1,0 1,0-1,1-1,-1 1,0-1,1 1,-1-1,1 0,-1-1,1 1,-1-1,1 0,-1 0,1 0,0-1,-1 0,1 1,4-3,-8 2,1 0,0-1,0 1,-1-1,1 1,0-1,-1 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0-3,7-49,-5 22,-1 24,3-12,0 0,9-24,-4 25</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink82.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17933,7 +15723,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink83.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17961,7 +15751,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink84.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -17984,43 +15774,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 285,'1'-1,"-1"0,1 0,0 0,0 0,0-1,0 1,0 0,0 1,0-1,0 0,0 0,0 0,0 1,1-1,-1 0,0 1,0-1,1 1,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,3 0,15-4,25-12,-2-2,49-29,-54 26,2 2,0 1,54-15,-89 31,-1 1,1 0,0 1,0-1,0 1,0-1,0 1,0 0,0 1,0-1,0 1,0 0,-1-1,1 2,0-1,0 0,6 5,-6-3,-1 0,1 0,-1 0,0 1,0 0,0 0,0 0,-1 0,0 0,0 0,0 1,0-1,0 1,0 6,10 34,-3 1,-1 0,-3 0,0 66,-5-91,1 9,-2-1,-1 1,-6 32,7-55,-1-1,1 1,-1 0,-1-1,1 1,-1-1,0 0,-1 0,1 0,-1 0,0-1,-1 1,1-1,-1 0,0 0,0-1,-1 0,0 0,-6 4,0-5,0 1,0-2,-1 0,1 0,-1-1,1-1,-1 0,1 0,-1-2,1 1,-1-2,-23-7,34 10,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1-1,0 0,1 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,-1-3,1 1,1 1,0 0,0 0,0-1,1 1,-1 0,1 0,0-1,-1 1,1 0,1 0,-1 0,2-3,4-7,1 1,1 1,-1-1,2 1,14-13,-12 12,1 1,0 0,1 0,1 1,25-13,-35 21,0 0,0 0,1 0,-1 1,0 0,1 0,-1 0,1 1,-1-1,1 1,-1 1,1-1,-1 1,1 0,-1 0,0 0,1 1,-1 0,0 0,0 0,8 6,61 49,-57-43,1 0,0-1,37 20,-36-25</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1128.24">977 102,'-1'7,"0"1,0-1,0 0,-1 0,0 0,-5 9,-1 8,-78 217,85-238,0-1,0 1,0 0,1-1,-1 1,1-1,0 1,0 0,0 0,0-1,0 1,1-1,-1 1,1 0,1 2,-1-3,0-1,0 1,0-1,0 1,0-1,0 0,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,4 0,6 1,0-1,0 0,1-1,-1 0,22-3,-4 1,11 0,-20 0,1 1,-1 0,1 2,-1 0,40 9,-47-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1885.08">1425 61,'-2'1,"1"0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0-1,1 1,-1 0,0 2,-1 2,-31 81,4 1,4 1,-18 118,37-157,2-1,4 83,2-59,-2-45</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14426.23">2116 225,'-6'1,"0"1,0 0,0 0,0 1,0 0,1 0,-1 0,1 0,0 1,0 0,0 0,1 1,-1-1,1 1,0 0,0 0,-5 10,-63 148,-26 46,65-153,18-33,-22 48,36-70,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,1 1,-1 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,3-1,10 1,1-1,0-1,25-7,-21 5,54-8,59-11,-99 15,0 3,0 1,0 1,37 2,-53 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22959.19">2869 184,'-3'1,"-1"1,0-1,1 1,-1 0,1 0,0 0,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,1 0,0 0,-3 6,-1 0,-12 16,2 1,1 0,1 1,1 1,-12 36,19-43,0 1,1-1,1 1,1 0,1 0,1 0,1 1,3 22,-2-42,0 1,0 0,0-1,0 1,1-1,-1 0,1 1,0-1,0 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1-1,0 0,0 0,0 0,1 0,-1 0,0 0,1-1,-1 0,1 0,-1 0,6 1,9 1,0 0,1-1,-1-2,20 0,-37 0,6-1,0 0,-1-1,1 0,-1 0,1-1,-1 1,0-1,0 0,0-1,0 0,0 0,-1 0,0-1,0 1,0-1,0 0,-1-1,5-7,4-6,-1 0,0-1,-2 0,11-28,-14 19,0 1,-2-1,-1 0,-1-1,-1 1,-2-1,-1 1,-5-31,5 54,0 1,0 0,-1 0,1 0,-1 0,0 0,-1 0,1 1,-1-1,0 1,0 0,0-1,0 1,-1 0,0 1,0-1,0 1,-8-6,5 5,-1-1,0 1,-1 0,1 1,-1 0,1 1,-1-1,0 2,0-1,-10 0,0 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24497.46">3256 1,'-3'2,"0"0,0 0,0 1,0 0,0-1,1 1,-1 0,1 0,0 0,0 1,0-1,0 1,-1 3,-2 2,-25 39,13-22,1-1,1 2,1 0,-17 49,30-74,1 0,-1 0,1 0,-1 1,1-1,0 0,0 0,0 1,0-1,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,1 0,1 3,0-2,0 0,1-1,-1 0,0 1,1-1,-1 0,1-1,0 1,-1 0,1-1,5 1,10 2,0-2,1 0,-1-1,20-2,-32 0,-1 0,0 0,1-1,-1 0,0 0,0-1,0 0,0 0,-1 0,1 0,-1-1,0 0,0 0,0-1,0 1,-1-1,0 0,0 0,5-8,-3 3,0 0,0 0,-1 0,-1-1,0 0,0 0,-1 0,0 0,-1-1,1-11,-3 18,0 1,-1 0,1-1,-1 1,0-1,-1 1,1 0,-1 0,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,0 1,0 0,-1 0,1 0,0 0,-1 1,0-1,0 1,0 0,0 0,0 0,0 1,-8-3,-7-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 274,'1'-1,"-1"0,1 0,0 0,0 0,0-1,0 1,0 0,0 1,0-1,0 0,0 0,1 0,-1 1,1-1,-1 0,0 1,0-1,1 1,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,3 0,16-4,26-11,-2-2,51-28,-56 25,2 1,-1 2,58-15,-94 30,-1 1,1 1,0 0,1-1,-1 1,0-1,0 1,0 0,0 1,1-1,-1 1,0-1,-1 0,1 2,0-1,1 0,5 5,-6-3,-1 0,2 0,-2 0,0 0,0 1,0 0,0 0,-1 0,0 0,1-1,-1 2,0-1,0 1,0 5,10 34,-2 0,-2 0,-3 0,1 64,-6-88,1 9,-2-2,-1 2,-7 31,8-53,-1-2,1 2,-1 0,-1-2,1 2,-1-1,-1 0,0-1,1 1,-1 0,0-1,-1 1,0-2,0 1,0 0,0-1,-2 0,1-1,-6 5,-1-5,0 1,1-2,-2 0,2 0,-2-1,2-1,-2 0,2 0,-2-2,1 1,0-2,-25-7,36 10,0-1,0 0,0 0,0 0,0 0,0 0,0 1,-1-2,1 1,1 0,-1-1,0 0,1 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,-1-2,1 0,1 1,0 0,0 0,0-1,1 1,-1 1,1-1,0-1,-1 1,1 0,1 0,-1 0,2-2,4-8,2 2,0 0,-1-1,3 2,14-13,-12 11,0 2,1-1,0 1,2 0,26-12,-37 20,0 0,0 0,2 0,-2 1,0 0,1 0,0 0,0 1,-1 0,1 0,0 0,0 0,-1 1,1 0,0 0,-1 0,1 1,-1 0,1 0,-1 0,8 6,65 46,-60-40,0-1,1 0,39 18,-39-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1128.24">1021 98,'-1'7,"0"0,0 0,0 0,-1 0,0-1,-6 10,0 7,-82 208,89-228,0-1,0 1,0 0,1-2,-1 2,1-1,0 1,0 0,0 0,0-1,0 1,1-1,-1 1,1-1,1 3,-1-3,0-1,0 1,0-1,0 1,0-1,0 0,1 0,-1 1,0-1,2 0,-2 0,1 0,-1-1,1 0,0 1,-1 0,4 0,7 1,-1-1,1 0,0-1,0 0,22-3,-3 1,10 0,-20 1,1 0,-1 0,1 2,-1 0,42 8,-50-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1885.08">1489 59,'-2'1,"1"0,-1-1,1 1,-1 0,1 0,0 0,0 0,-1 0,0 1,1-1,0 0,0 1,0-1,0 1,1-1,-1 1,0-1,1 1,-1 0,0 1,-1 3,-33 78,5 0,4 2,-19 112,39-150,2-1,4 80,2-57,-2-43</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14426.23">2211 216,'-6'1,"0"1,-1 0,1 0,0 1,0 0,0-1,0 1,1 0,0 1,-1 0,1 0,1 0,-1 0,1 1,-1 0,1 0,-5 9,-66 143,-28 43,69-146,18-32,-23 46,38-67,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 0,0 0,0 1,0-1,0 0,0-1,0 2,0-1,0 0,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,2 0,-1 0,0-1,1 1,-1 0,0-1,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,4-1,9 1,2-1,0 0,25-8,-21 5,57-7,60-12,-102 16,-1 2,1 1,-1 1,40 2,-57 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22959.19">2998 177,'-3'1,"-1"1,0-1,0 0,0 1,1 0,0 0,0 1,0-1,0 1,-1 0,1 0,1 0,-1-1,1 1,0 0,-3 6,-2-1,-11 16,1 1,1 0,2 1,0 1,-12 35,20-42,-1 1,2-1,1 1,1 0,1 0,1 1,1 0,3 21,-2-40,0 1,0-1,0 0,0 1,1-1,-1 0,1 1,0-1,0-1,0 1,1 0,0 0,-1 0,1-1,-1 1,1-1,0 0,0 0,1-1,0 1,-1 0,0 0,1-1,-1 0,2 0,-2 0,6 1,10 1,0 0,1-1,-2-2,22 0,-39 0,6-1,1 0,-2-1,1 0,0 0,0-1,-1 1,0-1,1 0,-1 0,0-1,1 0,-2 0,0-1,0 1,0 0,1-1,-2-1,5-6,5-7,-2 1,1-1,-3 0,12-27,-14 18,-1 1,-2-1,-1 0,-1-1,0 2,-3-2,-2 1,-4-30,5 53,0 0,0 0,-1 0,1 0,-1 1,0-1,-1 0,1 1,-2-1,1 1,0 1,0-2,0 1,-1 0,0 1,-1-1,1 2,-8-7,4 5,0-1,0 1,-2 1,2 0,-2 0,2 1,-1-1,-1 2,1-1,-11 0,0 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24497.46">3402 1,'-3'2,"0"0,0 0,0 1,0 0,0-2,1 2,-2 0,2 0,0 0,0 1,0-1,0 1,-1 2,-2 3,-27 37,14-21,2-1,0 2,1 0,-17 47,31-71,1 0,-1-1,1 1,-1 1,1-1,0 0,0 0,0 1,0-1,1 0,-1 0,1 1,-1-2,1 1,0 0,-1 0,1 0,0 0,0 0,1 0,1 3,1-2,-1-1,1 0,-1 0,0 1,1-1,0 0,0-1,0 1,-1 0,1-1,6 1,9 2,1-3,1 1,-1-1,21-2,-34 0,-1 0,1 1,0-2,-1 0,1 0,-1-1,0 0,0 0,0 0,0 0,-1 0,0-1,0 0,1-1,-1 1,-1-1,0 1,0-1,6-8,-4 4,0-1,1 1,-2-1,-1-1,0 1,0-1,0 1,-1-1,-1 0,1-11,-3 17,0 1,-1 0,1-1,-1 1,0 0,-1 0,1 0,-1 0,0 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,0 1,0 0,-2 1,2-1,0 0,-1 1,0-1,0 1,-1 0,1 0,0 0,0 1,-9-3,-6 0</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink86.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:24:50.351"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink85.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18047,7 +15810,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink86.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18074,7 +15837,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink87.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18098,6 +15861,80 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1,'377'0,"-373"0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink88.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:23:37.408"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3748 366,'4'0,"4"0,9 0,3 0,4 0,4 0,1 0,3 0,3 0,10 0,25 0,6 0,-8 0,-18 0,-19 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1189.88">3770 18,'3'0,"5"0,5 0,4 0,6 0,6 0,5 0,1 0,4 0,15 0,12 0,4-4,-3 0,-13 0,-10 1,-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="115419.22">3 1063,'-2'174,"8"228,-5-382,1-1,1 0,11 36,-12-50,0 0,0-1,0 0,0 1,1-1,0 0,0 0,1 0,-1 0,1 0,-1-1,1 0,0 0,0 0,0 0,2 0,-2 0,1-2,0 1,9 3,63 13,-56-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="116132.29">613 1044,'3'0,"2"3,-1 41,1 26,-3 7,0 5,-1-3,-8-4,-3-9,1-8,1-12,2-9,3-9,1-5,1-4,1-1,4-4,2-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="118892.36">823 966,'-7'1,"-1"0,1 1,0-1,0 1,0 1,0-1,0 1,1 0,-1 0,0 1,1 0,0 0,1 0,0 0,-2 1,-3 6,-11 10,3 2,-25 33,32-39,0 1,1 0,1 0,1 1,1 0,0 0,2 0,1 1,-2 22,5-30,0 0,1 1,1-1,0 0,0 0,2 0,0 1,0-2,1 1,1 0,0-1,1 0,0 0,0 0,2-1,8 11,-4-10,2 2,-1-3,2 1,-1-1,32 16,84 32,-118-53,1-1,0 0,0-1,-1 0,2 0,15 0,-23-3,0 0,-1 0,1 0,1-1,-2 0,1 0,-1 0,1-1,-1 0,1 0,-1 0,0-1,0 1,0 0,0-2,5-3,-2-1,0 1,0-2,-1 1,0-1,-1 1,-1-2,2 1,-3-1,1 1,-1-2,-1 1,0 0,0 0,1-17,0-14,-2 1,-8-64,1 10,5 85,1-8,-1 0,-1 0,-1 0,0 1,-7-21,7 32,0 1,0-1,0 1,-2-1,1 0,0 2,0-1,0-1,-1 1,1 0,-1 2,0-2,-2 1,2 0,0 0,-1 0,0 1,0 0,-1 0,1 0,-9-2,-9 0,0 0,1 3,-1-1,-1 2,-27 2,7-1,26-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="120306.3">1896 1664,'-3'0,"-9"0,-9 0,-15 5,-7 5,-1 1,-1 3,4 4,1 0,5 1,3-2,9-2,6 0,12-1,5-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="125208.19">2296 1276,'4'0,"8"0,9 0,5 0,1 3,0 2,-1 3,-1-1,-2 0,-1-2,3 1,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="125856.02">2843 1257,'0'3,"0"25,0 30,0 11,0 8,0 4,0 14,-4-5,-3-12,-2-15,3-20,8-15,4-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="127257.8">3265 1218,'-12'0,"0"0,1 1,0 0,-1 1,1 0,-1 1,1 0,1 1,-2-1,2 1,-20 11,23-9,-2 0,2 1,0-1,0 1,1 0,-1 0,1 1,1-1,0 1,1 1,0-1,-1 1,1-1,-1 10,3-14,1 1,-1-1,1-1,1 1,-1 1,1-1,-1 1,1-2,0 1,1 1,-1-1,1 1,0-2,0 1,0 0,1 1,-1-2,1 1,0 0,3 4,1-3,0 0,0 1,0-1,1-1,0 0,0 1,0-1,0-1,2 0,7 3,-11-4,10 4,0-1,0 0,20 3,-32-7,0 0,0-1,0 0,1 1,0-1,-1 0,0-1,0 1,0 0,0-1,0 0,0 1,0-1,-1 0,2-1,-1 1,0 0,-1-1,1 0,-1 0,1 1,-1 0,3-4,6-10,-2-2,-1 1,1 0,-2 0,-1-1,-1 0,0-1,4-28,-8 44,-1 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,-1 1,2 0,-1-1,-1 0,1 0,0 1,0-1,-1 1,1-1,-3-2,0 3,0 0,0 0,-1 0,1-1,0 2,0-1,0 0,0 1,0 0,0 0,-8 1,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="129194.56">3201 1432,'-5'0,"0"0,-1 0,0 0,1 0,0 1,0 0,0 0,-1 1,1 0,1 0,-1 0,0 0,1 1,-2 0,-5 5,6-3,1 0,0 0,-1 0,1 1,1-1,-1 1,1 0,1 1,-1-2,1 2,-1 8,-14 38,10-34,1 0,1 1,0-1,2 1,1 0,0 25,3-39,1 0,0 0,0 0,1 0,1-1,-1 1,0 0,0-1,1 0,0 0,0 0,1-1,0 1,0-1,8 6,-2-3,-1 0,0-1,2 1,-1-1,0-1,1-1,16 6,-22-8,1-1,0 1,1-1,-1-1,-1 0,1 0,0 0,1 0,-1 0,0-1,0 0,1-1,-2 1,1-2,-1 1,2-1,7-4,-4-1,0 0,-1 1,-1-2,1 0,-2 0,0 0,1-2,7-14,-14 23,12-17,-2-1,0 0,-1-1,10-33,-19 50,0-1,-1-1,0 1,0 0,-1 0,0-1,0 1,0 0,-1 0,0-1,-2-5,1 7,1 1,-1-1,0 2,0-1,0 0,0 0,-1 0,1 0,-1 0,1 2,-1-2,0 1,-1 0,0-1,1 2,0-1,0 0,-6-1,-25-10,-2 2,1 0,-1 3,-43-7,54 13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="130165.9">3454 1024,'4'0,"2"-1,-1 1,0 1,0-1,0 1,0-1,0 1,0 1,0-1,-1 1,1 0,-1 0,0 0,2 0,-2 1,0-1,0 0,-1 2,1-1,-1 0,1 1,0-1,-1 0,0 1,-1 0,1 1,-1-2,0 1,2 8,7 12,-2 1,-1 0,-2 1,1-1,1 50,-7 138,-3-134,-2 5,-4-1,-4 0,-3-1,-54 154,65-223,-1-1,-1 0,-8 14,1-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="131311.27">4337 1257,'7'0,"7"0,3 0,7 0,2 3,1 2,0-1,1-1,1 0,-2-2,-3-1,0 0,-1 1,-1 2,-2 1,-2 4,-6-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="132330.32">4400 1548,'4'0,"5"0,7 0,5 0,7 0,1 0,0 0,-2 0,-2 0,-1 0,5 6,2 3,0-1,-7-1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink89.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:25:51.818"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#66CC00"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">632 391,'-3'0,"-6"0,-8 27,-3 21,-4 10,3 4,6 2,3-6,6-8,7-8,2-7,2-8,0 13,3 2,-1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1574.71">0 644,'4'0,"4"0,9 0,4 0,2 0,2 0,-1 0,0 0,-1 0,-1 0,0 0,-1 0,1 3,-6 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3110.02">1328 547,'-1'-2,"1"0,-1 0,1 1,-2-1,1 0,0 0,0 0,0 1,0-1,0 1,0 0,-1-1,1 1,0 0,-1-1,1 1,-1 0,0 0,-2-2,-41-18,38 18,-3 0,-1-1,1 1,0 0,-1 1,0 0,1 1,-2 0,2 0,-2 1,1 1,1 0,-2 0,2 1,-1 0,0 1,1 0,0 0,-1 1,2 0,-2 1,-12 8,11-6,2 1,-1 0,1 1,0-1,1 1,-1 1,2 0,0 0,1 1,-1-1,2 2,0-1,1 1,-1-1,2 2,1-1,-3 13,5-21,1-1,0 1,-1 0,1 0,1 0,-1 0,1-1,-1 1,1 0,0 0,1 0,-1-1,1 0,-1 1,1-1,0 1,5 3,-3-2,1 0,0-1,-1 0,1-1,2 1,-2-1,1 0,-1 0,1 0,8 1,3 1,1 0,0-2,-1 0,1-1,-1 0,2-2,26-1,-43 0,0 1,0 0,0-1,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0-1,-1 1,1 0,-1-1,2 1,-2-1,0 0,1 1,-1 0,0-1,0 0,1-3,17-50,-4 7,-11 42,-1 1,-1 0,1-1,0 1,-1 0,0-1,-1 0,0-1,0 2,0-1,-1 0,0 1,-1-11,1 13,-1 1,0-1,-1 0,1 0,0 0,-2 1,1-1,1 0,-1 2,0-2,0 1,-1 0,1 0,0 0,-1 0,0 0,1 0,-1 1,-1-1,1 2,0-2,0 1,0 0,0 1,0-1,0 0,-6 0,-11-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4764.21">1096 760,'0'-1,"-1"0,1 1,0-1,-1 1,1 0,0-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-2-1,1 1,1-1,-1 1,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,-1 1,-34 5,35-5,-117 32,102-27,1-1,0 2,1 0,0 0,-22 17,34-22,0 2,-1-1,1 0,0 0,1 0,-1 0,1 1,-2 0,2-1,0 1,1-1,-1 1,1-1,-1 1,1 0,0 0,0-1,1 1,-1-1,1 1,1 4,3 6,-1 0,0-1,1 1,10 14,-12-23,1 1,1-1,-1-1,1 1,0 0,1 0,-1-1,0-1,1 1,0-1,1 1,-1-1,0 0,0-1,1-1,0 1,11 2,13 2,1-2,47 0,-76-4,9 1,61-2,-68 0,1 0,0 0,-1-1,0 1,0-2,0 1,-1 0,2-1,-1 0,-1 1,6-6,0 1,-2 1,0-2,0-1,1 2,-2-2,0 1,-1-2,1 0,-2 1,0-1,0 1,-1-2,0 1,-1-1,1 1,-2-1,-1 1,1-2,-2 2,1-1,-3-14,2 23,-1-1,1 1,-1 0,1 0,-1 1,0-1,0 0,-1 0,1 1,0-1,0 1,-1-1,1 0,-1 1,1-1,-1 1,1 0,-1 0,0-1,0 1,0 0,1 0,-1 1,0-1,0 1,-1 0,-1-1,-8-2,-1 2,1-1,-24 2,-4-2,-16-8,29 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7113.73">2211 256,'-1'7,"0"1,-1 0,0-1,0 1,-1-1,0 0,-7 11,1 0,-23 47,-2-1,-3-2,-4-1,-2-3,-3 0,-99 93,129-135,8-10,-1 1,1 1,1-1,0 1,0 0,0 1,-5 10,12-18,0 0,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,0 0,0 0,1 0,-1-1,0 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,1-1,0 1,-1-1,1 1,0-1,-1 1,1-1,0 1,0-1,0 1,-1-1,1 0,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,2 0,51 1,-45-2,-1 1,259-2,-222 4,0 3,-1 0,85 24,-110-24,1-2,0 0,-1-1,1-1,27-1,-29 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18065.82">3307 391,'-2'-3,"0"1,0 0,-1 0,1 0,0-1,-2 1,1 0,1 1,-1-1,0 0,0 1,0-1,0 1,-5 0,-1-3,-14-7,1 1,-2 1,-1 1,1 1,-1 0,0 2,0 1,-51-2,61 6,6-1,1 1,0 1,1-1,-2 1,-13 3,19-3,1 0,0 0,0 0,-1 0,1 0,0 0,1 1,-1-1,0 1,0 0,1 0,-1-1,1 1,-1 0,1 0,0 0,-1 0,0 0,2 0,-1 0,0 1,0-1,0 3,-3 19,0 0,1 1,2 45,2-56,0-1,1 2,0-1,1-1,1 1,0 0,2-1,8 17,-11-25,1 0,0-2,1 2,-1-1,1 0,-1 0,1-1,0 0,1 1,-1-1,0-1,1 1,0-1,7 2,14 4,52 7,-37-7,-15-2,7 1,1 0,1-1,65 0,-100-6,1 0,0 0,0 0,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,-1 1,1-1,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 0,0-1,0 1,0-1,0 1,0-1,0-1,11-45,-6 18,11-25,50-194,-67 246,1 0,0 1,-1-1,0 1,0 0,1-1,-2 0,1 1,0-1,0 0,-1 1,0 0,1-1,-1 1,0-1,0 1,0-1,-3-2,1 3,0-1,-1 0,0 1,0 0,1-1,-1 1,0 1,0-1,0 0,0 1,-7 0,-41-13,1 4,-72-8,99 17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19019.04">3433 295,'3'0,"3"3,-2 7,0 13,-2 31,0 31,-1 16,-1 15,0 0,0 2,0-12,-1-15,1-17,0-15,0-14,0-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20622.97">3981 449,'-2'-2,"-2"0,1 0,0 1,0-1,0 0,0 1,-1-1,1 1,0 0,0 0,-2 0,2 1,-1-1,1 1,-1 0,1 0,-1 0,1 0,-2 0,2 1,-1 0,1 0,0 0,-1 0,1 0,0 1,-1-1,1 1,0 0,0 0,0-1,0 1,1 1,-5 4,-25 44,2 0,3 2,2 1,-28 96,48-136,2 1,0 0,-2 26,5-38,0 1,0 0,0 0,0 0,1-2,0 2,0 0,0 0,0-1,1 1,-1-1,1 0,0 0,0 1,0-1,0 0,1 0,-1-1,1 1,5 3,29 16,0-2,2-1,1-2,0-2,58 16,57 4,-152-34,0 0,0 0,0-1,0 0,0 0,0 1,0-2,1 1,-1 0,0-1,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,1 0,-2 0,1-1,-1 0,1 0,-1 0,0 0,0 0,0 0,0-1,3-2,4-9,-2 1,0 0,0-1,7-21,-3 5,13-25,35-88,-53 124,0-1,-1 0,-1-1,-1 1,-1-26,-2 41,-1 0,0 2,0-2,0 1,0-1,-1 1,0 1,0-2,-1 1,1 0,-1 0,1 1,-1 0,0-1,-1 1,1-1,0 1,-1 1,-1-1,2 1,-6-3,-11-5,0 0,-1 0,-27-6,17 6,-29-15,28 12,-44-15,67 26,1-1,-1 1,0 1,1 0,-1 0,1 0,-2 1,2 1,-1-1,-12 3,8 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22241.34">4297 100,'-11'126,"6"-90,2 2,1 37,2-73,0 0,0-1,1 1,-1 0,1-1,-1 1,1 0,0-1,0 1,-1 0,1 0,0-1,1 1,-1-1,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,2 0,-1-1,0 1,0-1,0 1,3-1,8 2,2-1,-2-1,29-3,19 2,-58 2,2 0,0 0,0 0,2 0,-2 0,0-1,0 0,9-1,-12 1,-1-1,1 1,-1-1,1 0,0 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0-1,0 1,1-1,-2 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,0-2,5-37,-1 1,-3 0,-4-50,0 20,4 65,-1-1,-1 1,1 0,-1 0,1 0,-1-1,0 1,-1 1,1-1,-2 0,1 0,0 0,0 1,0-1,-1 1,0-1,1 1,-1-1,0 2,-1-1,0 0,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,-1 1,1 0,0 0,-1 0,1 0,-8 0,-16-2,1 2,-40 1,39 1,8 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18143,140 +15980,6 @@
           <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:23:37.408"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3625 385,'4'0,"4"0,8 0,4 0,3 0,4 0,1 0,3 0,3 0,9 0,25 0,5 0,-7 0,-17 0,-19 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1189.89">3646 19,'3'0,"5"0,5 0,3 0,6 0,6 0,5 0,1 0,4 0,14 0,12 0,4-4,-4 0,-11-1,-11 2,-11 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="115419.22">3 1118,'-2'182,"8"241,-5-402,1-1,1 0,10 38,-11-53,0 0,0 0,0-1,0 1,1-1,0 1,0-1,0 0,0 0,1 0,-1-1,1 1,0-1,0 0,0 0,1 0,-1 0,1-1,0 0,8 3,62 14,-55-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="116132.29">593 1098,'3'0,"2"3,-1 43,0 28,-2 7,0 5,-1-3,-8-4,-2-10,0-8,1-13,3-9,2-9,1-6,1-4,1-1,4-4,1-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="118892.36">796 1016,'-7'1,"0"0,0 1,0-1,0 1,0 1,1-1,-1 1,1 0,-1 1,1 0,0 0,0 0,1 1,0-1,-1 1,-4 7,-10 10,2 2,-23 35,30-41,0 0,2 1,0 0,1 1,1 0,1 0,1 0,1 1,-2 23,5-31,0 0,1 0,1 0,0 0,0-1,2 1,0 0,0-1,1 1,0-1,1 0,1-1,0 1,0-1,1 0,9 11,-4-10,1 1,0-2,1 0,0 0,30 16,82 34,-114-56,0 0,1-1,-1-1,0 0,1 0,15 0,-22-2,0-1,-1-1,1 1,0-1,-1 0,1 0,-1 0,1-1,-1 0,0 0,0 0,0-1,0 1,0-1,0-1,4-3,-1-1,0 0,-1-1,0 0,0 0,-1 0,-1-1,1 0,-2 0,1 0,-1-1,-1 0,0 1,0-1,1-17,-1-15,-1 1,-7-68,0 12,5 88,1-8,-1 0,-1 1,-1-1,0 1,-7-22,7 34,0 0,0 0,0 1,-1-1,0 0,0 1,0 0,0-1,-1 1,1 0,-1 1,0-1,-1 1,1 0,0 0,-1 0,0 1,0-1,0 1,0 0,-9-2,-8 0,0 0,0 2,0 0,-1 2,-26 2,6 0,26-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="120306.3">1834 1749,'-3'0,"-9"0,-8 0,-15 6,-6 4,-2 2,0 3,3 3,1 1,5 1,3-2,9-2,6 0,11-2,5-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="125208.19">2221 1342,'4'0,"7"0,10 0,4 0,1 3,0 2,-1 3,-1 0,-2-1,0-2,2 2,-3-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="125856.02">2750 1322,'0'3,"0"26,0 32,0 12,0 8,0 4,0 15,-4-6,-3-12,-2-16,4-20,7-17,3-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="127257.8">3158 1281,'-12'0,"1"0,0 1,0 0,0 1,0 0,0 1,0 0,1 1,-1 0,1 0,-19 12,22-10,-1 0,1 1,0 0,0 0,1 0,0 1,0 0,1 0,0 0,1 1,0 0,0 0,0 0,-1 10,3-15,1 1,-1-1,1 0,1 0,-1 1,1-1,-1 1,1-1,0 0,1 1,-1-1,1 1,0-1,0 0,0 0,1 1,-1-1,1 0,0 0,3 4,0-2,1-1,0 1,0-1,1 0,-1-1,1 1,0-1,0-1,1 1,8 2,-11-4,9 4,1 0,-1-1,20 3,-31-7,0 0,0-1,0 0,1 1,-1-1,0 0,0-1,0 1,0 0,0-1,0 0,0 1,0-1,-1 0,1-1,0 1,0 0,-1-1,1 0,-1 0,1 1,-1-1,3-3,5-11,-1-1,-1 0,0 0,-1 0,-1-1,-1 0,0-1,3-29,-7 46,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 1,-1-1,-1 0,1 0,0 1,0-1,-1 1,1-1,-3-2,0 3,0-1,0 1,0 0,0-1,0 2,0-1,0 0,0 1,0 0,0 0,-7 1,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="129194.56">3096 1505,'-5'0,"0"0,0 0,-1 0,1 1,0 0,0 0,0 0,0 1,0 0,1 0,-1 0,0 0,1 1,-1 0,-6 6,6-4,1 0,0 1,0-1,0 1,1 0,-1 0,1 0,1 1,-1-1,1 1,-1 9,-13 40,9-36,1 0,1 1,1-1,1 1,1 0,0 26,3-41,1 1,0-1,0 0,1 0,0 0,0 0,0 0,0 0,1-1,0 0,0 0,1 0,-1 0,1-1,8 6,-3-2,0-1,0 0,1 0,0-1,0-1,0 0,16 5,-21-8,1-1,0 1,0-1,0 0,-1-1,1 0,0 0,0 0,0-1,0 0,0 0,0-1,-1 1,1-2,-1 1,1-1,8-5,-4 0,-1 0,0 0,-1-1,0-1,-1 1,0-1,0-1,8-15,-14 23,11-17,-1-1,0 0,-2-1,11-34,-19 51,-1 0,0-1,0 1,0-1,-1 1,0-1,0 1,0-1,-1 1,0-1,-1-6,0 8,1 1,-1-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,0 0,-1-1,1 2,0-1,0 0,-6-1,-24-11,-1 2,0 1,-1 2,-41-6,51 12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="130165.91">3341 1077,'4'0,"1"-1,0 1,0 1,0-1,0 1,0-1,-1 1,1 1,0-1,-1 1,1 0,-1 0,0 0,1 0,-1 1,0 0,0-1,-1 2,1-1,-1 0,1 1,-1 0,0-1,0 1,-1 0,1 1,-1-1,0 0,2 8,6 14,-1 0,-1 0,-2 1,0 0,2 52,-7 145,-3-141,-2 5,-3-1,-5 0,-3 0,-51 161,62-235,-1 0,-1 0,-7 14,0-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="131311.27">4195 1322,'7'0,"6"0,4 0,6 0,2 3,1 2,0-1,1-1,1 0,-2-2,-2 0,-1-1,-1 1,-1 2,-1 1,-3 4,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="132330.33">4256 1627,'4'0,"4"0,8 0,4 0,7 0,1 0,0 0,-2 0,-1 0,-2 0,5 7,2 2,0 0,-7-2</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink91.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:25:51.818"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">611 410,'-3'0,"-6"0,-7 28,-4 22,-3 11,3 4,5 2,4-6,5-8,7-9,2-8,2-7,0 12,2 3,0-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1574.71">0 675,'4'0,"4"0,8 0,4 0,3 0,1 0,-1 0,0 0,-1 0,0 0,-1 0,-1 0,1 3,-5 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3110.02">1283 573,'-1'-2,"1"0,-1 0,1 1,-1-1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0 0,-1-1,1 1,-1 0,0 0,-2-2,-39-19,36 19,-3-1,0 0,0 1,0 0,0 1,-1 0,1 1,-1 0,1 0,-1 1,0 1,1 0,-1 0,1 1,-1 0,1 1,0 0,0 0,0 2,1-1,-1 1,-13 9,12-7,1 1,-1 1,2 0,-1 0,1 0,0 2,1-1,0 1,1 0,0 0,1 1,0 0,1 0,0 0,1 1,1 0,-3 13,5-22,1 0,0 0,-1 0,1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,1 0,-1 0,1-1,-1 1,1-1,0 1,4 4,-2-3,1 0,0-1,-1 0,1 0,1 0,-1-1,1 0,-1 0,1 0,7 2,4 0,0 0,0-2,0 0,0-1,0 0,1-2,25-1,-41 0,0 1,0 0,0-1,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0-1,-1 1,1 0,-1-1,1 1,-1-1,0 0,1 1,-1-1,0 0,0 0,1-3,16-53,-3 8,-11 44,-1 1,-1-1,1 0,-1 1,0-1,0 0,-1 0,0-1,0 1,0 0,-1 0,0 0,-1-10,1 13,-1 0,0 0,-1 0,1 0,0 0,-1 1,0-1,1 0,-1 1,0-1,0 1,-1 0,1 0,0 0,-1 0,0 0,1 0,-1 1,0-1,0 1,0-1,0 1,0 0,0 1,0-1,0 0,-5 0,-12-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4764.21">1059 797,'0'-1,"-1"0,1 1,0-1,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,0 1,1-1,-1 1,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,-1 1,-33 5,34-5,-113 34,99-29,0 0,1 1,0 0,1 1,-22 17,33-23,0 2,-1-1,1 0,0 0,1 1,-1-1,1 1,-1 0,1-1,0 1,1 0,-1 0,1-1,-1 1,1 0,0 0,0 0,1 0,-1-1,1 1,1 5,2 5,0 1,0-1,1 0,9 16,-11-25,1 1,1-1,-1 0,1 0,0 0,0 0,0-1,0 0,1 0,0-1,0 1,0-1,0 0,0-1,1 0,-1 0,12 2,12 2,1-2,45 1,-73-5,8 1,60-3,-66 1,1 0,-1 0,0-1,0 1,0-2,0 1,-1 0,1-1,0 0,-1 0,6-5,-1 1,-1 0,0-1,0-1,0 1,-1-1,0 0,-1-1,0 0,-1 0,0 0,0 0,-1-1,0 0,-1 0,0 0,-1 0,-1 0,1-1,-2 1,1 0,-3-16,2 25,-1-1,1 1,-1 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,1 0,-1 0,0-1,0 1,0 0,1 0,-1 1,0-1,0 0,0 1,-2-1,-8-2,0 2,0-1,-23 2,-4-2,-15-8,28 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7113.73">2137 268,'-1'8,"0"0,-1 0,0 0,0 0,-1-1,0 1,-6 11,0 0,-22 49,-2-1,-3-2,-3-1,-3-3,-2-1,-96 99,124-143,8-9,0 0,0 1,1 0,0 0,1 1,-1 0,-5 11,12-19,0 0,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,1-1,0 1,-1-1,1 1,0-1,-1 1,1-1,0 1,0-1,0 1,-1-1,1 0,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,2 0,49 1,-44-2,0 1,250-2,-214 4,-1 3,0 1,81 24,-105-25,0-1,0-1,0-1,0-1,27-1,-29 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18065.82">3196 410,'-2'-3,"0"1,0-1,-1 1,1 0,0-1,-1 1,0 0,1 1,-1-1,0 0,0 1,0-1,0 1,-5-1,0-2,-14-7,0 0,-1 2,-1 0,1 2,-1 0,-1 2,1 0,-49-1,58 6,7-1,0 1,0 1,1-1,-1 1,-14 3,20-3,0 0,0 0,0 0,-1 1,1-1,0 0,1 1,-1-1,0 1,0 0,1 0,-1-1,1 1,-1 0,1 0,0 1,0-1,-1 0,2 0,-1 0,0 1,0-1,0 3,-3 21,0-1,1 1,2 47,2-58,0-1,1 1,0 0,1-1,1 0,0 1,1-1,9 17,-11-26,1 0,0-1,0 1,0-1,1 0,-1 0,1 0,0-1,0 1,0-1,0-1,1 1,0-1,6 3,14 3,51 8,-37-8,-14-2,7 2,1-1,1-1,62 1,-96-7,1 0,0 0,0 0,-1-1,1 1,-1-1,1 1,0-1,-1 0,1 0,-1 1,1-1,-1 0,0 0,1-1,-1 1,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0-1,11-48,-6 20,10-27,49-203,-65 258,1 0,0 1,-1-1,0 0,0 1,1-1,-2 0,1 1,0-1,0 0,-1 1,0-1,1 0,-1 1,0-1,0 1,0-1,-3-2,1 2,0 0,-1 0,1 1,-1 0,1-1,-1 1,0 1,0-1,0 0,0 1,-6-1,-40-12,0 3,-69-8,96 18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19019.04">3318 309,'3'0,"2"3,-1 8,0 13,-2 33,0 32,-1 17,-1 15,0 1,0 1,0-11,-1-17,1-18,0-15,0-15,0-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20622.97">3847 471,'-2'-2,"-1"-1,0 1,0 1,0-1,0 0,0 1,-1-1,1 1,0 0,0 0,-1 0,1 1,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,1 1,-5 4,-24 46,2 1,3 2,2 0,-27 101,46-142,2 1,0 0,-2 26,5-38,0 0,0 0,0 0,0 0,1-1,0 1,0 0,0 0,0-1,1 1,-1 0,1-1,0 0,0 1,0-1,0 0,1 0,-1 0,1 0,4 3,29 17,0-2,2-1,0-2,1-2,56 16,54 5,-146-36,0 0,0 0,0-1,0 0,0 0,0 1,0-2,0 1,0 0,0-1,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,0-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,0 0,0 0,0-1,3-3,3-8,-1 0,0 0,0 0,6-23,-2 6,12-27,34-92,-51 130,0-1,-2 0,0-1,-1 1,-1-27,-2 43,-1 0,0 1,0-1,0 1,0-1,-1 1,0 0,0-1,0 1,0 0,-1 0,1 0,-1 1,0-1,-1 1,1-1,0 1,-1 0,0 0,1 1,-6-3,-10-6,-1 1,0 0,-26-7,16 6,-28-15,27 12,-43-15,66 27,0-1,-1 1,1 1,0 0,-1 0,1 0,-1 1,1 1,-1-1,-11 3,7 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22241.34">4153 105,'-11'132,"6"-94,2 1,1 40,2-77,0 0,0-1,1 1,-1 0,1 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0-1,1 1,-1-1,0 1,0-1,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0-1,0 1,0-1,0 1,3-1,8 2,1-1,-1-1,27-3,19 2,-56 2,2 0,0 0,0 0,1 0,-1 0,0-1,0 0,8-1,-11 1,-1-1,1 1,-1-1,1 0,0 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,0-3,5-37,-1 0,-3 0,-4-52,0 20,4 69,-1-1,-1 1,1-1,-1 1,1 0,-1-1,0 1,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,-1 1,0-1,1 1,-1-1,0 1,-1 0,1 0,-1 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 1,0 0,-1 0,1 0,-7 0,-16-2,0 2,-37 1,37 1,7 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink92.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:26:42.928"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#66CC00"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">106 0,'0'4,"0"18,-7 22,-6 15,-4 1,1-7,3-9,4-8,3-7,0 2,-3-4,0-7</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink93.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:24:56.458"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3815 1,'25'1,"0"0,-1 2,1 1,-1 1,0 0,28 12,-13-8,-32-8,0 0,0 1,0 0,0 0,0 0,0 1,-1 0,1 0,10 8,-17-10,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 1,0-1,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 1,-1-1,1 0,0 0,-1 0,1 1,0-1,-2 1,-17 33,12-23,-71 124,-42 81,111-196,1 0,-10 35,11-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="110276">294 1710,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="110609.25">233 1629,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="111452.47">375 1609,'-3'3,"-9"16,-12 24,-12 27,-1 11,3-2,1-6,5-13,8-9,7-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="112539.97">314 1772,'20'0,"-9"-1,1 1,0 0,0 1,0 1,14 3,-23-4,0 0,0 0,0 1,0 0,0-1,0 1,0 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 7,2 15,0 1,-2 0,-2 0,0 0,-1 0,-2-1,-1 1,0-1,-10 27,13-48,0-1,0 0,0 0,0 0,-1 0,0 0,1 0,-1 0,0-1,0 1,-1-1,1 1,0-1,-1 0,0 0,1 0,-1 0,0 0,0-1,0 1,0-1,0 0,0 0,-1 0,1 0,0-1,0 1,-1-1,1 0,0 0,-1 0,1 0,0 0,-1-1,-3-1,-13-3,0-1,0 0,1-2,-30-15,27 12,-51-20,47 22,0-2,1-1,-25-16,40 19,10 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="114329.55">437 1975,'24'-1,"-6"0,1 1,-1 1,27 4,-42-5,0 1,0-1,0 1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0 1,-1-1,1 0,0 0,-1 1,1-1,-1 1,0-1,0 1,0 0,0 0,1 5,-2-7,0 1,0 0,0-1,0 1,0 0,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,0-1,0 1,1-1,-1 0,-1 0,1 1,0-1,0 0,0 0,-1 0,1 0,0 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,0-1,-1 1,-1 0,-1-1,1 1,-1-1,1 0,-1 0,1 0,-1-1,1 1,-1-1,-8-3,6-1,12 4,15 4,-12 1,0 0,0 0,0 1,-1 0,0 0,8 8,-12-9,0 0,0 0,0 0,0 0,-1 1,0-1,0 1,0-1,-1 1,0 0,1-1,-2 1,2 6,7 128,-9-119,-1-1,-1 1,0-1,-2 0,-6 22,9-37,0 0,0 0,-1 0,0 0,0 0,0-1,0 1,0-1,-1 0,1 1,-1-1,0 0,0 0,0-1,0 1,-1-1,1 0,-1 1,0-1,1-1,-1 1,0-1,0 1,0-1,0 0,0-1,0 1,0-1,-1 1,1-1,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 0,0 0,-4-3,-11-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="115467.18">1087 1426,'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink94.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:27:07.070"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -18286,38 +15989,38 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">133 286,'19'2,"0"1,1 1,-1 1,-1 0,1 1,-1 2,0 0,-1 0,22 15,-23-10,-2 0,1 1,-2 0,0 1,-1 1,0 0,-1 0,-1 1,15 35,-16-30,-2 1,0-1,-2 1,-1 0,0 1,-2-1,0 1,-2-1,-1 1,0-1,-2 0,-1 1,-1-1,0 0,-2-1,-1 0,-1 0,0 0,-2-1,-15 23,17-31,-2-1,1 0,-1-1,-1 0,0-1,-1 0,0-1,0 0,-1-1,-28 13,22-14,-1 0,0-2,-1 0,1-1,-1-1,0-1,-31-2,6 0,25-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1049.44">601 1080,'7'3,"2"12,0 7,-2 3,-2 7,-2 6,-1-1,-1-2,-1-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1835.69">825 693,'32'2,"-1"2,60 13,-9-1,89 24,-129-28,-24-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2725.44">927 876,'3'0,"9"0,5 0,7 0,2 0,8 0,-2 4,-3 0,0 1,-1-2,5 3,0 0,-1 0,-7-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5339.94">1904 245,'0'106,"-21"166,8-140,5 219,9-234,-1-111,0-1,1 1,0 0,0 0,0-1,0 1,1-1,0 1,0-1,1 0,0 0,0 0,0 0,0 0,5 5,5 2,0 0,1 0,24 15,-25-18,-1-1,-1-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32305.08">2331 490,'146'-3,"157"6,-293-1,-1 0,0 0,1 1,-1 0,0 1,-1 0,1 0,-1 1,1 0,7 8,-1-2,-1 0,-1 1,0 1,16 22,-23-26,-1 0,0 0,-1 1,0 0,-1-1,0 1,0 1,-1-1,-1 0,1 0,-2 1,1-1,-2 1,1-1,-1 0,-1 1,0-1,0 0,-1 0,0 0,-1 0,0-1,-1 1,-6 9,2-5,0-1,-1 0,-1-1,0 0,-1-1,0 0,0-1,-1 0,-1-1,1 0,-2-1,1-1,-1 0,0-1,0-1,-28 6,2-3,-7 2,0-2,0-3,-1-1,-78-4,127 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0 0,0-1,-1 1,1 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,0 0,0-1,0 1,0 0,1-1,10-14,27-14,-37 28,25-17,12-9,52-28,-79 50,0-1,0 2,0-1,1 1,0 1,0 0,-1 1,2 0,-1 1,14 0,-15 3,0 1,-1 0,1 0,-1 1,1 1,-1 0,-1 0,1 1,-1 0,0 0,0 1,11 12,-9-10,-1 0,1-1,1 0,0 0,0-1,0-1,1 0,16 5,-6-6,-1 1,-1 0,1 1,-1 2,-1 0,1 1,24 17,-24-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32966.58">3511 1161,'0'-3,"-3"-2,-5 4,-4 6,-4 8,-10 34,-7 19,-1 1,1 1,0-2,5-8,5-11,5-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33896.35">3776 470,'17'1,"1"-1,0-1,-1 0,1-1,-1-1,0 0,0-1,0-1,22-10,60-41,-99 56,1 0,0-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,-1 1,1-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,0 0,1 0,-1-1,0 1,1 0,-1 0,0-1,0 1,0 0,1 0,-1-1,0 1,0 0,0 0,-1 1,-1 46,-15 37,-42 131,34-140,4 2,-14 100,32-141</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34968.75">4244 1,'5'0,"-1"0,1 0,-1 0,1 0,-1 1,1 0,-1 0,1 0,-1 0,6 4,-8-3,1 0,-1 0,0 0,0 1,0-1,0 1,0-1,0 1,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 5,10 62,-3 0,-3 1,-6 100,-1-95,3 38,-5 119,0-207,0 1,-3-1,0-1,-1 1,-13 26,-3 12,6-20,-40 71,46-92,-29 35,26-38</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37014.87">133 1914,'3'0,"5"0,8 7,5 6,2 21,-3 19,-5 10,-4 30,-5 13,-3-2,-2-15,-2-18,0-19,4-14,4-14,1-18,0-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38328.35">296 1853,'147'-2,"156"5,-299-3,1 0,0 1,0 0,0 0,0 0,-1 0,1 1,-1 0,1 0,-1 0,1 0,-1 1,0 0,0-1,0 2,-1-1,1 0,-1 1,0-1,0 1,0 0,0 0,-1 0,1 1,-1-1,0 1,2 7,1 8,-1 0,-1 1,-1-1,-1 1,-1 25,0-12,1 28,-4 283,2-339,-1 0,1 0,-1 0,0 0,-1 0,1-1,-1 1,0-1,0 0,-1 0,0 0,0 0,0 0,0-1,-1 0,0 0,0 0,0 0,0-1,-6 3,0 0,0 0,0-1,0 0,0-1,-1-1,1 0,-1 0,0-1,-17 1,-13-5,1-1,0-2,-57-15,71 14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39738.85">927 2606,'30'-1,"44"-8,-49 5,0 1,46 0,-70 3,1 0,0 0,0 1,-1-1,1 1,0-1,0 1,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 0,0 1,1-1,-1 1,-1-1,1 1,0-1,0 1,0 0,-1-1,1 1,-1 0,0-1,1 1,-1 3,1 6,-1-1,0 1,0 0,-3 14,1-10,-1 17,-1 1,-2-1,-1 0,-1-1,-2 0,-2 0,0-1,-21 36,30-62,0 0,0 0,0-1,0 1,-1-1,1 1,-1-1,0 0,0-1,0 1,0-1,-1 0,-6 3,9-4,0-1,0 1,0-1,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0-1,0 0,1 0,-1 1,0-1,0 0,0 0,1-1,-1 1,0 0,1 0,-1-1,1 1,0-1,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,0-3,0 0,-1 0,2-1,-1 1,1-1,-1 1,2-1,-1 1,0 0,1-1,0 1,0-1,1 1,0 0,0 0,4-9,0 1,1 0,0 1,1 0,17-22,-22 30,1 1,-1-1,1 1,0 0,0-1,0 2,0-1,0 0,0 1,1 0,-1 0,1 0,0 1,0-1,-1 1,1 0,0 0,0 1,0 0,0 0,0 0,0 0,8 2,3 3,-1 0,0 2,1-1,-2 2,24 16,-24-15,0-1,1 0,-1-1,2 0,18 5,41 3,-54-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40473.21">1598 2138,'11'0,"6"0,4 0,2 0,1 0,3 0,0 0,3 0,-1 0,-1 4,-3 0,-5 4,-6 4,-8 6,-7 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40999.27">1660 2525,'3'0,"5"0,5 0,3 0,2 0,2 0,1 0,0 0,4 0,0 0,1 0,-2 0,-1 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42257.34">2575 1813,'-1'0,"1"0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 1,0-1,-1 1,1-1,-1 0,1 1,0-1,0 1,-1-1,1 1,0 0,0-1,-1 1,1 0,-20 41,1 1,-18 61,-19 102,51-190,-11 52,2 2,3-1,4 1,2 124,5-191,0 17,1 0,0 0,2 0,10 38,-11-53,0 0,0 0,0 0,1-1,0 1,0-1,0 1,0-1,1 0,-1-1,1 1,0 0,0-1,0 0,1 0,-1 0,1-1,0 1,0-1,0 0,0-1,0 1,10 1,16 2,-1 1,57 21,-61-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44710.28">2921 2260,'25'-15,"-5"1,112-50,-70 31,95-34,-151 65,0 0,0 1,0-1,0 1,0 0,0 0,0 1,0 0,0 0,10 2,-14-2,1 1,-1 0,0 0,0 0,1 1,-1-1,0 0,0 1,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 1,-1-1,1 0,-1 1,0-1,1 1,-1 4,1 327,-5-170,4-163,0 21,-1-1,0 1,-2 0,-7 29,9-47,0 1,0-1,-1 0,1 1,-1-1,-1 0,1 0,0-1,-1 1,0 0,0-1,0 0,0 1,0-1,-1 0,1-1,-1 1,0-1,0 1,0-1,0-1,0 1,0 0,-1-1,1 0,-1 0,-6 1,1-2,0 0,0 0,-1-1,1-1,0 1,0-2,-13-3,18 4,-1 0,1 0,0-1,0 1,0-1,0 0,0-1,1 1,-1-1,1 0,0 0,0 0,0 0,-4-8,8 11,-1-1,1 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,1 0,-1-1,1 1,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 1,2-1,49-23,-43 21,-1 1,1-1,0 2,0-1,0 1,0 0,0 1,0 0,0 0,0 1,0 1,16 3,-7 2,-1 0,0 2,-1-1,0 2,19 14,-7-3,-16-12,0 0,0-1,1 0,0-1,0 0,17 5,-13-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45415.15">3919 2525,'3'0,"2"17,-11 23,-4 16,-5 8,-2 7,-2 5,-1-6,2-6,5-9,4-11,4-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46927.28">4244 2118,'-7'17,"-1"1,0-2,-2 1,-17 22,-16 28,26-32,0 0,2 0,-9 39,19-59,2 1,0-1,1 1,0 0,1 0,1-1,1 1,0 0,1 0,5 19,-6-32,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,1-1,0 0,0 0,0 1,0-1,0-1,0 1,1 0,-1 0,0-1,5 2,-2 0,1-2,-1 1,1 0,0-1,-1 0,1-1,0 1,10-1,-2-1,-1-1,0 0,0-1,0 0,-1-1,1 0,18-10,-21 8,0 0,0-1,-1 0,0 0,-1-1,0 0,0-1,0 0,-1 0,0-1,-1 1,0-2,-1 1,0 0,-1-1,6-18,-4 4,-1-1,-2 0,0 0,-2-1,-1 1,-3-34,3 56,-1-1,0 1,1-1,-1 1,-1 0,1-1,-1 1,1 0,-1 0,-1 0,1 0,0 0,-1 1,0-1,0 1,0-1,0 1,0 0,-1 0,1 1,-1-1,-6-2,-5-2,0 2,0-1,0 2,-1 0,-15-1,-25-7,37 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="47776.52">4488 1914,'1'0,"1"1,-1-1,0 0,1 1,-1-1,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,-1 0,1 1,0 1,11 37,-10-32,7 35,-2 0,4 83,-13 92,-1-74,3-112,-2 0,-1-1,-1 1,-1-1,-2 0,-20 55,21-70</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49595.23">642 3319,'-1'1,"-1"1,1 0,0-1,0 1,0 0,0 0,0 0,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,1 5,-2 0,-44 448,24-205,19-231,0-9,1-1,0 1,1-1,-1 1,2 0,0-1,0 1,4 14,-5-24,0 0,0 1,0-1,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,1-1,11-17,6-21,57-199,-17 46,-46 158,2 2,1-1,32-49,-25 48,35-49,-52 76,1 1,0-1,0 1,1 1,0-1,-1 1,2 0,14-7,-18 11,0 0,-1 0,1 1,0 0,0 0,0 0,0 0,-1 0,1 1,0 0,0 0,-1 0,1 0,0 0,-1 1,1 0,-1-1,4 4,57 42,-54-38,-1 0,-1 1,0 0,0 0,-1 1,0-1,-1 2,0-1,-1 1,0 0,-1 0,0 0,-1 0,2 17,1 17,-2 1,-5 73,0-66,1 59,-6 172,6-281,0-1,-1 1,0 0,1 0,-1-1,-1 1,1 0,0-1,-1 1,0-1,0 0,0 1,0-1,0 0,-1 0,1 0,-1-1,0 1,0-1,0 1,0-1,0 0,-1 0,1 0,-1-1,1 1,-1-1,0 0,-6 1,-9 2,-1-2,0 0,0-1,-32-4,15 2,-68-1,65 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50714.86">1456 4010,'15'2,"0"0,0 1,0 0,0 1,-1 1,1 1,-1 0,0 0,-1 1,15 11,-24-15,0-1,-1 1,1 0,-1 1,0-1,0 1,0-1,0 1,0 0,-1 0,0 0,0 1,0-1,0 0,-1 1,1-1,-1 1,0 0,-1-1,1 1,-1 0,0 5,-1 2,-1-1,0 1,-1-1,0 0,-1 0,0 0,-9 17,11-26,1 0,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,1-1,0 1,0 0,0-1,0 1,0-1,0 1,1 0,-1-1,1 1,0-1,0 1,0-1,0 0,0 1,0-1,1 0,1 3,4 1,0 0,0 0,0-1,1 0,-1-1,14 7,24 15,-43-24,1 1,0 1,-1-1,1 0,-1 0,0 1,0-1,0 1,-1 0,1 0,-1 0,0-1,0 1,-1 0,1 0,0 5,-1 69,-1-66,1 4,-1 0,-1 1,-1-1,0 0,-7 20,9-32,-1 0,1-1,-1 1,0-1,0 1,-1-1,1 0,0 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 0,-1 0,1 0,-1 0,0-1,1 1,-1-1,0 0,0 0,0 0,0-1,0 1,-5-1,3 0,-9 1,1-2,-1 0,-15-2,26 2,1 0,-1 0,1 0,-1 0,1 0,0-1,0 1,-1-1,1 0,0 0,1 0,-1 0,0-1,0 1,1-1,0 0,-1 0,-1-3,-6-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51345.96">1944 3726,'4'0,"7"0,7 0,9 0,7 0,2 0,2 0,1 0,-3 0,0 0,-7 10,-8 7,-7 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51961.38">2006 3970,'3'0,"5"0,5 0,2 3,4 2,11 3,5 0,0-1,0 1,-2 0,4-1,-1-3,-7-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52811.66">2738 3420,'-13'47,"-37"84,12-34,3-2,-89 289,122-372,-1 0,2-1,0 2,0-1,1 0,0 0,1 0,1 0,4 21,-3-25,0 0,0 0,1 0,0 0,0 0,1-1,0 0,0 0,1 0,0-1,0 0,0 0,15 10,19 8,-2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53978.36">3410 3726,'-6'2,"0"0,0 1,0-1,1 1,0 1,-1-1,1 1,0 0,-5 6,0-3,-4 6,1 0,0 1,0 0,1 1,1 0,1 1,-16 32,14-22,1 1,1-1,1 2,-7 44,14-66,1 0,0 0,1 0,0 1,0-1,0 0,1 0,-1 1,2-1,-1 0,1 0,0 0,4 10,-2-10,0 0,0-1,1 0,0 0,0 0,0-1,0 1,1-1,-1-1,1 1,0-1,10 4,-13-5,11 5,1-1,0 0,0-1,29 7,-41-12,1 1,0-1,0 0,0 0,0 0,0-1,0 1,0-1,-1 0,1 0,0 0,-1 0,1-1,0 0,-1 1,0-1,1-1,-1 1,0 0,0-1,0 0,-1 1,1-1,0 0,1-4,14-20,-2-1,-1 0,-2-1,0-1,11-44,-17 49,-1 0,-1 0,-2-1,0 1,-2-1,-1 0,-4-33,3 54,-1 0,1 0,-1 0,0 0,0 1,-1-1,0 0,0 1,0 0,0 0,0 0,-1 0,0 0,0 1,0-1,0 1,0 0,-1 1,1-1,-1 1,0 0,0 0,0 0,0 0,-10-1,-10-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54837.81">3939 4234,'-3'0,"-9"0,-1 7,0 9,0 6,-8 12,-2 8,5 0,4-4,1-1,4-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56078.66">4264 3827,'-9'12,"0"0,1 1,0 0,1 0,0 1,-5 17,-8 14,13-30,1 0,0 0,1 1,1 0,0 0,2 0,-1 0,2 0,0 24,1-35,1 0,-1 0,1 0,0 0,0-1,0 1,1 0,0-1,-1 1,2-1,-1 1,0-1,1 0,0 0,0 0,0 0,1-1,-1 1,1-1,0 0,0 0,0 0,0-1,0 1,1-1,-1 0,1 0,-1-1,1 1,0-1,0 0,-1 0,1-1,0 1,7-1,-6-1,0 0,-1 0,1 0,0-1,0 0,-1 0,1 0,-1-1,0 1,0-1,0-1,0 1,0-1,-1 0,1 0,-1 0,0 0,-1-1,1 0,-1 0,0 0,4-6,1-4,0 0,-1-1,-1 1,0-1,-1-1,5-27,-8 33,0-1,-1 1,-1-1,0 0,0 1,-1-1,-1 1,-5-22,5 28,0 0,-1 0,1 0,-1 1,0-1,0 1,-1-1,1 1,-1 0,0 0,0 0,-1 1,1 0,-1 0,1 0,-1 0,0 1,0-1,0 1,-7-2,-8-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57041.51">4367 3380,'11'0,"1"1,0 0,-1 0,1 2,-1-1,0 2,0-1,0 2,0-1,-1 1,1 1,-1 0,-1 1,1-1,-1 2,0-1,-1 1,0 1,0 0,-1 0,0 0,0 1,-1 0,0 0,5 13,0 5,0 1,-2 0,-1 0,-1 1,-2 0,-1 0,-1 0,-2 51,-2-43,-1 0,-1 0,-2-1,-2 1,-2-1,-1 0,-1-1,-3 0,-24 48,-10 13,40-80</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">137 270,'20'2,"0"1,0 1,0 1,-2-1,2 2,-1 2,-1-1,0 1,22 14,-23-10,-3 0,2 1,-3 1,0 0,0 1,-1 0,0 0,-2 1,16 33,-17-28,-2 1,0-1,-1 0,-2 1,0 1,-2-1,0 0,-2 0,-1 1,0-1,-2-1,-1 2,-1-1,-1-1,-1 0,-1 0,-1 0,-1 0,-1-1,-16 21,18-29,-3 0,2-1,-1 0,-2-1,1-1,-1 1,-1-2,1 1,-2-2,-28 13,22-13,0 0,-1-3,-1 1,1-1,0-1,-1-2,-32-1,7 0,25 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1049.44">621 1021,'7'3,"2"11,0 7,-1 3,-3 6,-2 6,-1-1,-1-2,-1-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1835.68">852 655,'33'2,"-1"2,62 12,-9-1,91 23,-132-27,-26-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2725.44">957 828,'3'0,"10"0,4 0,8 0,2 0,8 0,-2 4,-3 0,0 1,-1-3,5 4,0 0,-1-1,-7-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5339.94">1966 232,'0'100,"-21"157,7-132,6 207,9-222,-1-104,0-1,1 0,0 1,0 0,0-1,0 0,1 0,0 1,0-2,1 1,1 0,-1 0,0-1,0 1,5 4,5 3,1-1,0 0,26 15,-27-17,-1-2,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32305.08">2407 463,'151'-2,"162"4,-303 0,0 0,-1 0,1 1,0 0,-1 0,-1 1,1 0,0 1,0-1,7 9,0-3,-2 1,0 0,-1 1,17 21,-24-24,0-1,-1 1,-1 0,0 1,-1-2,0 2,0 0,-1 0,-1-1,1 0,-2 2,1-2,-2 2,1-2,-1 1,-1 0,0 0,0-1,-1 0,0 1,-1-1,0 0,-1 0,-7 9,3-5,0 0,-2-1,0-1,0 1,-2-2,1 1,-1-2,0 0,-1 0,0-1,-1 0,0-1,0-1,-1 0,1-1,-30 5,3-2,-8 1,1-1,-1-4,0 0,-82-4,132 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0 0,0-1,-1 1,1 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0 0,1-1,11-14,27-12,-38 26,26-16,12-8,54-27,-82 47,1-1,-1 2,0 0,2 0,-1 1,0 0,0 1,1 0,0 1,14 0,-16 3,0 1,0 0,0 0,-1 1,2 0,-2 1,-1 0,2 1,-2-1,0 1,0 0,12 12,-10-9,0-1,0 0,2 0,-1-1,0 0,1-2,0 1,17 5,-6-7,-1 2,-2 0,2 0,-1 3,-2-1,2 2,24 15,-24-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32966.58">3626 1098,'0'-3,"-3"-2,-5 4,-5 6,-3 7,-11 33,-7 17,-1 1,0 2,1-3,5-7,6-11,4-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33896.35">3900 444,'17'1,"2"-1,-1-1,0 0,0 0,0-2,0 0,-1-1,1-1,22-9,62-39,-102 53,1 0,0-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,-1 0,2 0,-1 0,0 1,0-1,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,-1 1,1-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,0 0,1 0,-1-1,0 1,1 0,-1 0,0-1,0 1,0 0,1-1,-1 0,0 1,0 0,0 0,-1 1,-1 44,-16 34,-43 124,36-132,3 2,-14 94,33-133</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34968.75">4383 1,'5'0,"-1"0,1 0,-1 0,2 0,-2 1,1 0,-1 0,1 0,-1 0,7 3,-9-2,1 0,-1 0,0 0,0 1,0-1,0 1,0-2,0 2,-1 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0 5,10 58,-3 0,-3 1,-6 95,-1-90,3 36,-5 112,0-196,0 2,-3-1,-1-2,0 2,-13 24,-4 11,6-18,-41 67,48-87,-31 32,28-35</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37014.87">137 1810,'3'0,"6"0,7 6,6 7,2 19,-4 18,-4 9,-5 29,-5 13,-3-3,-1-14,-4-17,1-18,5-13,3-13,1-17,0-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38328.35">306 1752,'151'-2,"162"5,-308-3,0 0,0 1,0 0,0 0,0 0,-1 0,2 1,-2 0,1-1,-1 1,1 0,-1 1,1 0,-1-1,0 2,-1-2,1 1,-1 1,0-1,0 1,0-1,0 1,0 0,0 1,-1-2,0 2,2 7,1 6,-1 1,-1 1,-1-1,-1 1,-1 23,0-10,1 25,-4 268,2-320,-1 0,1-1,-1 1,0 0,-1-1,1 0,-1 1,0-1,0-1,-2 1,1 0,0 0,0-1,0 0,-1 0,0 0,-1-1,1 1,0-1,-6 3,-1-1,1 1,0-1,-1-1,1 0,-1-1,0 0,0 0,-1-1,-17 0,-13-3,1-2,-1-2,-58-14,73 13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39738.85">957 2464,'31'-1,"46"-7,-51 4,-1 1,49 0,-73 3,1 0,0 0,0 1,-1-1,1 1,0-1,0 1,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,2 0,-2 0,0 0,0 0,0 1,1-1,-1 1,-1-1,1 1,0-1,0 1,0 0,-1-1,1 0,-1 1,0-1,1 1,-1 3,1 5,-1 0,0 0,0 1,-3 12,1-9,-1 17,-1 0,-3-1,0 0,-1 0,-2-1,-3 0,1 0,-22 33,31-58,0 0,-1-1,1 0,0 1,-1-1,1 1,-1-2,0 1,0-1,-1 1,1-1,-1 0,-6 3,9-4,0-1,0 0,0 0,0 0,-1 0,0 0,1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 0,1 0,-1 1,0-1,0 0,0 0,0-1,0 1,0 0,1 0,-1-1,1 1,0-1,-1 0,1 2,0-2,0 0,0 1,0-1,0 0,0-3,0 1,-1-1,2-1,-1 1,1 0,-1 0,2-1,-1 2,0-1,1-1,0 2,0-2,1 1,0 0,0 1,4-10,0 2,2 0,-1 1,1-1,18-20,-23 28,1 1,-1 0,1 0,1 0,-1-1,0 2,0-1,0 1,0 0,1 0,0 0,0 0,0 1,0-1,-1 1,1 0,0 0,1 1,-1 0,0 0,0 0,0 0,9 2,2 3,0 0,-1 1,2 0,-3 2,25 14,-24-13,-1-2,2 1,-2-1,3-1,18 5,42 4,-55-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40473.21">1650 2022,'12'0,"5"0,5 0,2 0,0 0,4 0,0 0,3 0,-1 0,-1 3,-3 1,-5 4,-7 3,-8 6,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40999.26">1714 2387,'3'0,"6"0,4 0,4 0,1 0,3 0,1 0,-1 0,5 0,0 0,1 0,-2 0,-2 0,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42257.34">2659 1714,'-1'0,"1"0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 1,0-1,-1 1,1-1,-1 0,1 1,0-1,0 1,-1-1,1 1,0 0,0-1,-1 1,1 0,-21 38,2 2,-20 57,-19 97,53-180,-11 50,1 1,4-1,4 1,2 118,5-182,0 17,1 0,0 0,2 0,10 36,-11-50,0-1,0 1,0 0,2-1,-1 0,0 0,0 1,0-1,1-1,-1 0,1 1,0 0,1-1,-1-1,1 1,-1 0,1-1,0 1,0-1,1 0,-1-1,0 0,10 2,17 2,-1 1,59 19,-63-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44710.28">3017 2137,'25'-14,"-4"0,115-46,-72 29,99-33,-157 63,0-1,0 1,0-1,1 1,-1 0,0 0,0 1,0 0,0 0,11 2,-15-2,1 1,-1 0,0 0,0 0,1 1,0-2,-1 1,0 1,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,0 0,0 1,0-1,0 1,-1-1,1-1,-1 2,0-1,1 1,-1 4,1 308,-5-159,4-156,0 21,-1-1,0 1,-2 0,-7 27,9-44,0 0,0 0,-1 0,1 1,-1-1,-2-1,2 1,0-1,-1 1,0-1,0 0,0 0,0 1,0-1,-1 0,0-1,0 0,0 0,0 1,0-1,0-1,0 1,0 0,-2-1,2 0,-1 0,-6 0,0-1,1 0,0 0,-2-1,2 0,0 0,-1-2,-12-3,17 4,0 0,1 0,0 0,0 0,0-1,-1 0,1-1,1 1,-1 0,1-1,0 0,0 0,-1 1,-3-9,8 11,-1-1,1 1,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,1 0,-1-1,1 1,0 1,-1-2,1 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 1,2-1,51-21,-45 19,-1 1,2-1,-1 2,0-1,0 1,1 0,-1 1,0 0,1 0,-1 1,0 1,17 3,-7 2,-2-1,1 3,-2-2,1 3,19 12,-7-2,-17-11,1-1,-1 0,1-1,1 0,-1 0,18 4,-13-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45415.15">4047 2387,'3'0,"2"17,-11 20,-4 16,-6 8,-1 6,-3 5,0-6,1-6,6-8,3-10,5-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46927.28">4383 2003,'-7'16,"-2"1,1-2,-2 1,-18 21,-17 26,28-30,-1 0,3 0,-10 37,20-55,2 0,0-1,1 1,0 0,1 0,1-1,1 2,0-1,1 0,5 18,-6-30,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,1-1,0 0,0-1,0 2,1-1,-1-1,0 1,1 0,-1 0,0-1,5 2,-2-1,2-1,-2 1,1 0,0-1,-1 0,1-1,1 1,9-1,-1-1,-2-1,0 0,1-1,-1 1,0-2,0 0,19-9,-22 7,1 0,-1 0,-1-1,1 1,-2-2,0 0,0 0,1-1,-2 1,0-2,-1 2,1-2,-2 0,0 1,-1-2,6-16,-3 3,-2 0,-2-1,0 0,-2 0,-1 0,-3-31,3 52,-1-1,0 1,1 0,-1 0,-1 0,1-1,-1 1,1 1,-1-1,-2 0,2 0,0 1,-1 0,0-1,0 1,0-1,0 2,0-1,-1 0,0 1,0-1,-6-2,-5-1,-1 1,1-1,-1 3,0-1,-16-1,-26-6,38 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="47776.52">4635 1810,'1'0,"1"1,-1-1,0 0,1 1,-1-1,0 1,1 0,-1-1,0 0,0 1,0 0,0 0,0-1,0 1,0 0,1 0,-1 1,0-1,-1 0,1 0,0 0,-1 0,1 1,0 0,11 36,-10-30,7 33,-1-1,3 79,-13 87,-1-69,3-107,-2 0,-1-1,-1 2,-2-2,-1 0,-21 53,22-67</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49595.23">663 3138,'-1'1,"-1"1,1 0,0-1,0 1,0 0,0 0,0-1,0 0,1 1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1-1,1 6,-2 0,-46 423,25-194,20-218,0-8,1-2,0 2,1-2,-1 2,2-1,0 0,0 0,4 14,-5-23,0 0,0 1,0-1,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,2 0,-2 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,1-1,11-16,7-20,58-188,-17 43,-48 150,3 2,0-1,34-47,-26 46,36-46,-54 71,1 1,0 0,0 0,2 1,-1 0,-1 0,2 0,15-6,-19 10,0 0,-1 0,1 1,1 0,-1 0,0 0,0 0,-1 0,1 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,4 4,59 39,-55-35,-2-1,-1 2,1-1,-1 1,-1 0,0 0,0 1,-1-1,-1 2,0-1,-1 0,0 1,-1-1,3 17,0 15,-2 2,-5 68,0-62,1 56,-6 162,6-265,0-1,-1 1,0 0,1-1,-1 0,-2 1,2 0,0-1,-1 0,0 0,0 0,0 1,0-1,0-1,-1 1,1 0,-1-1,0 1,0-1,-1 1,1-2,0 1,-1 0,1 0,-1-1,1 1,-1-1,0 0,-7 1,-8 2,-2-3,0 1,1-1,-34-4,16 3,-71-2,68 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50714.86">1504 3791,'15'2,"1"0,-1 1,1 0,-1 1,0 0,0 2,0 0,-1-1,-1 2,16 10,-25-14,1-1,-2 1,1 0,-1 0,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,-1 1,0-2,0 1,-1 1,1-1,-1 0,0 1,-1-1,1 1,-1-1,0 6,-1 1,-1 0,0 0,-1-1,0 1,-2-1,1 1,-9 15,11-24,1 0,0 1,0-1,0-1,0 2,0-1,0 1,1-1,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,0 1,1 0,-1-2,1 2,0-1,0 1,0-1,0 0,0 1,0-1,1-1,1 4,4 1,0-1,1 1,-1-1,1 0,-1-2,15 8,25 13,-45-22,1 1,0 1,-1-1,1 0,-1-1,0 2,0-1,0 1,-1 0,1-1,-1 1,0-1,0 1,-1 0,1-1,0 6,-1 65,-1-63,1 4,-1 0,-1 1,-1-1,0 1,-7 18,9-31,-1 1,1-1,-1 1,0-1,-1 0,0 0,1 0,0 0,-1 0,0 0,0-1,0 0,0 1,0-1,0 0,-2 0,2 0,-1 0,0-2,1 2,-1-1,0 0,0 0,-1 0,1-1,0 1,-5-1,3 0,-10 1,2-2,-2 0,-15-2,27 2,1 0,-1 0,1 1,-1-1,1 0,0-1,-1 1,0-1,1 0,0 0,1 0,-1 0,0 0,0 0,1-1,0 0,-2 0,0-3,-6-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51345.96">2008 3523,'4'0,"7"0,8 0,9 0,7 0,2 0,2 0,1 0,-2 0,-1 0,-7 9,-9 8,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51961.38">2072 3754,'3'0,"5"0,5 0,3 3,4 1,11 4,5-1,0 0,0 1,-2-1,4 0,-1-3,-7-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52811.66">2828 3234,'-14'44,"-37"80,11-32,4-3,-92 275,126-353,-1 0,2 0,0 1,0-1,1 1,0-1,1 0,1 1,4 19,-3-24,0 1,0 0,2-1,-1 1,0-1,1 0,0-1,0 1,1 0,1-2,-1 1,0 0,16 9,19 8,-2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53978.36">3522 3523,'-7'2,"1"0,0 1,0-2,1 2,-1 1,0-1,1 1,0 0,-5 5,-1-2,-3 5,0 0,1 1,0 1,0 0,2 0,0 1,-15 31,13-22,2 2,1-2,0 3,-6 41,14-63,1 1,0 0,1-1,0 2,0-1,0-1,1 1,-1 1,2-2,-1 1,1 0,0-1,4 11,-2-11,0 1,0-1,2-1,-1 1,0 0,0-1,0 0,1 0,0-1,0 1,0-1,11 3,-14-4,11 5,2-2,-1 1,1-1,29 6,-42-11,1 1,0-1,0 0,1 0,-1 0,0-1,0 1,0-1,-1 0,1 0,1 0,-2 0,1-1,0 1,-1 0,0-1,1-1,-1 1,0 0,0-1,1 0,-2 2,1-2,0 0,1-4,15-18,-3-2,0 1,-3-2,0 0,12-42,-18 46,0 1,-2-1,-2 0,0 0,-2-1,-1 1,-4-32,3 51,-1 0,1 1,-1-1,0 0,0 2,-2-2,1 0,0 1,0 1,0-1,0 0,-1 0,0 0,0 2,-1-2,1 1,0 0,-1 1,1-1,-1 1,0 1,-1-1,1 0,0 0,-10-1,-11-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54837.81">4068 4003,'-3'0,"-10"0,0 7,0 8,-1 6,-8 11,-1 8,4-1,5-3,0-1,5-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56078.66">4404 3618,'-10'12,"1"-1,1 1,-1 1,2-1,0 1,-5 17,-9 12,14-28,0 0,1 1,1 0,1 0,0 0,2 0,-1 0,2 0,0 23,1-33,1 0,-1-1,1 1,0 0,0-1,0 0,1 1,0-1,-1 1,2-2,-1 2,0-1,1 0,0 0,0-1,1 1,0-1,-1 1,1-1,0-1,0 1,0 0,0-1,1 1,0-1,-1 0,1-1,-1 0,1 1,1-1,-1 0,-1 0,1-1,0 1,8-1,-7-1,0 0,-1 0,1 0,0-1,1 0,-2 1,1-1,-1-1,0 1,1-1,-1-1,0 2,0-2,-1 0,1 0,-1 0,1 1,-2-2,1 0,-1 0,0 1,4-7,1-3,1 0,-2-1,-1 1,0-1,0-2,4-24,-8 30,0 0,-1 1,-1-2,0 1,0 1,-1-2,-1 2,-5-21,5 26,0 0,-2 0,2 1,-1 0,0-1,0 1,-1 0,1 0,-1 0,0 0,-1 1,0 0,1 0,-1 0,1 0,-1 0,0 2,-1-2,1 1,-7-2,-9-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57041.51">4510 3196,'11'0,"2"1,-1 0,-1 0,2 2,-2-2,1 3,-1-1,0 2,1-1,-2 0,1 2,0 0,-2 0,1 0,0 1,-1 0,-1 1,0 0,1 1,-2-1,0 1,0 0,-1 1,1-1,4 13,0 4,1 2,-3-1,-1 1,0 0,-3 0,-1 1,-1-1,-2 49,-2-42,-1 1,-1 0,-2-1,-3 1,-1-1,-1 0,-2-1,-2 0,-25 46,-11 11,42-74</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink91.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18345,7 +16048,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink92.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18373,7 +16076,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink93.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18401,7 +16104,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink94.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18433,7 +16136,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink99.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink95.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -18458,6 +16161,116 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 572,'4'138,"37"238,-41-375,0 1,1 0,-1-1,0 1,0 0,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,0 1,-1-1,1 0,1 0,-1 1,2 1,-2-3,-1 0,1 0,0 0,0-1,0 1,-1 0,1 0,0 0,0-1,0 1,-1 0,1-1,0 1,-1-1,1 1,0-1,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,1 0,0-1,7-12,-1 0,11-25,-16 34,38-100,-3-1,-6-1,29-181,-57 188,-4 77,1 1,1-1,7-39,-7 58,0 1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,1 1,-1-1,1 1,0 0,-1 0,1 0,0 0,0 1,0-1,0 1,1 0,-1 0,0 0,0 0,1 0,5 0,11-1,0 1,0 1,33 5,-6-2,63-2,1-5,144-22,339-70,-495 78</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1691.11">1303 308,'0'0,"0"0,0 0,0 0,0 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,-19 9,-24-5,0-1,-60-4,-3 0,102 1,0 0,-1 1,1-1,0 1,0-1,0 1,0 1,0-1,0 0,0 1,0 0,1 0,-1 0,1 0,-1 1,1-1,0 1,0 0,-4 5,4-4,0 1,1 0,0 0,0 0,0 0,1 0,-1 1,1-1,1 1,-1-1,1 0,0 1,0-1,1 9,-1-9,1 0,0 0,-1 0,2 0,-1-1,0 1,1 0,0-1,0 1,0-1,1 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 0,8 5,-1-2,1 0,1-2,-1 1,1-1,-1-1,23 4,-17-4,-1 1,0 0,0 2,0 0,29 15,-42-19,0-1,1 1,-1 0,0 1,-1-1,1 0,0 1,-1 0,1-1,-1 1,0 0,0 0,0 0,0 1,-1-1,1 0,-1 1,0-1,0 1,0-1,0 1,-1-1,0 1,1 0,-1-1,0 1,-1 0,1-1,-1 1,1 0,-1-1,0 1,-2 3,-9 20,0-1,-2 0,-19 26,24-38,-1 0,-1-1,0 0,-1-1,-1 0,-23 17,29-26,1 1,-1-1,0-1,0 1,0-1,0 0,0-1,-1 0,-13 1,-72-7,40 1,17 4,25 1,1 0,-1-1,1-1,-1 1,0-2,1 0,0 0,-1-1,-17-7,28 10,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1-1,0 1,0 0,-1 0,1-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,0 0,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,1-1,8-4</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink96.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:28:32.615"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">953 0,'-39'47,"-3"-2,-92 76,50-48,-447 371,494-418,-38 31,74-56,0-1,0 1,1 0,-1-1,0 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 1,2 0,-1 0,0 0,1-1,0 1,-1 0,1-1,0 1,0-1,-1 1,1-1,4 2,10 4,0-1,27 7,-30-9,20 5,1-2,0-1,61 3,106-11,-78-1,-32 7,-69 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink97.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:29:13.559"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">242 270,'18'-2,"0"0,-1-2,0 0,1-1,23-11,3 1,-23 8,69-17,-84 23,0 0,1 0,-1 1,0 0,1 0,-1 0,0 1,1 0,-1 0,0 1,11 3,-15-3,1-1,-1 1,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,-1 0,1 0,-1-1,0 1,0 0,0 5,6 60,-7-53,0-12,3 70,-7 78,2-129,-1 1,-1-1,-1 0,-1 0,-1 0,-1-1,-20 38,-5-1,-3-2,-2-2,-3-2,-48 49,79-93,0 0,-1-1,1-1,-2 1,1-2,0 0,-1 0,0-1,0 0,-1-1,1 0,0-1,-1-1,0 0,1-1,-1 0,0 0,-12-4,17 2,0-1,0 0,1-1,-1 1,1-2,0 1,0-1,0 0,1 0,0-1,-8-8,12 12,0 0,0 0,0 0,1 0,-1-1,1 1,-1 0,1-1,0 1,0-1,0 1,0-1,0 0,0 1,1-1,0 0,-1 0,1 1,0-1,0 0,0 0,1 0,-1 1,1-1,0 0,-1 1,1-1,0 0,1 1,-1-1,0 1,1 0,-1-1,1 1,0 0,0 0,2-2,0 1,1 0,-1 0,1 1,0 0,0 0,0 0,0 0,0 1,1 0,-1 0,0 0,1 1,-1-1,0 2,1-1,-1 0,0 1,1 0,6 2,16 4,-1 2,35 15,-46-18,37 18,-1 3,62 43,-31-19,-50-33,40 15,-4-2,-35-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1503.91">1891 168,'-9'0,"0"-1,0 0,0 1,1 0,-1 1,0 0,0 0,0 1,1 0,-1 1,1 0,0 0,0 0,0 1,0 1,-9 6,-28 27,3 2,1 2,2 1,2 3,2 0,2 3,2 0,2 2,-25 63,47-98,1 1,0 1,2-1,0 1,0-1,2 1,-1 21,3-33,0 0,0 1,1-1,0 0,0 0,0 0,1 0,0 0,0 0,0 0,1 0,0-1,0 0,0 1,1-1,0 0,0 0,0-1,0 1,1-1,0 0,0 0,8 4,1 0,-5-3,-1 0,1 0,0 0,0-1,0-1,0 0,1 0,0-1,-1 0,1 0,13 0,-20-3,-1 0,0 1,0-1,0 0,0 0,0-1,-1 1,1 0,0-1,0 1,-1-1,1 1,-1-1,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,-1 1,1 0,-1-2,6-69,-6 63,1-22,1-5,-2 1,-7-58,6 91,0 1,0-1,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,0-1,0 1,0 0,-1 0,1 0,0 0,-1 0,0 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,-4 0,-9-2,-1 0,1 1,-25 1,30 1,-264 1,226 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3653.9">2358 6,'0'0,"0"0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,-1 1,1-1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,-1 0,1 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,-1-1,1 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,1 0,-1-1,-15 18,-117 222,125-225,2 1,0 0,1 0,0 0,1 0,1 1,0-1,1 1,1-1,1 1,2 17,-3-31,1 0,-1 0,1 0,-1 0,1-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,0 0,1 1,-1-1,1 0,0 0,2 1,0 0,1 0,0 0,0-1,0 1,-1-1,1 0,11 0,-4-1,1-1,-1 0,1 0,-1-1,1-1,11-4,-10 2,0-1,-1 0,1-1,-1 0,-1-1,1-1,15-13,-23 16,1 0,-1 0,0 0,0 0,-1-1,0 0,0 0,0 0,-1 0,0-1,-1 1,1-1,-1 0,-1 0,1-12,-1 12,1-12,-2 0,0 0,-1 0,-4-26,5 42,-1 0,0 1,0-1,0 0,0 1,-1-1,1 1,-1-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 1,-1 0,0-1,1 1,-1 1,-6-2,-88 4,47 1,26-2</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink98.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:29:24.111"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 47,'2'-1,"0"1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,2-3,21-11,-3 10,1 1,-1 0,36 0,-46 3,0 1,0 1,0 0,0 0,0 2,0-1,0 1,16 7,-24-8,-1 0,0 1,0-1,0 0,0 1,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,-1 1,1 0,-1-1,0 1,1 5,0 8,0 0,-2 0,0 20,-1-11,2 43,1-30,-2 0,-1 0,-9 47,9-83,0 0,1 0,-2 0,1-1,0 1,0-1,-1 1,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,-4 2,0 0,0 0,-1 0,1-1,-1 0,1-1,-1 0,-11 1,3-1,0-1,1-1,-1 0,0-1,1 0,-25-8,28 6,4 2,0 0,1-1,-1 0,1 0,-1 0,-7-7,12 9,1 0,0-1,0 1,0-1,-1 1,1-1,1 0,-1 1,0-1,0 0,1 1,-1-1,1 0,-1 0,1 0,0 1,-1-1,1 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,1 1,1-4,1 0,0-1,0 1,0 0,1 0,0 0,0 0,0 1,0 0,1-1,0 2,-1-1,2 0,-1 1,0 0,1 0,-1 1,1-1,0 1,9-2,-8 3,1-1,-1 1,1 0,0 1,-1 0,1 0,-1 1,1 0,-1 0,1 0,-1 1,1 0,-1 1,0 0,10 5,71 55,-68-46,1-2,0 0,43 21,45 18,-107-53,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 1,-1-1,1 1,-1 0,1 0,-1-1,0 1,0 0,1 0,-2 0,1 0,0 1,0-1,0 4,4 15</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink99.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-03-28T18:29:27.994"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">703 1,'-631'663,"617"-649,5-7,1 2,0-1,1 1,0 0,-8 13,15-21,-1 0,1-1,0 1,-1 0,1-1,0 1,0 0,-1-1,1 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,1 0,-1-1,0 1,0 0,1-1,-1 1,0 0,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,-1 1,1-1,0 0,-1 1,1-1,0 0,0 1,-1-1,2 0,40 5,-35-5,35 5,-2 0,1 3,-1 2,0 1,-1 2,49 23,-14-8,90 23,-143-46,1 0,1-2,32 2,-32-5</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18760,17 +16573,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC052A5-577B-46A4-953B-B5166C53FDA8}">
   <dimension ref="A13:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G42" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T55" sqref="T55"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="19" max="19" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="28" width="3.140625" customWidth="1"/>
+    <col min="26" max="28" width="3.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -18795,7 +16608,7 @@
         <v>-18.624325988303401</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="T14" t="s">
         <v>5</v>
       </c>
@@ -18813,7 +16626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="U15">
         <f>U14/O13</f>
         <v>-3.0496949456077096</v>
@@ -18830,7 +16643,7 @@
         <v>-11.344865197660681</v>
       </c>
     </row>
-    <row r="25" spans="26:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="26:28" x14ac:dyDescent="0.3">
       <c r="Z25" t="s">
         <v>0</v>
       </c>
@@ -18838,7 +16651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="26:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="26:28" x14ac:dyDescent="0.3">
       <c r="Z26">
         <f>100*SIN(RADIANS(45))</f>
         <v>70.710678118654741</v>
@@ -18851,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="26:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="26:28" x14ac:dyDescent="0.3">
       <c r="Z27">
         <v>1</v>
       </c>
@@ -18862,7 +16675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="19:20" x14ac:dyDescent="0.3">
       <c r="S54">
         <v>4.7</v>
       </c>
@@ -18870,7 +16683,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="55" spans="19:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="19:20" x14ac:dyDescent="0.3">
       <c r="T55">
         <f>910/13.8</f>
         <v>65.94202898550725</v>
@@ -18890,7 +16703,7 @@
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
